--- a/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
+++ b/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/Documents/Bacheloroppgave/Sea Eco AS/Del2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/RiderProjects/SeaEco/SeaEco.Server/wwwroot/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709951C0-B7C9-AB42-8CA5-0B3B0377C002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A9BA56-172C-8F41-82D3-C3B52A28DB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="186">
   <si>
     <t>St.nr.</t>
   </si>
@@ -605,9 +605,6 @@
     <t>Hardbunnsstasjoner</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -620,22 +617,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>SE25-BU-1</t>
-  </si>
-  <si>
     <t>Prosjekt:</t>
   </si>
   <si>
     <t>Dato:</t>
-  </si>
-  <si>
-    <t>29.08 og 16.09.2024</t>
-  </si>
-  <si>
-    <t>Feltdatoer</t>
-  </si>
-  <si>
-    <t>Prosjektet som inneholder f.eks 18 B-undersøkelser til hver stasjon</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2447,13 +2432,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2703,6 +2681,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4806,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9A826C-1207-43A0-B1E5-0610FD134460}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4819,35 +4801,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="166" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="174" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="175" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
+        <v>184</v>
+      </c>
+      <c r="B1" s="256"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="174" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="175" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
+        <v>185</v>
+      </c>
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="166" t="s">
@@ -4861,41 +4835,31 @@
       <c r="A5" s="168" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="169">
-        <v>18</v>
-      </c>
+      <c r="B5" s="169"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="168" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="169">
-        <v>22</v>
-      </c>
+      <c r="B6" s="169"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="168" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="169">
-        <v>3</v>
-      </c>
+      <c r="B7" s="169"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="168" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="169">
-        <v>16</v>
-      </c>
+      <c r="B8" s="169"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="168" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="169">
-        <v>15</v>
-      </c>
+      <c r="B9" s="169"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="166" t="s">
@@ -4909,57 +4873,43 @@
       <c r="A12" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="169">
-        <v>0</v>
-      </c>
+      <c r="B12" s="169"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="169">
-        <v>12.5</v>
-      </c>
+      <c r="B13" s="169"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="170" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="169">
-        <v>15</v>
-      </c>
+      <c r="B14" s="169"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="169">
-        <v>1</v>
-      </c>
+      <c r="B15" s="169"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="170" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="169">
-        <v>0</v>
-      </c>
+      <c r="B16" s="169"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="169">
-        <v>0.5</v>
-      </c>
+      <c r="B17" s="169"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="169">
-        <v>3</v>
-      </c>
+      <c r="B18" s="169"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="166" t="s">
@@ -4976,45 +4926,29 @@
       <c r="A21" s="170" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="169">
-        <v>5</v>
-      </c>
-      <c r="C21" s="169">
-        <v>3</v>
-      </c>
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="170" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="169">
-        <v>5</v>
-      </c>
-      <c r="C22" s="169" t="s">
-        <v>180</v>
-      </c>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="170" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="169">
-        <v>3</v>
-      </c>
-      <c r="C23" s="169" t="s">
-        <v>180</v>
-      </c>
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="169">
-        <v>5</v>
-      </c>
-      <c r="C24" s="169" t="s">
-        <v>180</v>
-      </c>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="166" t="s">
@@ -5031,36 +4965,27 @@
       <c r="A27" s="170" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="169">
-        <v>2.78</v>
-      </c>
-      <c r="C27" s="173">
-        <v>3</v>
-      </c>
+      <c r="B27" s="169"/>
+      <c r="C27" s="169"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="170" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="169">
-        <v>1.26</v>
-      </c>
-      <c r="C28" s="172">
-        <v>2</v>
-      </c>
+      <c r="B28" s="169"/>
+      <c r="C28" s="169"/>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="171" t="s">
         <v>171</v>
       </c>
-      <c r="B29" s="169">
-        <v>2.02</v>
-      </c>
-      <c r="C29" s="172">
-        <v>2</v>
-      </c>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5469,7 +5394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EE1091-9F45-40A9-90F5-6AF0F1D8D5C5}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -5486,70 +5411,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="206" t="s">
+      <c r="F1" s="203" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
       <c r="I1" s="6"/>
       <c r="J1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="207" t="s">
+      <c r="K1" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="207"/>
+      <c r="L1" s="204"/>
       <c r="M1" s="7"/>
       <c r="N1" s="8"/>
-      <c r="P1" s="204" t="s">
+      <c r="P1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
       <c r="S1" s="4"/>
       <c r="T1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="206" t="s">
+      <c r="U1" s="203" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="207" t="s">
+      <c r="Z1" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="AA1" s="207"/>
+      <c r="AA1" s="204"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="210" t="s">
+      <c r="F2" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
         <v>49</v>
@@ -5560,20 +5485,20 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="12"/>
-      <c r="P2" s="208" t="s">
+      <c r="P2" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10" t="s">
         <v>49</v>
@@ -5586,59 +5511,59 @@
       <c r="AC2" s="12"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="191" t="s">
+      <c r="D3" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
       <c r="N3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="211" t="s">
+      <c r="P3" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="213" t="s">
+      <c r="Q3" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="213" t="s">
+      <c r="R3" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="191" t="s">
+      <c r="S3" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="191"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="191"/>
-      <c r="AB3" s="191"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="188"/>
       <c r="AC3" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="212"/>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="14">
         <v>1</v>
       </c>
@@ -5670,9 +5595,9 @@
         <v>10</v>
       </c>
       <c r="N4" s="15"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="214"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="211"/>
       <c r="S4" s="14">
         <v>11</v>
       </c>
@@ -5706,11 +5631,11 @@
       <c r="AC4" s="15"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="217"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="214"/>
       <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
@@ -5742,11 +5667,11 @@
         <v>19</v>
       </c>
       <c r="N5" s="15"/>
-      <c r="P5" s="192" t="s">
+      <c r="P5" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="194"/>
+      <c r="Q5" s="190"/>
+      <c r="R5" s="191"/>
       <c r="S5" s="16" t="s">
         <v>7</v>
       </c>
@@ -6137,69 +6062,69 @@
     </row>
     <row r="12" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="195"/>
+      <c r="C12" s="192"/>
       <c r="D12" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N12" s="15"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="195" t="s">
+      <c r="Q12" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="195"/>
+      <c r="R12" s="192"/>
       <c r="S12" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="V12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="AA12" s="146"/>
       <c r="AB12" s="146"/>
@@ -6207,10 +6132,10 @@
     </row>
     <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="182"/>
+      <c r="C13" s="179"/>
       <c r="D13" s="33" t="s">
         <v>65</v>
       </c>
@@ -6225,12 +6150,12 @@
       <c r="M13" s="19"/>
       <c r="N13" s="15"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="182" t="s">
+      <c r="Q13" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="R13" s="182"/>
+      <c r="R13" s="179"/>
       <c r="S13" s="151" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
@@ -6262,10 +6187,10 @@
       <c r="J14" s="71">
         <v>14.33</v>
       </c>
-      <c r="K14" s="196" t="s">
+      <c r="K14" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="197"/>
+      <c r="L14" s="194"/>
       <c r="M14" s="73">
         <v>11.050666666666665</v>
       </c>
@@ -6288,10 +6213,10 @@
       <c r="Y14" s="36">
         <v>14.33</v>
       </c>
-      <c r="Z14" s="196" t="s">
+      <c r="Z14" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="AA14" s="197"/>
+      <c r="AA14" s="194"/>
       <c r="AB14" s="153">
         <v>11.050666666666665</v>
       </c>
@@ -6316,10 +6241,10 @@
       <c r="J15" s="71">
         <v>161.1</v>
       </c>
-      <c r="K15" s="196" t="s">
+      <c r="K15" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="197"/>
+      <c r="L15" s="194"/>
       <c r="M15" s="74"/>
       <c r="N15" s="15"/>
       <c r="P15" s="17"/>
@@ -6340,10 +6265,10 @@
       <c r="Y15" s="36">
         <v>161.1</v>
       </c>
-      <c r="Z15" s="196" t="s">
+      <c r="Z15" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="AA15" s="197"/>
+      <c r="AA15" s="194"/>
       <c r="AB15" s="152" t="s">
         <v>113</v>
       </c>
@@ -6383,7 +6308,7 @@
       <c r="A17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="195" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="39" t="s">
@@ -6423,7 +6348,7 @@
       <c r="P17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="198" t="s">
+      <c r="Q17" s="195" t="s">
         <v>74</v>
       </c>
       <c r="R17" s="39" t="s">
@@ -6463,7 +6388,7 @@
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="199"/>
+      <c r="B18" s="196"/>
       <c r="C18" s="44" t="s">
         <v>76</v>
       </c>
@@ -6499,7 +6424,7 @@
       </c>
       <c r="N18" s="15"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="199"/>
+      <c r="Q18" s="196"/>
       <c r="R18" s="44" t="s">
         <v>76</v>
       </c>
@@ -6537,7 +6462,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="195" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -6575,7 +6500,7 @@
       </c>
       <c r="N19" s="15"/>
       <c r="P19" s="17"/>
-      <c r="Q19" s="198" t="s">
+      <c r="Q19" s="195" t="s">
         <v>77</v>
       </c>
       <c r="R19" s="39" t="s">
@@ -6615,7 +6540,7 @@
     </row>
     <row r="20" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="199"/>
+      <c r="B20" s="196"/>
       <c r="C20" s="44" t="s">
         <v>79</v>
       </c>
@@ -6651,7 +6576,7 @@
       </c>
       <c r="N20" s="15"/>
       <c r="P20" s="17"/>
-      <c r="Q20" s="199"/>
+      <c r="Q20" s="196"/>
       <c r="R20" s="44" t="s">
         <v>79</v>
       </c>
@@ -6689,7 +6614,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
-      <c r="B21" s="198" t="s">
+      <c r="B21" s="195" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -6727,7 +6652,7 @@
       </c>
       <c r="N21" s="15"/>
       <c r="P21" s="17"/>
-      <c r="Q21" s="198" t="s">
+      <c r="Q21" s="195" t="s">
         <v>80</v>
       </c>
       <c r="R21" s="39" t="s">
@@ -6767,7 +6692,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
-      <c r="B22" s="200"/>
+      <c r="B22" s="197"/>
       <c r="C22" s="28" t="s">
         <v>82</v>
       </c>
@@ -6803,7 +6728,7 @@
       </c>
       <c r="N22" s="15"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="200"/>
+      <c r="Q22" s="197"/>
       <c r="R22" s="28" t="s">
         <v>82</v>
       </c>
@@ -6841,7 +6766,7 @@
     </row>
     <row r="23" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="199"/>
+      <c r="B23" s="196"/>
       <c r="C23" s="44" t="s">
         <v>83</v>
       </c>
@@ -6877,7 +6802,7 @@
       </c>
       <c r="N23" s="15"/>
       <c r="P23" s="17"/>
-      <c r="Q23" s="199"/>
+      <c r="Q23" s="196"/>
       <c r="R23" s="44" t="s">
         <v>83</v>
       </c>
@@ -6915,7 +6840,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="198" t="s">
+      <c r="B24" s="195" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="39" t="s">
@@ -6953,7 +6878,7 @@
       </c>
       <c r="N24" s="15"/>
       <c r="P24" s="17"/>
-      <c r="Q24" s="198" t="s">
+      <c r="Q24" s="195" t="s">
         <v>84</v>
       </c>
       <c r="R24" s="39" t="s">
@@ -6993,7 +6918,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="200"/>
+      <c r="B25" s="197"/>
       <c r="C25" s="28" t="s">
         <v>86</v>
       </c>
@@ -7029,7 +6954,7 @@
       </c>
       <c r="N25" s="15"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="200"/>
+      <c r="Q25" s="197"/>
       <c r="R25" s="28" t="s">
         <v>86</v>
       </c>
@@ -7067,7 +6992,7 @@
     </row>
     <row r="26" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="199"/>
+      <c r="B26" s="196"/>
       <c r="C26" s="44" t="s">
         <v>87</v>
       </c>
@@ -7103,7 +7028,7 @@
       </c>
       <c r="N26" s="15"/>
       <c r="P26" s="17"/>
-      <c r="Q26" s="199"/>
+      <c r="Q26" s="196"/>
       <c r="R26" s="44" t="s">
         <v>87</v>
       </c>
@@ -7177,7 +7102,7 @@
       </c>
       <c r="N27" s="15"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="201" t="s">
+      <c r="Q27" s="198" t="s">
         <v>89</v>
       </c>
       <c r="R27" s="39" t="s">
@@ -7255,7 +7180,7 @@
       </c>
       <c r="N28" s="15"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="202"/>
+      <c r="Q28" s="199"/>
       <c r="R28" s="28" t="s">
         <v>90</v>
       </c>
@@ -7329,7 +7254,7 @@
       </c>
       <c r="N29" s="15"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="203"/>
+      <c r="Q29" s="200"/>
       <c r="R29" s="44" t="s">
         <v>91</v>
       </c>
@@ -7367,7 +7292,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="185" t="s">
         <v>92</v>
       </c>
       <c r="C30" s="39" t="s">
@@ -7405,7 +7330,7 @@
       </c>
       <c r="N30" s="15"/>
       <c r="P30" s="17"/>
-      <c r="Q30" s="188" t="s">
+      <c r="Q30" s="185" t="s">
         <v>92</v>
       </c>
       <c r="R30" s="39" t="s">
@@ -7445,7 +7370,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="189"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="28" t="s">
         <v>94</v>
       </c>
@@ -7481,7 +7406,7 @@
       </c>
       <c r="N31" s="50"/>
       <c r="P31" s="17"/>
-      <c r="Q31" s="189"/>
+      <c r="Q31" s="186"/>
       <c r="R31" s="28" t="s">
         <v>94</v>
       </c>
@@ -7519,7 +7444,7 @@
     </row>
     <row r="32" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="190"/>
+      <c r="B32" s="187"/>
       <c r="C32" s="44" t="s">
         <v>95</v>
       </c>
@@ -7555,7 +7480,7 @@
       </c>
       <c r="N32" s="15"/>
       <c r="P32" s="17"/>
-      <c r="Q32" s="190"/>
+      <c r="Q32" s="187"/>
       <c r="R32" s="44" t="s">
         <v>95</v>
       </c>
@@ -7593,10 +7518,10 @@
     </row>
     <row r="33" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="51">
         <v>7</v>
       </c>
@@ -7629,10 +7554,10 @@
       </c>
       <c r="N33" s="15"/>
       <c r="P33" s="17"/>
-      <c r="Q33" s="182" t="s">
+      <c r="Q33" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="R33" s="183"/>
+      <c r="R33" s="180"/>
       <c r="S33" s="51">
         <v>0</v>
       </c>
@@ -7663,10 +7588,10 @@
     </row>
     <row r="34" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="182"/>
+      <c r="C34" s="179"/>
       <c r="D34" s="52">
         <v>1.54</v>
       </c>
@@ -7701,10 +7626,10 @@
         <v>65</v>
       </c>
       <c r="P34" s="17"/>
-      <c r="Q34" s="182" t="s">
+      <c r="Q34" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="R34" s="182"/>
+      <c r="R34" s="179"/>
       <c r="S34" s="52">
         <v>0</v>
       </c>
@@ -7737,69 +7662,69 @@
     </row>
     <row r="35" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="183"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="N35" s="15"/>
       <c r="P35" s="17"/>
-      <c r="Q35" s="182" t="s">
+      <c r="Q35" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="R35" s="183"/>
+      <c r="R35" s="180"/>
       <c r="S35" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="X35" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="Y35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z35" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="AA35" s="146"/>
       <c r="AB35" s="146"/>
@@ -7807,10 +7732,10 @@
     </row>
     <row r="36" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="182"/>
+      <c r="C36" s="179"/>
       <c r="D36" s="33" t="s">
         <v>65</v>
       </c>
@@ -7825,12 +7750,12 @@
       <c r="M36" s="19"/>
       <c r="N36" s="15"/>
       <c r="P36" s="17"/>
-      <c r="Q36" s="182" t="s">
+      <c r="Q36" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="R36" s="182"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
@@ -7954,34 +7879,34 @@
       </c>
       <c r="C39" s="55"/>
       <c r="D39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N39" s="15"/>
       <c r="P39" s="54"/>
@@ -7990,28 +7915,28 @@
       </c>
       <c r="R39" s="55"/>
       <c r="S39" s="162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T39" s="162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U39" s="162" t="s">
+        <v>181</v>
+      </c>
+      <c r="V39" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="V39" s="162" t="s">
+      <c r="W39" s="162" t="s">
+        <v>181</v>
+      </c>
+      <c r="X39" s="162" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y39" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="W39" s="162" t="s">
+      <c r="Z39" s="162" t="s">
         <v>182</v>
-      </c>
-      <c r="X39" s="162" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y39" s="162" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z39" s="162" t="s">
-        <v>183</v>
       </c>
       <c r="AA39" s="163"/>
       <c r="AB39" s="163"/>
@@ -8049,10 +7974,10 @@
     </row>
     <row r="41" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
-      <c r="B41" s="184" t="s">
+      <c r="B41" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="185"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="58" t="s">
         <v>102</v>
       </c>
@@ -8071,10 +7996,10 @@
       <c r="M41" s="10"/>
       <c r="N41" s="12"/>
       <c r="P41" s="56"/>
-      <c r="Q41" s="184" t="s">
+      <c r="Q41" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="R41" s="185"/>
+      <c r="R41" s="182"/>
       <c r="S41" s="58" t="s">
         <v>102</v>
       </c>
@@ -8087,7 +8012,7 @@
       </c>
       <c r="Y41" s="10"/>
       <c r="Z41" s="164" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
@@ -8095,10 +8020,10 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
-      <c r="B42" s="186" t="s">
+      <c r="B42" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="187"/>
+      <c r="C42" s="184"/>
       <c r="D42" s="59"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8111,10 +8036,10 @@
       <c r="M42" s="9"/>
       <c r="N42" s="12"/>
       <c r="P42" s="56"/>
-      <c r="Q42" s="186" t="s">
+      <c r="Q42" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="R42" s="187"/>
+      <c r="R42" s="184"/>
       <c r="S42" s="59"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
@@ -8129,10 +8054,10 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
-      <c r="B43" s="178" t="s">
+      <c r="B43" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="179"/>
+      <c r="C43" s="176"/>
       <c r="D43" s="60">
         <v>1</v>
       </c>
@@ -8147,10 +8072,10 @@
       <c r="M43" s="9"/>
       <c r="N43" s="12"/>
       <c r="P43" s="56"/>
-      <c r="Q43" s="178" t="s">
+      <c r="Q43" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="R43" s="179"/>
+      <c r="R43" s="176"/>
       <c r="S43" s="60">
         <v>1</v>
       </c>
@@ -8167,10 +8092,10 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
-      <c r="B44" s="178" t="s">
+      <c r="B44" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="179"/>
+      <c r="C44" s="176"/>
       <c r="D44" s="61">
         <v>2</v>
       </c>
@@ -8185,10 +8110,10 @@
       <c r="M44" s="9"/>
       <c r="N44" s="12"/>
       <c r="P44" s="56"/>
-      <c r="Q44" s="178" t="s">
+      <c r="Q44" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="R44" s="179"/>
+      <c r="R44" s="176"/>
       <c r="S44" s="61">
         <v>2</v>
       </c>
@@ -8205,10 +8130,10 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
-      <c r="B45" s="178" t="s">
+      <c r="B45" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="179"/>
+      <c r="C45" s="176"/>
       <c r="D45" s="62">
         <v>3</v>
       </c>
@@ -8223,10 +8148,10 @@
       <c r="M45" s="9"/>
       <c r="N45" s="63"/>
       <c r="P45" s="56"/>
-      <c r="Q45" s="178" t="s">
+      <c r="Q45" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="R45" s="179"/>
+      <c r="R45" s="176"/>
       <c r="S45" s="62">
         <v>3</v>
       </c>
@@ -8243,10 +8168,10 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
-      <c r="B46" s="180" t="s">
+      <c r="B46" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="181"/>
+      <c r="C46" s="178"/>
       <c r="D46" s="64">
         <v>4</v>
       </c>
@@ -8261,10 +8186,10 @@
       <c r="M46" s="9"/>
       <c r="N46" s="63"/>
       <c r="P46" s="56"/>
-      <c r="Q46" s="180" t="s">
+      <c r="Q46" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="R46" s="181"/>
+      <c r="R46" s="178"/>
       <c r="S46" s="64">
         <v>4</v>
       </c>
@@ -9288,19 +9213,19 @@
       <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="203" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="241" t="s">
+      <c r="I1" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="241"/>
+      <c r="J1" s="238"/>
       <c r="K1" s="76"/>
       <c r="L1" s="104"/>
       <c r="N1" s="75" t="s">
@@ -9310,19 +9235,19 @@
       <c r="P1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="206" t="s">
+      <c r="Q1" s="203" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="206"/>
-      <c r="S1" s="206"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="241" t="s">
+      <c r="V1" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="241"/>
+      <c r="W1" s="238"/>
       <c r="X1" s="76"/>
       <c r="Y1" s="104"/>
     </row>
@@ -9334,11 +9259,11 @@
       <c r="C2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="242" t="s">
+      <c r="D2" s="239" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10" t="s">
         <v>116</v>
@@ -9356,11 +9281,11 @@
       <c r="P2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="242" t="s">
+      <c r="Q2" s="239" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="242"/>
-      <c r="S2" s="242"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10" t="s">
         <v>145</v>
@@ -9373,42 +9298,42 @@
       <c r="Y2" s="105"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="240" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="241"/>
+      <c r="C3" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="248"/>
-      <c r="N3" s="243" t="s">
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="245"/>
+      <c r="N3" s="240" t="s">
         <v>117</v>
       </c>
-      <c r="O3" s="244"/>
-      <c r="P3" s="247" t="s">
+      <c r="O3" s="241"/>
+      <c r="P3" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="248"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="245"/>
     </row>
     <row r="4" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="243"/>
-      <c r="B4" s="244"/>
+      <c r="A4" s="240"/>
+      <c r="B4" s="241"/>
       <c r="C4" s="79">
         <v>1</v>
       </c>
@@ -9439,8 +9364,8 @@
       <c r="L4" s="106">
         <v>10</v>
       </c>
-      <c r="N4" s="245"/>
-      <c r="O4" s="246"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="243"/>
       <c r="P4" s="79">
         <v>11</v>
       </c>
@@ -9473,10 +9398,10 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="233"/>
+      <c r="B5" s="230"/>
       <c r="C5" s="82" t="s">
         <v>5</v>
       </c>
@@ -9507,10 +9432,10 @@
       <c r="L5" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="249" t="s">
+      <c r="N5" s="246" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="250"/>
+      <c r="O5" s="247"/>
       <c r="P5" s="107" t="s">
         <v>28</v>
       </c>
@@ -9539,10 +9464,10 @@
       <c r="Y5" s="110"/>
     </row>
     <row r="6" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="233"/>
+      <c r="B6" s="230"/>
       <c r="C6" s="85" t="s">
         <v>6</v>
       </c>
@@ -9573,10 +9498,10 @@
       <c r="L6" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="249" t="s">
+      <c r="N6" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="O6" s="250"/>
+      <c r="O6" s="247"/>
       <c r="P6" s="89" t="s">
         <v>29</v>
       </c>
@@ -9605,10 +9530,10 @@
       <c r="Y6" s="112"/>
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="233"/>
+      <c r="B7" s="230"/>
       <c r="C7" s="85">
         <v>105</v>
       </c>
@@ -9639,10 +9564,10 @@
       <c r="L7" s="135">
         <v>121</v>
       </c>
-      <c r="N7" s="251" t="s">
+      <c r="N7" s="248" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="252"/>
+      <c r="O7" s="249"/>
       <c r="P7" s="89">
         <v>105</v>
       </c>
@@ -9671,10 +9596,10 @@
       <c r="Y7" s="115"/>
     </row>
     <row r="8" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="232" t="s">
+      <c r="A8" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="233"/>
+      <c r="B8" s="230"/>
       <c r="C8" s="88">
         <v>1</v>
       </c>
@@ -9705,10 +9630,10 @@
       <c r="L8" s="142">
         <v>2</v>
       </c>
-      <c r="N8" s="230" t="s">
+      <c r="N8" s="227" t="s">
         <v>122</v>
       </c>
-      <c r="O8" s="231"/>
+      <c r="O8" s="228"/>
       <c r="P8" s="88">
         <v>1</v>
       </c>
@@ -9741,10 +9666,10 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="232" t="s">
+      <c r="A9" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="233"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="90" t="s">
         <v>113</v>
       </c>
@@ -9775,10 +9700,10 @@
       <c r="L9" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="N9" s="232" t="s">
+      <c r="N9" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="O9" s="233"/>
+      <c r="O9" s="230"/>
       <c r="P9" s="90" t="s">
         <v>113</v>
       </c>
@@ -9811,37 +9736,37 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="257"/>
-      <c r="B10" s="258"/>
-      <c r="C10" s="234" t="s">
+      <c r="A10" s="254"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="231"/>
+      <c r="L10" s="232"/>
       <c r="N10" s="144"/>
       <c r="O10" s="145"/>
-      <c r="P10" s="234" t="s">
+      <c r="P10" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="Q10" s="234"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="234"/>
-      <c r="W10" s="234"/>
-      <c r="X10" s="234"/>
-      <c r="Y10" s="235"/>
+      <c r="Q10" s="231"/>
+      <c r="R10" s="231"/>
+      <c r="S10" s="231"/>
+      <c r="T10" s="231"/>
+      <c r="U10" s="231"/>
+      <c r="V10" s="231"/>
+      <c r="W10" s="231"/>
+      <c r="X10" s="231"/>
+      <c r="Y10" s="232"/>
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="236" t="s">
+      <c r="A11" s="233" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="81" t="s">
@@ -9877,7 +9802,7 @@
       <c r="L11" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="N11" s="236" t="s">
+      <c r="N11" s="233" t="s">
         <v>125</v>
       </c>
       <c r="O11" s="81" t="s">
@@ -9915,7 +9840,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="237"/>
+      <c r="A12" s="234"/>
       <c r="B12" s="81" t="s">
         <v>127</v>
       </c>
@@ -9949,7 +9874,7 @@
       <c r="L12" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="N12" s="237"/>
+      <c r="N12" s="234"/>
       <c r="O12" s="81" t="s">
         <v>127</v>
       </c>
@@ -9985,7 +9910,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="237"/>
+      <c r="A13" s="234"/>
       <c r="B13" s="81" t="s">
         <v>128</v>
       </c>
@@ -10019,7 +9944,7 @@
       <c r="L13" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="N13" s="237"/>
+      <c r="N13" s="234"/>
       <c r="O13" s="81" t="s">
         <v>128</v>
       </c>
@@ -10055,7 +9980,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="237"/>
+      <c r="A14" s="234"/>
       <c r="B14" s="81" t="s">
         <v>129</v>
       </c>
@@ -10089,7 +10014,7 @@
       <c r="L14" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="N14" s="237"/>
+      <c r="N14" s="234"/>
       <c r="O14" s="81" t="s">
         <v>129</v>
       </c>
@@ -10125,7 +10050,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="238"/>
+      <c r="A15" s="235"/>
       <c r="B15" s="81" t="s">
         <v>130</v>
       </c>
@@ -10159,7 +10084,7 @@
       <c r="L15" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="N15" s="238"/>
+      <c r="N15" s="235"/>
       <c r="O15" s="81" t="s">
         <v>130</v>
       </c>
@@ -10195,10 +10120,10 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="229" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="233"/>
+      <c r="B16" s="230"/>
       <c r="C16" s="92" t="s">
         <v>113</v>
       </c>
@@ -10229,10 +10154,10 @@
       <c r="L16" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="N16" s="232" t="s">
+      <c r="N16" s="229" t="s">
         <v>131</v>
       </c>
-      <c r="O16" s="233"/>
+      <c r="O16" s="230"/>
       <c r="P16" s="92" t="s">
         <v>113</v>
       </c>
@@ -10265,10 +10190,10 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="232" t="s">
+      <c r="A17" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="233"/>
+      <c r="B17" s="230"/>
       <c r="C17" s="93" t="s">
         <v>113</v>
       </c>
@@ -10299,10 +10224,10 @@
       <c r="L17" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="N17" s="232" t="s">
+      <c r="N17" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="O17" s="233"/>
+      <c r="O17" s="230"/>
       <c r="P17" s="93" t="s">
         <v>113</v>
       </c>
@@ -10335,40 +10260,40 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="255"/>
-      <c r="B18" s="256"/>
-      <c r="C18" s="226" t="s">
+      <c r="A18" s="252"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="226"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="227"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="224"/>
       <c r="N18" s="56"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="226" t="s">
+      <c r="P18" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="Q18" s="226"/>
-      <c r="R18" s="226"/>
-      <c r="S18" s="226"/>
-      <c r="T18" s="226"/>
-      <c r="U18" s="226"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="226"/>
-      <c r="Y18" s="227"/>
+      <c r="Q18" s="223"/>
+      <c r="R18" s="223"/>
+      <c r="S18" s="223"/>
+      <c r="T18" s="223"/>
+      <c r="U18" s="223"/>
+      <c r="V18" s="223"/>
+      <c r="W18" s="223"/>
+      <c r="X18" s="223"/>
+      <c r="Y18" s="224"/>
     </row>
     <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="220" t="s">
+      <c r="A19" s="217" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="221"/>
+      <c r="B19" s="218"/>
       <c r="C19" s="82" t="s">
         <v>113</v>
       </c>
@@ -10399,10 +10324,10 @@
       <c r="L19" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="220" t="s">
+      <c r="N19" s="217" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="221"/>
+      <c r="O19" s="218"/>
       <c r="P19" s="82" t="s">
         <v>113</v>
       </c>
@@ -10435,10 +10360,10 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="220" t="s">
+      <c r="A20" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="221"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="92" t="s">
         <v>113</v>
       </c>
@@ -10469,10 +10394,10 @@
       <c r="L20" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="220" t="s">
+      <c r="N20" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="O20" s="221"/>
+      <c r="O20" s="218"/>
       <c r="P20" s="92" t="s">
         <v>113</v>
       </c>
@@ -10505,10 +10430,10 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="217" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="221"/>
+      <c r="B21" s="218"/>
       <c r="C21" s="92" t="s">
         <v>113</v>
       </c>
@@ -10539,10 +10464,10 @@
       <c r="L21" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="N21" s="220" t="s">
+      <c r="N21" s="217" t="s">
         <v>136</v>
       </c>
-      <c r="O21" s="221"/>
+      <c r="O21" s="218"/>
       <c r="P21" s="92" t="s">
         <v>113</v>
       </c>
@@ -10575,10 +10500,10 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="220" t="s">
+      <c r="A22" s="217" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="221"/>
+      <c r="B22" s="218"/>
       <c r="C22" s="92">
         <v>20</v>
       </c>
@@ -10609,10 +10534,10 @@
       <c r="L22" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="N22" s="220" t="s">
+      <c r="N22" s="217" t="s">
         <v>137</v>
       </c>
-      <c r="O22" s="221"/>
+      <c r="O22" s="218"/>
       <c r="P22" s="92" t="s">
         <v>148</v>
       </c>
@@ -10645,10 +10570,10 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="174" t="s">
         <v>139</v>
       </c>
       <c r="C23" s="98"/>
@@ -10679,10 +10604,10 @@
       <c r="Y23" s="129"/>
     </row>
     <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="228" t="s">
+      <c r="A24" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="229"/>
+      <c r="B24" s="226"/>
       <c r="C24" s="92" t="s">
         <v>113</v>
       </c>
@@ -10713,10 +10638,10 @@
       <c r="L24" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="N24" s="228" t="s">
+      <c r="N24" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="O24" s="229"/>
+      <c r="O24" s="226"/>
       <c r="P24" s="92" t="s">
         <v>113</v>
       </c>
@@ -10749,10 +10674,10 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="222" t="s">
+      <c r="A25" s="219" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="223"/>
+      <c r="B25" s="220"/>
       <c r="C25" s="92" t="s">
         <v>113</v>
       </c>
@@ -10783,10 +10708,10 @@
       <c r="L25" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="N25" s="220" t="s">
+      <c r="N25" s="217" t="s">
         <v>141</v>
       </c>
-      <c r="O25" s="221"/>
+      <c r="O25" s="218"/>
       <c r="P25" s="92" t="s">
         <v>113</v>
       </c>
@@ -10819,10 +10744,10 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="253" t="s">
+      <c r="A26" s="250" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="254"/>
+      <c r="B26" s="251"/>
       <c r="C26" s="100" t="s">
         <v>113</v>
       </c>
@@ -10853,10 +10778,10 @@
       <c r="L26" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="N26" s="222" t="s">
+      <c r="N26" s="219" t="s">
         <v>142</v>
       </c>
-      <c r="O26" s="223"/>
+      <c r="O26" s="220"/>
       <c r="P26" s="100" t="s">
         <v>113</v>
       </c>
@@ -10889,10 +10814,10 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="83.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="224" t="s">
+      <c r="A27" s="221" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="239"/>
+      <c r="B27" s="236"/>
       <c r="C27" s="102" t="s">
         <v>150</v>
       </c>
@@ -10923,10 +10848,10 @@
       <c r="L27" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="N27" s="224" t="s">
+      <c r="N27" s="221" t="s">
         <v>143</v>
       </c>
-      <c r="O27" s="225"/>
+      <c r="O27" s="222"/>
       <c r="P27" s="103" t="s">
         <v>158</v>
       </c>
@@ -10959,8 +10884,8 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="240"/>
-      <c r="B28" s="240"/>
+      <c r="A28" s="237"/>
+      <c r="B28" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -11034,6 +10959,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
@@ -11044,7 +10978,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006D53F4C8D732D844AE7D882D8C27E66C" ma:contentTypeVersion="18" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="70bbe916ee44c898308fc52b233fdc6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d274541-22b4-4212-af6c-71d9850896b1" xmlns:ns3="d699723c-6030-48dd-835b-9dac49e7a8e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e6162704bbcf8652c04252123e2ebc" ns2:_="" ns3:_="">
     <xsd:import namespace="2d274541-22b4-4212-af6c-71d9850896b1"/>
@@ -11299,16 +11233,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11319,7 +11252,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE067A7-9A28-427F-B4BA-DF647AB143B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11336,12 +11269,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
+++ b/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/RiderProjects/SeaEco/SeaEco.Server/wwwroot/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A9BA56-172C-8F41-82D3-C3B52A28DB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE20AC0-29EF-B047-98C8-1FB4AB68D394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="126">
   <si>
     <t>St.nr.</t>
   </si>
@@ -55,120 +55,6 @@
   </si>
   <si>
     <t>Ant. forsøk på prøvetaking</t>
-  </si>
-  <si>
-    <t>68°46.774</t>
-  </si>
-  <si>
-    <t>17°16.994</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>68°46.798</t>
-  </si>
-  <si>
-    <t>17°16.912</t>
-  </si>
-  <si>
-    <t>68°46.822</t>
-  </si>
-  <si>
-    <t>17°16.832</t>
-  </si>
-  <si>
-    <t>H/B</t>
-  </si>
-  <si>
-    <t>68°46.843</t>
-  </si>
-  <si>
-    <t>17°16.753</t>
-  </si>
-  <si>
-    <t>68°46.867</t>
-  </si>
-  <si>
-    <t>17°16.670</t>
-  </si>
-  <si>
-    <t>68°46.891</t>
-  </si>
-  <si>
-    <t>17°16.681</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>68°46.916</t>
-  </si>
-  <si>
-    <t>17°16.730</t>
-  </si>
-  <si>
-    <t>68°46.914</t>
-  </si>
-  <si>
-    <t>17°16.800</t>
-  </si>
-  <si>
-    <t>68°46.897</t>
-  </si>
-  <si>
-    <t>17°16.869</t>
-  </si>
-  <si>
-    <t>68°46.873</t>
-  </si>
-  <si>
-    <t>17°16.954</t>
-  </si>
-  <si>
-    <t>68°46.851</t>
-  </si>
-  <si>
-    <t>17°17.036</t>
-  </si>
-  <si>
-    <t>68°46.825</t>
-  </si>
-  <si>
-    <t>17°17.112</t>
-  </si>
-  <si>
-    <t>68°46.747</t>
-  </si>
-  <si>
-    <t>17°17.087</t>
-  </si>
-  <si>
-    <t>68°46.793</t>
-  </si>
-  <si>
-    <t>17°17.056</t>
-  </si>
-  <si>
-    <t>68°46.818</t>
-  </si>
-  <si>
-    <t>17°16.970</t>
-  </si>
-  <si>
-    <t>68°46.842</t>
-  </si>
-  <si>
-    <t>17°16.891</t>
-  </si>
-  <si>
-    <t>68°46.848</t>
-  </si>
-  <si>
-    <t>17°16.957</t>
-  </si>
-  <si>
-    <t>17°16.802</t>
   </si>
   <si>
     <t>Hard (H)/ 
@@ -394,15 +280,6 @@
     <t>&gt;= 3,1</t>
   </si>
   <si>
-    <t>Gratanglaks AS</t>
-  </si>
-  <si>
-    <t>Myrlandshaug</t>
-  </si>
-  <si>
-    <t>29.08 og 16.09 2024</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -500,51 +377,6 @@
   </si>
   <si>
     <t>Lokalitetsnr.:</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>(x)</t>
-  </si>
-  <si>
-    <t>50+</t>
-  </si>
-  <si>
-    <t>30+</t>
-  </si>
-  <si>
-    <t>Prøvetatt 28/08. Litt slam, rester av anleggsrens, terrestrisk materiale, detritus</t>
-  </si>
-  <si>
-    <t>Prøvetatt 28/08. Litt slam, rester av for, rester av anleggsrens, detritus</t>
-  </si>
-  <si>
-    <t>Prøvetatt 28/08. pH/Eh målt i liten boks, stein i åpningen av grabb, detritus</t>
-  </si>
-  <si>
-    <t>Prøvetatt 28/08. Rester av anleggsrens, detritus</t>
-  </si>
-  <si>
-    <t>Rester av anleggsrens, terrestrisk materiale</t>
-  </si>
-  <si>
-    <t>Slamlag, noe lukt. Ikke nok sediment til å måle pH/Eh</t>
-  </si>
-  <si>
-    <t>Dårlig prøve. Rester av anleggsrens, terrestrisk materiale</t>
-  </si>
-  <si>
-    <t>Litt slam</t>
-  </si>
-  <si>
-    <t>Rester av anleggsrens, terrestrisk materiale, detritus</t>
-  </si>
-  <si>
-    <t>Terrestrisk materiale, rester av anleggsrens</t>
-  </si>
-  <si>
-    <t>Detritus, terrestrisk materiale, rester av anleggsrens</t>
   </si>
   <si>
     <t>Beskrivelse</t>
@@ -603,18 +435,6 @@
   </si>
   <si>
     <t>Hardbunnsstasjoner</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Prosjekt:</t>
@@ -791,8 +611,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
       <name val="Arial Nova Cond"/>
       <family val="2"/>
     </font>
@@ -1959,7 +1778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2241,82 +2060,8 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2433,11 +2178,92 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2676,15 +2502,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4788,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9A826C-1207-43A0-B1E5-0610FD134460}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4800,191 +4628,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="166" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
+      <c r="A1" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="166" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="A2" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="166" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="167" t="s">
-        <v>162</v>
+      <c r="A4" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="143" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="168" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="169"/>
+      <c r="A5" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="145"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="169"/>
+      <c r="A6" s="144" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="145"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="168" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="169"/>
+      <c r="A7" s="144" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="145"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="168" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="169"/>
+      <c r="A8" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="145"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="168" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="169"/>
+      <c r="A9" s="144" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="145"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="166" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="167" t="s">
-        <v>167</v>
+      <c r="A11" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="143" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="170" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="169"/>
+      <c r="A12" s="146" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="145"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="170" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="169"/>
+      <c r="A13" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="145"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="170" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="169"/>
+      <c r="A14" s="146" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="145"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="170" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="169"/>
+      <c r="A15" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="145"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="170" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="169"/>
+      <c r="A16" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="145"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="170" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="169"/>
+      <c r="A17" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="145"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="170" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="169"/>
+      <c r="A18" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="145"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="166" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="167" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="167" t="s">
-        <v>177</v>
+      <c r="A20" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="170" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
+      <c r="A21" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="170" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
+      <c r="A22" s="146" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
+      <c r="A23" s="146" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="170" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
+      <c r="A24" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="166" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="167" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="167" t="s">
-        <v>102</v>
+      <c r="A26" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="143" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="170" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="169"/>
-      <c r="C27" s="169"/>
+      <c r="A27" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="170" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
+      <c r="A28" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
+      <c r="A29" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4993,10 +4820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5022,368 +4849,208 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="165" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="165">
-        <v>105</v>
-      </c>
-      <c r="E2" s="165">
-        <v>1</v>
-      </c>
-      <c r="F2" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="165" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="165">
-        <v>105</v>
-      </c>
-      <c r="E3" s="165">
-        <v>1</v>
-      </c>
-      <c r="F3" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="165" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="165" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="165">
-        <v>110</v>
-      </c>
-      <c r="E4" s="165">
-        <v>1</v>
-      </c>
-      <c r="F4" s="165" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="165" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="165">
-        <v>121</v>
-      </c>
-      <c r="E5" s="165">
-        <v>1</v>
-      </c>
-      <c r="F5" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="165">
-        <v>142</v>
-      </c>
-      <c r="E6" s="165">
-        <v>1</v>
-      </c>
-      <c r="F6" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="165" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="165">
-        <v>146</v>
-      </c>
-      <c r="E7" s="165">
-        <v>2</v>
-      </c>
-      <c r="F7" s="165" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="165" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="165">
-        <v>153</v>
-      </c>
-      <c r="E8" s="165">
-        <v>1</v>
-      </c>
-      <c r="F8" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="165" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="165" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="165">
-        <v>149</v>
-      </c>
-      <c r="E9" s="165">
-        <v>1</v>
-      </c>
-      <c r="F9" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="165" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="165">
-        <v>145</v>
-      </c>
-      <c r="E10" s="165">
-        <v>1</v>
-      </c>
-      <c r="F10" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="165" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="165">
-        <v>121</v>
-      </c>
-      <c r="E11" s="165">
-        <v>2</v>
-      </c>
-      <c r="F11" s="165" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="165" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="165" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="165">
-        <v>105</v>
-      </c>
-      <c r="E12" s="165">
-        <v>1</v>
-      </c>
-      <c r="F12" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="165" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="165" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="165">
-        <v>109</v>
-      </c>
-      <c r="E13" s="165">
-        <v>2</v>
-      </c>
-      <c r="F13" s="165" t="s">
-        <v>19</v>
-      </c>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="165" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="165">
-        <v>98</v>
-      </c>
-      <c r="E14" s="165">
-        <v>1</v>
-      </c>
-      <c r="F14" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="165" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="165">
-        <v>107</v>
-      </c>
-      <c r="E15" s="165">
-        <v>1</v>
-      </c>
-      <c r="F15" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="165" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="165" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="165">
-        <v>106</v>
-      </c>
-      <c r="E16" s="165">
-        <v>1</v>
-      </c>
-      <c r="F16" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="165" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="165" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="165">
-        <v>109</v>
-      </c>
-      <c r="E17" s="165">
-        <v>1</v>
-      </c>
-      <c r="F17" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="165" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="165" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="165">
-        <v>107</v>
-      </c>
-      <c r="E18" s="165">
-        <v>1</v>
-      </c>
-      <c r="F18" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="165" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="165">
-        <v>133</v>
-      </c>
-      <c r="E19" s="165">
-        <v>2</v>
-      </c>
-      <c r="F19" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5394,8 +5061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EE1091-9F45-40A9-90F5-6AF0F1D8D5C5}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5411,159 +5078,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="201" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
+      <c r="A1" s="204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="203" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
+        <v>7</v>
+      </c>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
       <c r="I1" s="6"/>
       <c r="J1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="204" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="204"/>
+        <v>8</v>
+      </c>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
       <c r="M1" s="7"/>
       <c r="N1" s="8"/>
-      <c r="P1" s="201" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
+      <c r="P1" s="204" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="205"/>
       <c r="S1" s="4"/>
       <c r="T1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="203" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
+        <v>7</v>
+      </c>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="204" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="204"/>
+        <v>8</v>
+      </c>
+      <c r="Z1" s="207"/>
+      <c r="AA1" s="207"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="215" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
+      <c r="A2" s="218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="207" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
+        <v>10</v>
+      </c>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="11">
-        <v>11332</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="K2" s="11"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="12"/>
-      <c r="P2" s="205" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
+      <c r="P2" s="208" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
       <c r="S2" s="9"/>
       <c r="T2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="207" t="s">
-        <v>111</v>
-      </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
+        <v>10</v>
+      </c>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="11">
-        <v>11332</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="Z2" s="11"/>
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
       <c r="AC2" s="12"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="208" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="210" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="210" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="188" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
+      <c r="A3" s="211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
       <c r="N3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="208" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="210" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="210" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="188" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
-      <c r="V3" s="188"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="188"/>
-      <c r="Y3" s="188"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="188"/>
-      <c r="AB3" s="188"/>
+        <v>16</v>
+      </c>
+      <c r="P3" s="211" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="213" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="191" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="191"/>
+      <c r="U3" s="191"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="191"/>
+      <c r="X3" s="191"/>
+      <c r="Y3" s="191"/>
+      <c r="Z3" s="191"/>
+      <c r="AA3" s="191"/>
+      <c r="AB3" s="191"/>
       <c r="AC3" s="13" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="209"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
+      <c r="A4" s="212"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
       <c r="D4" s="14">
         <v>1</v>
       </c>
@@ -5595,9 +5246,9 @@
         <v>10</v>
       </c>
       <c r="N4" s="15"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="211"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
       <c r="S4" s="14">
         <v>11</v>
       </c>
@@ -5631,73 +5282,37 @@
       <c r="AC4" s="15"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="212" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="216"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="15"/>
-      <c r="P5" s="189" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="190"/>
-      <c r="R5" s="191"/>
-      <c r="S5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
+      <c r="P5" s="192" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
       <c r="AC5" s="15"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -5732,83 +5347,47 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="23"/>
       <c r="P7" s="17" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7" s="22">
-        <v>0</v>
-      </c>
-      <c r="T7" s="22">
-        <v>1</v>
-      </c>
-      <c r="U7" s="22">
-        <v>0</v>
-      </c>
-      <c r="V7" s="22">
-        <v>0</v>
-      </c>
-      <c r="W7" s="22">
-        <v>0</v>
-      </c>
-      <c r="X7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB7" s="147" t="s">
-        <v>113</v>
+        <v>20</v>
+      </c>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB7" s="123" t="s">
+        <v>72</v>
       </c>
       <c r="AC7" s="23"/>
     </row>
@@ -5844,300 +5423,166 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="26">
-        <v>6.6</v>
-      </c>
-      <c r="E9" s="26">
-        <v>6.76</v>
-      </c>
-      <c r="F9" s="26">
-        <v>7.4</v>
-      </c>
-      <c r="G9" s="26">
-        <v>7.55</v>
-      </c>
-      <c r="H9" s="26">
-        <v>6.89</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="26">
-        <v>7.35</v>
-      </c>
-      <c r="K9" s="26">
-        <v>6.5</v>
-      </c>
-      <c r="L9" s="26">
-        <v>6.63</v>
-      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="15"/>
       <c r="P9" s="17" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" s="26">
-        <v>7.51</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S9" s="26"/>
       <c r="T9" s="26"/>
-      <c r="U9" s="26">
-        <v>7.01</v>
-      </c>
-      <c r="V9" s="26">
-        <v>7.07</v>
-      </c>
-      <c r="W9" s="26">
-        <v>7</v>
-      </c>
-      <c r="X9" s="26">
-        <v>6.8</v>
-      </c>
-      <c r="Y9" s="26">
-        <v>7.53</v>
-      </c>
-      <c r="Z9" s="26">
-        <v>6.97</v>
-      </c>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
       <c r="AC9" s="15"/>
     </row>
     <row r="10" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="27" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="26">
-        <v>-239.4</v>
-      </c>
-      <c r="E10" s="26">
-        <v>-225</v>
-      </c>
-      <c r="F10" s="26">
-        <v>-19.23</v>
-      </c>
-      <c r="G10" s="26">
-        <v>-112</v>
-      </c>
-      <c r="H10" s="26">
-        <v>-313</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="26">
-        <v>-173</v>
-      </c>
-      <c r="K10" s="26">
-        <v>-282</v>
-      </c>
-      <c r="L10" s="26">
-        <v>-249</v>
-      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="15"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="27" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="26">
-        <v>-141</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S10" s="26"/>
       <c r="T10" s="26"/>
-      <c r="U10" s="26">
-        <v>-164</v>
-      </c>
-      <c r="V10" s="26">
-        <v>-231</v>
-      </c>
-      <c r="W10" s="26">
-        <v>-228.1</v>
-      </c>
-      <c r="X10" s="26">
-        <v>-239</v>
-      </c>
-      <c r="Y10" s="26">
-        <v>-59.1</v>
-      </c>
-      <c r="Z10" s="26">
-        <v>-220</v>
-      </c>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
       <c r="AC10" s="15"/>
     </row>
     <row r="11" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="24" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="29">
-        <v>5</v>
-      </c>
-      <c r="E11" s="29">
-        <v>5</v>
-      </c>
-      <c r="F11" s="29">
-        <v>2</v>
-      </c>
-      <c r="G11" s="29">
-        <v>2</v>
-      </c>
-      <c r="H11" s="29">
-        <v>3</v>
-      </c>
-      <c r="I11" s="29">
-        <v>0</v>
-      </c>
-      <c r="J11" s="29">
-        <v>2</v>
-      </c>
-      <c r="K11" s="29">
-        <v>5</v>
-      </c>
-      <c r="L11" s="29">
-        <v>5</v>
-      </c>
-      <c r="M11" s="29">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
       <c r="N11" s="30" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="24" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="S11" s="29">
-        <v>2</v>
-      </c>
-      <c r="T11" s="29">
-        <v>0</v>
-      </c>
-      <c r="U11" s="29">
-        <v>3</v>
-      </c>
-      <c r="V11" s="29">
-        <v>3</v>
-      </c>
-      <c r="W11" s="29">
-        <v>3</v>
-      </c>
-      <c r="X11" s="29">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="29">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="29">
-        <v>3</v>
-      </c>
-      <c r="AA11" s="149"/>
-      <c r="AB11" s="149"/>
-      <c r="AC11" s="150">
-        <v>2.7777777777777777</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="126"/>
     </row>
     <row r="12" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="192" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="192"/>
-      <c r="D12" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="B12" s="195" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="195"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="15"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="192" t="s">
-        <v>66</v>
-      </c>
-      <c r="R12" s="192"/>
-      <c r="S12" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="146"/>
+      <c r="Q12" s="195" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="195"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
       <c r="AC12" s="15"/>
     </row>
     <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="179" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="179"/>
+      <c r="B13" s="182" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="182"/>
       <c r="D13" s="33" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -6150,13 +5595,11 @@
       <c r="M13" s="19"/>
       <c r="N13" s="15"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="179" t="s">
-        <v>172</v>
-      </c>
-      <c r="R13" s="179"/>
-      <c r="S13" s="151" t="s">
-        <v>182</v>
-      </c>
+      <c r="Q13" s="182" t="s">
+        <v>116</v>
+      </c>
+      <c r="R13" s="182"/>
+      <c r="S13" s="127"/>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
@@ -6176,24 +5619,18 @@
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="71">
-        <v>14.33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H14" s="71"/>
       <c r="I14" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="71">
-        <v>14.33</v>
-      </c>
-      <c r="K14" s="193" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="194"/>
-      <c r="M14" s="73">
-        <v>11.050666666666665</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J14" s="71"/>
+      <c r="K14" s="196" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="197"/>
+      <c r="M14" s="73"/>
       <c r="N14" s="15"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="32"/>
@@ -6202,24 +5639,18 @@
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
       <c r="V14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="W14" s="152">
-        <v>14.33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="W14" s="128"/>
       <c r="X14" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y14" s="36">
-        <v>14.33</v>
-      </c>
-      <c r="Z14" s="193" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA14" s="194"/>
-      <c r="AB14" s="153">
-        <v>11.050666666666665</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="196" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="129"/>
       <c r="AC14" s="15"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -6230,21 +5661,17 @@
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="72">
-        <v>8.1999999999999993</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H15" s="72"/>
       <c r="I15" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="71">
-        <v>161.1</v>
-      </c>
-      <c r="K15" s="193" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="194"/>
+        <v>33</v>
+      </c>
+      <c r="J15" s="71"/>
+      <c r="K15" s="196" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="197"/>
       <c r="M15" s="74"/>
       <c r="N15" s="15"/>
       <c r="P15" s="17"/>
@@ -6254,23 +5681,19 @@
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
       <c r="V15" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="W15" s="152">
-        <v>8.1999999999999993</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="W15" s="128"/>
       <c r="X15" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y15" s="36">
-        <v>161.1</v>
-      </c>
-      <c r="Z15" s="193" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA15" s="194"/>
-      <c r="AB15" s="152" t="s">
-        <v>113</v>
+        <v>33</v>
+      </c>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="196" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="128" t="s">
+        <v>72</v>
       </c>
       <c r="AC15" s="15"/>
     </row>
@@ -6306,761 +5729,421 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="195" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="198" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="K17" s="41">
-        <v>4</v>
-      </c>
-      <c r="L17" s="41">
-        <v>4</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="42" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N17" s="15"/>
       <c r="P17" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="195" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="Q17" s="198" t="s">
+        <v>36</v>
       </c>
       <c r="R17" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="S17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="T17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="U17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="V17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="W17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="X17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA17" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB17" s="155" t="s">
-        <v>113</v>
+        <v>37</v>
+      </c>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB17" s="131" t="s">
+        <v>72</v>
       </c>
       <c r="AC17" s="15"/>
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="196"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="45">
-        <v>0</v>
-      </c>
-      <c r="E18" s="46">
-        <v>0</v>
-      </c>
-      <c r="F18" s="46">
-        <v>0</v>
-      </c>
-      <c r="G18" s="46">
-        <v>0</v>
-      </c>
-      <c r="H18" s="46">
-        <v>0</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" s="46">
-        <v>0</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="46" t="s">
-        <v>113</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="47" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N18" s="15"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="196"/>
+      <c r="Q18" s="199"/>
       <c r="R18" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" s="46">
-        <v>0</v>
-      </c>
-      <c r="T18" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="U18" s="46">
-        <v>0</v>
-      </c>
-      <c r="V18" s="46">
-        <v>0</v>
-      </c>
-      <c r="W18" s="46">
-        <v>0</v>
-      </c>
-      <c r="X18" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="156" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB18" s="157" t="s">
-        <v>113</v>
+        <v>38</v>
+      </c>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="133" t="s">
+        <v>72</v>
       </c>
       <c r="AC18" s="15"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
-      <c r="B19" s="195" t="s">
-        <v>77</v>
+      <c r="B19" s="198" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" s="41">
-        <v>0</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="41" t="s">
-        <v>113</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="42" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N19" s="15"/>
       <c r="P19" s="17"/>
-      <c r="Q19" s="195" t="s">
-        <v>77</v>
+      <c r="Q19" s="198" t="s">
+        <v>39</v>
       </c>
       <c r="R19" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="S19" s="41">
-        <v>0</v>
-      </c>
-      <c r="T19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="U19" s="41">
-        <v>0</v>
-      </c>
-      <c r="V19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="W19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="X19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y19" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA19" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB19" s="155" t="s">
-        <v>113</v>
+        <v>40</v>
+      </c>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB19" s="131" t="s">
+        <v>72</v>
       </c>
       <c r="AC19" s="15"/>
     </row>
     <row r="20" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="196"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="46">
-        <v>2</v>
-      </c>
-      <c r="E20" s="46">
-        <v>2</v>
-      </c>
-      <c r="F20" s="46">
-        <v>2</v>
-      </c>
-      <c r="G20" s="46">
-        <v>2</v>
-      </c>
-      <c r="H20" s="46">
-        <v>2</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="46">
-        <v>2</v>
-      </c>
-      <c r="L20" s="46">
-        <v>2</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="47" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N20" s="15"/>
       <c r="P20" s="17"/>
-      <c r="Q20" s="196"/>
+      <c r="Q20" s="199"/>
       <c r="R20" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="S20" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="T20" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="U20" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="V20" s="46">
-        <v>2</v>
-      </c>
-      <c r="W20" s="46">
-        <v>2</v>
-      </c>
-      <c r="X20" s="46">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z20" s="46">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="156" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB20" s="157" t="s">
-        <v>113</v>
+        <v>41</v>
+      </c>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB20" s="133" t="s">
+        <v>72</v>
       </c>
       <c r="AC20" s="15"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
-      <c r="B21" s="195" t="s">
-        <v>80</v>
+      <c r="B21" s="198" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="41">
-        <v>0</v>
-      </c>
-      <c r="G21" s="41">
-        <v>0</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="41">
-        <v>0</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="41" t="s">
-        <v>113</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="42" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N21" s="15"/>
       <c r="P21" s="17"/>
-      <c r="Q21" s="195" t="s">
-        <v>80</v>
+      <c r="Q21" s="198" t="s">
+        <v>42</v>
       </c>
       <c r="R21" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" s="41">
-        <v>0</v>
-      </c>
-      <c r="T21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="U21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="V21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="W21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="X21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y21" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA21" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB21" s="155" t="s">
-        <v>113</v>
+        <v>43</v>
+      </c>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB21" s="131" t="s">
+        <v>72</v>
       </c>
       <c r="AC21" s="15"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
-      <c r="B22" s="197"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="16">
-        <v>2</v>
-      </c>
-      <c r="E22" s="16">
-        <v>2</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="16">
-        <v>2</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>113</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="49" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N22" s="15"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="197"/>
+      <c r="Q22" s="200"/>
       <c r="R22" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="U22" s="16">
-        <v>2</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="W22" s="16">
-        <v>2</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA22" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB22" s="158" t="s">
-        <v>113</v>
+        <v>44</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB22" s="134" t="s">
+        <v>72</v>
       </c>
       <c r="AC22" s="15"/>
     </row>
     <row r="23" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="196"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="46">
-        <v>4</v>
-      </c>
-      <c r="L23" s="46">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
       <c r="M23" s="47" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N23" s="15"/>
       <c r="P23" s="17"/>
-      <c r="Q23" s="196"/>
+      <c r="Q23" s="199"/>
       <c r="R23" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="S23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="T23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="U23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="V23" s="46">
-        <v>4</v>
-      </c>
-      <c r="W23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="X23" s="46">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z23" s="46">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="156" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB23" s="157" t="s">
-        <v>113</v>
+        <v>45</v>
+      </c>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB23" s="133" t="s">
+        <v>72</v>
       </c>
       <c r="AC23" s="15"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="195" t="s">
-        <v>84</v>
+      <c r="B24" s="198" t="s">
+        <v>46</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="41">
-        <v>0</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="41" t="s">
-        <v>113</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
       <c r="M24" s="42" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N24" s="15"/>
       <c r="P24" s="17"/>
-      <c r="Q24" s="195" t="s">
-        <v>84</v>
+      <c r="Q24" s="198" t="s">
+        <v>46</v>
       </c>
       <c r="R24" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="S24" s="41">
-        <v>0</v>
-      </c>
-      <c r="T24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="U24" s="41">
-        <v>0</v>
-      </c>
-      <c r="V24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="W24" s="41">
-        <v>0</v>
-      </c>
-      <c r="X24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y24" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA24" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB24" s="155" t="s">
-        <v>113</v>
+        <v>47</v>
+      </c>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB24" s="131" t="s">
+        <v>72</v>
       </c>
       <c r="AC24" s="15"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="197"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="16">
-        <v>2</v>
-      </c>
-      <c r="E25" s="16">
-        <v>2</v>
-      </c>
-      <c r="F25" s="16">
-        <v>2</v>
-      </c>
-      <c r="G25" s="16">
-        <v>2</v>
-      </c>
-      <c r="H25" s="16">
-        <v>2</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="16">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="49" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N25" s="15"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="197"/>
+      <c r="Q25" s="200"/>
       <c r="R25" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="V25" s="16">
-        <v>2</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="X25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA25" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB25" s="158" t="s">
-        <v>113</v>
+        <v>48</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB25" s="134" t="s">
+        <v>72</v>
       </c>
       <c r="AC25" s="15"/>
     </row>
     <row r="26" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="196"/>
+      <c r="B26" s="199"/>
       <c r="C26" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="46">
-        <v>4</v>
-      </c>
-      <c r="L26" s="46" t="s">
-        <v>113</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="47" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N26" s="15"/>
       <c r="P26" s="17"/>
-      <c r="Q26" s="196"/>
+      <c r="Q26" s="199"/>
       <c r="R26" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="S26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="T26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="U26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="V26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="W26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="X26" s="46">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z26" s="46">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="156" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB26" s="157" t="s">
-        <v>113</v>
+        <v>49</v>
+      </c>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB26" s="133" t="s">
+        <v>72</v>
       </c>
       <c r="AC26" s="15"/>
     </row>
@@ -7068,151 +6151,83 @@
       <c r="A27" s="17"/>
       <c r="B27" s="38"/>
       <c r="C27" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="41">
-        <v>0</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>113</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
       <c r="M27" s="42" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N27" s="15"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="198" t="s">
-        <v>89</v>
+      <c r="Q27" s="201" t="s">
+        <v>51</v>
       </c>
       <c r="R27" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="S27" s="41">
-        <v>0</v>
-      </c>
-      <c r="T27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="U27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="V27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="W27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="X27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y27" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA27" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB27" s="155" t="s">
-        <v>113</v>
+        <v>50</v>
+      </c>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB27" s="131" t="s">
+        <v>72</v>
       </c>
       <c r="AC27" s="15"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="48" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="16">
-        <v>1</v>
-      </c>
-      <c r="E28" s="16">
-        <v>1</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16">
-        <v>1</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="16">
-        <v>1</v>
-      </c>
-      <c r="K28" s="16">
-        <v>1</v>
-      </c>
-      <c r="L28" s="16">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
       <c r="M28" s="49" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N28" s="15"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="199"/>
+      <c r="Q28" s="202"/>
       <c r="R28" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="U28" s="16">
-        <v>1</v>
-      </c>
-      <c r="V28" s="16">
-        <v>1</v>
-      </c>
-      <c r="W28" s="16">
-        <v>1</v>
-      </c>
-      <c r="X28" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA28" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB28" s="158" t="s">
-        <v>113</v>
+        <v>52</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB28" s="134" t="s">
+        <v>72</v>
       </c>
       <c r="AC28" s="15"/>
     </row>
@@ -7220,524 +6235,278 @@
       <c r="A29" s="17"/>
       <c r="B29" s="43"/>
       <c r="C29" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="L29" s="46" t="s">
-        <v>113</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="47" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N29" s="15"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="200"/>
+      <c r="Q29" s="203"/>
       <c r="R29" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="T29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="U29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="V29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="W29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="X29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y29" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z29" s="46">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="156" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB29" s="157" t="s">
-        <v>113</v>
+        <v>53</v>
+      </c>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB29" s="133" t="s">
+        <v>72</v>
       </c>
       <c r="AC29" s="15"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="185" t="s">
-        <v>92</v>
+      <c r="B30" s="188" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="41">
-        <v>0</v>
-      </c>
-      <c r="E30" s="41">
-        <v>0</v>
-      </c>
-      <c r="F30" s="41">
-        <v>0</v>
-      </c>
-      <c r="G30" s="41">
-        <v>0</v>
-      </c>
-      <c r="H30" s="41">
-        <v>0</v>
-      </c>
-      <c r="I30" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="41">
-        <v>0</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="L30" s="41" t="s">
-        <v>113</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
       <c r="M30" s="42" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N30" s="15"/>
       <c r="P30" s="17"/>
-      <c r="Q30" s="185" t="s">
-        <v>92</v>
+      <c r="Q30" s="188" t="s">
+        <v>54</v>
       </c>
       <c r="R30" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="S30" s="41">
-        <v>0</v>
-      </c>
-      <c r="T30" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="U30" s="41">
-        <v>0</v>
-      </c>
-      <c r="V30" s="41">
-        <v>0</v>
-      </c>
-      <c r="W30" s="41">
-        <v>0</v>
-      </c>
-      <c r="X30" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y30" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA30" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB30" s="155" t="s">
-        <v>113</v>
+        <v>55</v>
+      </c>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB30" s="131" t="s">
+        <v>72</v>
       </c>
       <c r="AC30" s="15"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="186"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K31" s="16">
-        <v>1</v>
-      </c>
-      <c r="L31" s="16">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="49" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N31" s="50"/>
       <c r="P31" s="17"/>
-      <c r="Q31" s="186"/>
+      <c r="Q31" s="189"/>
       <c r="R31" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="S31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="T31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="U31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="V31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="W31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="X31" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z31" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB31" s="158" t="s">
-        <v>113</v>
+        <v>56</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB31" s="134" t="s">
+        <v>72</v>
       </c>
       <c r="AC31" s="50"/>
     </row>
     <row r="32" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="187"/>
+      <c r="B32" s="190"/>
       <c r="C32" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="K32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="L32" s="46" t="s">
-        <v>113</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="47" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="N32" s="15"/>
       <c r="P32" s="17"/>
-      <c r="Q32" s="187"/>
+      <c r="Q32" s="190"/>
       <c r="R32" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="S32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="T32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="U32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="V32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="W32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="X32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z32" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA32" s="156" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB32" s="157" t="s">
-        <v>113</v>
+        <v>57</v>
+      </c>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB32" s="133" t="s">
+        <v>72</v>
       </c>
       <c r="AC32" s="15"/>
     </row>
     <row r="33" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="179" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="180"/>
-      <c r="D33" s="51">
-        <v>7</v>
-      </c>
-      <c r="E33" s="51">
-        <v>7</v>
-      </c>
-      <c r="F33" s="51">
-        <v>4</v>
-      </c>
-      <c r="G33" s="51">
-        <v>5</v>
-      </c>
-      <c r="H33" s="51">
-        <v>7</v>
-      </c>
-      <c r="I33" s="51">
-        <v>0</v>
-      </c>
-      <c r="J33" s="51">
-        <v>1</v>
-      </c>
-      <c r="K33" s="51">
-        <v>16</v>
-      </c>
-      <c r="L33" s="51">
-        <v>14</v>
-      </c>
-      <c r="M33" s="51">
-        <v>0</v>
-      </c>
+      <c r="B33" s="182" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="183"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="15"/>
       <c r="P33" s="17"/>
-      <c r="Q33" s="179" t="s">
-        <v>96</v>
-      </c>
-      <c r="R33" s="180"/>
-      <c r="S33" s="51">
-        <v>0</v>
-      </c>
-      <c r="T33" s="51">
-        <v>0</v>
-      </c>
-      <c r="U33" s="51">
-        <v>3</v>
-      </c>
-      <c r="V33" s="51">
-        <v>9</v>
-      </c>
-      <c r="W33" s="51">
-        <v>5</v>
-      </c>
-      <c r="X33" s="51">
-        <v>12</v>
-      </c>
-      <c r="Y33" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="51">
-        <v>13</v>
-      </c>
-      <c r="AA33" s="159"/>
-      <c r="AB33" s="159"/>
+      <c r="Q33" s="182" t="s">
+        <v>58</v>
+      </c>
+      <c r="R33" s="183"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
       <c r="AC33" s="15"/>
     </row>
     <row r="34" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="179" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="179"/>
-      <c r="D34" s="52">
-        <v>1.54</v>
-      </c>
-      <c r="E34" s="52">
-        <v>1.54</v>
-      </c>
-      <c r="F34" s="52">
-        <v>0.88</v>
-      </c>
-      <c r="G34" s="52">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H34" s="52">
-        <v>1.54</v>
-      </c>
-      <c r="I34" s="52">
-        <v>0</v>
-      </c>
-      <c r="J34" s="52">
-        <v>0.22</v>
-      </c>
-      <c r="K34" s="52">
-        <v>3.52</v>
-      </c>
-      <c r="L34" s="52">
-        <v>3.08</v>
-      </c>
-      <c r="M34" s="53">
-        <v>0</v>
-      </c>
+      <c r="B34" s="182" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="182"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
       <c r="N34" s="30" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="P34" s="17"/>
-      <c r="Q34" s="179" t="s">
-        <v>97</v>
-      </c>
-      <c r="R34" s="179"/>
-      <c r="S34" s="52">
-        <v>0</v>
-      </c>
-      <c r="T34" s="52">
-        <v>0</v>
-      </c>
-      <c r="U34" s="52">
-        <v>0.66</v>
-      </c>
-      <c r="V34" s="52">
-        <v>1.98</v>
-      </c>
-      <c r="W34" s="52">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X34" s="52">
-        <v>2.64</v>
-      </c>
-      <c r="Y34" s="52">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="52">
-        <v>2.86</v>
-      </c>
-      <c r="AA34" s="146"/>
-      <c r="AB34" s="160"/>
-      <c r="AC34" s="150">
-        <v>1.2588888888888889</v>
-      </c>
+      <c r="Q34" s="182" t="s">
+        <v>59</v>
+      </c>
+      <c r="R34" s="182"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="136"/>
+      <c r="AC34" s="126"/>
     </row>
     <row r="35" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="B35" s="182" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="183"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
       <c r="N35" s="15"/>
       <c r="P35" s="17"/>
-      <c r="Q35" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="R35" s="180"/>
-      <c r="S35" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA35" s="146"/>
-      <c r="AB35" s="146"/>
+      <c r="Q35" s="182" t="s">
+        <v>60</v>
+      </c>
+      <c r="R35" s="183"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="122"/>
       <c r="AC35" s="15"/>
     </row>
     <row r="36" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="B36" s="179" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="179"/>
+      <c r="B36" s="182" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="182"/>
       <c r="D36" s="33" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -7750,13 +6519,11 @@
       <c r="M36" s="19"/>
       <c r="N36" s="15"/>
       <c r="P36" s="17"/>
-      <c r="Q36" s="179" t="s">
-        <v>99</v>
-      </c>
-      <c r="R36" s="179"/>
-      <c r="S36" s="161" t="s">
-        <v>181</v>
-      </c>
+      <c r="Q36" s="182" t="s">
+        <v>61</v>
+      </c>
+      <c r="R36" s="182"/>
+      <c r="S36" s="137"/>
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
@@ -7801,145 +6568,71 @@
     <row r="38" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
       <c r="B38" s="18" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C38" s="18"/>
-      <c r="D38" s="52">
-        <v>3.27</v>
-      </c>
-      <c r="E38" s="52">
-        <v>3.27</v>
-      </c>
-      <c r="F38" s="52">
-        <v>1.44</v>
-      </c>
-      <c r="G38" s="52">
-        <v>1.55</v>
-      </c>
-      <c r="H38" s="52">
-        <v>2.27</v>
-      </c>
-      <c r="I38" s="52">
-        <v>0</v>
-      </c>
-      <c r="J38" s="52">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K38" s="52">
-        <v>4.26</v>
-      </c>
-      <c r="L38" s="52">
-        <v>4.04</v>
-      </c>
-      <c r="M38" s="53">
-        <v>0</v>
-      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
       <c r="N38" s="30" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="P38" s="54"/>
       <c r="Q38" s="18" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="R38" s="18"/>
-      <c r="S38" s="52">
-        <v>1</v>
-      </c>
-      <c r="T38" s="52">
-        <v>0</v>
-      </c>
-      <c r="U38" s="52">
-        <v>1.83</v>
-      </c>
-      <c r="V38" s="52">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="W38" s="52">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="X38" s="52">
-        <v>3.8200000000000003</v>
-      </c>
-      <c r="Y38" s="52">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="52">
-        <v>2.9299999999999997</v>
-      </c>
-      <c r="AA38" s="146"/>
-      <c r="AB38" s="146"/>
-      <c r="AC38" s="150">
-        <v>2.0183333333333335</v>
-      </c>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="122"/>
+      <c r="AB38" s="122"/>
+      <c r="AC38" s="126"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
       <c r="B39" s="18" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C39" s="55"/>
-      <c r="D39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
       <c r="N39" s="15"/>
       <c r="P39" s="54"/>
       <c r="Q39" s="18" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="R39" s="55"/>
-      <c r="S39" s="162" t="s">
-        <v>183</v>
-      </c>
-      <c r="T39" s="162" t="s">
-        <v>183</v>
-      </c>
-      <c r="U39" s="162" t="s">
-        <v>181</v>
-      </c>
-      <c r="V39" s="162" t="s">
-        <v>182</v>
-      </c>
-      <c r="W39" s="162" t="s">
-        <v>181</v>
-      </c>
-      <c r="X39" s="162" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y39" s="162" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z39" s="162" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA39" s="163"/>
-      <c r="AB39" s="163"/>
+      <c r="S39" s="138"/>
+      <c r="T39" s="138"/>
+      <c r="U39" s="138"/>
+      <c r="V39" s="138"/>
+      <c r="W39" s="138"/>
+      <c r="X39" s="138"/>
+      <c r="Y39" s="138"/>
+      <c r="Z39" s="138"/>
+      <c r="AA39" s="139"/>
+      <c r="AB39" s="139"/>
       <c r="AC39" s="15"/>
     </row>
     <row r="40" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7974,56 +6667,54 @@
     </row>
     <row r="41" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
-      <c r="B41" s="181" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="182"/>
+      <c r="B41" s="184" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="185"/>
       <c r="D41" s="58" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="12"/>
       <c r="P41" s="56"/>
-      <c r="Q41" s="181" t="s">
-        <v>101</v>
-      </c>
-      <c r="R41" s="182"/>
+      <c r="Q41" s="184" t="s">
+        <v>63</v>
+      </c>
+      <c r="R41" s="185"/>
       <c r="S41" s="58" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="Y41" s="10"/>
-      <c r="Z41" s="164" t="s">
-        <v>181</v>
-      </c>
+      <c r="Z41" s="140"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
       <c r="AC41" s="12"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
-      <c r="B42" s="183" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="184"/>
+      <c r="B42" s="186" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="187"/>
       <c r="D42" s="59"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8036,10 +6727,10 @@
       <c r="M42" s="9"/>
       <c r="N42" s="12"/>
       <c r="P42" s="56"/>
-      <c r="Q42" s="183" t="s">
-        <v>105</v>
-      </c>
-      <c r="R42" s="184"/>
+      <c r="Q42" s="186" t="s">
+        <v>67</v>
+      </c>
+      <c r="R42" s="187"/>
       <c r="S42" s="59"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
@@ -8054,10 +6745,10 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
-      <c r="B43" s="175" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="176"/>
+      <c r="B43" s="178" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="179"/>
       <c r="D43" s="60">
         <v>1</v>
       </c>
@@ -8072,10 +6763,10 @@
       <c r="M43" s="9"/>
       <c r="N43" s="12"/>
       <c r="P43" s="56"/>
-      <c r="Q43" s="175" t="s">
-        <v>106</v>
-      </c>
-      <c r="R43" s="176"/>
+      <c r="Q43" s="178" t="s">
+        <v>68</v>
+      </c>
+      <c r="R43" s="179"/>
       <c r="S43" s="60">
         <v>1</v>
       </c>
@@ -8092,10 +6783,10 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
-      <c r="B44" s="175" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="176"/>
+      <c r="B44" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="179"/>
       <c r="D44" s="61">
         <v>2</v>
       </c>
@@ -8110,10 +6801,10 @@
       <c r="M44" s="9"/>
       <c r="N44" s="12"/>
       <c r="P44" s="56"/>
-      <c r="Q44" s="175" t="s">
-        <v>107</v>
-      </c>
-      <c r="R44" s="176"/>
+      <c r="Q44" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="R44" s="179"/>
       <c r="S44" s="61">
         <v>2</v>
       </c>
@@ -8130,10 +6821,10 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
-      <c r="B45" s="175" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="176"/>
+      <c r="B45" s="178" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="179"/>
       <c r="D45" s="62">
         <v>3</v>
       </c>
@@ -8148,10 +6839,10 @@
       <c r="M45" s="9"/>
       <c r="N45" s="63"/>
       <c r="P45" s="56"/>
-      <c r="Q45" s="175" t="s">
-        <v>108</v>
-      </c>
-      <c r="R45" s="176"/>
+      <c r="Q45" s="178" t="s">
+        <v>70</v>
+      </c>
+      <c r="R45" s="179"/>
       <c r="S45" s="62">
         <v>3</v>
       </c>
@@ -8168,10 +6859,10 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
-      <c r="B46" s="177" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="178"/>
+      <c r="B46" s="180" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="181"/>
       <c r="D46" s="64">
         <v>4</v>
       </c>
@@ -8186,10 +6877,10 @@
       <c r="M46" s="9"/>
       <c r="N46" s="63"/>
       <c r="P46" s="56"/>
-      <c r="Q46" s="177" t="s">
-        <v>109</v>
-      </c>
-      <c r="R46" s="178"/>
+      <c r="Q46" s="180" t="s">
+        <v>71</v>
+      </c>
+      <c r="R46" s="181"/>
       <c r="S46" s="64">
         <v>4</v>
       </c>
@@ -8236,7 +6927,7 @@
     </row>
     <row r="50" spans="6:14" ht="20" x14ac:dyDescent="0.25">
       <c r="F50" s="68" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="I50" s="69"/>
       <c r="N50" s="70"/>
@@ -9193,8 +7884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C7B2D4-D38D-4D01-9B83-C70548CD7D94}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B26"/>
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9207,133 +7898,117 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="203" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
+        <v>7</v>
+      </c>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="238" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="238"/>
+        <v>8</v>
+      </c>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
       <c r="K1" s="76"/>
       <c r="L1" s="104"/>
       <c r="N1" s="75" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="203" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
+        <v>7</v>
+      </c>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="238" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="238"/>
+        <v>8</v>
+      </c>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
       <c r="X1" s="76"/>
       <c r="Y1" s="104"/>
     </row>
     <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="239" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
+        <v>10</v>
+      </c>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="77">
-        <v>11332</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I2" s="77"/>
       <c r="J2" s="78"/>
       <c r="K2" s="78"/>
       <c r="L2" s="105"/>
       <c r="N2" s="56" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="239" t="s">
-        <v>111</v>
-      </c>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
+        <v>10</v>
+      </c>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="V2" s="77">
-        <v>11332</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="V2" s="77"/>
       <c r="W2" s="78"/>
       <c r="X2" s="78"/>
       <c r="Y2" s="105"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="244" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="245"/>
-      <c r="N3" s="240" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="241"/>
-      <c r="P3" s="244" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="245"/>
+      <c r="A3" s="243" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="244"/>
+      <c r="C3" s="247" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="248"/>
+      <c r="N3" s="243" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="244"/>
+      <c r="P3" s="247" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="248"/>
     </row>
     <row r="4" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="240"/>
-      <c r="B4" s="241"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="244"/>
       <c r="C4" s="79">
         <v>1</v>
       </c>
@@ -9364,8 +8039,8 @@
       <c r="L4" s="106">
         <v>10</v>
       </c>
-      <c r="N4" s="242"/>
-      <c r="O4" s="243"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="246"/>
       <c r="P4" s="79">
         <v>11</v>
       </c>
@@ -9397,1184 +8072,624 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="246" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5" s="247"/>
-      <c r="P5" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="110"/>
-    </row>
-    <row r="6" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="229" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="246" t="s">
-        <v>120</v>
-      </c>
-      <c r="O6" s="247"/>
-      <c r="P6" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="112"/>
+    <row r="5" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="232" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="233"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="115"/>
+      <c r="N5" s="249" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="250"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="154"/>
+    </row>
+    <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="232" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="233"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="116"/>
+      <c r="N6" s="249" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="250"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="156"/>
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="229" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="230"/>
-      <c r="C7" s="85">
-        <v>105</v>
-      </c>
-      <c r="D7" s="86">
-        <v>105</v>
-      </c>
-      <c r="E7" s="86">
-        <v>110</v>
-      </c>
-      <c r="F7" s="86">
-        <v>121</v>
-      </c>
-      <c r="G7" s="86">
-        <v>142</v>
-      </c>
-      <c r="H7" s="86">
-        <v>146</v>
-      </c>
-      <c r="I7" s="86">
-        <v>153</v>
-      </c>
-      <c r="J7" s="86">
-        <v>149</v>
-      </c>
-      <c r="K7" s="86">
-        <v>145</v>
-      </c>
-      <c r="L7" s="135">
-        <v>121</v>
-      </c>
-      <c r="N7" s="248" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="249"/>
-      <c r="P7" s="89">
-        <v>105</v>
-      </c>
-      <c r="Q7" s="113">
-        <v>109</v>
-      </c>
-      <c r="R7" s="113">
-        <v>98</v>
-      </c>
-      <c r="S7" s="113">
-        <v>107</v>
-      </c>
-      <c r="T7" s="113">
-        <v>106</v>
-      </c>
-      <c r="U7" s="113">
-        <v>109</v>
-      </c>
-      <c r="V7" s="113">
-        <v>107</v>
-      </c>
-      <c r="W7" s="113">
-        <v>133</v>
-      </c>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="115"/>
-    </row>
-    <row r="8" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="229" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="230"/>
-      <c r="C8" s="88">
-        <v>1</v>
-      </c>
-      <c r="D8" s="89">
-        <v>1</v>
-      </c>
-      <c r="E8" s="89">
-        <v>1</v>
-      </c>
-      <c r="F8" s="89">
-        <v>1</v>
-      </c>
-      <c r="G8" s="89">
-        <v>1</v>
-      </c>
-      <c r="H8" s="89">
-        <v>2</v>
-      </c>
-      <c r="I8" s="89">
-        <v>1</v>
-      </c>
-      <c r="J8" s="89">
-        <v>1</v>
-      </c>
-      <c r="K8" s="89">
-        <v>1</v>
-      </c>
-      <c r="L8" s="142">
-        <v>2</v>
-      </c>
-      <c r="N8" s="227" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="228"/>
-      <c r="P8" s="88">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="89">
-        <v>2</v>
-      </c>
-      <c r="R8" s="89">
-        <v>1</v>
-      </c>
-      <c r="S8" s="89">
-        <v>1</v>
-      </c>
-      <c r="T8" s="89">
-        <v>1</v>
-      </c>
-      <c r="U8" s="89">
-        <v>1</v>
-      </c>
-      <c r="V8" s="89">
-        <v>1</v>
-      </c>
-      <c r="W8" s="89">
-        <v>2</v>
-      </c>
-      <c r="X8" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y8" s="115" t="s">
-        <v>113</v>
+      <c r="A7" s="232" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="233"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="111"/>
+      <c r="N7" s="251" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="252"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="157"/>
+      <c r="Y7" s="158"/>
+    </row>
+    <row r="8" spans="1:25" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="257" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="258"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="118"/>
+      <c r="N8" s="230" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="231"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="158" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="229" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="230"/>
-      <c r="C9" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="143" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9" s="229" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="230"/>
+      <c r="A9" s="232" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="233"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="119"/>
+      <c r="N9" s="232" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="233"/>
       <c r="P9" s="90" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="91" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="R9" s="91" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="S9" s="91" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="T9" s="91" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="U9" s="91" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="V9" s="91" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="W9" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="X9" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y9" s="117" t="s">
-        <v>113</v>
+        <v>72</v>
+      </c>
+      <c r="X9" s="159" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="160" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="254"/>
-      <c r="B10" s="255"/>
-      <c r="C10" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="232"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q10" s="231"/>
-      <c r="R10" s="231"/>
-      <c r="S10" s="231"/>
-      <c r="T10" s="231"/>
-      <c r="U10" s="231"/>
-      <c r="V10" s="231"/>
-      <c r="W10" s="231"/>
-      <c r="X10" s="231"/>
-      <c r="Y10" s="232"/>
+      <c r="A10" s="259"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="234" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="234" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="234"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="234"/>
+      <c r="U10" s="234"/>
+      <c r="V10" s="234"/>
+      <c r="W10" s="234"/>
+      <c r="X10" s="234"/>
+      <c r="Y10" s="235"/>
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="233" t="s">
-        <v>125</v>
+      <c r="A11" s="236" t="s">
+        <v>84</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="139" t="s">
-        <v>113</v>
-      </c>
-      <c r="N11" s="233" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="115"/>
+      <c r="N11" s="236" t="s">
+        <v>84</v>
       </c>
       <c r="O11" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="P11" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="S11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="T11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="U11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="V11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="W11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="X11" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y11" s="119" t="s">
-        <v>113</v>
+        <v>85</v>
+      </c>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="162" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="234"/>
+      <c r="A12" s="237"/>
       <c r="B12" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="L12" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" s="234"/>
+        <v>86</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="116"/>
+      <c r="N12" s="237"/>
       <c r="O12" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q12" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="S12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="T12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="U12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="V12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="W12" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="X12" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y12" s="121" t="s">
-        <v>113</v>
+        <v>86</v>
+      </c>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="163" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="164" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="234"/>
+      <c r="A13" s="237"/>
       <c r="B13" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="J13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="N13" s="234"/>
+        <v>87</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="116"/>
+      <c r="N13" s="237"/>
       <c r="O13" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="P13" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="R13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="S13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="T13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="U13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="V13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="W13" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="X13" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y13" s="121" t="s">
-        <v>113</v>
+        <v>87</v>
+      </c>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="163" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13" s="164" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="234"/>
+      <c r="A14" s="237"/>
       <c r="B14" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" s="234"/>
+        <v>88</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="116"/>
+      <c r="N14" s="237"/>
       <c r="O14" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="P14" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="R14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="S14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="T14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="U14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="V14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="W14" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="X14" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y14" s="121" t="s">
-        <v>113</v>
+        <v>88</v>
+      </c>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="163" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="164" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="235"/>
+      <c r="A15" s="238"/>
       <c r="B15" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="J15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="N15" s="235"/>
+        <v>89</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="116"/>
+      <c r="N15" s="238"/>
       <c r="O15" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="P15" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="R15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="S15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="T15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="U15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="V15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="W15" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="X15" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y15" s="121" t="s">
-        <v>113</v>
+        <v>89</v>
+      </c>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="163" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="164" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="229" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="230"/>
-      <c r="C16" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="N16" s="229" t="s">
-        <v>131</v>
-      </c>
-      <c r="O16" s="230"/>
-      <c r="P16" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="R16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="S16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="T16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="U16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="V16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="W16" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="X16" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y16" s="121" t="s">
-        <v>113</v>
+      <c r="A16" s="232" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="233"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="116"/>
+      <c r="N16" s="232" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="233"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="163" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" s="164" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="229" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="230"/>
-      <c r="C17" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="K17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="N17" s="229" t="s">
-        <v>132</v>
-      </c>
-      <c r="O17" s="230"/>
-      <c r="P17" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="R17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="S17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="T17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="U17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="V17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="W17" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="X17" s="122" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y17" s="123" t="s">
-        <v>113</v>
+      <c r="A17" s="232" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="233"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="117"/>
+      <c r="N17" s="232" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="233"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="165" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" s="166" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="252"/>
-      <c r="B18" s="253"/>
-      <c r="C18" s="223" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="223"/>
-      <c r="L18" s="224"/>
+      <c r="A18" s="255"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="226" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="226"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="227"/>
       <c r="N18" s="56"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="223" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="223"/>
-      <c r="R18" s="223"/>
-      <c r="S18" s="223"/>
-      <c r="T18" s="223"/>
-      <c r="U18" s="223"/>
-      <c r="V18" s="223"/>
-      <c r="W18" s="223"/>
-      <c r="X18" s="223"/>
-      <c r="Y18" s="224"/>
+      <c r="P18" s="226" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="226"/>
+      <c r="R18" s="226"/>
+      <c r="S18" s="226"/>
+      <c r="T18" s="226"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="227"/>
     </row>
     <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="217" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="218"/>
-      <c r="C19" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="97">
-        <v>4</v>
-      </c>
-      <c r="H19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="97">
-        <v>3</v>
-      </c>
-      <c r="J19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="134" t="s">
-        <v>113</v>
-      </c>
-      <c r="N19" s="217" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" s="218"/>
-      <c r="P19" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="R19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="S19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="T19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="U19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="V19" s="97">
-        <v>1</v>
-      </c>
-      <c r="W19" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="X19" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y19" s="125" t="s">
-        <v>113</v>
+      <c r="A19" s="220" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="221"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="110"/>
+      <c r="N19" s="220" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="221"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="167" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" s="168" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="217" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="218"/>
-      <c r="C20" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="86">
-        <v>3</v>
-      </c>
-      <c r="H20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="86">
-        <v>1</v>
-      </c>
-      <c r="J20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="135" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" s="217" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" s="218"/>
-      <c r="P20" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="R20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="S20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="T20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="U20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="V20" s="86">
-        <v>3</v>
-      </c>
-      <c r="W20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="X20" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y20" s="127" t="s">
-        <v>113</v>
+      <c r="A20" s="220" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="221"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="111"/>
+      <c r="N20" s="220" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" s="221"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="170" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="217" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="218"/>
-      <c r="C21" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="86">
-        <v>32</v>
-      </c>
-      <c r="H21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="135" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21" s="217" t="s">
-        <v>136</v>
-      </c>
-      <c r="O21" s="218"/>
-      <c r="P21" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="R21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="S21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="T21" s="86">
-        <v>3</v>
-      </c>
-      <c r="U21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="V21" s="86">
-        <v>24</v>
-      </c>
-      <c r="W21" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="X21" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y21" s="127" t="s">
-        <v>113</v>
+      <c r="A21" s="220" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="221"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="111"/>
+      <c r="N21" s="220" t="s">
+        <v>95</v>
+      </c>
+      <c r="O21" s="221"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y21" s="170" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="217" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="218"/>
-      <c r="C22" s="92">
-        <v>20</v>
-      </c>
-      <c r="D22" s="86">
-        <v>10</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="K22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="135" t="s">
-        <v>113</v>
-      </c>
-      <c r="N22" s="217" t="s">
-        <v>137</v>
-      </c>
-      <c r="O22" s="218"/>
-      <c r="P22" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="R22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="S22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="T22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="U22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="V22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="W22" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="X22" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y22" s="127" t="s">
-        <v>113</v>
+      <c r="A22" s="220" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="221"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="111"/>
+      <c r="N22" s="220" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" s="221"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y22" s="170" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="174" t="s">
-        <v>139</v>
+      <c r="A23" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="152" t="s">
+        <v>98</v>
       </c>
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
@@ -10585,12 +8700,12 @@
       <c r="I23" s="99"/>
       <c r="J23" s="99"/>
       <c r="K23" s="99"/>
-      <c r="L23" s="136"/>
+      <c r="L23" s="112"/>
       <c r="N23" s="95" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="O23" s="96" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="P23" s="98"/>
       <c r="Q23" s="99"/>
@@ -10600,292 +8715,148 @@
       <c r="U23" s="99"/>
       <c r="V23" s="99"/>
       <c r="W23" s="99"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="129"/>
+      <c r="X23" s="171"/>
+      <c r="Y23" s="172"/>
     </row>
     <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="225" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="226"/>
-      <c r="C24" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="135" t="s">
-        <v>113</v>
-      </c>
-      <c r="N24" s="225" t="s">
-        <v>140</v>
-      </c>
-      <c r="O24" s="226"/>
-      <c r="P24" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="R24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="S24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="T24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="U24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="V24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="W24" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="X24" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y24" s="127" t="s">
-        <v>113</v>
+      <c r="A24" s="228" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="229"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="111"/>
+      <c r="N24" s="228" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" s="229"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y24" s="170" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="219" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="220"/>
-      <c r="C25" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="135" t="s">
-        <v>113</v>
-      </c>
-      <c r="N25" s="217" t="s">
-        <v>141</v>
-      </c>
-      <c r="O25" s="218"/>
-      <c r="P25" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="R25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="S25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="T25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="U25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="V25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="W25" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="X25" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y25" s="127" t="s">
-        <v>113</v>
+      <c r="A25" s="222" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="223"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="111"/>
+      <c r="N25" s="220" t="s">
+        <v>100</v>
+      </c>
+      <c r="O25" s="221"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y25" s="170" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="250" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="251"/>
-      <c r="C26" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="L26" s="137" t="s">
-        <v>113</v>
-      </c>
-      <c r="N26" s="219" t="s">
-        <v>142</v>
-      </c>
-      <c r="O26" s="220"/>
-      <c r="P26" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="R26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="S26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="T26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="U26" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="V26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="W26" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="X26" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y26" s="131" t="s">
-        <v>113</v>
+      <c r="A26" s="253" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="254"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="113"/>
+      <c r="N26" s="222" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="223"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="173" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y26" s="174" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="83.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="221" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="103" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="103" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="I27" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="J27" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="K27" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="L27" s="138" t="s">
-        <v>157</v>
-      </c>
-      <c r="N27" s="221" t="s">
-        <v>143</v>
-      </c>
-      <c r="O27" s="222"/>
-      <c r="P27" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q27" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="R27" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="S27" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="T27" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="U27" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="V27" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="W27" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="X27" s="132" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y27" s="133" t="s">
-        <v>113</v>
+      <c r="A27" s="224" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="239"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="114"/>
+      <c r="N27" s="224" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27" s="225"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="175" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" s="176" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="237"/>
-      <c r="B28" s="237"/>
+      <c r="A28" s="240"/>
+      <c r="B28" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -10947,8 +8918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0128B0-B87E-4E33-8001-348F9AE9F653}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10959,26 +8930,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006D53F4C8D732D844AE7D882D8C27E66C" ma:contentTypeVersion="18" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="70bbe916ee44c898308fc52b233fdc6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d274541-22b4-4212-af6c-71d9850896b1" xmlns:ns3="d699723c-6030-48dd-835b-9dac49e7a8e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e6162704bbcf8652c04252123e2ebc" ns2:_="" ns3:_="">
     <xsd:import namespace="2d274541-22b4-4212-af6c-71d9850896b1"/>
@@ -11233,26 +9184,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
-    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE067A7-9A28-427F-B4BA-DF647AB143B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11269,4 +9221,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
+    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
+++ b/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/RiderProjects/SeaEco/SeaEco.Server/wwwroot/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE20AC0-29EF-B047-98C8-1FB4AB68D394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74BB621-047D-0845-B5BD-491EC5955A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -1778,12 +1778,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2158,9 +2155,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2265,6 +2259,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2277,10 +2349,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2295,18 +2367,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2316,24 +2376,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2343,53 +2385,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2397,123 +2421,100 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4628,186 +4629,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="141" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="145"/>
+      <c r="B5" s="143"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="145"/>
+      <c r="B6" s="143"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="145"/>
+      <c r="B7" s="143"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="145"/>
+      <c r="B8" s="143"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="145"/>
+      <c r="B9" s="143"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="141" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="145"/>
+      <c r="B12" s="143"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="145"/>
+      <c r="B13" s="143"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="145"/>
+      <c r="B14" s="143"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="145"/>
+      <c r="B15" s="143"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="145"/>
+      <c r="B16" s="143"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="145"/>
+      <c r="B17" s="143"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="146" t="s">
+      <c r="A18" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="143"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="141" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="145"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="141" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="146" t="s">
+      <c r="A27" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4820,10 +4821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4833,224 +4834,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="A2" s="260"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
+      <c r="A3" s="260"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
+      <c r="A4" s="260"/>
+      <c r="B4" s="259"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="A5" s="260"/>
+      <c r="B5" s="259"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="259"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
+      <c r="A6" s="260"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
+      <c r="A7" s="260"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="259"/>
+      <c r="F7" s="259"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
+      <c r="A8" s="260"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
+      <c r="A9" s="260"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
+      <c r="A10" s="260"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
+      <c r="A11" s="260"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="259"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
+      <c r="A12" s="260"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="259"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
+      <c r="A13" s="260"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
+      <c r="A14" s="260"/>
+      <c r="B14" s="259"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
+      <c r="A15" s="260"/>
+      <c r="B15" s="259"/>
+      <c r="C15" s="259"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
+      <c r="A16" s="260"/>
+      <c r="B16" s="259"/>
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="259"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
+      <c r="A17" s="260"/>
+      <c r="B17" s="259"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
+      <c r="A18" s="260"/>
+      <c r="B18" s="259"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="259"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
+      <c r="A19" s="260"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="259"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="259"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
+      <c r="A20" s="260"/>
+      <c r="B20" s="259"/>
+      <c r="C20" s="259"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="259"/>
+      <c r="F20" s="259"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
+      <c r="A21" s="260"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="261"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5067,487 +5031,487 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="11" style="68" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="68" customWidth="1"/>
-    <col min="4" max="10" width="11.6640625" style="68"/>
-    <col min="11" max="11" width="12" style="68" customWidth="1"/>
-    <col min="12" max="14" width="11.6640625" style="68"/>
-    <col min="16" max="16" width="4.6640625" style="68" customWidth="1"/>
-    <col min="17" max="29" width="11.6640625" style="68"/>
+    <col min="1" max="1" width="2.6640625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="11" style="67" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="67" customWidth="1"/>
+    <col min="4" max="10" width="11.6640625" style="67"/>
+    <col min="11" max="11" width="12" style="67" customWidth="1"/>
+    <col min="12" max="14" width="11.6640625" style="67"/>
+    <col min="16" max="16" width="4.6640625" style="67" customWidth="1"/>
+    <col min="17" max="29" width="11.6640625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5" t="s">
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
-      <c r="P1" s="204" t="s">
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="5" t="s">
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="5" t="s">
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="207"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="8"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="12"/>
-      <c r="P2" s="208" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="11"/>
+      <c r="P2" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10" t="s">
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="12"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="191" t="s">
+      <c r="D3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="13" t="s">
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="211" t="s">
+      <c r="P3" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="213" t="s">
+      <c r="Q3" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="213" t="s">
+      <c r="R3" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="191" t="s">
+      <c r="S3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="191"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="191"/>
-      <c r="AB3" s="191"/>
-      <c r="AC3" s="13" t="s">
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="212"/>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="14">
+      <c r="A4" s="177"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>4</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>5</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>6</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>7</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>8</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>9</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>10</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="214"/>
-      <c r="S4" s="14">
+      <c r="N4" s="14"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="13">
         <v>11</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="13">
         <v>12</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="13">
         <v>13</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="13">
         <v>14</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="13">
         <v>15</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="13">
         <v>16</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="13">
         <v>17</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="13">
         <v>18</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AA4" s="13">
         <v>19</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AB4" s="13">
         <v>20</v>
       </c>
-      <c r="AC4" s="15"/>
+      <c r="AC4" s="14"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15"/>
-      <c r="P5" s="192" t="s">
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14"/>
+      <c r="P5" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="194"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="15"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="214"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="14"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="15"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="14"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="14"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="P7" s="17" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="P7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB7" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC7" s="23"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB7" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" s="22"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="15"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="14"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="14"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="15"/>
-      <c r="P9" s="17" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="14"/>
+      <c r="P9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="15"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="14"/>
     </row>
     <row r="10" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="15"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="27" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="14"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="15"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="14"/>
     </row>
     <row r="11" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="24" t="s">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="28" t="s">
+      <c r="R11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="126"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="125"/>
     </row>
     <row r="12" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="195" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5557,13 +5521,13 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="15"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="195" t="s">
+      <c r="N12" s="14"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="195"/>
-      <c r="S12" s="31"/>
+      <c r="R12" s="192"/>
+      <c r="S12" s="30"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -5571,907 +5535,907 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="15"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="14"/>
     </row>
     <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="182" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="33" t="s">
+      <c r="C13" s="188"/>
+      <c r="D13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="15"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="182" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="14"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="182"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="15"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="35" t="s">
+      <c r="H14" s="70"/>
+      <c r="I14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="196" t="s">
+      <c r="J14" s="70"/>
+      <c r="K14" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="197"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="15"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35" t="s">
+      <c r="L14" s="194"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="14"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="W14" s="128"/>
-      <c r="X14" s="35" t="s">
+      <c r="W14" s="127"/>
+      <c r="X14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="196" t="s">
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" s="197"/>
-      <c r="AB14" s="129"/>
-      <c r="AC14" s="15"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="35" t="s">
+      <c r="H15" s="71"/>
+      <c r="I15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="196" t="s">
+      <c r="J15" s="70"/>
+      <c r="K15" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="197"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="15"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35" t="s">
+      <c r="L15" s="194"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="14"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="W15" s="128"/>
-      <c r="X15" s="35" t="s">
+      <c r="W15" s="127"/>
+      <c r="X15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="196" t="s">
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="128" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC15" s="15"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="15"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="14"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="N17" s="15"/>
-      <c r="P17" s="17" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="P17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="198" t="s">
+      <c r="Q17" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB17" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC17" s="15"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB17" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC17" s="14"/>
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="15"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="44" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="196"/>
+      <c r="R18" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB18" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC18" s="15"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC18" s="14"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="198" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="15"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="198" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB19" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC19" s="15"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB19" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC19" s="14"/>
     </row>
     <row r="20" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="N20" s="15"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="199"/>
-      <c r="R20" s="44" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="196"/>
+      <c r="R20" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB20" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC20" s="15"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB20" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="198" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="198" t="s">
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB21" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC21" s="15"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB21" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC21" s="14"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="200"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="N22" s="15"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="200"/>
-      <c r="R22" s="28" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="197"/>
+      <c r="R22" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB22" s="134" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB22" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC22" s="14"/>
     </row>
     <row r="23" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="44" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" s="15"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="199"/>
-      <c r="R23" s="44" t="s">
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="196"/>
+      <c r="R23" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB23" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC23" s="15"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB23" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC23" s="14"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="198" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="198" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="R24" s="39" t="s">
+      <c r="R24" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB24" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC24" s="15"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB24" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="200"/>
-      <c r="C25" s="28" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="15"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="200"/>
-      <c r="R25" s="28" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB25" s="134" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB25" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC25" s="14"/>
     </row>
     <row r="26" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="44" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="196"/>
+      <c r="C26" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="44" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="14"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="196"/>
+      <c r="R26" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB26" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC26" s="15"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB26" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="15"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="201" t="s">
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="14"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="R27" s="39" t="s">
+      <c r="R27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB27" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC27" s="15"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB27" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC27" s="14"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="N28" s="15"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="202"/>
-      <c r="R28" s="28" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="216"/>
+      <c r="R28" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB28" s="134" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB28" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC28" s="14"/>
     </row>
     <row r="29" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="15"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="44" t="s">
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="217"/>
+      <c r="R29" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB29" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC29" s="15"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB29" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC29" s="14"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="188" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="15"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="188" t="s">
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB30" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC30" s="15"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB30" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC30" s="14"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="28" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="N31" s="50"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="189"/>
-      <c r="R31" s="28" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="49"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="199"/>
+      <c r="R31" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB31" s="134" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC31" s="50"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB31" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC31" s="49"/>
     </row>
     <row r="32" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="190"/>
-      <c r="C32" s="44" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" s="15"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="190"/>
-      <c r="R32" s="44" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="14"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="200"/>
+      <c r="R32" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB32" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC32" s="15"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB32" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC32" s="14"/>
     </row>
     <row r="33" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="182" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="15"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="182" t="s">
+      <c r="C33" s="201"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="14"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="183"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="15"/>
+      <c r="R33" s="201"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="14"/>
     </row>
     <row r="34" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="182" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="182"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="30" t="s">
+      <c r="C34" s="188"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="182" t="s">
+      <c r="P34" s="16"/>
+      <c r="Q34" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="182"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="136"/>
-      <c r="AC34" s="126"/>
+      <c r="R34" s="188"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="135"/>
+      <c r="AC34" s="125"/>
     </row>
     <row r="35" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="182" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -6481,13 +6445,13 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="15"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="182" t="s">
+      <c r="N35" s="14"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="R35" s="183"/>
-      <c r="S35" s="31"/>
+      <c r="R35" s="201"/>
+      <c r="S35" s="30"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -6495,118 +6459,118 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="15"/>
+      <c r="AA35" s="121"/>
+      <c r="AB35" s="121"/>
+      <c r="AC35" s="14"/>
     </row>
     <row r="36" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="182" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="182"/>
-      <c r="D36" s="33" t="s">
+      <c r="C36" s="188"/>
+      <c r="D36" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="15"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="182" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="14"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="R36" s="182"/>
-      <c r="S36" s="137"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="15"/>
+      <c r="R36" s="188"/>
+      <c r="S36" s="136"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="15"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="14"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="14"/>
     </row>
     <row r="38" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="30" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="18" t="s">
+      <c r="P38" s="53"/>
+      <c r="Q38" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="R38" s="18"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="122"/>
-      <c r="AB38" s="122"/>
-      <c r="AC38" s="126"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="121"/>
+      <c r="AB38" s="121"/>
+      <c r="AC38" s="125"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="55"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -6617,344 +6581,345 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="15"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="18" t="s">
+      <c r="N39" s="14"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="R39" s="55"/>
-      <c r="S39" s="138"/>
-      <c r="T39" s="138"/>
-      <c r="U39" s="138"/>
-      <c r="V39" s="138"/>
-      <c r="W39" s="138"/>
-      <c r="X39" s="138"/>
-      <c r="Y39" s="138"/>
-      <c r="Z39" s="138"/>
-      <c r="AA39" s="139"/>
-      <c r="AB39" s="139"/>
-      <c r="AC39" s="15"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="137"/>
+      <c r="T39" s="137"/>
+      <c r="U39" s="137"/>
+      <c r="V39" s="137"/>
+      <c r="W39" s="137"/>
+      <c r="X39" s="137"/>
+      <c r="Y39" s="137"/>
+      <c r="Z39" s="137"/>
+      <c r="AA39" s="138"/>
+      <c r="AB39" s="138"/>
+      <c r="AC39" s="14"/>
     </row>
     <row r="40" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="12"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="12"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="11"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="11"/>
     </row>
     <row r="41" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="184" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="185"/>
-      <c r="D41" s="58" t="s">
+      <c r="C41" s="209"/>
+      <c r="D41" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10" t="s">
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10" t="s">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="12"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="184" t="s">
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="11"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="R41" s="185"/>
-      <c r="S41" s="58" t="s">
+      <c r="R41" s="209"/>
+      <c r="S41" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10" t="s">
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="140"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="12"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="139"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="11"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="186" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="187"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="12"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="186" t="s">
+      <c r="C42" s="211"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="11"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="R42" s="187"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="12"/>
+      <c r="R42" s="211"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="11"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="178" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="179"/>
-      <c r="D43" s="60">
+      <c r="C43" s="203"/>
+      <c r="D43" s="59">
         <v>1</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="12"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="178" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="11"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="R43" s="179"/>
-      <c r="S43" s="60">
+      <c r="R43" s="203"/>
+      <c r="S43" s="59">
         <v>1</v>
       </c>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="12"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="11"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="178" t="s">
+      <c r="A44" s="55"/>
+      <c r="B44" s="202" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="179"/>
-      <c r="D44" s="61">
+      <c r="C44" s="203"/>
+      <c r="D44" s="60">
         <v>2</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="12"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="178" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="11"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="202" t="s">
         <v>69</v>
       </c>
-      <c r="R44" s="179"/>
-      <c r="S44" s="61">
+      <c r="R44" s="203"/>
+      <c r="S44" s="60">
         <v>2</v>
       </c>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="12"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="11"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="178" t="s">
+      <c r="A45" s="55"/>
+      <c r="B45" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="179"/>
-      <c r="D45" s="62">
+      <c r="C45" s="203"/>
+      <c r="D45" s="61">
         <v>3</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="63"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="178" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="62"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="R45" s="179"/>
-      <c r="S45" s="62">
+      <c r="R45" s="203"/>
+      <c r="S45" s="61">
         <v>3</v>
       </c>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="63"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="62"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="180" t="s">
+      <c r="A46" s="55"/>
+      <c r="B46" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="64">
+      <c r="C46" s="205"/>
+      <c r="D46" s="63">
         <v>4</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="63"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="180" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="62"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="R46" s="181"/>
-      <c r="S46" s="64">
+      <c r="R46" s="205"/>
+      <c r="S46" s="63">
         <v>4</v>
       </c>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="63"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="62"/>
     </row>
     <row r="47" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="67"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="66"/>
-      <c r="S47" s="66"/>
-      <c r="T47" s="66"/>
-      <c r="U47" s="66"/>
-      <c r="V47" s="66"/>
-      <c r="W47" s="66"/>
-      <c r="X47" s="66"/>
-      <c r="Y47" s="66"/>
-      <c r="Z47" s="66"/>
-      <c r="AA47" s="66"/>
-      <c r="AB47" s="66"/>
-      <c r="AC47" s="67"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="66"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="65"/>
+      <c r="V47" s="65"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="65"/>
+      <c r="Y47" s="65"/>
+      <c r="Z47" s="65"/>
+      <c r="AA47" s="65"/>
+      <c r="AB47" s="65"/>
+      <c r="AC47" s="66"/>
     </row>
     <row r="50" spans="6:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="F50" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" s="69"/>
-      <c r="N50" s="70"/>
+      <c r="F50" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="68"/>
+      <c r="N50" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="S3:AB3"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q27:Q29"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="P1:R1"/>
@@ -6971,28 +6936,27 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="S3:AB3"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="251" priority="248">
@@ -7890,365 +7854,365 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11" style="68"/>
-    <col min="4" max="4" width="12" style="68" customWidth="1"/>
-    <col min="5" max="12" width="11.6640625" style="68"/>
-    <col min="14" max="25" width="11.6640625" style="68"/>
+    <col min="1" max="3" width="11" style="67"/>
+    <col min="4" max="4" width="12" style="67" customWidth="1"/>
+    <col min="5" max="12" width="11.6640625" style="67"/>
+    <col min="14" max="25" width="11.6640625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="104"/>
-      <c r="N1" s="75" t="s">
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="103"/>
+      <c r="N1" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="206"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5" t="s">
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="104"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="103"/>
     </row>
     <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="105"/>
-      <c r="N2" s="56" t="s">
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="104"/>
+      <c r="N2" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10" t="s">
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="105"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="222" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="247" t="s">
+      <c r="B3" s="223"/>
+      <c r="C3" s="224" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="248"/>
-      <c r="N3" s="243" t="s">
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="225"/>
+      <c r="N3" s="222" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="244"/>
-      <c r="P3" s="247" t="s">
+      <c r="O3" s="223"/>
+      <c r="P3" s="224" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="248"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="225"/>
     </row>
     <row r="4" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="243"/>
-      <c r="B4" s="244"/>
-      <c r="C4" s="79">
+      <c r="A4" s="222"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="78">
         <v>1</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="79">
         <v>2</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="79">
         <v>3</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="79">
         <v>4</v>
       </c>
-      <c r="G4" s="80">
+      <c r="G4" s="79">
         <v>5</v>
       </c>
-      <c r="H4" s="80">
+      <c r="H4" s="79">
         <v>6</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="79">
         <v>7</v>
       </c>
-      <c r="J4" s="80">
+      <c r="J4" s="79">
         <v>8</v>
       </c>
-      <c r="K4" s="80">
+      <c r="K4" s="79">
         <v>9</v>
       </c>
-      <c r="L4" s="106">
+      <c r="L4" s="105">
         <v>10</v>
       </c>
-      <c r="N4" s="245"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="79">
+      <c r="N4" s="246"/>
+      <c r="O4" s="247"/>
+      <c r="P4" s="78">
         <v>11</v>
       </c>
-      <c r="Q4" s="80">
+      <c r="Q4" s="79">
         <v>12</v>
       </c>
-      <c r="R4" s="80">
+      <c r="R4" s="79">
         <v>13</v>
       </c>
-      <c r="S4" s="80">
+      <c r="S4" s="79">
         <v>14</v>
       </c>
-      <c r="T4" s="80">
+      <c r="T4" s="79">
         <v>15</v>
       </c>
-      <c r="U4" s="80">
+      <c r="U4" s="79">
         <v>16</v>
       </c>
-      <c r="V4" s="80">
+      <c r="V4" s="79">
         <v>17</v>
       </c>
-      <c r="W4" s="80">
+      <c r="W4" s="79">
         <v>18</v>
       </c>
-      <c r="X4" s="80">
+      <c r="X4" s="79">
         <v>19</v>
       </c>
-      <c r="Y4" s="106">
+      <c r="Y4" s="105">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="115"/>
-      <c r="N5" s="249" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="114"/>
+      <c r="N5" s="248" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="250"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="152"/>
     </row>
     <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="218" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="233"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="116"/>
-      <c r="N6" s="249" t="s">
+      <c r="B6" s="219"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="115"/>
+      <c r="N6" s="248" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="250"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="155"/>
-      <c r="Y6" s="156"/>
+      <c r="O6" s="249"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="154"/>
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="233"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="111"/>
-      <c r="N7" s="251" t="s">
+      <c r="B7" s="219"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="110"/>
+      <c r="N7" s="250" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="252"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="158"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="155"/>
+      <c r="Y7" s="156"/>
     </row>
     <row r="8" spans="1:25" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="257" t="s">
+      <c r="A8" s="230" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="258"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="118"/>
-      <c r="N8" s="230" t="s">
+      <c r="B8" s="231"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="117"/>
+      <c r="N8" s="256" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="231"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="157" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y8" s="158" t="s">
+      <c r="O8" s="257"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="155" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="156" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="232" t="s">
+      <c r="A9" s="218" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="233"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="119"/>
-      <c r="N9" s="232" t="s">
+      <c r="B9" s="219"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="118"/>
+      <c r="N9" s="218" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="233"/>
-      <c r="P9" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="S9" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="T9" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="U9" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="V9" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="W9" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="X9" s="159" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9" s="160" t="s">
+      <c r="O9" s="219"/>
+      <c r="P9" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="158" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="259"/>
-      <c r="B10" s="260"/>
+      <c r="A10" s="232"/>
+      <c r="B10" s="233"/>
       <c r="C10" s="234" t="s">
         <v>83</v>
       </c>
@@ -8261,8 +8225,8 @@
       <c r="J10" s="234"/>
       <c r="K10" s="234"/>
       <c r="L10" s="235"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="121"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="234" t="s">
         <v>83</v>
       </c>
@@ -8277,250 +8241,250 @@
       <c r="Y10" s="235"/>
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="236" t="s">
+      <c r="A11" s="238" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="115"/>
-      <c r="N11" s="236" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="114"/>
+      <c r="N11" s="238" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="81" t="s">
+      <c r="O11" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y11" s="162" t="s">
+      <c r="P11" s="81"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="159" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="160" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="237"/>
-      <c r="B12" s="81" t="s">
+      <c r="A12" s="239"/>
+      <c r="B12" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="116"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="81" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="115"/>
+      <c r="N12" s="239"/>
+      <c r="O12" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="163" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y12" s="164" t="s">
+      <c r="P12" s="91"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="162" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="237"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="239"/>
+      <c r="B13" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="116"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="81" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="115"/>
+      <c r="N13" s="239"/>
+      <c r="O13" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="163" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y13" s="164" t="s">
+      <c r="P13" s="91"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13" s="162" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="237"/>
-      <c r="B14" s="81" t="s">
+      <c r="A14" s="239"/>
+      <c r="B14" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="116"/>
-      <c r="N14" s="237"/>
-      <c r="O14" s="81" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="115"/>
+      <c r="N14" s="239"/>
+      <c r="O14" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="163" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y14" s="164" t="s">
+      <c r="P14" s="91"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="162" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="238"/>
-      <c r="B15" s="81" t="s">
+      <c r="A15" s="240"/>
+      <c r="B15" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="116"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="81" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="115"/>
+      <c r="N15" s="240"/>
+      <c r="O15" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="163" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y15" s="164" t="s">
+      <c r="P15" s="91"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="162" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="233"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="116"/>
-      <c r="N16" s="232" t="s">
+      <c r="B16" s="219"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="115"/>
+      <c r="N16" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="233"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="163" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y16" s="164" t="s">
+      <c r="O16" s="219"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" s="162" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="232" t="s">
+      <c r="A17" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="233"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="117"/>
-      <c r="N17" s="232" t="s">
+      <c r="B17" s="219"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="116"/>
+      <c r="N17" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="233"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="165" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y17" s="166" t="s">
+      <c r="O17" s="219"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="163" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" s="164" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="255"/>
-      <c r="B18" s="256"/>
+      <c r="A18" s="241"/>
+      <c r="B18" s="242"/>
       <c r="C18" s="226" t="s">
         <v>92</v>
       </c>
@@ -8533,8 +8497,8 @@
       <c r="J18" s="226"/>
       <c r="K18" s="226"/>
       <c r="L18" s="227"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="10"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="226" t="s">
         <v>92</v>
       </c>
@@ -8549,336 +8513,331 @@
       <c r="Y18" s="227"/>
     </row>
     <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="220" t="s">
+      <c r="A19" s="228" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="221"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="110"/>
-      <c r="N19" s="220" t="s">
+      <c r="B19" s="229"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="109"/>
+      <c r="N19" s="228" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="221"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="167" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y19" s="168" t="s">
+      <c r="O19" s="229"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="165" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" s="166" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="220" t="s">
+      <c r="A20" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="221"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="111"/>
-      <c r="N20" s="220" t="s">
+      <c r="B20" s="229"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="110"/>
+      <c r="N20" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="O20" s="221"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="169" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y20" s="170" t="s">
+      <c r="O20" s="229"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="167" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="168" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="221"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="111"/>
-      <c r="N21" s="220" t="s">
+      <c r="B21" s="229"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="110"/>
+      <c r="N21" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="221"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="169" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y21" s="170" t="s">
+      <c r="O21" s="229"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="167" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y21" s="168" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="220" t="s">
+      <c r="A22" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="221"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="111"/>
-      <c r="N22" s="220" t="s">
+      <c r="B22" s="229"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="110"/>
+      <c r="N22" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="O22" s="221"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="169" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y22" s="170" t="s">
+      <c r="O22" s="229"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="167" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y22" s="168" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="151" t="s">
+      <c r="A23" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="112"/>
-      <c r="N23" s="95" t="s">
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="111"/>
+      <c r="N23" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="O23" s="96" t="s">
+      <c r="O23" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="171"/>
-      <c r="Y23" s="172"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="169"/>
+      <c r="Y23" s="170"/>
     </row>
     <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="228" t="s">
+      <c r="A24" s="252" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="229"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="111"/>
-      <c r="N24" s="228" t="s">
+      <c r="B24" s="253"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="110"/>
+      <c r="N24" s="252" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="229"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="169" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y24" s="170" t="s">
+      <c r="O24" s="253"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="167" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y24" s="168" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="222" t="s">
+      <c r="A25" s="254" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="223"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="111"/>
-      <c r="N25" s="220" t="s">
+      <c r="B25" s="255"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="110"/>
+      <c r="N25" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="221"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="169" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y25" s="170" t="s">
+      <c r="O25" s="229"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="167" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y25" s="168" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="253" t="s">
+      <c r="A26" s="236" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="254"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="113"/>
-      <c r="N26" s="222" t="s">
+      <c r="B26" s="237"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="112"/>
+      <c r="N26" s="254" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="223"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="173" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y26" s="174" t="s">
+      <c r="O26" s="255"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="171" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y26" s="172" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="83.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="224" t="s">
+      <c r="A27" s="243" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="239"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="114"/>
-      <c r="N27" s="224" t="s">
+      <c r="B27" s="244"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="113"/>
+      <c r="N27" s="243" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="225"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="175" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y27" s="176" t="s">
+      <c r="O27" s="258"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="173" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" s="174" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="240"/>
-      <c r="B28" s="240"/>
+      <c r="A28" s="245"/>
+      <c r="B28" s="245"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Y10"/>
+    <mergeCell ref="N11:N15"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
@@ -8895,20 +8854,25 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Y10"/>
-    <mergeCell ref="N11:N15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8918,7 +8882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0128B0-B87E-4E33-8001-348F9AE9F653}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -8930,6 +8894,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006D53F4C8D732D844AE7D882D8C27E66C" ma:contentTypeVersion="18" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="70bbe916ee44c898308fc52b233fdc6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d274541-22b4-4212-af6c-71d9850896b1" xmlns:ns3="d699723c-6030-48dd-835b-9dac49e7a8e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e6162704bbcf8652c04252123e2ebc" ns2:_="" ns3:_="">
     <xsd:import namespace="2d274541-22b4-4212-af6c-71d9850896b1"/>
@@ -9184,27 +9168,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
+    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE067A7-9A28-427F-B4BA-DF647AB143B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9221,23 +9204,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
-    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
+++ b/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/RiderProjects/SeaEco/SeaEco.Server/wwwroot/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74BB621-047D-0845-B5BD-491EC5955A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4310F6E4-F633-2640-853F-42ED74CD5F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -616,7 +616,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,12 +681,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1778,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1801,9 +1795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1965,7 +1956,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="18" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2097,19 +2087,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2122,34 +2099,10 @@
     <xf numFmtId="164" fontId="10" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2175,7 +2128,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2256,7 +2208,121 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2271,20 +2337,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2292,98 +2352,41 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2391,6 +2394,27 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2403,23 +2427,41 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2433,88 +2475,37 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4618,7 +4609,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4629,186 +4620,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="127" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="143"/>
+      <c r="B5" s="129"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="143"/>
+      <c r="B6" s="129"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="143"/>
+      <c r="B7" s="129"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="143"/>
+      <c r="B8" s="129"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="143"/>
+      <c r="B9" s="129"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="127" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="143"/>
+      <c r="B12" s="129"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="143"/>
+      <c r="B13" s="129"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="143"/>
+      <c r="B14" s="129"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="143"/>
+      <c r="B15" s="129"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="143"/>
+      <c r="B16" s="129"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="144" t="s">
+      <c r="A17" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="143"/>
+      <c r="B17" s="129"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="143"/>
+      <c r="B18" s="129"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="127" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="144" t="s">
+      <c r="A21" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="127" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="144" t="s">
+      <c r="A28" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4821,9 +4812,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -4854,167 +4845,164 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="260"/>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="260"/>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
+      <c r="A3" s="161"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="260"/>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="260"/>
-      <c r="B5" s="259"/>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="259"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="260"/>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="260"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="260"/>
-      <c r="B8" s="259"/>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="260"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="260"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="260"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="260"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="259"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="259"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="260"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="260"/>
-      <c r="B14" s="259"/>
-      <c r="C14" s="259"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="260"/>
-      <c r="B15" s="259"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="259"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="260"/>
-      <c r="B16" s="259"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="259"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="260"/>
-      <c r="B17" s="259"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="259"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="260"/>
-      <c r="B18" s="259"/>
-      <c r="C18" s="259"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="259"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="260"/>
-      <c r="B19" s="259"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="259"/>
-      <c r="F19" s="259"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="260"/>
-      <c r="B20" s="259"/>
-      <c r="C20" s="259"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="259"/>
-      <c r="F20" s="259"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="260"/>
-      <c r="B21" s="259"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="259"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="261"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5025,493 +5013,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EE1091-9F45-40A9-90F5-6AF0F1D8D5C5}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="P18" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="11" style="67" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="67" customWidth="1"/>
-    <col min="4" max="10" width="11.6640625" style="67"/>
-    <col min="11" max="11" width="12" style="67" customWidth="1"/>
-    <col min="12" max="14" width="11.6640625" style="67"/>
-    <col min="16" max="16" width="4.6640625" style="67" customWidth="1"/>
-    <col min="17" max="29" width="11.6640625" style="67"/>
+    <col min="1" max="1" width="2.6640625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="11" style="66" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="66" customWidth="1"/>
+    <col min="4" max="10" width="11.6640625" style="66"/>
+    <col min="11" max="11" width="12" style="66" customWidth="1"/>
+    <col min="12" max="14" width="11.6640625" style="66"/>
+    <col min="16" max="16" width="4.6640625" style="66" customWidth="1"/>
+    <col min="17" max="29" width="11.6640625" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
       <c r="I1" s="5"/>
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
       <c r="M1" s="6"/>
       <c r="N1" s="7"/>
-      <c r="P1" s="181" t="s">
+      <c r="P1" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
       <c r="S1" s="3"/>
       <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="184"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="163"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="11"/>
-      <c r="P2" s="206" t="s">
+      <c r="N2" s="10"/>
+      <c r="P2" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
       <c r="S2" s="8"/>
       <c r="T2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="163"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
-      <c r="AC2" s="11"/>
+      <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="C3" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="12" t="s">
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="176" t="s">
+      <c r="P3" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="178" t="s">
+      <c r="Q3" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="178" t="s">
+      <c r="R3" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="180" t="s">
+      <c r="S3" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="12" t="s">
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="179"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="177"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13">
-        <v>4</v>
-      </c>
-      <c r="H4" s="13">
-        <v>5</v>
-      </c>
-      <c r="I4" s="13">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13">
-        <v>7</v>
-      </c>
-      <c r="K4" s="13">
-        <v>8</v>
-      </c>
-      <c r="L4" s="13">
-        <v>9</v>
-      </c>
-      <c r="M4" s="13">
-        <v>10</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="179"/>
-      <c r="S4" s="13">
-        <v>11</v>
-      </c>
-      <c r="T4" s="13">
-        <v>12</v>
-      </c>
-      <c r="U4" s="13">
-        <v>13</v>
-      </c>
-      <c r="V4" s="13">
-        <v>14</v>
-      </c>
-      <c r="W4" s="13">
-        <v>15</v>
-      </c>
-      <c r="X4" s="13">
-        <v>16</v>
-      </c>
-      <c r="Y4" s="13">
+      <c r="A4" s="200"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="13"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="B5" s="204"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="13"/>
+      <c r="P5" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="249"/>
+      <c r="AB5" s="249"/>
+      <c r="AC5" s="13"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="13"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="13"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="C7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AC4" s="14"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="189" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
-      <c r="P5" s="212" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="214"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="14"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="14"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="14"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="P7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="R7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
-      <c r="P7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB7" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC7" s="22"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="250" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB7" s="250" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" s="21"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="14"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="13"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="13"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="14"/>
-      <c r="P9" s="16" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="13"/>
+      <c r="P9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="14"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="251"/>
+      <c r="AB9" s="251"/>
+      <c r="AC9" s="13"/>
     </row>
     <row r="10" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="14"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="26" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="13"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="14"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="251"/>
+      <c r="AB10" s="251"/>
+      <c r="AC10" s="13"/>
     </row>
     <row r="11" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="23" t="s">
+      <c r="P11" s="15"/>
+      <c r="Q11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="125"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="252"/>
+      <c r="AB11" s="252"/>
+      <c r="AC11" s="119"/>
     </row>
     <row r="12" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="192" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="192"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5521,13 +5469,13 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="14"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="192" t="s">
+      <c r="N12" s="13"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="192"/>
-      <c r="S12" s="30"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="29"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -5535,907 +5483,907 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="14"/>
+      <c r="AA12" s="249"/>
+      <c r="AB12" s="249"/>
+      <c r="AC12" s="13"/>
     </row>
     <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="188" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="170"/>
+      <c r="D13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="14"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="188" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="13"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="188"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="14"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="13"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="34" t="s">
+      <c r="H14" s="69"/>
+      <c r="I14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="193" t="s">
+      <c r="J14" s="69"/>
+      <c r="K14" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="194"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="14"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="34" t="s">
+      <c r="L14" s="185"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="13"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="W14" s="127"/>
-      <c r="X14" s="34" t="s">
+      <c r="W14" s="121"/>
+      <c r="X14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="193" t="s">
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" s="194"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="14"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="13"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="34" t="s">
+      <c r="H15" s="70"/>
+      <c r="I15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="193" t="s">
+      <c r="J15" s="69"/>
+      <c r="K15" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="194"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="14"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="34" t="s">
+      <c r="L15" s="185"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="13"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="W15" s="127"/>
-      <c r="X15" s="34" t="s">
+      <c r="W15" s="121"/>
+      <c r="X15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="193" t="s">
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="AA15" s="194"/>
-      <c r="AB15" s="127" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC15" s="14"/>
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC15" s="13"/>
     </row>
     <row r="16" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="14"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="13"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="13"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="P17" s="16" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="P17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="195" t="s">
+      <c r="Q17" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB17" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC17" s="14"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB17" s="254" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC17" s="13"/>
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="43" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="196"/>
-      <c r="R18" s="43" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB18" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC18" s="14"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="255" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="256" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="195" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="14"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="195" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="38" t="s">
+      <c r="R19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB19" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC19" s="14"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB19" s="254" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC19" s="13"/>
     </row>
     <row r="20" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="196"/>
-      <c r="C20" s="43" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="196"/>
-      <c r="R20" s="43" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="187"/>
+      <c r="R20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB20" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC20" s="14"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="255" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB20" s="256" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC20" s="13"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="195" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="195" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="38" t="s">
+      <c r="R21" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB21" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC21" s="14"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB21" s="254" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC21" s="13"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="27" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="N22" s="14"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="197"/>
-      <c r="R22" s="27" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="188"/>
+      <c r="R22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB22" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="249" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB22" s="257" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC22" s="13"/>
     </row>
     <row r="23" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="43" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" s="14"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="196"/>
-      <c r="R23" s="43" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB23" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC23" s="14"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="255" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB23" s="256" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC23" s="13"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="195" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="195" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="R24" s="38" t="s">
+      <c r="R24" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB24" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC24" s="14"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB24" s="254" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC24" s="13"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="27" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="14"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="27" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="188"/>
+      <c r="R25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB25" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="249" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB25" s="257" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="196"/>
-      <c r="C26" s="43" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="196"/>
-      <c r="R26" s="43" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="13"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="187"/>
+      <c r="R26" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB26" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC26" s="14"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="255" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB26" s="256" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC26" s="13"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="215" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="R27" s="38" t="s">
+      <c r="R27" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB27" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC27" s="14"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB27" s="254" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC27" s="13"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="216"/>
-      <c r="R28" s="27" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="190"/>
+      <c r="R28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB28" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="249" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB28" s="257" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC28" s="13"/>
     </row>
     <row r="29" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="217"/>
-      <c r="R29" s="43" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB29" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC29" s="14"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="255" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB29" s="256" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC29" s="13"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="198" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="198" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="R30" s="38" t="s">
+      <c r="R30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB30" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC30" s="14"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB30" s="254" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC30" s="13"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="27" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="N31" s="49"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="199"/>
-      <c r="R31" s="27" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="48"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB31" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC31" s="49"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="249" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB31" s="257" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC31" s="48"/>
     </row>
     <row r="32" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="200"/>
-      <c r="C32" s="43" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="200"/>
-      <c r="R32" s="43" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="178"/>
+      <c r="R32" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB32" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC32" s="14"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="255" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB32" s="256" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC32" s="13"/>
     </row>
     <row r="33" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="188" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="201"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="14"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="188" t="s">
+      <c r="C33" s="171"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="13"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="201"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="14"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="13"/>
     </row>
     <row r="34" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="188" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="29" t="s">
+      <c r="C34" s="170"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="188" t="s">
+      <c r="P34" s="15"/>
+      <c r="Q34" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="188"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="135"/>
-      <c r="AC34" s="125"/>
+      <c r="R34" s="170"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="119"/>
     </row>
     <row r="35" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="188" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="201"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -6445,13 +6393,13 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="14"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="188" t="s">
+      <c r="N35" s="13"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="R35" s="201"/>
-      <c r="S35" s="30"/>
+      <c r="R35" s="171"/>
+      <c r="S35" s="29"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -6459,118 +6407,118 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="121"/>
-      <c r="AB35" s="121"/>
-      <c r="AC35" s="14"/>
+      <c r="AA35" s="249"/>
+      <c r="AB35" s="249"/>
+      <c r="AC35" s="13"/>
     </row>
     <row r="36" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="188" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="32" t="s">
+      <c r="C36" s="170"/>
+      <c r="D36" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="14"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="188" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="13"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="R36" s="188"/>
-      <c r="S36" s="136"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="14"/>
+      <c r="R36" s="170"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="13"/>
     </row>
     <row r="37" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="14"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="13"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="13"/>
     </row>
     <row r="38" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="29" t="s">
+      <c r="C38" s="16"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="17" t="s">
+      <c r="P38" s="52"/>
+      <c r="Q38" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="R38" s="17"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="121"/>
-      <c r="AB38" s="121"/>
-      <c r="AC38" s="125"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="119"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="54"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -6581,28 +6529,28 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="14"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="17" t="s">
+      <c r="N39" s="13"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R39" s="54"/>
-      <c r="S39" s="137"/>
-      <c r="T39" s="137"/>
-      <c r="U39" s="137"/>
-      <c r="V39" s="137"/>
-      <c r="W39" s="137"/>
-      <c r="X39" s="137"/>
-      <c r="Y39" s="137"/>
-      <c r="Z39" s="137"/>
-      <c r="AA39" s="138"/>
-      <c r="AB39" s="138"/>
-      <c r="AC39" s="14"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="124"/>
+      <c r="T39" s="124"/>
+      <c r="U39" s="124"/>
+      <c r="V39" s="124"/>
+      <c r="W39" s="124"/>
+      <c r="X39" s="124"/>
+      <c r="Y39" s="124"/>
+      <c r="Z39" s="124"/>
+      <c r="AA39" s="258"/>
+      <c r="AB39" s="258"/>
+      <c r="AC39" s="13"/>
     </row>
     <row r="40" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -6613,10 +6561,10 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="11"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
+      <c r="N40" s="10"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
@@ -6627,15 +6575,15 @@
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
-      <c r="AC40" s="11"/>
+      <c r="AC40" s="10"/>
     </row>
     <row r="41" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="208" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="209"/>
-      <c r="D41" s="57" t="s">
+      <c r="C41" s="173"/>
+      <c r="D41" s="56" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="9"/>
@@ -6651,13 +6599,13 @@
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="11"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="208" t="s">
+      <c r="N41" s="10"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="R41" s="209"/>
-      <c r="S41" s="57" t="s">
+      <c r="R41" s="173"/>
+      <c r="S41" s="56" t="s">
         <v>64</v>
       </c>
       <c r="T41" s="9"/>
@@ -6668,18 +6616,18 @@
         <v>65</v>
       </c>
       <c r="Y41" s="9"/>
-      <c r="Z41" s="139"/>
+      <c r="Z41" s="125"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
-      <c r="AC41" s="11"/>
+      <c r="AC41" s="10"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="210" t="s">
+      <c r="A42" s="54"/>
+      <c r="B42" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="211"/>
-      <c r="D42" s="58"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -6689,13 +6637,13 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="11"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="210" t="s">
+      <c r="N42" s="10"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="R42" s="211"/>
-      <c r="S42" s="58"/>
+      <c r="R42" s="175"/>
+      <c r="S42" s="57"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
@@ -6705,15 +6653,15 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
-      <c r="AC42" s="11"/>
+      <c r="AC42" s="10"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="202" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="203"/>
-      <c r="D43" s="59">
+      <c r="C43" s="167"/>
+      <c r="D43" s="58">
         <v>1</v>
       </c>
       <c r="E43" s="9"/>
@@ -6725,13 +6673,13 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="11"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="202" t="s">
+      <c r="N43" s="10"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="R43" s="203"/>
-      <c r="S43" s="59">
+      <c r="R43" s="167"/>
+      <c r="S43" s="58">
         <v>1</v>
       </c>
       <c r="T43" s="9"/>
@@ -6743,15 +6691,15 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
-      <c r="AC43" s="11"/>
+      <c r="AC43" s="10"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="202" t="s">
+      <c r="A44" s="54"/>
+      <c r="B44" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="203"/>
-      <c r="D44" s="60">
+      <c r="C44" s="167"/>
+      <c r="D44" s="59">
         <v>2</v>
       </c>
       <c r="E44" s="9"/>
@@ -6763,13 +6711,13 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="11"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="202" t="s">
+      <c r="N44" s="10"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="R44" s="203"/>
-      <c r="S44" s="60">
+      <c r="R44" s="167"/>
+      <c r="S44" s="59">
         <v>2</v>
       </c>
       <c r="T44" s="9"/>
@@ -6781,15 +6729,15 @@
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
-      <c r="AC44" s="11"/>
+      <c r="AC44" s="10"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
-      <c r="B45" s="202" t="s">
+      <c r="A45" s="54"/>
+      <c r="B45" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="203"/>
-      <c r="D45" s="61">
+      <c r="C45" s="167"/>
+      <c r="D45" s="60">
         <v>3</v>
       </c>
       <c r="E45" s="9"/>
@@ -6801,13 +6749,13 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="62"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="202" t="s">
+      <c r="N45" s="61"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="R45" s="203"/>
-      <c r="S45" s="61">
+      <c r="R45" s="167"/>
+      <c r="S45" s="60">
         <v>3</v>
       </c>
       <c r="T45" s="9"/>
@@ -6819,15 +6767,15 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
-      <c r="AC45" s="62"/>
+      <c r="AC45" s="61"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
-      <c r="B46" s="204" t="s">
+      <c r="A46" s="54"/>
+      <c r="B46" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="205"/>
-      <c r="D46" s="63">
+      <c r="C46" s="169"/>
+      <c r="D46" s="62">
         <v>4</v>
       </c>
       <c r="E46" s="9"/>
@@ -6839,13 +6787,13 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="62"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="204" t="s">
+      <c r="N46" s="61"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="R46" s="205"/>
-      <c r="S46" s="63">
+      <c r="R46" s="169"/>
+      <c r="S46" s="62">
         <v>4</v>
       </c>
       <c r="T46" s="9"/>
@@ -6857,69 +6805,68 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
-      <c r="AC46" s="62"/>
+      <c r="AC46" s="61"/>
     </row>
     <row r="47" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="66"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="65"/>
-      <c r="S47" s="65"/>
-      <c r="T47" s="65"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="65"/>
-      <c r="W47" s="65"/>
-      <c r="X47" s="65"/>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="65"/>
-      <c r="AB47" s="65"/>
-      <c r="AC47" s="66"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="65"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64"/>
+      <c r="AB47" s="64"/>
+      <c r="AC47" s="65"/>
     </row>
     <row r="50" spans="6:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="F50" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" s="68"/>
-      <c r="N50" s="69"/>
+      <c r="F50" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="67"/>
+      <c r="N50" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="S3:AB3"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="P1:R1"/>
@@ -6936,27 +6883,28 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="S3:AB3"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="251" priority="248">
@@ -7848,996 +7796,961 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C7B2D4-D38D-4D01-9B83-C70548CD7D94}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="G3" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11" style="67"/>
-    <col min="4" max="4" width="12" style="67" customWidth="1"/>
-    <col min="5" max="12" width="11.6640625" style="67"/>
-    <col min="14" max="25" width="11.6640625" style="67"/>
+    <col min="1" max="3" width="11" style="66"/>
+    <col min="4" max="4" width="12" style="66" customWidth="1"/>
+    <col min="5" max="12" width="11.6640625" style="66"/>
+    <col min="14" max="25" width="11.6640625" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="103"/>
-      <c r="N1" s="74" t="s">
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="101"/>
+      <c r="N1" s="73" t="s">
         <v>73</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="103"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="101"/>
     </row>
     <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="104"/>
-      <c r="N2" s="55" t="s">
+      <c r="I2" s="164"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="102"/>
+      <c r="N2" s="54" t="s">
         <v>103</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="230"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="104"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="224" t="s">
+      <c r="B3" s="232"/>
+      <c r="C3" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="225"/>
-      <c r="N3" s="222" t="s">
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="236"/>
+      <c r="N3" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="223"/>
-      <c r="P3" s="224" t="s">
+      <c r="O3" s="232"/>
+      <c r="P3" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="225"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="236"/>
     </row>
     <row r="4" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="222"/>
-      <c r="B4" s="223"/>
-      <c r="C4" s="78">
-        <v>1</v>
-      </c>
-      <c r="D4" s="79">
-        <v>2</v>
-      </c>
-      <c r="E4" s="79">
-        <v>3</v>
-      </c>
-      <c r="F4" s="79">
-        <v>4</v>
-      </c>
-      <c r="G4" s="79">
-        <v>5</v>
-      </c>
-      <c r="H4" s="79">
-        <v>6</v>
-      </c>
-      <c r="I4" s="79">
-        <v>7</v>
-      </c>
-      <c r="J4" s="79">
-        <v>8</v>
-      </c>
-      <c r="K4" s="79">
-        <v>9</v>
-      </c>
-      <c r="L4" s="105">
-        <v>10</v>
-      </c>
-      <c r="N4" s="246"/>
-      <c r="O4" s="247"/>
-      <c r="P4" s="78">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="79">
-        <v>12</v>
-      </c>
-      <c r="R4" s="79">
-        <v>13</v>
-      </c>
-      <c r="S4" s="79">
-        <v>14</v>
-      </c>
-      <c r="T4" s="79">
-        <v>15</v>
-      </c>
-      <c r="U4" s="79">
-        <v>16</v>
-      </c>
-      <c r="V4" s="79">
-        <v>17</v>
-      </c>
-      <c r="W4" s="79">
-        <v>18</v>
-      </c>
-      <c r="X4" s="79">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="105">
-        <v>20</v>
-      </c>
+      <c r="A4" s="231"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="103"/>
+      <c r="N4" s="233"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="103"/>
     </row>
     <row r="5" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="219"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="114"/>
-      <c r="N5" s="248" t="s">
+      <c r="B5" s="221"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="112"/>
+      <c r="N5" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="249"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="152"/>
+      <c r="O5" s="238"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="137"/>
     </row>
     <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="115"/>
-      <c r="N6" s="248" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="113"/>
+      <c r="N6" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="249"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="154"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="138"/>
+      <c r="Y6" s="139"/>
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="110"/>
-      <c r="N7" s="250" t="s">
+      <c r="B7" s="221"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="108"/>
+      <c r="N7" s="239" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="251"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="155"/>
-      <c r="Y7" s="156"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="141"/>
     </row>
     <row r="8" spans="1:25" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="117"/>
-      <c r="N8" s="256" t="s">
+      <c r="B8" s="246"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="115"/>
+      <c r="N8" s="218" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="257"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="155" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y8" s="156" t="s">
+      <c r="O8" s="219"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="140" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="141" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="118"/>
-      <c r="N9" s="218" t="s">
+      <c r="B9" s="221"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="116"/>
+      <c r="N9" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="219"/>
-      <c r="P9" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="S9" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="T9" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="U9" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="V9" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="W9" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="X9" s="157" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9" s="158" t="s">
+      <c r="O9" s="221"/>
+      <c r="P9" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="143" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="232"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="234" t="s">
+      <c r="A10" s="247"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="222" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="234" t="s">
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="223"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="222" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="234"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="234"/>
-      <c r="W10" s="234"/>
-      <c r="X10" s="234"/>
-      <c r="Y10" s="235"/>
+      <c r="Q10" s="222"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="223"/>
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="114"/>
-      <c r="N11" s="238" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="112"/>
+      <c r="N11" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="80" t="s">
+      <c r="O11" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="159" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y11" s="160" t="s">
+      <c r="P11" s="79"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="145" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="239"/>
-      <c r="B12" s="80" t="s">
+      <c r="A12" s="225"/>
+      <c r="B12" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="115"/>
-      <c r="N12" s="239"/>
-      <c r="O12" s="80" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="113"/>
+      <c r="N12" s="225"/>
+      <c r="O12" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y12" s="162" t="s">
+      <c r="P12" s="89"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="147" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="239"/>
-      <c r="B13" s="80" t="s">
+      <c r="A13" s="225"/>
+      <c r="B13" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="115"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="80" t="s">
+      <c r="C13" s="89"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="113"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y13" s="162" t="s">
+      <c r="P13" s="89"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13" s="147" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="239"/>
-      <c r="B14" s="80" t="s">
+      <c r="A14" s="225"/>
+      <c r="B14" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="115"/>
-      <c r="N14" s="239"/>
-      <c r="O14" s="80" t="s">
+      <c r="C14" s="89"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="113"/>
+      <c r="N14" s="225"/>
+      <c r="O14" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y14" s="162" t="s">
+      <c r="P14" s="89"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="147" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
-      <c r="B15" s="80" t="s">
+      <c r="A15" s="226"/>
+      <c r="B15" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="115"/>
-      <c r="N15" s="240"/>
-      <c r="O15" s="80" t="s">
+      <c r="C15" s="89"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="113"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y15" s="162" t="s">
+      <c r="P15" s="89"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="147" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="218" t="s">
+      <c r="A16" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="219"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="115"/>
-      <c r="N16" s="218" t="s">
+      <c r="B16" s="221"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="113"/>
+      <c r="N16" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="219"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y16" s="162" t="s">
+      <c r="O16" s="221"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" s="147" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="218" t="s">
+      <c r="A17" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="219"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="116"/>
-      <c r="N17" s="218" t="s">
+      <c r="B17" s="221"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="114"/>
+      <c r="N17" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="219"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="163" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y17" s="164" t="s">
+      <c r="O17" s="221"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="148" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" s="149" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="241"/>
-      <c r="B18" s="242"/>
-      <c r="C18" s="226" t="s">
+      <c r="A18" s="243"/>
+      <c r="B18" s="244"/>
+      <c r="C18" s="214" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="226"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="227"/>
-      <c r="N18" s="55"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="215"/>
+      <c r="N18" s="54"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="226" t="s">
+      <c r="P18" s="214" t="s">
         <v>92</v>
       </c>
-      <c r="Q18" s="226"/>
-      <c r="R18" s="226"/>
-      <c r="S18" s="226"/>
-      <c r="T18" s="226"/>
-      <c r="U18" s="226"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="226"/>
-      <c r="Y18" s="227"/>
+      <c r="Q18" s="214"/>
+      <c r="R18" s="214"/>
+      <c r="S18" s="214"/>
+      <c r="T18" s="214"/>
+      <c r="U18" s="214"/>
+      <c r="V18" s="214"/>
+      <c r="W18" s="214"/>
+      <c r="X18" s="214"/>
+      <c r="Y18" s="215"/>
     </row>
     <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="228" t="s">
+      <c r="A19" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="229"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="109"/>
-      <c r="N19" s="228" t="s">
+      <c r="B19" s="209"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="107"/>
+      <c r="N19" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="229"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="165" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y19" s="166" t="s">
+      <c r="O19" s="209"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="150" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" s="151" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="228" t="s">
+      <c r="A20" s="208" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="229"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="110"/>
-      <c r="N20" s="228" t="s">
+      <c r="B20" s="209"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="108"/>
+      <c r="N20" s="208" t="s">
         <v>94</v>
       </c>
-      <c r="O20" s="229"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="167" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y20" s="168" t="s">
+      <c r="O20" s="209"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="153" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="228" t="s">
+      <c r="A21" s="208" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="229"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="110"/>
-      <c r="N21" s="228" t="s">
+      <c r="B21" s="209"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="108"/>
+      <c r="N21" s="208" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="229"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="167" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y21" s="168" t="s">
+      <c r="O21" s="209"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y21" s="153" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="228" t="s">
+      <c r="A22" s="208" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="229"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="110"/>
-      <c r="N22" s="228" t="s">
+      <c r="B22" s="209"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="108"/>
+      <c r="N22" s="208" t="s">
         <v>96</v>
       </c>
-      <c r="O22" s="229"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="167" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y22" s="168" t="s">
+      <c r="O22" s="209"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y22" s="153" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="111"/>
-      <c r="N23" s="94" t="s">
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="109"/>
+      <c r="N23" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="O23" s="95" t="s">
+      <c r="O23" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="169"/>
-      <c r="Y23" s="170"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="155"/>
     </row>
     <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="252" t="s">
+      <c r="A24" s="216" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="253"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="110"/>
-      <c r="N24" s="252" t="s">
+      <c r="B24" s="217"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="108"/>
+      <c r="N24" s="216" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="253"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="167" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y24" s="168" t="s">
+      <c r="O24" s="217"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y24" s="153" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="254" t="s">
+      <c r="A25" s="210" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="255"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="110"/>
-      <c r="N25" s="228" t="s">
+      <c r="B25" s="211"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="108"/>
+      <c r="N25" s="208" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="229"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="167" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y25" s="168" t="s">
+      <c r="O25" s="209"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y25" s="153" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="241" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="237"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="112"/>
-      <c r="N26" s="254" t="s">
+      <c r="B26" s="242"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="110"/>
+      <c r="N26" s="210" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="255"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="171" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y26" s="172" t="s">
+      <c r="O26" s="211"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="156" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y26" s="157" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="83.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="243" t="s">
+      <c r="A27" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="244"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="113"/>
-      <c r="N27" s="243" t="s">
+      <c r="B27" s="227"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="111"/>
+      <c r="N27" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="258"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="173" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y27" s="174" t="s">
+      <c r="O27" s="213"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="158" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" s="159" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="245"/>
-      <c r="B28" s="245"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Y10"/>
-    <mergeCell ref="N11:N15"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
@@ -8854,25 +8767,20 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Y10"/>
+    <mergeCell ref="N11:N15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N24:O24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8905,15 +8813,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006D53F4C8D732D844AE7D882D8C27E66C" ma:contentTypeVersion="18" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="70bbe916ee44c898308fc52b233fdc6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d274541-22b4-4212-af6c-71d9850896b1" xmlns:ns3="d699723c-6030-48dd-835b-9dac49e7a8e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e6162704bbcf8652c04252123e2ebc" ns2:_="" ns3:_="">
     <xsd:import namespace="2d274541-22b4-4212-af6c-71d9850896b1"/>
@@ -9168,6 +9067,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
   <ds:schemaRefs>
@@ -9180,14 +9088,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE067A7-9A28-427F-B4BA-DF647AB143B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9204,4 +9104,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
+++ b/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/RiderProjects/SeaEco/SeaEco.Server/wwwroot/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4310F6E4-F633-2640-853F-42ED74CD5F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A12C2A5-6010-BB4A-A19A-CD8ECAF420AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
-    <sheet name="Posisjoner" sheetId="1" r:id="rId2"/>
-    <sheet name="B1 Skjema" sheetId="3" r:id="rId3"/>
-    <sheet name="B2 Skjema" sheetId="4" r:id="rId4"/>
-    <sheet name="pHEh" sheetId="2" r:id="rId5"/>
+    <sheet name="Prøvetakningsplan" sheetId="6" r:id="rId2"/>
+    <sheet name="Posisjoner" sheetId="1" r:id="rId3"/>
+    <sheet name="B1 Skjema" sheetId="3" r:id="rId4"/>
+    <sheet name="B2 Skjema" sheetId="4" r:id="rId5"/>
+    <sheet name="Bilder" sheetId="7" r:id="rId6"/>
+    <sheet name="pHEh" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +41,50 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="145">
   <si>
     <t>St.nr.</t>
   </si>
@@ -442,6 +486,63 @@
   <si>
     <t>Dato:</t>
   </si>
+  <si>
+    <t>EQS-ID:</t>
+  </si>
+  <si>
+    <t>Revisjonsnr.:</t>
+  </si>
+  <si>
+    <t>Prøvetakningsplan for B-undersøkelser</t>
+  </si>
+  <si>
+    <t>Lokalitet:</t>
+  </si>
+  <si>
+    <t>Planlagt feltdato:</t>
+  </si>
+  <si>
+    <t>Kunde:</t>
+  </si>
+  <si>
+    <t>Planlegger:</t>
+  </si>
+  <si>
+    <t>Planlagt feltdato</t>
+  </si>
+  <si>
+    <t>Stasjon</t>
+  </si>
+  <si>
+    <t>Posisjon</t>
+  </si>
+  <si>
+    <t>Dybde</t>
+  </si>
+  <si>
+    <t>Analyser</t>
+  </si>
+  <si>
+    <t>1321(Skjema)</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>St. nr.</t>
+  </si>
+  <si>
+    <t>Usilt</t>
+  </si>
+  <si>
+    <t>BILDER AV PRØVENE</t>
+  </si>
+  <si>
+    <t>For lite sediment – prøve ikke silt</t>
+  </si>
+  <si>
+    <t>Tom grabb</t>
+  </si>
 </sst>
 </file>
 
@@ -450,9 +551,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -615,8 +730,93 @@
       <name val="Arial Nova Cond"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial Nova Cond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial Nova Cond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial Nova Cond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Castellar"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,8 +883,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -1768,350 +1980,388 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2124,396 +2374,505 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="84" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="87" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{391837BB-4A30-9D4C-9C93-73E3CEBF040C}"/>
   </cellStyles>
   <dxfs count="252">
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2521,6 +2880,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2528,6 +2901,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2535,6 +2922,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2542,6 +2943,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2598,6 +3020,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2605,6 +3048,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2612,6 +3069,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2619,6 +3090,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2640,6 +3125,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2647,6 +3139,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2654,6 +3160,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2682,6 +3209,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2766,6 +3300,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2773,6 +3321,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2780,6 +3342,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2787,6 +3363,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2822,6 +3412,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2850,6 +3447,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2857,6 +3468,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2864,6 +3489,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2871,6 +3510,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2878,6 +3531,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2885,6 +3545,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2892,6 +3566,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2899,6 +3587,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2906,6 +3608,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2913,6 +3636,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2920,6 +3657,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2927,6 +3678,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2934,6 +3699,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2962,6 +3748,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2969,6 +3776,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2976,6 +3797,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2983,6 +3818,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2990,6 +3839,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2997,6 +3860,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3004,6 +3881,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3011,6 +3902,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3018,6 +3923,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3025,6 +3944,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3032,6 +3965,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3039,6 +3986,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3046,6 +4007,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3102,6 +4084,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3109,6 +4112,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3116,6 +4133,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3130,6 +4154,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3137,6 +4168,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3144,6 +4189,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3151,6 +4210,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3158,6 +4231,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3186,6 +4280,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3193,6 +4308,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3200,6 +4329,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3207,6 +4350,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3214,6 +4371,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3221,6 +4392,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3228,6 +4413,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3242,6 +4434,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3270,6 +4483,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3277,6 +4511,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3284,6 +4532,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3291,6 +4553,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3298,6 +4581,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3312,966 +4609,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4295,6 +4633,60 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1149803</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bilde 1" descr="Et bilde som inneholder utklipp&#10;&#10;Automatisk generert beskrivelse">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E639D39B-6264-6241-BC7C-C00FC84330DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="17727"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4913993" y="0"/>
+          <a:ext cx="972910" cy="284842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4341,6 +4733,80 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4635,8 +5101,8 @@
       <c r="A2" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
       <c r="E2" s="132"/>
       <c r="F2" s="132"/>
       <c r="G2" s="132"/>
@@ -4805,17 +5271,1833 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC10A618-1030-D34F-BEFE-0B414A32C3CF}">
+  <dimension ref="A1:H178"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="179" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="179" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="179"/>
+    <col min="4" max="4" width="3.6640625" style="179" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="179" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="179" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="179" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="179" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="179"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="178" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="173" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="174" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="175" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="191" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="192"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="177"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="185"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="193" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+    </row>
+    <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="193"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+    </row>
+    <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="180" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="195" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="195"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="181"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="180" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="195" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="195"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="181"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="182" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="183" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="188" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="184" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="186"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="186"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="186"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="186"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="186"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="186"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="186"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="186"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="186"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="186"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="186"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="186"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="186"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="186"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="186"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="186"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="186"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="186"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="186"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="186"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="186"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="186"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="186"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="186"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="186"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="186"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="186"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="186"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="186"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="186"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="186"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="186"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+      <c r="H42" s="186"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="186"/>
+      <c r="B43" s="186"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="186"/>
+      <c r="H43" s="186"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="186"/>
+      <c r="B44" s="186"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="186"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="186"/>
+      <c r="H44" s="186"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="186"/>
+      <c r="B45" s="186"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="186"/>
+      <c r="H45" s="186"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="186"/>
+      <c r="B46" s="186"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="186"/>
+      <c r="B47" s="186"/>
+      <c r="C47" s="186"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="H47" s="186"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="186"/>
+      <c r="B48" s="186"/>
+      <c r="C48" s="186"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="186"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="186"/>
+      <c r="B49" s="186"/>
+      <c r="C49" s="186"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="186"/>
+      <c r="B50" s="186"/>
+      <c r="C50" s="186"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="186"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="186"/>
+      <c r="B51" s="186"/>
+      <c r="C51" s="186"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="186"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="186"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="186"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="186"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="H53" s="186"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="186"/>
+      <c r="B54" s="186"/>
+      <c r="C54" s="186"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="186"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="186"/>
+      <c r="H54" s="186"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="186"/>
+      <c r="B55" s="186"/>
+      <c r="C55" s="186"/>
+      <c r="D55" s="186"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="186"/>
+      <c r="H55" s="186"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="186"/>
+      <c r="B56" s="186"/>
+      <c r="C56" s="186"/>
+      <c r="D56" s="186"/>
+      <c r="E56" s="186"/>
+      <c r="F56" s="186"/>
+      <c r="G56" s="186"/>
+      <c r="H56" s="186"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="186"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="186"/>
+      <c r="G57" s="186"/>
+      <c r="H57" s="186"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="186"/>
+      <c r="B58" s="186"/>
+      <c r="C58" s="186"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="186"/>
+      <c r="F58" s="186"/>
+      <c r="G58" s="186"/>
+      <c r="H58" s="186"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="186"/>
+      <c r="B59" s="186"/>
+      <c r="C59" s="186"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="186"/>
+      <c r="G59" s="186"/>
+      <c r="H59" s="186"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="186"/>
+      <c r="B60" s="186"/>
+      <c r="C60" s="186"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="186"/>
+      <c r="H60" s="186"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="186"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="186"/>
+      <c r="D61" s="186"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="186"/>
+      <c r="H61" s="186"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="186"/>
+      <c r="B62" s="186"/>
+      <c r="C62" s="186"/>
+      <c r="D62" s="186"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="186"/>
+      <c r="G62" s="186"/>
+      <c r="H62" s="186"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="186"/>
+      <c r="B63" s="186"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="186"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="186"/>
+      <c r="H63" s="186"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="186"/>
+      <c r="B64" s="186"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="186"/>
+      <c r="F64" s="186"/>
+      <c r="G64" s="186"/>
+      <c r="H64" s="186"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="186"/>
+      <c r="B65" s="186"/>
+      <c r="C65" s="186"/>
+      <c r="D65" s="186"/>
+      <c r="E65" s="186"/>
+      <c r="F65" s="186"/>
+      <c r="G65" s="186"/>
+      <c r="H65" s="186"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="186"/>
+      <c r="B66" s="186"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="186"/>
+      <c r="F66" s="186"/>
+      <c r="G66" s="186"/>
+      <c r="H66" s="186"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="186"/>
+      <c r="B67" s="186"/>
+      <c r="C67" s="186"/>
+      <c r="D67" s="186"/>
+      <c r="E67" s="186"/>
+      <c r="F67" s="186"/>
+      <c r="G67" s="186"/>
+      <c r="H67" s="186"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="186"/>
+      <c r="B68" s="186"/>
+      <c r="C68" s="186"/>
+      <c r="D68" s="186"/>
+      <c r="E68" s="186"/>
+      <c r="F68" s="186"/>
+      <c r="G68" s="186"/>
+      <c r="H68" s="186"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="186"/>
+      <c r="B69" s="186"/>
+      <c r="C69" s="186"/>
+      <c r="D69" s="186"/>
+      <c r="E69" s="186"/>
+      <c r="F69" s="186"/>
+      <c r="G69" s="186"/>
+      <c r="H69" s="186"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="186"/>
+      <c r="B70" s="186"/>
+      <c r="C70" s="186"/>
+      <c r="D70" s="186"/>
+      <c r="E70" s="186"/>
+      <c r="F70" s="186"/>
+      <c r="G70" s="186"/>
+      <c r="H70" s="186"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="186"/>
+      <c r="B71" s="186"/>
+      <c r="C71" s="186"/>
+      <c r="D71" s="186"/>
+      <c r="E71" s="186"/>
+      <c r="F71" s="186"/>
+      <c r="G71" s="186"/>
+      <c r="H71" s="186"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="186"/>
+      <c r="B72" s="186"/>
+      <c r="C72" s="186"/>
+      <c r="D72" s="186"/>
+      <c r="E72" s="186"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="186"/>
+      <c r="H72" s="186"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="186"/>
+      <c r="B73" s="186"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="186"/>
+      <c r="E73" s="186"/>
+      <c r="F73" s="186"/>
+      <c r="G73" s="186"/>
+      <c r="H73" s="186"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="186"/>
+      <c r="B74" s="186"/>
+      <c r="C74" s="186"/>
+      <c r="D74" s="186"/>
+      <c r="E74" s="186"/>
+      <c r="F74" s="186"/>
+      <c r="G74" s="186"/>
+      <c r="H74" s="186"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="186"/>
+      <c r="B75" s="186"/>
+      <c r="C75" s="186"/>
+      <c r="D75" s="186"/>
+      <c r="E75" s="186"/>
+      <c r="F75" s="186"/>
+      <c r="G75" s="186"/>
+      <c r="H75" s="186"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="186"/>
+      <c r="B76" s="186"/>
+      <c r="C76" s="186"/>
+      <c r="D76" s="186"/>
+      <c r="E76" s="186"/>
+      <c r="F76" s="186"/>
+      <c r="G76" s="186"/>
+      <c r="H76" s="186"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="186"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
+      <c r="E77" s="186"/>
+      <c r="F77" s="186"/>
+      <c r="G77" s="186"/>
+      <c r="H77" s="186"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="186"/>
+      <c r="B78" s="186"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="186"/>
+      <c r="E78" s="186"/>
+      <c r="F78" s="186"/>
+      <c r="G78" s="186"/>
+      <c r="H78" s="186"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="186"/>
+      <c r="B79" s="186"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
+      <c r="E79" s="186"/>
+      <c r="F79" s="186"/>
+      <c r="G79" s="186"/>
+      <c r="H79" s="186"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="186"/>
+      <c r="B80" s="186"/>
+      <c r="C80" s="186"/>
+      <c r="D80" s="186"/>
+      <c r="E80" s="186"/>
+      <c r="F80" s="186"/>
+      <c r="G80" s="186"/>
+      <c r="H80" s="186"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="186"/>
+      <c r="B81" s="186"/>
+      <c r="C81" s="186"/>
+      <c r="D81" s="186"/>
+      <c r="E81" s="186"/>
+      <c r="F81" s="186"/>
+      <c r="G81" s="186"/>
+      <c r="H81" s="186"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="186"/>
+      <c r="B82" s="186"/>
+      <c r="C82" s="186"/>
+      <c r="D82" s="186"/>
+      <c r="E82" s="186"/>
+      <c r="F82" s="186"/>
+      <c r="G82" s="186"/>
+      <c r="H82" s="186"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="186"/>
+      <c r="B83" s="186"/>
+      <c r="C83" s="186"/>
+      <c r="D83" s="186"/>
+      <c r="E83" s="186"/>
+      <c r="F83" s="186"/>
+      <c r="G83" s="186"/>
+      <c r="H83" s="186"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="186"/>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
+      <c r="F84" s="186"/>
+      <c r="G84" s="186"/>
+      <c r="H84" s="186"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="186"/>
+      <c r="B85" s="186"/>
+      <c r="C85" s="186"/>
+      <c r="D85" s="186"/>
+      <c r="E85" s="186"/>
+      <c r="F85" s="186"/>
+      <c r="G85" s="186"/>
+      <c r="H85" s="186"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="186"/>
+      <c r="B86" s="186"/>
+      <c r="C86" s="186"/>
+      <c r="D86" s="186"/>
+      <c r="E86" s="186"/>
+      <c r="F86" s="186"/>
+      <c r="G86" s="186"/>
+      <c r="H86" s="186"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="186"/>
+      <c r="B87" s="186"/>
+      <c r="C87" s="186"/>
+      <c r="D87" s="186"/>
+      <c r="E87" s="186"/>
+      <c r="F87" s="186"/>
+      <c r="G87" s="186"/>
+      <c r="H87" s="186"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="186"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
+      <c r="G88" s="186"/>
+      <c r="H88" s="186"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="186"/>
+      <c r="B89" s="186"/>
+      <c r="C89" s="186"/>
+      <c r="D89" s="186"/>
+      <c r="E89" s="186"/>
+      <c r="F89" s="186"/>
+      <c r="G89" s="186"/>
+      <c r="H89" s="186"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="186"/>
+      <c r="B90" s="186"/>
+      <c r="C90" s="186"/>
+      <c r="D90" s="186"/>
+      <c r="E90" s="186"/>
+      <c r="F90" s="186"/>
+      <c r="G90" s="186"/>
+      <c r="H90" s="186"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="186"/>
+      <c r="B91" s="186"/>
+      <c r="C91" s="186"/>
+      <c r="D91" s="186"/>
+      <c r="E91" s="186"/>
+      <c r="F91" s="186"/>
+      <c r="G91" s="186"/>
+      <c r="H91" s="186"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="186"/>
+      <c r="B92" s="186"/>
+      <c r="C92" s="186"/>
+      <c r="D92" s="186"/>
+      <c r="E92" s="186"/>
+      <c r="F92" s="186"/>
+      <c r="G92" s="186"/>
+      <c r="H92" s="186"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="186"/>
+      <c r="B93" s="186"/>
+      <c r="C93" s="186"/>
+      <c r="D93" s="186"/>
+      <c r="E93" s="186"/>
+      <c r="F93" s="186"/>
+      <c r="G93" s="186"/>
+      <c r="H93" s="186"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="186"/>
+      <c r="B94" s="186"/>
+      <c r="C94" s="186"/>
+      <c r="D94" s="186"/>
+      <c r="E94" s="186"/>
+      <c r="F94" s="186"/>
+      <c r="G94" s="186"/>
+      <c r="H94" s="186"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="186"/>
+      <c r="B95" s="186"/>
+      <c r="C95" s="186"/>
+      <c r="D95" s="186"/>
+      <c r="E95" s="186"/>
+      <c r="F95" s="186"/>
+      <c r="G95" s="186"/>
+      <c r="H95" s="186"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="186"/>
+      <c r="B96" s="186"/>
+      <c r="C96" s="186"/>
+      <c r="D96" s="186"/>
+      <c r="E96" s="186"/>
+      <c r="F96" s="186"/>
+      <c r="G96" s="186"/>
+      <c r="H96" s="186"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="186"/>
+      <c r="B97" s="186"/>
+      <c r="C97" s="186"/>
+      <c r="D97" s="186"/>
+      <c r="E97" s="186"/>
+      <c r="F97" s="186"/>
+      <c r="G97" s="186"/>
+      <c r="H97" s="186"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="186"/>
+      <c r="B98" s="186"/>
+      <c r="C98" s="186"/>
+      <c r="D98" s="186"/>
+      <c r="E98" s="186"/>
+      <c r="F98" s="186"/>
+      <c r="G98" s="186"/>
+      <c r="H98" s="186"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="186"/>
+      <c r="B99" s="186"/>
+      <c r="C99" s="186"/>
+      <c r="D99" s="186"/>
+      <c r="E99" s="186"/>
+      <c r="F99" s="186"/>
+      <c r="G99" s="186"/>
+      <c r="H99" s="186"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="186"/>
+      <c r="B100" s="186"/>
+      <c r="C100" s="186"/>
+      <c r="D100" s="186"/>
+      <c r="E100" s="186"/>
+      <c r="F100" s="186"/>
+      <c r="G100" s="186"/>
+      <c r="H100" s="186"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="186"/>
+      <c r="B101" s="186"/>
+      <c r="C101" s="186"/>
+      <c r="D101" s="186"/>
+      <c r="E101" s="186"/>
+      <c r="F101" s="186"/>
+      <c r="G101" s="186"/>
+      <c r="H101" s="186"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="186"/>
+      <c r="B102" s="186"/>
+      <c r="C102" s="186"/>
+      <c r="D102" s="186"/>
+      <c r="E102" s="186"/>
+      <c r="F102" s="186"/>
+      <c r="G102" s="186"/>
+      <c r="H102" s="186"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="186"/>
+      <c r="B103" s="186"/>
+      <c r="C103" s="186"/>
+      <c r="D103" s="186"/>
+      <c r="E103" s="186"/>
+      <c r="F103" s="186"/>
+      <c r="G103" s="186"/>
+      <c r="H103" s="186"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="186"/>
+      <c r="B104" s="186"/>
+      <c r="C104" s="186"/>
+      <c r="D104" s="186"/>
+      <c r="E104" s="186"/>
+      <c r="F104" s="186"/>
+      <c r="G104" s="186"/>
+      <c r="H104" s="186"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="186"/>
+      <c r="B105" s="186"/>
+      <c r="C105" s="186"/>
+      <c r="D105" s="186"/>
+      <c r="E105" s="186"/>
+      <c r="F105" s="186"/>
+      <c r="G105" s="186"/>
+      <c r="H105" s="186"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="186"/>
+      <c r="B106" s="186"/>
+      <c r="C106" s="186"/>
+      <c r="D106" s="186"/>
+      <c r="E106" s="186"/>
+      <c r="F106" s="186"/>
+      <c r="G106" s="186"/>
+      <c r="H106" s="186"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="186"/>
+      <c r="B107" s="186"/>
+      <c r="C107" s="186"/>
+      <c r="D107" s="186"/>
+      <c r="E107" s="186"/>
+      <c r="F107" s="186"/>
+      <c r="G107" s="186"/>
+      <c r="H107" s="186"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="186"/>
+      <c r="B108" s="186"/>
+      <c r="C108" s="186"/>
+      <c r="D108" s="186"/>
+      <c r="E108" s="186"/>
+      <c r="F108" s="186"/>
+      <c r="G108" s="186"/>
+      <c r="H108" s="186"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="186"/>
+      <c r="B109" s="186"/>
+      <c r="C109" s="186"/>
+      <c r="D109" s="186"/>
+      <c r="E109" s="186"/>
+      <c r="F109" s="186"/>
+      <c r="G109" s="186"/>
+      <c r="H109" s="186"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="186"/>
+      <c r="B110" s="186"/>
+      <c r="C110" s="186"/>
+      <c r="D110" s="186"/>
+      <c r="E110" s="186"/>
+      <c r="F110" s="186"/>
+      <c r="G110" s="186"/>
+      <c r="H110" s="186"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="186"/>
+      <c r="B111" s="186"/>
+      <c r="C111" s="186"/>
+      <c r="D111" s="186"/>
+      <c r="E111" s="186"/>
+      <c r="F111" s="186"/>
+      <c r="G111" s="186"/>
+      <c r="H111" s="186"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="186"/>
+      <c r="B112" s="186"/>
+      <c r="C112" s="186"/>
+      <c r="D112" s="186"/>
+      <c r="E112" s="186"/>
+      <c r="F112" s="186"/>
+      <c r="G112" s="186"/>
+      <c r="H112" s="186"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="186"/>
+      <c r="B113" s="186"/>
+      <c r="C113" s="186"/>
+      <c r="D113" s="186"/>
+      <c r="E113" s="186"/>
+      <c r="F113" s="186"/>
+      <c r="G113" s="186"/>
+      <c r="H113" s="186"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="186"/>
+      <c r="B114" s="186"/>
+      <c r="C114" s="186"/>
+      <c r="D114" s="186"/>
+      <c r="E114" s="186"/>
+      <c r="F114" s="186"/>
+      <c r="G114" s="186"/>
+      <c r="H114" s="186"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="186"/>
+      <c r="B115" s="186"/>
+      <c r="C115" s="186"/>
+      <c r="D115" s="186"/>
+      <c r="E115" s="186"/>
+      <c r="F115" s="186"/>
+      <c r="G115" s="186"/>
+      <c r="H115" s="186"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="186"/>
+      <c r="B116" s="186"/>
+      <c r="C116" s="186"/>
+      <c r="D116" s="186"/>
+      <c r="E116" s="186"/>
+      <c r="F116" s="186"/>
+      <c r="G116" s="186"/>
+      <c r="H116" s="186"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="186"/>
+      <c r="B117" s="186"/>
+      <c r="C117" s="186"/>
+      <c r="D117" s="186"/>
+      <c r="E117" s="186"/>
+      <c r="F117" s="186"/>
+      <c r="G117" s="186"/>
+      <c r="H117" s="186"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="186"/>
+      <c r="B118" s="186"/>
+      <c r="C118" s="186"/>
+      <c r="D118" s="186"/>
+      <c r="E118" s="186"/>
+      <c r="F118" s="186"/>
+      <c r="G118" s="186"/>
+      <c r="H118" s="186"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="186"/>
+      <c r="B119" s="186"/>
+      <c r="C119" s="186"/>
+      <c r="D119" s="186"/>
+      <c r="E119" s="186"/>
+      <c r="F119" s="186"/>
+      <c r="G119" s="186"/>
+      <c r="H119" s="186"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="186"/>
+      <c r="B120" s="186"/>
+      <c r="C120" s="186"/>
+      <c r="D120" s="186"/>
+      <c r="E120" s="186"/>
+      <c r="F120" s="186"/>
+      <c r="G120" s="186"/>
+      <c r="H120" s="186"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="186"/>
+      <c r="B121" s="186"/>
+      <c r="C121" s="186"/>
+      <c r="D121" s="186"/>
+      <c r="E121" s="186"/>
+      <c r="F121" s="186"/>
+      <c r="G121" s="186"/>
+      <c r="H121" s="186"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="186"/>
+      <c r="B122" s="186"/>
+      <c r="C122" s="186"/>
+      <c r="D122" s="186"/>
+      <c r="E122" s="186"/>
+      <c r="F122" s="186"/>
+      <c r="G122" s="186"/>
+      <c r="H122" s="186"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="186"/>
+      <c r="B123" s="186"/>
+      <c r="C123" s="186"/>
+      <c r="D123" s="186"/>
+      <c r="E123" s="186"/>
+      <c r="F123" s="186"/>
+      <c r="G123" s="186"/>
+      <c r="H123" s="186"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="186"/>
+      <c r="B124" s="186"/>
+      <c r="C124" s="186"/>
+      <c r="D124" s="186"/>
+      <c r="E124" s="186"/>
+      <c r="F124" s="186"/>
+      <c r="G124" s="186"/>
+      <c r="H124" s="186"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="186"/>
+      <c r="B125" s="186"/>
+      <c r="C125" s="186"/>
+      <c r="D125" s="186"/>
+      <c r="E125" s="186"/>
+      <c r="F125" s="186"/>
+      <c r="G125" s="186"/>
+      <c r="H125" s="186"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="186"/>
+      <c r="B126" s="186"/>
+      <c r="C126" s="186"/>
+      <c r="D126" s="186"/>
+      <c r="E126" s="186"/>
+      <c r="F126" s="186"/>
+      <c r="G126" s="186"/>
+      <c r="H126" s="186"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="186"/>
+      <c r="B127" s="186"/>
+      <c r="C127" s="186"/>
+      <c r="D127" s="186"/>
+      <c r="E127" s="186"/>
+      <c r="F127" s="186"/>
+      <c r="G127" s="186"/>
+      <c r="H127" s="186"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="186"/>
+      <c r="B128" s="186"/>
+      <c r="C128" s="186"/>
+      <c r="D128" s="186"/>
+      <c r="E128" s="186"/>
+      <c r="F128" s="186"/>
+      <c r="G128" s="186"/>
+      <c r="H128" s="186"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="186"/>
+      <c r="B129" s="186"/>
+      <c r="C129" s="186"/>
+      <c r="D129" s="186"/>
+      <c r="E129" s="186"/>
+      <c r="F129" s="186"/>
+      <c r="G129" s="186"/>
+      <c r="H129" s="186"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="186"/>
+      <c r="B130" s="186"/>
+      <c r="C130" s="186"/>
+      <c r="D130" s="186"/>
+      <c r="E130" s="186"/>
+      <c r="F130" s="186"/>
+      <c r="G130" s="186"/>
+      <c r="H130" s="186"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="186"/>
+      <c r="B131" s="186"/>
+      <c r="C131" s="186"/>
+      <c r="D131" s="186"/>
+      <c r="E131" s="186"/>
+      <c r="F131" s="186"/>
+      <c r="G131" s="186"/>
+      <c r="H131" s="186"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="186"/>
+      <c r="B132" s="186"/>
+      <c r="C132" s="186"/>
+      <c r="D132" s="186"/>
+      <c r="E132" s="186"/>
+      <c r="F132" s="186"/>
+      <c r="G132" s="186"/>
+      <c r="H132" s="186"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="186"/>
+      <c r="B133" s="186"/>
+      <c r="C133" s="186"/>
+      <c r="D133" s="186"/>
+      <c r="E133" s="186"/>
+      <c r="F133" s="186"/>
+      <c r="G133" s="186"/>
+      <c r="H133" s="186"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="186"/>
+      <c r="B134" s="186"/>
+      <c r="C134" s="186"/>
+      <c r="D134" s="186"/>
+      <c r="E134" s="186"/>
+      <c r="F134" s="186"/>
+      <c r="G134" s="186"/>
+      <c r="H134" s="186"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="186"/>
+      <c r="B135" s="186"/>
+      <c r="C135" s="186"/>
+      <c r="D135" s="186"/>
+      <c r="E135" s="186"/>
+      <c r="F135" s="186"/>
+      <c r="G135" s="186"/>
+      <c r="H135" s="186"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="186"/>
+      <c r="B136" s="186"/>
+      <c r="C136" s="186"/>
+      <c r="D136" s="186"/>
+      <c r="E136" s="186"/>
+      <c r="F136" s="186"/>
+      <c r="G136" s="186"/>
+      <c r="H136" s="186"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="186"/>
+      <c r="B137" s="186"/>
+      <c r="C137" s="186"/>
+      <c r="D137" s="186"/>
+      <c r="E137" s="186"/>
+      <c r="F137" s="186"/>
+      <c r="G137" s="186"/>
+      <c r="H137" s="186"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="186"/>
+      <c r="B138" s="186"/>
+      <c r="C138" s="186"/>
+      <c r="D138" s="186"/>
+      <c r="E138" s="186"/>
+      <c r="F138" s="186"/>
+      <c r="G138" s="186"/>
+      <c r="H138" s="186"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="186"/>
+      <c r="B139" s="186"/>
+      <c r="C139" s="186"/>
+      <c r="D139" s="186"/>
+      <c r="E139" s="186"/>
+      <c r="F139" s="186"/>
+      <c r="G139" s="186"/>
+      <c r="H139" s="186"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="186"/>
+      <c r="B140" s="186"/>
+      <c r="C140" s="186"/>
+      <c r="D140" s="186"/>
+      <c r="E140" s="186"/>
+      <c r="F140" s="186"/>
+      <c r="G140" s="186"/>
+      <c r="H140" s="186"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="186"/>
+      <c r="B141" s="186"/>
+      <c r="C141" s="186"/>
+      <c r="D141" s="186"/>
+      <c r="E141" s="186"/>
+      <c r="F141" s="186"/>
+      <c r="G141" s="186"/>
+      <c r="H141" s="186"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="186"/>
+      <c r="B142" s="186"/>
+      <c r="C142" s="186"/>
+      <c r="D142" s="186"/>
+      <c r="E142" s="186"/>
+      <c r="F142" s="186"/>
+      <c r="G142" s="186"/>
+      <c r="H142" s="186"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="186"/>
+      <c r="B143" s="186"/>
+      <c r="C143" s="186"/>
+      <c r="D143" s="186"/>
+      <c r="E143" s="186"/>
+      <c r="F143" s="186"/>
+      <c r="G143" s="186"/>
+      <c r="H143" s="186"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="186"/>
+      <c r="B144" s="186"/>
+      <c r="C144" s="186"/>
+      <c r="D144" s="186"/>
+      <c r="E144" s="186"/>
+      <c r="F144" s="186"/>
+      <c r="G144" s="186"/>
+      <c r="H144" s="186"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="186"/>
+      <c r="B145" s="186"/>
+      <c r="C145" s="186"/>
+      <c r="D145" s="186"/>
+      <c r="E145" s="186"/>
+      <c r="F145" s="186"/>
+      <c r="G145" s="186"/>
+      <c r="H145" s="186"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="186"/>
+      <c r="B146" s="186"/>
+      <c r="C146" s="186"/>
+      <c r="D146" s="186"/>
+      <c r="E146" s="186"/>
+      <c r="F146" s="186"/>
+      <c r="G146" s="186"/>
+      <c r="H146" s="186"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="186"/>
+      <c r="B147" s="186"/>
+      <c r="C147" s="186"/>
+      <c r="D147" s="186"/>
+      <c r="E147" s="186"/>
+      <c r="F147" s="186"/>
+      <c r="G147" s="186"/>
+      <c r="H147" s="186"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="186"/>
+      <c r="B148" s="186"/>
+      <c r="C148" s="186"/>
+      <c r="D148" s="186"/>
+      <c r="E148" s="186"/>
+      <c r="F148" s="186"/>
+      <c r="G148" s="186"/>
+      <c r="H148" s="186"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="186"/>
+      <c r="B149" s="186"/>
+      <c r="C149" s="186"/>
+      <c r="D149" s="186"/>
+      <c r="E149" s="186"/>
+      <c r="F149" s="186"/>
+      <c r="G149" s="186"/>
+      <c r="H149" s="186"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="186"/>
+      <c r="B150" s="186"/>
+      <c r="C150" s="186"/>
+      <c r="D150" s="186"/>
+      <c r="E150" s="186"/>
+      <c r="F150" s="186"/>
+      <c r="G150" s="186"/>
+      <c r="H150" s="186"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="186"/>
+      <c r="B151" s="186"/>
+      <c r="C151" s="186"/>
+      <c r="D151" s="186"/>
+      <c r="E151" s="186"/>
+      <c r="F151" s="186"/>
+      <c r="G151" s="186"/>
+      <c r="H151" s="186"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="186"/>
+      <c r="B152" s="186"/>
+      <c r="C152" s="186"/>
+      <c r="D152" s="186"/>
+      <c r="E152" s="186"/>
+      <c r="F152" s="186"/>
+      <c r="G152" s="186"/>
+      <c r="H152" s="186"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="186"/>
+      <c r="B153" s="186"/>
+      <c r="C153" s="186"/>
+      <c r="D153" s="186"/>
+      <c r="E153" s="186"/>
+      <c r="F153" s="186"/>
+      <c r="G153" s="186"/>
+      <c r="H153" s="186"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="186"/>
+      <c r="B154" s="186"/>
+      <c r="C154" s="186"/>
+      <c r="D154" s="186"/>
+      <c r="E154" s="186"/>
+      <c r="F154" s="186"/>
+      <c r="G154" s="186"/>
+      <c r="H154" s="186"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="186"/>
+      <c r="B155" s="186"/>
+      <c r="C155" s="186"/>
+      <c r="D155" s="186"/>
+      <c r="E155" s="186"/>
+      <c r="F155" s="186"/>
+      <c r="G155" s="186"/>
+      <c r="H155" s="186"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="186"/>
+      <c r="B156" s="186"/>
+      <c r="C156" s="186"/>
+      <c r="D156" s="186"/>
+      <c r="E156" s="186"/>
+      <c r="F156" s="186"/>
+      <c r="G156" s="186"/>
+      <c r="H156" s="186"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="186"/>
+      <c r="B157" s="186"/>
+      <c r="C157" s="186"/>
+      <c r="D157" s="186"/>
+      <c r="E157" s="186"/>
+      <c r="F157" s="186"/>
+      <c r="G157" s="186"/>
+      <c r="H157" s="186"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="186"/>
+      <c r="B158" s="186"/>
+      <c r="C158" s="186"/>
+      <c r="D158" s="186"/>
+      <c r="E158" s="186"/>
+      <c r="F158" s="186"/>
+      <c r="G158" s="186"/>
+      <c r="H158" s="186"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="186"/>
+      <c r="B159" s="186"/>
+      <c r="C159" s="186"/>
+      <c r="D159" s="186"/>
+      <c r="E159" s="186"/>
+      <c r="F159" s="186"/>
+      <c r="G159" s="186"/>
+      <c r="H159" s="186"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="186"/>
+      <c r="B160" s="186"/>
+      <c r="C160" s="186"/>
+      <c r="D160" s="186"/>
+      <c r="E160" s="186"/>
+      <c r="F160" s="186"/>
+      <c r="G160" s="186"/>
+      <c r="H160" s="186"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="186"/>
+      <c r="B161" s="186"/>
+      <c r="C161" s="186"/>
+      <c r="D161" s="186"/>
+      <c r="E161" s="186"/>
+      <c r="F161" s="186"/>
+      <c r="G161" s="186"/>
+      <c r="H161" s="186"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="186"/>
+      <c r="B162" s="186"/>
+      <c r="C162" s="186"/>
+      <c r="D162" s="186"/>
+      <c r="E162" s="186"/>
+      <c r="F162" s="186"/>
+      <c r="G162" s="186"/>
+      <c r="H162" s="186"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="186"/>
+      <c r="B163" s="186"/>
+      <c r="C163" s="186"/>
+      <c r="D163" s="186"/>
+      <c r="E163" s="186"/>
+      <c r="F163" s="186"/>
+      <c r="G163" s="186"/>
+      <c r="H163" s="186"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="186"/>
+      <c r="B164" s="186"/>
+      <c r="C164" s="186"/>
+      <c r="D164" s="186"/>
+      <c r="E164" s="186"/>
+      <c r="F164" s="186"/>
+      <c r="G164" s="186"/>
+      <c r="H164" s="186"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="186"/>
+      <c r="B165" s="186"/>
+      <c r="C165" s="186"/>
+      <c r="D165" s="186"/>
+      <c r="E165" s="186"/>
+      <c r="F165" s="186"/>
+      <c r="G165" s="186"/>
+      <c r="H165" s="186"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="186"/>
+      <c r="B166" s="186"/>
+      <c r="C166" s="186"/>
+      <c r="D166" s="186"/>
+      <c r="E166" s="186"/>
+      <c r="F166" s="186"/>
+      <c r="G166" s="186"/>
+      <c r="H166" s="186"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="186"/>
+      <c r="B167" s="186"/>
+      <c r="C167" s="186"/>
+      <c r="D167" s="186"/>
+      <c r="E167" s="186"/>
+      <c r="F167" s="186"/>
+      <c r="G167" s="186"/>
+      <c r="H167" s="186"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="186"/>
+      <c r="B168" s="186"/>
+      <c r="C168" s="186"/>
+      <c r="D168" s="186"/>
+      <c r="E168" s="186"/>
+      <c r="F168" s="186"/>
+      <c r="G168" s="186"/>
+      <c r="H168" s="186"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="186"/>
+      <c r="B169" s="186"/>
+      <c r="C169" s="186"/>
+      <c r="D169" s="186"/>
+      <c r="E169" s="186"/>
+      <c r="F169" s="186"/>
+      <c r="G169" s="186"/>
+      <c r="H169" s="186"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="186"/>
+      <c r="B170" s="186"/>
+      <c r="C170" s="186"/>
+      <c r="D170" s="186"/>
+      <c r="E170" s="186"/>
+      <c r="F170" s="186"/>
+      <c r="G170" s="186"/>
+      <c r="H170" s="186"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="186"/>
+      <c r="B171" s="186"/>
+      <c r="C171" s="186"/>
+      <c r="D171" s="186"/>
+      <c r="E171" s="186"/>
+      <c r="F171" s="186"/>
+      <c r="G171" s="186"/>
+      <c r="H171" s="186"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="186"/>
+      <c r="B172" s="186"/>
+      <c r="C172" s="186"/>
+      <c r="D172" s="186"/>
+      <c r="E172" s="186"/>
+      <c r="F172" s="186"/>
+      <c r="G172" s="186"/>
+      <c r="H172" s="186"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B173" s="186"/>
+      <c r="C173" s="186"/>
+      <c r="D173" s="186"/>
+      <c r="E173" s="186"/>
+      <c r="F173" s="186"/>
+      <c r="G173" s="186"/>
+      <c r="H173" s="186"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B174" s="186"/>
+      <c r="C174" s="186"/>
+      <c r="D174" s="186"/>
+      <c r="E174" s="186"/>
+      <c r="F174" s="186"/>
+      <c r="G174" s="186"/>
+      <c r="H174" s="186"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B175" s="186"/>
+      <c r="C175" s="186"/>
+      <c r="D175" s="186"/>
+      <c r="E175" s="186"/>
+      <c r="F175" s="186"/>
+      <c r="G175" s="186"/>
+      <c r="H175" s="186"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B176" s="186"/>
+      <c r="C176" s="186"/>
+      <c r="D176" s="186"/>
+      <c r="E176" s="186"/>
+      <c r="F176" s="186"/>
+      <c r="G176" s="186"/>
+      <c r="H176" s="186"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B177" s="186"/>
+      <c r="C177" s="186"/>
+      <c r="D177" s="186"/>
+      <c r="E177" s="186"/>
+      <c r="F177" s="186"/>
+      <c r="G177" s="186"/>
+      <c r="H177" s="186"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B178" s="186"/>
+      <c r="C178" s="186"/>
+      <c r="D178" s="186"/>
+      <c r="E178" s="186"/>
+      <c r="F178" s="186"/>
+      <c r="G178" s="186"/>
+      <c r="H178" s="186"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5009,11 +7291,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EE1091-9F45-40A9-90F5-6AF0F1D8D5C5}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P18" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="P18" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
@@ -5030,60 +7312,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
       <c r="I1" s="5"/>
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
       <c r="M1" s="6"/>
       <c r="N1" s="7"/>
-      <c r="P1" s="192" t="s">
+      <c r="P1" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
       <c r="S1" s="3"/>
       <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="206"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
         <v>11</v>
@@ -5092,18 +7374,18 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
-      <c r="P2" s="196" t="s">
+      <c r="P2" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="197"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
       <c r="S2" s="8"/>
       <c r="T2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9" t="s">
         <v>11</v>
@@ -5114,59 +7396,59 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
       <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="199" t="s">
+      <c r="P3" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="201" t="s">
+      <c r="Q3" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="201" t="s">
+      <c r="R3" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="179" t="s">
+      <c r="S3" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="179"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
       <c r="AC3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="200"/>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -5178,9 +7460,9 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="13"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -5194,11 +7476,11 @@
       <c r="AC4" s="13"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="204"/>
-      <c r="C5" s="205"/>
+      <c r="B5" s="212"/>
+      <c r="C5" s="213"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -5210,11 +7492,11 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="13"/>
-      <c r="P5" s="180" t="s">
+      <c r="P5" s="234" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="182"/>
+      <c r="Q5" s="235"/>
+      <c r="R5" s="236"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -5223,8 +7505,8 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
-      <c r="AA5" s="249"/>
-      <c r="AB5" s="249"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
       <c r="AC5" s="13"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -5295,10 +7577,10 @@
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
-      <c r="AA7" s="250" t="s">
+      <c r="AA7" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="AB7" s="250" t="s">
+      <c r="AB7" s="165" t="s">
         <v>72</v>
       </c>
       <c r="AC7" s="21"/>
@@ -5371,8 +7653,8 @@
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
-      <c r="AA9" s="251"/>
-      <c r="AB9" s="251"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
       <c r="AC9" s="13"/>
     </row>
     <row r="10" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5409,8 +7691,8 @@
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
-      <c r="AA10" s="251"/>
-      <c r="AB10" s="251"/>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="166"/>
       <c r="AC10" s="13"/>
     </row>
     <row r="11" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5449,16 +7731,16 @@
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
       <c r="Z11" s="27"/>
-      <c r="AA11" s="252"/>
-      <c r="AB11" s="252"/>
+      <c r="AA11" s="167"/>
+      <c r="AB11" s="167"/>
       <c r="AC11" s="119"/>
     </row>
     <row r="12" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="183"/>
+      <c r="C12" s="214"/>
       <c r="D12" s="29"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5471,10 +7753,10 @@
       <c r="M12" s="1"/>
       <c r="N12" s="13"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="183" t="s">
+      <c r="Q12" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="183"/>
+      <c r="R12" s="214"/>
       <c r="S12" s="29"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -5483,16 +7765,16 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="249"/>
-      <c r="AB12" s="249"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
       <c r="AC12" s="13"/>
     </row>
     <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="170"/>
+      <c r="C13" s="210"/>
       <c r="D13" s="31" t="s">
         <v>27</v>
       </c>
@@ -5507,10 +7789,10 @@
       <c r="M13" s="17"/>
       <c r="N13" s="13"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="170" t="s">
+      <c r="Q13" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="170"/>
+      <c r="R13" s="210"/>
       <c r="S13" s="120"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
@@ -5538,10 +7820,10 @@
         <v>30</v>
       </c>
       <c r="J14" s="69"/>
-      <c r="K14" s="184" t="s">
+      <c r="K14" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="185"/>
+      <c r="L14" s="216"/>
       <c r="M14" s="71"/>
       <c r="N14" s="13"/>
       <c r="P14" s="15"/>
@@ -5558,10 +7840,10 @@
         <v>30</v>
       </c>
       <c r="Y14" s="34"/>
-      <c r="Z14" s="184" t="s">
+      <c r="Z14" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" s="185"/>
+      <c r="AA14" s="216"/>
       <c r="AB14" s="122"/>
       <c r="AC14" s="13"/>
     </row>
@@ -5580,10 +7862,10 @@
         <v>33</v>
       </c>
       <c r="J15" s="69"/>
-      <c r="K15" s="184" t="s">
+      <c r="K15" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="185"/>
+      <c r="L15" s="216"/>
       <c r="M15" s="72"/>
       <c r="N15" s="13"/>
       <c r="P15" s="15"/>
@@ -5600,10 +7882,10 @@
         <v>33</v>
       </c>
       <c r="Y15" s="34"/>
-      <c r="Z15" s="184" t="s">
+      <c r="Z15" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="AA15" s="185"/>
+      <c r="AA15" s="216"/>
       <c r="AB15" s="121" t="s">
         <v>72</v>
       </c>
@@ -5643,7 +7925,7 @@
       <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="186" t="s">
+      <c r="B17" s="217" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="37" t="s">
@@ -5665,7 +7947,7 @@
       <c r="P17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="186" t="s">
+      <c r="Q17" s="217" t="s">
         <v>36</v>
       </c>
       <c r="R17" s="37" t="s">
@@ -5679,17 +7961,17 @@
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
       <c r="Z17" s="39"/>
-      <c r="AA17" s="253" t="s">
+      <c r="AA17" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB17" s="254" t="s">
+      <c r="AB17" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC17" s="13"/>
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="187"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="42" t="s">
         <v>38</v>
       </c>
@@ -5707,7 +7989,7 @@
       </c>
       <c r="N18" s="13"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="187"/>
+      <c r="Q18" s="218"/>
       <c r="R18" s="42" t="s">
         <v>38</v>
       </c>
@@ -5719,17 +8001,17 @@
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
       <c r="Z18" s="44"/>
-      <c r="AA18" s="255" t="s">
+      <c r="AA18" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="AB18" s="256" t="s">
+      <c r="AB18" s="171" t="s">
         <v>72</v>
       </c>
       <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="217" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -5749,7 +8031,7 @@
       </c>
       <c r="N19" s="13"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="186" t="s">
+      <c r="Q19" s="217" t="s">
         <v>39</v>
       </c>
       <c r="R19" s="37" t="s">
@@ -5763,17 +8045,17 @@
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
       <c r="Z19" s="39"/>
-      <c r="AA19" s="253" t="s">
+      <c r="AA19" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB19" s="254" t="s">
+      <c r="AB19" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC19" s="13"/>
     </row>
     <row r="20" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="187"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="42" t="s">
         <v>41</v>
       </c>
@@ -5791,7 +8073,7 @@
       </c>
       <c r="N20" s="13"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="187"/>
+      <c r="Q20" s="218"/>
       <c r="R20" s="42" t="s">
         <v>41</v>
       </c>
@@ -5803,17 +8085,17 @@
       <c r="X20" s="44"/>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44"/>
-      <c r="AA20" s="255" t="s">
+      <c r="AA20" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="AB20" s="256" t="s">
+      <c r="AB20" s="171" t="s">
         <v>72</v>
       </c>
       <c r="AC20" s="13"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="217" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="37" t="s">
@@ -5833,7 +8115,7 @@
       </c>
       <c r="N21" s="13"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="186" t="s">
+      <c r="Q21" s="217" t="s">
         <v>42</v>
       </c>
       <c r="R21" s="37" t="s">
@@ -5847,17 +8129,17 @@
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
-      <c r="AA21" s="253" t="s">
+      <c r="AA21" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB21" s="254" t="s">
+      <c r="AB21" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC21" s="13"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
-      <c r="B22" s="188"/>
+      <c r="B22" s="219"/>
       <c r="C22" s="26" t="s">
         <v>44</v>
       </c>
@@ -5875,7 +8157,7 @@
       </c>
       <c r="N22" s="13"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="188"/>
+      <c r="Q22" s="219"/>
       <c r="R22" s="26" t="s">
         <v>44</v>
       </c>
@@ -5887,17 +8169,17 @@
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
-      <c r="AA22" s="249" t="s">
+      <c r="AA22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB22" s="257" t="s">
+      <c r="AB22" s="172" t="s">
         <v>72</v>
       </c>
       <c r="AC22" s="13"/>
     </row>
     <row r="23" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="187"/>
+      <c r="B23" s="218"/>
       <c r="C23" s="42" t="s">
         <v>45</v>
       </c>
@@ -5915,7 +8197,7 @@
       </c>
       <c r="N23" s="13"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="187"/>
+      <c r="Q23" s="218"/>
       <c r="R23" s="42" t="s">
         <v>45</v>
       </c>
@@ -5927,17 +8209,17 @@
       <c r="X23" s="44"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
-      <c r="AA23" s="255" t="s">
+      <c r="AA23" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="AB23" s="256" t="s">
+      <c r="AB23" s="171" t="s">
         <v>72</v>
       </c>
       <c r="AC23" s="13"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
-      <c r="B24" s="186" t="s">
+      <c r="B24" s="217" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="37" t="s">
@@ -5957,7 +8239,7 @@
       </c>
       <c r="N24" s="13"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="186" t="s">
+      <c r="Q24" s="217" t="s">
         <v>46</v>
       </c>
       <c r="R24" s="37" t="s">
@@ -5971,17 +8253,17 @@
       <c r="X24" s="39"/>
       <c r="Y24" s="39"/>
       <c r="Z24" s="39"/>
-      <c r="AA24" s="253" t="s">
+      <c r="AA24" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB24" s="254" t="s">
+      <c r="AB24" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC24" s="13"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
-      <c r="B25" s="188"/>
+      <c r="B25" s="219"/>
       <c r="C25" s="26" t="s">
         <v>48</v>
       </c>
@@ -5999,7 +8281,7 @@
       </c>
       <c r="N25" s="13"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="188"/>
+      <c r="Q25" s="219"/>
       <c r="R25" s="26" t="s">
         <v>48</v>
       </c>
@@ -6011,17 +8293,17 @@
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
-      <c r="AA25" s="249" t="s">
+      <c r="AA25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB25" s="257" t="s">
+      <c r="AB25" s="172" t="s">
         <v>72</v>
       </c>
       <c r="AC25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="187"/>
+      <c r="B26" s="218"/>
       <c r="C26" s="42" t="s">
         <v>49</v>
       </c>
@@ -6039,7 +8321,7 @@
       </c>
       <c r="N26" s="13"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="187"/>
+      <c r="Q26" s="218"/>
       <c r="R26" s="42" t="s">
         <v>49</v>
       </c>
@@ -6051,10 +8333,10 @@
       <c r="X26" s="44"/>
       <c r="Y26" s="44"/>
       <c r="Z26" s="44"/>
-      <c r="AA26" s="255" t="s">
+      <c r="AA26" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="AB26" s="256" t="s">
+      <c r="AB26" s="171" t="s">
         <v>72</v>
       </c>
       <c r="AC26" s="13"/>
@@ -6079,7 +8361,7 @@
       </c>
       <c r="N27" s="13"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="189" t="s">
+      <c r="Q27" s="237" t="s">
         <v>51</v>
       </c>
       <c r="R27" s="37" t="s">
@@ -6093,10 +8375,10 @@
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
       <c r="Z27" s="39"/>
-      <c r="AA27" s="253" t="s">
+      <c r="AA27" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB27" s="254" t="s">
+      <c r="AB27" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC27" s="13"/>
@@ -6123,7 +8405,7 @@
       </c>
       <c r="N28" s="13"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="190"/>
+      <c r="Q28" s="238"/>
       <c r="R28" s="26" t="s">
         <v>52</v>
       </c>
@@ -6135,10 +8417,10 @@
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
-      <c r="AA28" s="249" t="s">
+      <c r="AA28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB28" s="257" t="s">
+      <c r="AB28" s="172" t="s">
         <v>72</v>
       </c>
       <c r="AC28" s="13"/>
@@ -6163,7 +8445,7 @@
       </c>
       <c r="N29" s="13"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="191"/>
+      <c r="Q29" s="239"/>
       <c r="R29" s="42" t="s">
         <v>53</v>
       </c>
@@ -6175,17 +8457,17 @@
       <c r="X29" s="44"/>
       <c r="Y29" s="44"/>
       <c r="Z29" s="44"/>
-      <c r="AA29" s="255" t="s">
+      <c r="AA29" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="AB29" s="256" t="s">
+      <c r="AB29" s="171" t="s">
         <v>72</v>
       </c>
       <c r="AC29" s="13"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="220" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="37" t="s">
@@ -6205,7 +8487,7 @@
       </c>
       <c r="N30" s="13"/>
       <c r="P30" s="15"/>
-      <c r="Q30" s="176" t="s">
+      <c r="Q30" s="220" t="s">
         <v>54</v>
       </c>
       <c r="R30" s="37" t="s">
@@ -6219,17 +8501,17 @@
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
-      <c r="AA30" s="253" t="s">
+      <c r="AA30" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="254" t="s">
+      <c r="AB30" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC30" s="13"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="177"/>
+      <c r="B31" s="221"/>
       <c r="C31" s="26" t="s">
         <v>56</v>
       </c>
@@ -6247,7 +8529,7 @@
       </c>
       <c r="N31" s="48"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="177"/>
+      <c r="Q31" s="221"/>
       <c r="R31" s="26" t="s">
         <v>56</v>
       </c>
@@ -6259,17 +8541,17 @@
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
-      <c r="AA31" s="249" t="s">
+      <c r="AA31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB31" s="257" t="s">
+      <c r="AB31" s="172" t="s">
         <v>72</v>
       </c>
       <c r="AC31" s="48"/>
     </row>
     <row r="32" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="178"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="42" t="s">
         <v>57</v>
       </c>
@@ -6287,7 +8569,7 @@
       </c>
       <c r="N32" s="13"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="178"/>
+      <c r="Q32" s="222"/>
       <c r="R32" s="42" t="s">
         <v>57</v>
       </c>
@@ -6299,20 +8581,20 @@
       <c r="X32" s="44"/>
       <c r="Y32" s="44"/>
       <c r="Z32" s="44"/>
-      <c r="AA32" s="255" t="s">
+      <c r="AA32" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="AB32" s="256" t="s">
+      <c r="AB32" s="171" t="s">
         <v>72</v>
       </c>
       <c r="AC32" s="13"/>
     </row>
     <row r="33" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="171"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="49"/>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
@@ -6325,10 +8607,10 @@
       <c r="M33" s="49"/>
       <c r="N33" s="13"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="170" t="s">
+      <c r="Q33" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="171"/>
+      <c r="R33" s="223"/>
       <c r="S33" s="49"/>
       <c r="T33" s="49"/>
       <c r="U33" s="49"/>
@@ -6343,10 +8625,10 @@
     </row>
     <row r="34" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="170"/>
+      <c r="C34" s="210"/>
       <c r="D34" s="50"/>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
@@ -6361,10 +8643,10 @@
         <v>27</v>
       </c>
       <c r="P34" s="15"/>
-      <c r="Q34" s="170" t="s">
+      <c r="Q34" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="170"/>
+      <c r="R34" s="210"/>
       <c r="S34" s="50"/>
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
@@ -6379,10 +8661,10 @@
     </row>
     <row r="35" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="170" t="s">
+      <c r="B35" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="171"/>
+      <c r="C35" s="223"/>
       <c r="D35" s="29"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -6395,10 +8677,10 @@
       <c r="M35" s="1"/>
       <c r="N35" s="13"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="170" t="s">
+      <c r="Q35" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="R35" s="171"/>
+      <c r="R35" s="223"/>
       <c r="S35" s="29"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -6407,16 +8689,16 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="249"/>
-      <c r="AB35" s="249"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
       <c r="AC35" s="13"/>
     </row>
     <row r="36" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="210" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="170"/>
+      <c r="C36" s="210"/>
       <c r="D36" s="31" t="s">
         <v>27</v>
       </c>
@@ -6431,10 +8713,10 @@
       <c r="M36" s="17"/>
       <c r="N36" s="13"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="170" t="s">
+      <c r="Q36" s="210" t="s">
         <v>61</v>
       </c>
-      <c r="R36" s="170"/>
+      <c r="R36" s="210"/>
       <c r="S36" s="123"/>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
@@ -6543,8 +8825,8 @@
       <c r="X39" s="124"/>
       <c r="Y39" s="124"/>
       <c r="Z39" s="124"/>
-      <c r="AA39" s="258"/>
-      <c r="AB39" s="258"/>
+      <c r="AA39" s="124"/>
+      <c r="AB39" s="124"/>
       <c r="AC39" s="13"/>
     </row>
     <row r="40" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6579,10 +8861,10 @@
     </row>
     <row r="41" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
-      <c r="B41" s="172" t="s">
+      <c r="B41" s="230" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="173"/>
+      <c r="C41" s="231"/>
       <c r="D41" s="56" t="s">
         <v>64</v>
       </c>
@@ -6601,10 +8883,10 @@
       <c r="M41" s="9"/>
       <c r="N41" s="10"/>
       <c r="P41" s="54"/>
-      <c r="Q41" s="172" t="s">
+      <c r="Q41" s="230" t="s">
         <v>63</v>
       </c>
-      <c r="R41" s="173"/>
+      <c r="R41" s="231"/>
       <c r="S41" s="56" t="s">
         <v>64</v>
       </c>
@@ -6623,10 +8905,10 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="54"/>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="175"/>
+      <c r="C42" s="233"/>
       <c r="D42" s="57"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -6639,10 +8921,10 @@
       <c r="M42" s="8"/>
       <c r="N42" s="10"/>
       <c r="P42" s="54"/>
-      <c r="Q42" s="174" t="s">
+      <c r="Q42" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="R42" s="175"/>
+      <c r="R42" s="233"/>
       <c r="S42" s="57"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -6657,10 +8939,10 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="54"/>
-      <c r="B43" s="166" t="s">
+      <c r="B43" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="167"/>
+      <c r="C43" s="225"/>
       <c r="D43" s="58">
         <v>1</v>
       </c>
@@ -6675,10 +8957,10 @@
       <c r="M43" s="8"/>
       <c r="N43" s="10"/>
       <c r="P43" s="54"/>
-      <c r="Q43" s="166" t="s">
+      <c r="Q43" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="R43" s="167"/>
+      <c r="R43" s="225"/>
       <c r="S43" s="58">
         <v>1</v>
       </c>
@@ -6695,10 +8977,10 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
-      <c r="B44" s="166" t="s">
+      <c r="B44" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="167"/>
+      <c r="C44" s="225"/>
       <c r="D44" s="59">
         <v>2</v>
       </c>
@@ -6713,10 +8995,10 @@
       <c r="M44" s="8"/>
       <c r="N44" s="10"/>
       <c r="P44" s="54"/>
-      <c r="Q44" s="166" t="s">
+      <c r="Q44" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="R44" s="167"/>
+      <c r="R44" s="225"/>
       <c r="S44" s="59">
         <v>2</v>
       </c>
@@ -6733,10 +9015,10 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="54"/>
-      <c r="B45" s="166" t="s">
+      <c r="B45" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="167"/>
+      <c r="C45" s="225"/>
       <c r="D45" s="60">
         <v>3</v>
       </c>
@@ -6751,10 +9033,10 @@
       <c r="M45" s="8"/>
       <c r="N45" s="61"/>
       <c r="P45" s="54"/>
-      <c r="Q45" s="166" t="s">
+      <c r="Q45" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="R45" s="167"/>
+      <c r="R45" s="225"/>
       <c r="S45" s="60">
         <v>3</v>
       </c>
@@ -6771,10 +9053,10 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="54"/>
-      <c r="B46" s="168" t="s">
+      <c r="B46" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="169"/>
+      <c r="C46" s="227"/>
       <c r="D46" s="62">
         <v>4</v>
       </c>
@@ -6789,10 +9071,10 @@
       <c r="M46" s="8"/>
       <c r="N46" s="61"/>
       <c r="P46" s="54"/>
-      <c r="Q46" s="168" t="s">
+      <c r="Q46" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="R46" s="169"/>
+      <c r="R46" s="227"/>
       <c r="S46" s="62">
         <v>4</v>
       </c>
@@ -6846,27 +9128,28 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="S3:AB3"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q27:Q29"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="P1:R1"/>
@@ -6883,125 +9166,124 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="S3:AB3"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="251" priority="248">
+    <cfRule type="expression" dxfId="251" priority="245">
+      <formula>($D$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="246">
+      <formula>($D$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="247">
+      <formula>($D$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="248">
       <formula>($D$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="247">
-      <formula>($D$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="246">
-      <formula>($D$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="245">
-      <formula>($D$12="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="247" priority="252">
+    <cfRule type="expression" dxfId="247" priority="249">
+      <formula>($D$35="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="250">
+      <formula>($D$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="251">
+      <formula>($D$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="252">
       <formula>($D$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="251">
-      <formula>($D$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="250">
-      <formula>($D$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="249">
-      <formula>($D$35="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="243" priority="172">
+    <cfRule type="expression" dxfId="243" priority="169">
+      <formula>($D$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="170">
+      <formula>($D$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="171">
+      <formula>($D$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="172">
       <formula>($D$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="171">
-      <formula>($D$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="170">
-      <formula>($D$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="169">
-      <formula>($D$39="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="239" priority="244">
+    <cfRule type="expression" dxfId="239" priority="241">
+      <formula>($E$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="242">
+      <formula>($E$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="243">
+      <formula>($E$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="244">
       <formula>($E$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="243">
-      <formula>($E$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="242">
-      <formula>($E$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="241">
-      <formula>($E$12="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="235" priority="207">
-      <formula>($E$35="2")</formula>
+    <cfRule type="expression" dxfId="235" priority="205">
+      <formula>($E$35="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="234" priority="206">
       <formula>($E$35="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="205">
-      <formula>($E$35="4")</formula>
+    <cfRule type="expression" dxfId="233" priority="207">
+      <formula>($E$35="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="232" priority="208">
       <formula>($E$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="231" priority="168">
+    <cfRule type="expression" dxfId="231" priority="165">
+      <formula>($E$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="166">
+      <formula>($E$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="167">
+      <formula>($E$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="168">
       <formula>($E$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="167">
-      <formula>($E$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="166">
-      <formula>($E$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="165">
-      <formula>($E$39="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="227" priority="240">
+    <cfRule type="expression" dxfId="227" priority="237">
+      <formula>($F$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="238">
+      <formula>($F$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="239">
+      <formula>($F$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="240">
       <formula>($F$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="239">
-      <formula>($F$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="238">
-      <formula>($F$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="237">
-      <formula>($F$12="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
@@ -7019,59 +9301,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="219" priority="164">
+    <cfRule type="expression" dxfId="219" priority="161">
+      <formula>($F$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="162">
+      <formula>($F$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="163">
+      <formula>($F$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="164">
       <formula>($F$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="161">
-      <formula>($F$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="162">
-      <formula>($F$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="163">
-      <formula>($F$39="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="215" priority="234">
+    <cfRule type="expression" dxfId="215" priority="233">
+      <formula>($G$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="234">
       <formula>($G$12="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="233">
-      <formula>($G$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="236">
+    <cfRule type="expression" dxfId="213" priority="235">
+      <formula>($G$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="236">
       <formula>($G$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="235">
-      <formula>($G$12="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="211" priority="200">
-      <formula>($G$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="197">
+    <cfRule type="expression" dxfId="211" priority="197">
       <formula>($G$35="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="198">
+      <formula>($G$35="3")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="209" priority="199">
       <formula>($G$35="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="198">
-      <formula>($G$35="3")</formula>
+    <cfRule type="expression" dxfId="208" priority="200">
+      <formula>($G$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="207" priority="160">
+    <cfRule type="expression" dxfId="207" priority="157">
+      <formula>($G$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="158">
+      <formula>($G$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="159">
+      <formula>($G$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="160">
       <formula>($G$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="159">
-      <formula>($G$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="157">
-      <formula>($G$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="158">
-      <formula>($G$39="3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
@@ -7089,28 +9371,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="199" priority="196">
+    <cfRule type="expression" dxfId="199" priority="193">
+      <formula>($H$35="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="194">
+      <formula>($H$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="195">
+      <formula>($H$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="196">
       <formula>($H$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="195">
-      <formula>($H$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="194">
-      <formula>($H$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="193">
-      <formula>($H$35="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="195" priority="155">
-      <formula>($H$39="2")</formula>
+    <cfRule type="expression" dxfId="195" priority="153">
+      <formula>($H$39="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="194" priority="154">
       <formula>($H$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="153">
-      <formula>($H$39="4")</formula>
+    <cfRule type="expression" dxfId="193" priority="155">
+      <formula>($H$39="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="192" priority="156">
       <formula>($H$39="1")</formula>
@@ -7134,84 +9416,84 @@
     <cfRule type="expression" dxfId="187" priority="189">
       <formula>($I$35="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="192">
+    <cfRule type="expression" dxfId="186" priority="190">
+      <formula>($I$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="191">
+      <formula>($I$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="192">
       <formula>($I$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="190">
-      <formula>($I$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="191">
-      <formula>($I$35="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="183" priority="151">
-      <formula>($I$39="2")</formula>
+    <cfRule type="expression" dxfId="183" priority="149">
+      <formula>($I$39="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="182" priority="150">
       <formula>($I$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="149">
-      <formula>($I$39="4")</formula>
+    <cfRule type="expression" dxfId="181" priority="151">
+      <formula>($I$39="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="180" priority="152">
       <formula>($I$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="179" priority="223">
+    <cfRule type="expression" dxfId="179" priority="221">
+      <formula>($J$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="222">
+      <formula>($J$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="223">
       <formula>($J$12="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="224">
+    <cfRule type="expression" dxfId="176" priority="224">
       <formula>($J$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="221">
-      <formula>($J$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="222">
-      <formula>($J$12="3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="175" priority="188">
+    <cfRule type="expression" dxfId="175" priority="185">
+      <formula>($J$35="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="186">
+      <formula>($J$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="187">
+      <formula>($J$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="188">
       <formula>($J$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="187">
-      <formula>($J$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="186">
-      <formula>($J$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="185">
-      <formula>($J$35="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="171" priority="148">
+    <cfRule type="expression" dxfId="171" priority="145">
+      <formula>($J$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="146">
+      <formula>($J$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="147">
+      <formula>($J$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="148">
       <formula>($J$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="147">
-      <formula>($J$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="146">
-      <formula>($J$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="145">
-      <formula>($J$39="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="167" priority="218">
+    <cfRule type="expression" dxfId="167" priority="217">
+      <formula>($K$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="218">
       <formula>($K$12="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="220">
+    <cfRule type="expression" dxfId="165" priority="219">
+      <formula>($K$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="220">
       <formula>($K$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="217">
-      <formula>($K$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="219">
-      <formula>($K$12="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
@@ -7229,31 +9511,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="159" priority="142">
+    <cfRule type="expression" dxfId="159" priority="141">
+      <formula>($K$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="142">
       <formula>($K$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="143">
+    <cfRule type="expression" dxfId="157" priority="143">
       <formula>($K$39="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="144">
+    <cfRule type="expression" dxfId="156" priority="144">
       <formula>($K$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="141">
-      <formula>($K$39="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="155" priority="216">
+    <cfRule type="expression" dxfId="155" priority="213">
+      <formula>($L$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="214">
+      <formula>($L$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="215">
+      <formula>($L$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="216">
       <formula>($L$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="213">
-      <formula>($L$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="214">
-      <formula>($L$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="215">
-      <formula>($L$12="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
@@ -7274,14 +9556,14 @@
     <cfRule type="expression" dxfId="147" priority="137">
       <formula>($L$39="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="140">
+    <cfRule type="expression" dxfId="146" priority="138">
+      <formula>($L$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="139">
+      <formula>($L$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="140">
       <formula>($L$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="138">
-      <formula>($L$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="139">
-      <formula>($L$39="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
@@ -7313,14 +9595,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39">
-    <cfRule type="expression" dxfId="135" priority="135">
-      <formula>($M$39="2")</formula>
+    <cfRule type="expression" dxfId="135" priority="133">
+      <formula>($M$39="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="134" priority="134">
       <formula>($M$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="133">
-      <formula>($M$39="4")</formula>
+    <cfRule type="expression" dxfId="133" priority="135">
+      <formula>($M$39="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="132" priority="136">
       <formula>($M$39="1")</formula>
@@ -7330,126 +9612,126 @@
     <cfRule type="expression" dxfId="131" priority="129">
       <formula>($S$12="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="132">
-      <formula>($S$12="1")</formula>
+    <cfRule type="expression" dxfId="130" priority="130">
+      <formula>($S$12="3")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="129" priority="131">
       <formula>($S$12="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="130">
-      <formula>($S$12="3")</formula>
+    <cfRule type="expression" dxfId="128" priority="132">
+      <formula>($S$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="expression" dxfId="127" priority="91">
+    <cfRule type="expression" dxfId="127" priority="89">
+      <formula>($S$13="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="90">
+      <formula>($S$13="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="91">
       <formula>($S$13="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="89">
-      <formula>($S$13="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="90">
-      <formula>($S$13="3")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="124" priority="92">
       <formula>($S$13="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="expression" dxfId="123" priority="88">
+    <cfRule type="expression" dxfId="123" priority="85">
+      <formula>($S$35="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="86">
+      <formula>($S$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="87">
+      <formula>($S$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="88">
       <formula>($S$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="87">
-      <formula>($S$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="86">
-      <formula>($S$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="85">
-      <formula>($S$35="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36">
-    <cfRule type="expression" dxfId="119" priority="48">
+    <cfRule type="expression" dxfId="119" priority="45">
+      <formula>($S$36="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="46">
+      <formula>($S$36="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="47">
+      <formula>($S$36="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="48">
       <formula>($S$36="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="47">
-      <formula>($S$36="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="46">
-      <formula>($S$36="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="45">
-      <formula>($S$36="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39">
     <cfRule type="expression" dxfId="115" priority="41">
       <formula>($S$39="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="44">
+    <cfRule type="expression" dxfId="114" priority="42">
+      <formula>($S$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="43">
+      <formula>($S$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="44">
       <formula>($S$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="42">
-      <formula>($S$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="43">
-      <formula>($S$39="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="expression" dxfId="111" priority="127">
-      <formula>($T$12="2")</formula>
+    <cfRule type="expression" dxfId="111" priority="125">
+      <formula>($T$12="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="110" priority="126">
       <formula>($T$12="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="125">
-      <formula>($T$12="4")</formula>
+    <cfRule type="expression" dxfId="109" priority="127">
+      <formula>($T$12="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="108" priority="128">
       <formula>($T$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="expression" dxfId="107" priority="84">
+    <cfRule type="expression" dxfId="107" priority="81">
+      <formula>($T$35="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="82">
+      <formula>($T$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="83">
+      <formula>($T$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="84">
       <formula>($T$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="81">
-      <formula>($T$35="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="82">
-      <formula>($T$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="83">
-      <formula>($T$35="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39">
-    <cfRule type="expression" dxfId="103" priority="39">
+    <cfRule type="expression" dxfId="103" priority="37">
+      <formula>($T$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="38">
+      <formula>($T$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="39">
       <formula>($T$39="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="40">
+    <cfRule type="expression" dxfId="100" priority="40">
       <formula>($T$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="38">
-      <formula>($T$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="37">
-      <formula>($T$39="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="99" priority="124">
+    <cfRule type="expression" dxfId="99" priority="121">
+      <formula>($U$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="122">
+      <formula>($U$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="123">
+      <formula>($U$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="124">
       <formula>($U$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="123">
-      <formula>($U$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="122">
-      <formula>($U$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="121">
-      <formula>($U$12="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35">
@@ -7467,31 +9749,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U39">
-    <cfRule type="expression" dxfId="91" priority="36">
+    <cfRule type="expression" dxfId="91" priority="33">
+      <formula>($U$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="34">
+      <formula>($U$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="35">
+      <formula>($U$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="36">
       <formula>($U$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="35">
-      <formula>($U$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="34">
-      <formula>($U$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="33">
-      <formula>($U$39="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="87" priority="119">
+    <cfRule type="expression" dxfId="87" priority="117">
+      <formula>($V$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="118">
+      <formula>($V$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="119">
       <formula>($V$12="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="120">
+    <cfRule type="expression" dxfId="84" priority="120">
       <formula>($V$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="118">
-      <formula>($V$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="117">
-      <formula>($V$12="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
@@ -7523,45 +9805,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="75" priority="116">
+    <cfRule type="expression" dxfId="75" priority="113">
+      <formula>($W$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="114">
+      <formula>($W$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="115">
+      <formula>($W$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="116">
       <formula>($W$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="115">
-      <formula>($W$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="114">
-      <formula>($W$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="113">
-      <formula>($W$12="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="71" priority="69">
+      <formula>($W$35="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="70">
+      <formula>($W$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="71">
+      <formula>($W$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="72">
       <formula>($W$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="71">
-      <formula>($W$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="70">
-      <formula>($W$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="69">
-      <formula>($W$35="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39">
-    <cfRule type="expression" dxfId="67" priority="28">
+    <cfRule type="expression" dxfId="67" priority="25">
+      <formula>($W$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="26">
+      <formula>($W$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="27">
+      <formula>($W$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="28">
       <formula>($W$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="27">
-      <formula>($W$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="26">
-      <formula>($W$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="25">
-      <formula>($W$39="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
@@ -7579,59 +9861,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="expression" dxfId="59" priority="68">
+    <cfRule type="expression" dxfId="59" priority="65">
+      <formula>($X$35="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="66">
+      <formula>($X$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="67">
+      <formula>($X$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="68">
       <formula>($X$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="67">
-      <formula>($X$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="66">
-      <formula>($X$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="65">
-      <formula>($X$35="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X39">
     <cfRule type="expression" dxfId="55" priority="21">
       <formula>($X$39="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="24">
-      <formula>($X$39="1")</formula>
+    <cfRule type="expression" dxfId="54" priority="22">
+      <formula>($X$39="3")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="53" priority="23">
       <formula>($X$39="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="22">
-      <formula>($X$39="3")</formula>
+    <cfRule type="expression" dxfId="52" priority="24">
+      <formula>($X$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12">
-    <cfRule type="expression" dxfId="51" priority="108">
+    <cfRule type="expression" dxfId="51" priority="105">
+      <formula>($Y$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="106">
+      <formula>($Y$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="107">
+      <formula>($Y$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="108">
       <formula>($Y$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="107">
-      <formula>($Y$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="106">
-      <formula>($Y$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="105">
-      <formula>($Y$12="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="expression" dxfId="47" priority="64">
+    <cfRule type="expression" dxfId="47" priority="61">
+      <formula>($Y$35="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="62">
+      <formula>($Y$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="63">
+      <formula>($Y$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="64">
       <formula>($Y$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="61">
-      <formula>($Y$35="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="62">
-      <formula>($Y$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="63">
-      <formula>($Y$35="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39">
@@ -7652,14 +9934,14 @@
     <cfRule type="expression" dxfId="39" priority="101">
       <formula>($Z$12="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="104">
-      <formula>($Z$12="1")</formula>
+    <cfRule type="expression" dxfId="38" priority="102">
+      <formula>($Z$12="3")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="103">
       <formula>($Z$12="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="102">
-      <formula>($Z$12="3")</formula>
+    <cfRule type="expression" dxfId="36" priority="104">
+      <formula>($Z$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35">
@@ -7705,45 +9987,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="23" priority="98">
+    <cfRule type="expression" dxfId="23" priority="97">
+      <formula>($AA$12="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="98">
       <formula>($AA$12="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="99">
+    <cfRule type="expression" dxfId="21" priority="99">
       <formula>($AA$12="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="100">
+    <cfRule type="expression" dxfId="20" priority="100">
       <formula>($AA$12="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="97">
-      <formula>($AA$12="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35">
     <cfRule type="expression" dxfId="19" priority="53">
       <formula>($AA$35="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="56">
+    <cfRule type="expression" dxfId="18" priority="54">
+      <formula>($AA$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="55">
+      <formula>($AA$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="56">
       <formula>($AA$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="54">
-      <formula>($AA$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="55">
-      <formula>($AA$35="2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>($AA$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>($AA$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>($AA$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>($AA$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
-      <formula>($AA$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10">
-      <formula>($AA$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>($AA$39="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12">
@@ -7775,28 +10057,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB39">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>($AB$39="4")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>($AB$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>($AB$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>($AB$39="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>($AB$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>($AB$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>($AB$39="4")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C7B2D4-D38D-4D01-9B83-C70548CD7D94}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -7816,15 +10098,15 @@
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
       <c r="K1" s="74"/>
       <c r="L1" s="101"/>
       <c r="N1" s="73" t="s">
@@ -7834,15 +10116,15 @@
       <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="205"/>
+      <c r="S1" s="205"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
       <c r="X1" s="74"/>
       <c r="Y1" s="101"/>
     </row>
@@ -7854,9 +10136,9 @@
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
         <v>75</v>
@@ -7872,9 +10154,9 @@
       <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="230"/>
+      <c r="Q2" s="243"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="243"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9" t="s">
         <v>104</v>
@@ -7885,42 +10167,42 @@
       <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="244" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="245"/>
+      <c r="C3" s="246" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="236"/>
-      <c r="N3" s="231" t="s">
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="247"/>
+      <c r="N3" s="244" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="232"/>
-      <c r="P3" s="235" t="s">
+      <c r="O3" s="245"/>
+      <c r="P3" s="246" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="235"/>
-      <c r="T3" s="235"/>
-      <c r="U3" s="235"/>
-      <c r="V3" s="235"/>
-      <c r="W3" s="235"/>
-      <c r="X3" s="235"/>
-      <c r="Y3" s="236"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="246"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="246"/>
+      <c r="V3" s="246"/>
+      <c r="W3" s="246"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="247"/>
     </row>
     <row r="4" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="231"/>
-      <c r="B4" s="232"/>
+      <c r="A4" s="244"/>
+      <c r="B4" s="245"/>
       <c r="C4" s="76"/>
       <c r="D4" s="77"/>
       <c r="E4" s="77"/>
@@ -7931,8 +10213,8 @@
       <c r="J4" s="77"/>
       <c r="K4" s="77"/>
       <c r="L4" s="103"/>
-      <c r="N4" s="233"/>
-      <c r="O4" s="234"/>
+      <c r="N4" s="268"/>
+      <c r="O4" s="269"/>
       <c r="P4" s="76"/>
       <c r="Q4" s="77"/>
       <c r="R4" s="77"/>
@@ -7945,10 +10227,10 @@
       <c r="Y4" s="103"/>
     </row>
     <row r="5" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="240" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="221"/>
+      <c r="B5" s="241"/>
       <c r="C5" s="79"/>
       <c r="D5" s="80"/>
       <c r="E5" s="81"/>
@@ -7959,10 +10241,10 @@
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="112"/>
-      <c r="N5" s="237" t="s">
+      <c r="N5" s="270" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="238"/>
+      <c r="O5" s="271"/>
       <c r="P5" s="104"/>
       <c r="Q5" s="104"/>
       <c r="R5" s="105"/>
@@ -7975,10 +10257,10 @@
       <c r="Y5" s="137"/>
     </row>
     <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="240" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="221"/>
+      <c r="B6" s="241"/>
       <c r="C6" s="82"/>
       <c r="D6" s="83"/>
       <c r="E6" s="84"/>
@@ -7989,10 +10271,10 @@
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
       <c r="L6" s="113"/>
-      <c r="N6" s="237" t="s">
+      <c r="N6" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="238"/>
+      <c r="O6" s="271"/>
       <c r="P6" s="86"/>
       <c r="Q6" s="86"/>
       <c r="R6" s="86"/>
@@ -8005,10 +10287,10 @@
       <c r="Y6" s="139"/>
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="220" t="s">
+      <c r="A7" s="240" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="221"/>
+      <c r="B7" s="241"/>
       <c r="C7" s="82"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
@@ -8019,10 +10301,10 @@
       <c r="J7" s="83"/>
       <c r="K7" s="83"/>
       <c r="L7" s="108"/>
-      <c r="N7" s="239" t="s">
+      <c r="N7" s="272" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="240"/>
+      <c r="O7" s="273"/>
       <c r="P7" s="86"/>
       <c r="Q7" s="106"/>
       <c r="R7" s="106"/>
@@ -8035,10 +10317,10 @@
       <c r="Y7" s="141"/>
     </row>
     <row r="8" spans="1:25" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="245" t="s">
+      <c r="A8" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="246"/>
+      <c r="B8" s="253"/>
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
       <c r="E8" s="86"/>
@@ -8049,10 +10331,10 @@
       <c r="J8" s="86"/>
       <c r="K8" s="86"/>
       <c r="L8" s="115"/>
-      <c r="N8" s="218" t="s">
+      <c r="N8" s="278" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="219"/>
+      <c r="O8" s="279"/>
       <c r="P8" s="85"/>
       <c r="Q8" s="86"/>
       <c r="R8" s="86"/>
@@ -8069,10 +10351,10 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="240" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="221"/>
+      <c r="B9" s="241"/>
       <c r="C9" s="87"/>
       <c r="D9" s="88"/>
       <c r="E9" s="88"/>
@@ -8083,10 +10365,10 @@
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
       <c r="L9" s="116"/>
-      <c r="N9" s="220" t="s">
+      <c r="N9" s="240" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="221"/>
+      <c r="O9" s="241"/>
       <c r="P9" s="87" t="s">
         <v>72</v>
       </c>
@@ -8119,37 +10401,37 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="247"/>
-      <c r="B10" s="248"/>
-      <c r="C10" s="222" t="s">
+      <c r="A10" s="254"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="222"/>
-      <c r="K10" s="222"/>
-      <c r="L10" s="223"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="257"/>
       <c r="N10" s="117"/>
       <c r="O10" s="118"/>
-      <c r="P10" s="222" t="s">
+      <c r="P10" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="222"/>
-      <c r="R10" s="222"/>
-      <c r="S10" s="222"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="222"/>
-      <c r="V10" s="222"/>
-      <c r="W10" s="222"/>
-      <c r="X10" s="222"/>
-      <c r="Y10" s="223"/>
+      <c r="Q10" s="256"/>
+      <c r="R10" s="256"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="256"/>
+      <c r="U10" s="256"/>
+      <c r="V10" s="256"/>
+      <c r="W10" s="256"/>
+      <c r="X10" s="256"/>
+      <c r="Y10" s="257"/>
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="260" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="78" t="s">
@@ -8165,7 +10447,7 @@
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
       <c r="L11" s="112"/>
-      <c r="N11" s="224" t="s">
+      <c r="N11" s="260" t="s">
         <v>84</v>
       </c>
       <c r="O11" s="78" t="s">
@@ -8187,7 +10469,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="225"/>
+      <c r="A12" s="261"/>
       <c r="B12" s="78" t="s">
         <v>86</v>
       </c>
@@ -8201,7 +10483,7 @@
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
       <c r="L12" s="113"/>
-      <c r="N12" s="225"/>
+      <c r="N12" s="261"/>
       <c r="O12" s="78" t="s">
         <v>86</v>
       </c>
@@ -8221,7 +10503,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="225"/>
+      <c r="A13" s="261"/>
       <c r="B13" s="78" t="s">
         <v>87</v>
       </c>
@@ -8235,7 +10517,7 @@
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
       <c r="L13" s="113"/>
-      <c r="N13" s="225"/>
+      <c r="N13" s="261"/>
       <c r="O13" s="78" t="s">
         <v>87</v>
       </c>
@@ -8255,7 +10537,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="225"/>
+      <c r="A14" s="261"/>
       <c r="B14" s="78" t="s">
         <v>88</v>
       </c>
@@ -8269,7 +10551,7 @@
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
       <c r="L14" s="113"/>
-      <c r="N14" s="225"/>
+      <c r="N14" s="261"/>
       <c r="O14" s="78" t="s">
         <v>88</v>
       </c>
@@ -8289,7 +10571,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="226"/>
+      <c r="A15" s="262"/>
       <c r="B15" s="78" t="s">
         <v>89</v>
       </c>
@@ -8303,7 +10585,7 @@
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
       <c r="L15" s="113"/>
-      <c r="N15" s="226"/>
+      <c r="N15" s="262"/>
       <c r="O15" s="78" t="s">
         <v>89</v>
       </c>
@@ -8323,10 +10605,10 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="221"/>
+      <c r="B16" s="241"/>
       <c r="C16" s="89"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
@@ -8337,10 +10619,10 @@
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
       <c r="L16" s="113"/>
-      <c r="N16" s="220" t="s">
+      <c r="N16" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="221"/>
+      <c r="O16" s="241"/>
       <c r="P16" s="89"/>
       <c r="Q16" s="84"/>
       <c r="R16" s="84"/>
@@ -8357,10 +10639,10 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="221"/>
+      <c r="B17" s="241"/>
       <c r="C17" s="90"/>
       <c r="D17" s="91"/>
       <c r="E17" s="91"/>
@@ -8371,10 +10653,10 @@
       <c r="J17" s="91"/>
       <c r="K17" s="91"/>
       <c r="L17" s="114"/>
-      <c r="N17" s="220" t="s">
+      <c r="N17" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="221"/>
+      <c r="O17" s="241"/>
       <c r="P17" s="90"/>
       <c r="Q17" s="91"/>
       <c r="R17" s="91"/>
@@ -8391,40 +10673,40 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="243"/>
-      <c r="B18" s="244"/>
-      <c r="C18" s="214" t="s">
+      <c r="A18" s="263"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="248" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="215"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="248"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="248"/>
+      <c r="H18" s="248"/>
+      <c r="I18" s="248"/>
+      <c r="J18" s="248"/>
+      <c r="K18" s="248"/>
+      <c r="L18" s="249"/>
       <c r="N18" s="54"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="214" t="s">
+      <c r="P18" s="248" t="s">
         <v>92</v>
       </c>
-      <c r="Q18" s="214"/>
-      <c r="R18" s="214"/>
-      <c r="S18" s="214"/>
-      <c r="T18" s="214"/>
-      <c r="U18" s="214"/>
-      <c r="V18" s="214"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="215"/>
+      <c r="Q18" s="248"/>
+      <c r="R18" s="248"/>
+      <c r="S18" s="248"/>
+      <c r="T18" s="248"/>
+      <c r="U18" s="248"/>
+      <c r="V18" s="248"/>
+      <c r="W18" s="248"/>
+      <c r="X18" s="248"/>
+      <c r="Y18" s="249"/>
     </row>
     <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="208" t="s">
+      <c r="A19" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="209"/>
+      <c r="B19" s="251"/>
       <c r="C19" s="79"/>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
@@ -8435,10 +10717,10 @@
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
       <c r="L19" s="107"/>
-      <c r="N19" s="208" t="s">
+      <c r="N19" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="209"/>
+      <c r="O19" s="251"/>
       <c r="P19" s="79"/>
       <c r="Q19" s="94"/>
       <c r="R19" s="94"/>
@@ -8455,10 +10737,10 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="250" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="209"/>
+      <c r="B20" s="251"/>
       <c r="C20" s="89"/>
       <c r="D20" s="83"/>
       <c r="E20" s="83"/>
@@ -8469,10 +10751,10 @@
       <c r="J20" s="83"/>
       <c r="K20" s="83"/>
       <c r="L20" s="108"/>
-      <c r="N20" s="208" t="s">
+      <c r="N20" s="250" t="s">
         <v>94</v>
       </c>
-      <c r="O20" s="209"/>
+      <c r="O20" s="251"/>
       <c r="P20" s="89"/>
       <c r="Q20" s="83"/>
       <c r="R20" s="83"/>
@@ -8489,10 +10771,10 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="208" t="s">
+      <c r="A21" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="209"/>
+      <c r="B21" s="251"/>
       <c r="C21" s="89"/>
       <c r="D21" s="83"/>
       <c r="E21" s="83"/>
@@ -8503,10 +10785,10 @@
       <c r="J21" s="83"/>
       <c r="K21" s="83"/>
       <c r="L21" s="108"/>
-      <c r="N21" s="208" t="s">
+      <c r="N21" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="209"/>
+      <c r="O21" s="251"/>
       <c r="P21" s="89"/>
       <c r="Q21" s="83"/>
       <c r="R21" s="83"/>
@@ -8523,10 +10805,10 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="208" t="s">
+      <c r="A22" s="250" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="209"/>
+      <c r="B22" s="251"/>
       <c r="C22" s="89"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83"/>
@@ -8537,10 +10819,10 @@
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
       <c r="L22" s="108"/>
-      <c r="N22" s="208" t="s">
+      <c r="N22" s="250" t="s">
         <v>96</v>
       </c>
-      <c r="O22" s="209"/>
+      <c r="O22" s="251"/>
       <c r="P22" s="89"/>
       <c r="Q22" s="83"/>
       <c r="R22" s="83"/>
@@ -8591,10 +10873,10 @@
       <c r="Y23" s="155"/>
     </row>
     <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="217"/>
+      <c r="B24" s="275"/>
       <c r="C24" s="89"/>
       <c r="D24" s="83"/>
       <c r="E24" s="83"/>
@@ -8605,10 +10887,10 @@
       <c r="J24" s="83"/>
       <c r="K24" s="83"/>
       <c r="L24" s="108"/>
-      <c r="N24" s="216" t="s">
+      <c r="N24" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="217"/>
+      <c r="O24" s="275"/>
       <c r="P24" s="89"/>
       <c r="Q24" s="83"/>
       <c r="R24" s="83"/>
@@ -8625,10 +10907,10 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="210" t="s">
+      <c r="A25" s="276" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="211"/>
+      <c r="B25" s="277"/>
       <c r="C25" s="89"/>
       <c r="D25" s="83"/>
       <c r="E25" s="83"/>
@@ -8639,10 +10921,10 @@
       <c r="J25" s="83"/>
       <c r="K25" s="83"/>
       <c r="L25" s="108"/>
-      <c r="N25" s="208" t="s">
+      <c r="N25" s="250" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="209"/>
+      <c r="O25" s="251"/>
       <c r="P25" s="89"/>
       <c r="Q25" s="83"/>
       <c r="R25" s="83"/>
@@ -8659,10 +10941,10 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="241" t="s">
+      <c r="A26" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="242"/>
+      <c r="B26" s="259"/>
       <c r="C26" s="97"/>
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
@@ -8673,10 +10955,10 @@
       <c r="J26" s="98"/>
       <c r="K26" s="98"/>
       <c r="L26" s="110"/>
-      <c r="N26" s="210" t="s">
+      <c r="N26" s="276" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="211"/>
+      <c r="O26" s="277"/>
       <c r="P26" s="97"/>
       <c r="Q26" s="98"/>
       <c r="R26" s="98"/>
@@ -8693,10 +10975,10 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="83.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="212" t="s">
+      <c r="A27" s="265" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="227"/>
+      <c r="B27" s="266"/>
       <c r="C27" s="99"/>
       <c r="D27" s="100"/>
       <c r="E27" s="100"/>
@@ -8707,10 +10989,10 @@
       <c r="J27" s="100"/>
       <c r="K27" s="100"/>
       <c r="L27" s="111"/>
-      <c r="N27" s="212" t="s">
+      <c r="N27" s="265" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="213"/>
+      <c r="O27" s="280"/>
       <c r="P27" s="100"/>
       <c r="Q27" s="100"/>
       <c r="R27" s="100"/>
@@ -8727,30 +11009,25 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="228"/>
-      <c r="B28" s="228"/>
+      <c r="A28" s="267"/>
+      <c r="B28" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Y10"/>
+    <mergeCell ref="N11:N15"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
@@ -8767,26 +11044,144 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Y10"/>
-    <mergeCell ref="N11:N15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DF11EB-F892-114F-858D-3D7453B0DE1A}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="283"/>
+    <col min="2" max="3" width="36.33203125" style="286" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="281"/>
+    <col min="5" max="5" width="6" style="281" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="281"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="291" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="291"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="284"/>
+      <c r="B4" s="287"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="285" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="288" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="288" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="289">
+        <v>1</v>
+      </c>
+      <c r="B6" s="290" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" s="290" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="289">
+        <v>2</v>
+      </c>
+      <c r="B7" s="290" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" s="290" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="289">
+        <v>3</v>
+      </c>
+      <c r="B8" s="290" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="290" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0128B0-B87E-4E33-8001-348F9AE9F653}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8802,17 +11197,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006D53F4C8D732D844AE7D882D8C27E66C" ma:contentTypeVersion="18" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="70bbe916ee44c898308fc52b233fdc6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d274541-22b4-4212-af6c-71d9850896b1" xmlns:ns3="d699723c-6030-48dd-835b-9dac49e7a8e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e6162704bbcf8652c04252123e2ebc" ns2:_="" ns3:_="">
     <xsd:import namespace="2d274541-22b4-4212-af6c-71d9850896b1"/>
@@ -9067,6 +11451,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9077,17 +11472,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
-    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE067A7-9A28-427F-B4BA-DF647AB143B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9106,6 +11490,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
+    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
   <ds:schemaRefs>

--- a/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
+++ b/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/RiderProjects/SeaEco/SeaEco.Server/wwwroot/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A12C2A5-6010-BB4A-A19A-CD8ECAF420AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A20C9-8C92-1A40-8101-F49095AF0EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,50 +41,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="3">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="3">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="143">
   <si>
     <t>St.nr.</t>
   </si>
@@ -536,12 +494,6 @@
   </si>
   <si>
     <t>BILDER AV PRØVENE</t>
-  </si>
-  <si>
-    <t>For lite sediment – prøve ikke silt</t>
-  </si>
-  <si>
-    <t>Tom grabb</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +1974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2530,6 +2482,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2563,6 +2536,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2575,20 +2647,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2596,98 +2662,41 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2695,6 +2704,27 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="20" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2707,23 +2737,41 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2737,110 +2785,13 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2852,6 +2803,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2859,6 +2831,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2908,6 +2887,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2929,6 +2929,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2936,6 +2943,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -2957,6 +2971,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3020,6 +3055,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3027,6 +3076,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3048,6 +3111,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3055,6 +3139,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3062,6 +3160,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3069,6 +3174,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3076,6 +3195,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3083,6 +3223,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3104,6 +3251,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3111,6 +3279,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3118,6 +3300,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3125,6 +3321,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3160,6 +3391,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3174,6 +3419,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3181,6 +3433,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3188,6 +3475,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3195,6 +3503,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3202,6 +3531,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3223,6 +3559,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3230,6 +3587,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3237,6 +3601,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3244,6 +3615,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3251,6 +3643,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3258,6 +3664,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3272,6 +3692,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3279,6 +3720,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3286,6 +3755,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3328,6 +3811,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3335,6 +3832,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3356,6 +3867,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3363,6 +3895,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3377,6 +3923,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3384,6 +3951,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3391,6 +3972,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3398,6 +4000,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3405,6 +4021,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3426,6 +4063,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3433,6 +4084,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3475,6 +4154,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3482,6 +4175,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3489,6 +4189,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3496,6 +4231,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3503,6 +4259,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3510,6 +4273,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3517,6 +4315,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3531,6 +4343,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3552,6 +4371,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3559,6 +4399,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3566,6 +4420,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3573,6 +4448,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3580,6 +4462,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -3587,6 +4483,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3594,6 +4504,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3608,1008 +4546,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4733,80 +4684,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5101,8 +4978,8 @@
       <c r="A2" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
       <c r="E2" s="132"/>
       <c r="F2" s="132"/>
       <c r="G2" s="132"/>
@@ -5307,10 +5184,10 @@
       <c r="C1" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="191" t="s">
+      <c r="D1" s="198" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="192"/>
+      <c r="E1" s="199"/>
       <c r="F1" s="176"/>
       <c r="G1" s="176"/>
       <c r="H1" s="177"/>
@@ -5319,54 +5196,54 @@
       <c r="B2" s="185"/>
     </row>
     <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
     </row>
     <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="193"/>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
     </row>
     <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="195" t="s">
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="195"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
       <c r="H6" s="181"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="180" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="195" t="s">
+      <c r="B7" s="201"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="202" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
       <c r="H7" s="181"/>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5377,12 +5254,12 @@
       <c r="B9" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="188" t="s">
+      <c r="C9" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="197"/>
       <c r="G9" s="183" t="s">
         <v>136</v>
       </c>
@@ -7312,60 +7189,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
       <c r="I1" s="5"/>
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
       <c r="M1" s="6"/>
       <c r="N1" s="7"/>
-      <c r="P1" s="203" t="s">
+      <c r="P1" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
       <c r="S1" s="3"/>
       <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="206"/>
-      <c r="AA1" s="206"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="234"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
         <v>11</v>
@@ -7374,18 +7251,18 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
-      <c r="P2" s="228" t="s">
+      <c r="P2" s="235" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="229"/>
-      <c r="R2" s="229"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
       <c r="S2" s="8"/>
       <c r="T2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9" t="s">
         <v>11</v>
@@ -7396,59 +7273,59 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="202" t="s">
+      <c r="D3" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
       <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="198" t="s">
+      <c r="P3" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="200" t="s">
+      <c r="Q3" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="200" t="s">
+      <c r="R3" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="202" t="s">
+      <c r="S3" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
+      <c r="T3" s="218"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="218"/>
+      <c r="X3" s="218"/>
+      <c r="Y3" s="218"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="218"/>
+      <c r="AB3" s="218"/>
       <c r="AC3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="199"/>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -7460,9 +7337,9 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="13"/>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="201"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="241"/>
+      <c r="R4" s="241"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -7476,11 +7353,11 @@
       <c r="AC4" s="13"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="213"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="244"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -7492,11 +7369,11 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="13"/>
-      <c r="P5" s="234" t="s">
+      <c r="P5" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="235"/>
-      <c r="R5" s="236"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="221"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -7737,10 +7614,10 @@
     </row>
     <row r="12" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="214" t="s">
+      <c r="B12" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="214"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="29"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7753,10 +7630,10 @@
       <c r="M12" s="1"/>
       <c r="N12" s="13"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="214" t="s">
+      <c r="Q12" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="214"/>
+      <c r="R12" s="222"/>
       <c r="S12" s="29"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -7771,10 +7648,10 @@
     </row>
     <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="210"/>
+      <c r="C13" s="209"/>
       <c r="D13" s="31" t="s">
         <v>27</v>
       </c>
@@ -7789,10 +7666,10 @@
       <c r="M13" s="17"/>
       <c r="N13" s="13"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="210" t="s">
+      <c r="Q13" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="210"/>
+      <c r="R13" s="209"/>
       <c r="S13" s="120"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
@@ -7820,10 +7697,10 @@
         <v>30</v>
       </c>
       <c r="J14" s="69"/>
-      <c r="K14" s="215" t="s">
+      <c r="K14" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="216"/>
+      <c r="L14" s="224"/>
       <c r="M14" s="71"/>
       <c r="N14" s="13"/>
       <c r="P14" s="15"/>
@@ -7840,10 +7717,10 @@
         <v>30</v>
       </c>
       <c r="Y14" s="34"/>
-      <c r="Z14" s="215" t="s">
+      <c r="Z14" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" s="216"/>
+      <c r="AA14" s="224"/>
       <c r="AB14" s="122"/>
       <c r="AC14" s="13"/>
     </row>
@@ -7862,10 +7739,10 @@
         <v>33</v>
       </c>
       <c r="J15" s="69"/>
-      <c r="K15" s="215" t="s">
+      <c r="K15" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="216"/>
+      <c r="L15" s="224"/>
       <c r="M15" s="72"/>
       <c r="N15" s="13"/>
       <c r="P15" s="15"/>
@@ -7882,10 +7759,10 @@
         <v>33</v>
       </c>
       <c r="Y15" s="34"/>
-      <c r="Z15" s="215" t="s">
+      <c r="Z15" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="AA15" s="216"/>
+      <c r="AA15" s="224"/>
       <c r="AB15" s="121" t="s">
         <v>72</v>
       </c>
@@ -7925,7 +7802,7 @@
       <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="217" t="s">
+      <c r="B17" s="225" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="37" t="s">
@@ -7947,7 +7824,7 @@
       <c r="P17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="217" t="s">
+      <c r="Q17" s="225" t="s">
         <v>36</v>
       </c>
       <c r="R17" s="37" t="s">
@@ -7971,7 +7848,7 @@
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="218"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="42" t="s">
         <v>38</v>
       </c>
@@ -7989,7 +7866,7 @@
       </c>
       <c r="N18" s="13"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="218"/>
+      <c r="Q18" s="226"/>
       <c r="R18" s="42" t="s">
         <v>38</v>
       </c>
@@ -8011,7 +7888,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="217" t="s">
+      <c r="B19" s="225" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -8031,7 +7908,7 @@
       </c>
       <c r="N19" s="13"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="217" t="s">
+      <c r="Q19" s="225" t="s">
         <v>39</v>
       </c>
       <c r="R19" s="37" t="s">
@@ -8055,7 +7932,7 @@
     </row>
     <row r="20" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="218"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="42" t="s">
         <v>41</v>
       </c>
@@ -8073,7 +7950,7 @@
       </c>
       <c r="N20" s="13"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="218"/>
+      <c r="Q20" s="226"/>
       <c r="R20" s="42" t="s">
         <v>41</v>
       </c>
@@ -8095,7 +7972,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
-      <c r="B21" s="217" t="s">
+      <c r="B21" s="225" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="37" t="s">
@@ -8115,7 +7992,7 @@
       </c>
       <c r="N21" s="13"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="217" t="s">
+      <c r="Q21" s="225" t="s">
         <v>42</v>
       </c>
       <c r="R21" s="37" t="s">
@@ -8139,7 +8016,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
-      <c r="B22" s="219"/>
+      <c r="B22" s="227"/>
       <c r="C22" s="26" t="s">
         <v>44</v>
       </c>
@@ -8157,7 +8034,7 @@
       </c>
       <c r="N22" s="13"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="219"/>
+      <c r="Q22" s="227"/>
       <c r="R22" s="26" t="s">
         <v>44</v>
       </c>
@@ -8179,7 +8056,7 @@
     </row>
     <row r="23" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="218"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="42" t="s">
         <v>45</v>
       </c>
@@ -8197,7 +8074,7 @@
       </c>
       <c r="N23" s="13"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="218"/>
+      <c r="Q23" s="226"/>
       <c r="R23" s="42" t="s">
         <v>45</v>
       </c>
@@ -8219,7 +8096,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
-      <c r="B24" s="217" t="s">
+      <c r="B24" s="225" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="37" t="s">
@@ -8239,7 +8116,7 @@
       </c>
       <c r="N24" s="13"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="217" t="s">
+      <c r="Q24" s="225" t="s">
         <v>46</v>
       </c>
       <c r="R24" s="37" t="s">
@@ -8263,7 +8140,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
-      <c r="B25" s="219"/>
+      <c r="B25" s="227"/>
       <c r="C25" s="26" t="s">
         <v>48</v>
       </c>
@@ -8281,7 +8158,7 @@
       </c>
       <c r="N25" s="13"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="219"/>
+      <c r="Q25" s="227"/>
       <c r="R25" s="26" t="s">
         <v>48</v>
       </c>
@@ -8303,7 +8180,7 @@
     </row>
     <row r="26" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="218"/>
+      <c r="B26" s="226"/>
       <c r="C26" s="42" t="s">
         <v>49</v>
       </c>
@@ -8321,7 +8198,7 @@
       </c>
       <c r="N26" s="13"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="218"/>
+      <c r="Q26" s="226"/>
       <c r="R26" s="42" t="s">
         <v>49</v>
       </c>
@@ -8361,7 +8238,7 @@
       </c>
       <c r="N27" s="13"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="237" t="s">
+      <c r="Q27" s="228" t="s">
         <v>51</v>
       </c>
       <c r="R27" s="37" t="s">
@@ -8405,7 +8282,7 @@
       </c>
       <c r="N28" s="13"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="238"/>
+      <c r="Q28" s="229"/>
       <c r="R28" s="26" t="s">
         <v>52</v>
       </c>
@@ -8445,7 +8322,7 @@
       </c>
       <c r="N29" s="13"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="239"/>
+      <c r="Q29" s="230"/>
       <c r="R29" s="42" t="s">
         <v>53</v>
       </c>
@@ -8467,7 +8344,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
-      <c r="B30" s="220" t="s">
+      <c r="B30" s="215" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="37" t="s">
@@ -8487,7 +8364,7 @@
       </c>
       <c r="N30" s="13"/>
       <c r="P30" s="15"/>
-      <c r="Q30" s="220" t="s">
+      <c r="Q30" s="215" t="s">
         <v>54</v>
       </c>
       <c r="R30" s="37" t="s">
@@ -8511,7 +8388,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="221"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="26" t="s">
         <v>56</v>
       </c>
@@ -8529,7 +8406,7 @@
       </c>
       <c r="N31" s="48"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="221"/>
+      <c r="Q31" s="216"/>
       <c r="R31" s="26" t="s">
         <v>56</v>
       </c>
@@ -8551,7 +8428,7 @@
     </row>
     <row r="32" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="222"/>
+      <c r="B32" s="217"/>
       <c r="C32" s="42" t="s">
         <v>57</v>
       </c>
@@ -8569,7 +8446,7 @@
       </c>
       <c r="N32" s="13"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="222"/>
+      <c r="Q32" s="217"/>
       <c r="R32" s="42" t="s">
         <v>57</v>
       </c>
@@ -8591,10 +8468,10 @@
     </row>
     <row r="33" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="210" t="s">
+      <c r="B33" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="210"/>
       <c r="D33" s="49"/>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
@@ -8607,10 +8484,10 @@
       <c r="M33" s="49"/>
       <c r="N33" s="13"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="210" t="s">
+      <c r="Q33" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="223"/>
+      <c r="R33" s="210"/>
       <c r="S33" s="49"/>
       <c r="T33" s="49"/>
       <c r="U33" s="49"/>
@@ -8625,10 +8502,10 @@
     </row>
     <row r="34" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="210" t="s">
+      <c r="B34" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="210"/>
+      <c r="C34" s="209"/>
       <c r="D34" s="50"/>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
@@ -8643,10 +8520,10 @@
         <v>27</v>
       </c>
       <c r="P34" s="15"/>
-      <c r="Q34" s="210" t="s">
+      <c r="Q34" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="210"/>
+      <c r="R34" s="209"/>
       <c r="S34" s="50"/>
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
@@ -8661,10 +8538,10 @@
     </row>
     <row r="35" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="210" t="s">
+      <c r="B35" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="223"/>
+      <c r="C35" s="210"/>
       <c r="D35" s="29"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -8677,10 +8554,10 @@
       <c r="M35" s="1"/>
       <c r="N35" s="13"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="210" t="s">
+      <c r="Q35" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="R35" s="223"/>
+      <c r="R35" s="210"/>
       <c r="S35" s="29"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -8695,10 +8572,10 @@
     </row>
     <row r="36" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="210" t="s">
+      <c r="B36" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="210"/>
+      <c r="C36" s="209"/>
       <c r="D36" s="31" t="s">
         <v>27</v>
       </c>
@@ -8713,10 +8590,10 @@
       <c r="M36" s="17"/>
       <c r="N36" s="13"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="210" t="s">
+      <c r="Q36" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="R36" s="210"/>
+      <c r="R36" s="209"/>
       <c r="S36" s="123"/>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
@@ -8861,10 +8738,10 @@
     </row>
     <row r="41" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
-      <c r="B41" s="230" t="s">
+      <c r="B41" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="231"/>
+      <c r="C41" s="212"/>
       <c r="D41" s="56" t="s">
         <v>64</v>
       </c>
@@ -8883,10 +8760,10 @@
       <c r="M41" s="9"/>
       <c r="N41" s="10"/>
       <c r="P41" s="54"/>
-      <c r="Q41" s="230" t="s">
+      <c r="Q41" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="R41" s="231"/>
+      <c r="R41" s="212"/>
       <c r="S41" s="56" t="s">
         <v>64</v>
       </c>
@@ -8905,10 +8782,10 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="54"/>
-      <c r="B42" s="232" t="s">
+      <c r="B42" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="233"/>
+      <c r="C42" s="214"/>
       <c r="D42" s="57"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -8921,10 +8798,10 @@
       <c r="M42" s="8"/>
       <c r="N42" s="10"/>
       <c r="P42" s="54"/>
-      <c r="Q42" s="232" t="s">
+      <c r="Q42" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="R42" s="233"/>
+      <c r="R42" s="214"/>
       <c r="S42" s="57"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -8939,10 +8816,10 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="54"/>
-      <c r="B43" s="224" t="s">
+      <c r="B43" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="225"/>
+      <c r="C43" s="206"/>
       <c r="D43" s="58">
         <v>1</v>
       </c>
@@ -8957,10 +8834,10 @@
       <c r="M43" s="8"/>
       <c r="N43" s="10"/>
       <c r="P43" s="54"/>
-      <c r="Q43" s="224" t="s">
+      <c r="Q43" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="R43" s="225"/>
+      <c r="R43" s="206"/>
       <c r="S43" s="58">
         <v>1</v>
       </c>
@@ -8977,10 +8854,10 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
-      <c r="B44" s="224" t="s">
+      <c r="B44" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="225"/>
+      <c r="C44" s="206"/>
       <c r="D44" s="59">
         <v>2</v>
       </c>
@@ -8995,10 +8872,10 @@
       <c r="M44" s="8"/>
       <c r="N44" s="10"/>
       <c r="P44" s="54"/>
-      <c r="Q44" s="224" t="s">
+      <c r="Q44" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="R44" s="225"/>
+      <c r="R44" s="206"/>
       <c r="S44" s="59">
         <v>2</v>
       </c>
@@ -9015,10 +8892,10 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="54"/>
-      <c r="B45" s="224" t="s">
+      <c r="B45" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="225"/>
+      <c r="C45" s="206"/>
       <c r="D45" s="60">
         <v>3</v>
       </c>
@@ -9033,10 +8910,10 @@
       <c r="M45" s="8"/>
       <c r="N45" s="61"/>
       <c r="P45" s="54"/>
-      <c r="Q45" s="224" t="s">
+      <c r="Q45" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="R45" s="225"/>
+      <c r="R45" s="206"/>
       <c r="S45" s="60">
         <v>3</v>
       </c>
@@ -9053,10 +8930,10 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="54"/>
-      <c r="B46" s="226" t="s">
+      <c r="B46" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="227"/>
+      <c r="C46" s="208"/>
       <c r="D46" s="62">
         <v>4</v>
       </c>
@@ -9071,10 +8948,10 @@
       <c r="M46" s="8"/>
       <c r="N46" s="61"/>
       <c r="P46" s="54"/>
-      <c r="Q46" s="226" t="s">
+      <c r="Q46" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="R46" s="227"/>
+      <c r="R46" s="208"/>
       <c r="S46" s="62">
         <v>4</v>
       </c>
@@ -9128,28 +9005,27 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="S3:AB3"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="P1:R1"/>
@@ -9166,124 +9042,125 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="S3:AB3"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="251" priority="245">
+    <cfRule type="expression" dxfId="251" priority="248">
+      <formula>($D$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="247">
+      <formula>($D$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="246">
+      <formula>($D$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="245">
       <formula>($D$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="246">
-      <formula>($D$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="247">
-      <formula>($D$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="248">
-      <formula>($D$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="247" priority="249">
+    <cfRule type="expression" dxfId="247" priority="252">
+      <formula>($D$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="251">
+      <formula>($D$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="250">
+      <formula>($D$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="249">
       <formula>($D$35="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="250">
-      <formula>($D$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="251">
-      <formula>($D$35="1")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="252">
-      <formula>($D$35="3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="243" priority="169">
+    <cfRule type="expression" dxfId="243" priority="172">
+      <formula>($D$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="171">
+      <formula>($D$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="170">
+      <formula>($D$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="169">
       <formula>($D$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="170">
-      <formula>($D$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="171">
-      <formula>($D$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="172">
-      <formula>($D$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="239" priority="241">
+    <cfRule type="expression" dxfId="239" priority="244">
+      <formula>($E$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="243">
+      <formula>($E$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="242">
+      <formula>($E$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="241">
       <formula>($E$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="242">
-      <formula>($E$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="243">
-      <formula>($E$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="244">
-      <formula>($E$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="235" priority="205">
-      <formula>($E$35="4")</formula>
+    <cfRule type="expression" dxfId="235" priority="207">
+      <formula>($E$35="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="234" priority="206">
       <formula>($E$35="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="207">
-      <formula>($E$35="2")</formula>
+    <cfRule type="expression" dxfId="233" priority="205">
+      <formula>($E$35="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="232" priority="208">
       <formula>($E$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="231" priority="165">
+    <cfRule type="expression" dxfId="231" priority="168">
+      <formula>($E$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="167">
+      <formula>($E$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="166">
+      <formula>($E$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="165">
       <formula>($E$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="166">
-      <formula>($E$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="167">
-      <formula>($E$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="168">
-      <formula>($E$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="227" priority="237">
+    <cfRule type="expression" dxfId="227" priority="240">
+      <formula>($F$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="239">
+      <formula>($F$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="238">
+      <formula>($F$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="237">
       <formula>($F$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="238">
-      <formula>($F$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="239">
-      <formula>($F$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="240">
-      <formula>($F$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
@@ -9301,59 +9178,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="219" priority="161">
+    <cfRule type="expression" dxfId="219" priority="164">
+      <formula>($F$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="161">
       <formula>($F$39="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="162">
+    <cfRule type="expression" dxfId="217" priority="162">
       <formula>($F$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="163">
+    <cfRule type="expression" dxfId="216" priority="163">
       <formula>($F$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="164">
-      <formula>($F$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="215" priority="233">
+    <cfRule type="expression" dxfId="215" priority="234">
+      <formula>($G$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="233">
       <formula>($G$12="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="234">
-      <formula>($G$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="235">
+    <cfRule type="expression" dxfId="213" priority="236">
+      <formula>($G$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="235">
       <formula>($G$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="236">
-      <formula>($G$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="211" priority="197">
+    <cfRule type="expression" dxfId="211" priority="200">
+      <formula>($G$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="197">
       <formula>($G$35="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="198">
-      <formula>($G$35="3")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="209" priority="199">
       <formula>($G$35="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="200">
-      <formula>($G$35="1")</formula>
+    <cfRule type="expression" dxfId="208" priority="198">
+      <formula>($G$35="3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="207" priority="157">
+    <cfRule type="expression" dxfId="207" priority="160">
+      <formula>($G$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="159">
+      <formula>($G$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="157">
       <formula>($G$39="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="158">
+    <cfRule type="expression" dxfId="204" priority="158">
       <formula>($G$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="159">
-      <formula>($G$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="160">
-      <formula>($G$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
@@ -9371,28 +9248,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="199" priority="193">
+    <cfRule type="expression" dxfId="199" priority="196">
+      <formula>($H$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="195">
+      <formula>($H$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="194">
+      <formula>($H$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="193">
       <formula>($H$35="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="194">
-      <formula>($H$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="195">
-      <formula>($H$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="196">
-      <formula>($H$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="195" priority="153">
-      <formula>($H$39="4")</formula>
+    <cfRule type="expression" dxfId="195" priority="155">
+      <formula>($H$39="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="194" priority="154">
       <formula>($H$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="155">
-      <formula>($H$39="2")</formula>
+    <cfRule type="expression" dxfId="193" priority="153">
+      <formula>($H$39="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="192" priority="156">
       <formula>($H$39="1")</formula>
@@ -9416,84 +9293,84 @@
     <cfRule type="expression" dxfId="187" priority="189">
       <formula>($I$35="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="190">
+    <cfRule type="expression" dxfId="186" priority="192">
+      <formula>($I$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="190">
       <formula>($I$35="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="191">
+    <cfRule type="expression" dxfId="184" priority="191">
       <formula>($I$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="192">
-      <formula>($I$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="183" priority="149">
-      <formula>($I$39="4")</formula>
+    <cfRule type="expression" dxfId="183" priority="151">
+      <formula>($I$39="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="182" priority="150">
       <formula>($I$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="151">
-      <formula>($I$39="2")</formula>
+    <cfRule type="expression" dxfId="181" priority="149">
+      <formula>($I$39="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="180" priority="152">
       <formula>($I$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="179" priority="221">
+    <cfRule type="expression" dxfId="179" priority="223">
+      <formula>($J$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="224">
+      <formula>($J$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="221">
       <formula>($J$12="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="222">
+    <cfRule type="expression" dxfId="176" priority="222">
       <formula>($J$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="223">
-      <formula>($J$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="224">
-      <formula>($J$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="175" priority="185">
+    <cfRule type="expression" dxfId="175" priority="188">
+      <formula>($J$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="187">
+      <formula>($J$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="186">
+      <formula>($J$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="185">
       <formula>($J$35="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="186">
-      <formula>($J$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="187">
-      <formula>($J$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="188">
-      <formula>($J$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="171" priority="145">
+    <cfRule type="expression" dxfId="171" priority="148">
+      <formula>($J$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="147">
+      <formula>($J$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="146">
+      <formula>($J$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="145">
       <formula>($J$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="146">
-      <formula>($J$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="147">
-      <formula>($J$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="148">
-      <formula>($J$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="167" priority="217">
+    <cfRule type="expression" dxfId="167" priority="218">
+      <formula>($K$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="220">
+      <formula>($K$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="217">
       <formula>($K$12="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="218">
-      <formula>($K$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="219">
+    <cfRule type="expression" dxfId="164" priority="219">
       <formula>($K$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="220">
-      <formula>($K$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
@@ -9511,31 +9388,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="159" priority="141">
+    <cfRule type="expression" dxfId="159" priority="142">
+      <formula>($K$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="143">
+      <formula>($K$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="144">
+      <formula>($K$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="141">
       <formula>($K$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="142">
-      <formula>($K$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="143">
-      <formula>($K$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="144">
-      <formula>($K$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="155" priority="213">
+    <cfRule type="expression" dxfId="155" priority="216">
+      <formula>($L$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="213">
       <formula>($L$12="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="214">
+    <cfRule type="expression" dxfId="153" priority="214">
       <formula>($L$12="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="215">
+    <cfRule type="expression" dxfId="152" priority="215">
       <formula>($L$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="216">
-      <formula>($L$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
@@ -9556,14 +9433,14 @@
     <cfRule type="expression" dxfId="147" priority="137">
       <formula>($L$39="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="138">
+    <cfRule type="expression" dxfId="146" priority="140">
+      <formula>($L$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="138">
       <formula>($L$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="139">
+    <cfRule type="expression" dxfId="144" priority="139">
       <formula>($L$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="140">
-      <formula>($L$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
@@ -9595,14 +9472,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39">
-    <cfRule type="expression" dxfId="135" priority="133">
-      <formula>($M$39="4")</formula>
+    <cfRule type="expression" dxfId="135" priority="135">
+      <formula>($M$39="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="134" priority="134">
       <formula>($M$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="135">
-      <formula>($M$39="2")</formula>
+    <cfRule type="expression" dxfId="133" priority="133">
+      <formula>($M$39="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="132" priority="136">
       <formula>($M$39="1")</formula>
@@ -9612,126 +9489,126 @@
     <cfRule type="expression" dxfId="131" priority="129">
       <formula>($S$12="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="130">
-      <formula>($S$12="3")</formula>
+    <cfRule type="expression" dxfId="130" priority="132">
+      <formula>($S$12="1")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="129" priority="131">
       <formula>($S$12="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="132">
-      <formula>($S$12="1")</formula>
+    <cfRule type="expression" dxfId="128" priority="130">
+      <formula>($S$12="3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="expression" dxfId="127" priority="89">
+    <cfRule type="expression" dxfId="127" priority="91">
+      <formula>($S$13="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="89">
       <formula>($S$13="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="90">
+    <cfRule type="expression" dxfId="125" priority="90">
       <formula>($S$13="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="91">
-      <formula>($S$13="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="124" priority="92">
       <formula>($S$13="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="expression" dxfId="123" priority="85">
+    <cfRule type="expression" dxfId="123" priority="88">
+      <formula>($S$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="87">
+      <formula>($S$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="86">
+      <formula>($S$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="85">
       <formula>($S$35="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="86">
-      <formula>($S$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="87">
-      <formula>($S$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="88">
-      <formula>($S$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36">
-    <cfRule type="expression" dxfId="119" priority="45">
+    <cfRule type="expression" dxfId="119" priority="48">
+      <formula>($S$36="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="47">
+      <formula>($S$36="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="46">
+      <formula>($S$36="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="45">
       <formula>($S$36="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="46">
-      <formula>($S$36="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="47">
-      <formula>($S$36="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="48">
-      <formula>($S$36="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39">
     <cfRule type="expression" dxfId="115" priority="41">
       <formula>($S$39="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="42">
+    <cfRule type="expression" dxfId="114" priority="44">
+      <formula>($S$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="42">
       <formula>($S$39="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="43">
+    <cfRule type="expression" dxfId="112" priority="43">
       <formula>($S$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="44">
-      <formula>($S$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="expression" dxfId="111" priority="125">
-      <formula>($T$12="4")</formula>
+    <cfRule type="expression" dxfId="111" priority="127">
+      <formula>($T$12="2")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="110" priority="126">
       <formula>($T$12="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="127">
-      <formula>($T$12="2")</formula>
+    <cfRule type="expression" dxfId="109" priority="125">
+      <formula>($T$12="4")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="108" priority="128">
       <formula>($T$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="expression" dxfId="107" priority="81">
+    <cfRule type="expression" dxfId="107" priority="84">
+      <formula>($T$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="81">
       <formula>($T$35="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="82">
+    <cfRule type="expression" dxfId="105" priority="82">
       <formula>($T$35="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="83">
+    <cfRule type="expression" dxfId="104" priority="83">
       <formula>($T$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="84">
-      <formula>($T$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39">
-    <cfRule type="expression" dxfId="103" priority="37">
+    <cfRule type="expression" dxfId="103" priority="39">
+      <formula>($T$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="40">
+      <formula>($T$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="38">
+      <formula>($T$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="37">
       <formula>($T$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="38">
-      <formula>($T$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="39">
-      <formula>($T$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="40">
-      <formula>($T$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="99" priority="121">
+    <cfRule type="expression" dxfId="99" priority="124">
+      <formula>($U$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="123">
+      <formula>($U$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="122">
+      <formula>($U$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="121">
       <formula>($U$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="122">
-      <formula>($U$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="123">
-      <formula>($U$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="124">
-      <formula>($U$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35">
@@ -9749,31 +9626,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U39">
-    <cfRule type="expression" dxfId="91" priority="33">
+    <cfRule type="expression" dxfId="91" priority="36">
+      <formula>($U$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="35">
+      <formula>($U$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="34">
+      <formula>($U$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="33">
       <formula>($U$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="34">
-      <formula>($U$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="35">
-      <formula>($U$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="36">
-      <formula>($U$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="87" priority="117">
+    <cfRule type="expression" dxfId="87" priority="119">
+      <formula>($V$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="120">
+      <formula>($V$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="118">
+      <formula>($V$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="117">
       <formula>($V$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="118">
-      <formula>($V$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="119">
-      <formula>($V$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="120">
-      <formula>($V$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
@@ -9805,45 +9682,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="75" priority="113">
+    <cfRule type="expression" dxfId="75" priority="116">
+      <formula>($W$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="115">
+      <formula>($W$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="114">
+      <formula>($W$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="113">
       <formula>($W$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="114">
-      <formula>($W$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="115">
-      <formula>($W$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="116">
-      <formula>($W$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="expression" dxfId="71" priority="69">
+    <cfRule type="expression" dxfId="71" priority="72">
+      <formula>($W$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="71">
+      <formula>($W$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>($W$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="69">
       <formula>($W$35="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="70">
-      <formula>($W$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71">
-      <formula>($W$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="72">
-      <formula>($W$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39">
-    <cfRule type="expression" dxfId="67" priority="25">
+    <cfRule type="expression" dxfId="67" priority="28">
+      <formula>($W$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="27">
+      <formula>($W$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="26">
+      <formula>($W$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="25">
       <formula>($W$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="26">
-      <formula>($W$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="27">
-      <formula>($W$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="28">
-      <formula>($W$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
@@ -9861,59 +9738,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="expression" dxfId="59" priority="65">
+    <cfRule type="expression" dxfId="59" priority="68">
+      <formula>($X$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="67">
+      <formula>($X$35="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="66">
+      <formula>($X$35="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="65">
       <formula>($X$35="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="66">
-      <formula>($X$35="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="67">
-      <formula>($X$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="68">
-      <formula>($X$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X39">
     <cfRule type="expression" dxfId="55" priority="21">
       <formula>($X$39="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="22">
-      <formula>($X$39="3")</formula>
+    <cfRule type="expression" dxfId="54" priority="24">
+      <formula>($X$39="1")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="53" priority="23">
       <formula>($X$39="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="24">
-      <formula>($X$39="1")</formula>
+    <cfRule type="expression" dxfId="52" priority="22">
+      <formula>($X$39="3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12">
-    <cfRule type="expression" dxfId="51" priority="105">
+    <cfRule type="expression" dxfId="51" priority="108">
+      <formula>($Y$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="107">
+      <formula>($Y$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="106">
+      <formula>($Y$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="105">
       <formula>($Y$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="106">
-      <formula>($Y$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="107">
-      <formula>($Y$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="108">
-      <formula>($Y$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="expression" dxfId="47" priority="61">
+    <cfRule type="expression" dxfId="47" priority="64">
+      <formula>($Y$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="61">
       <formula>($Y$35="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="62">
+    <cfRule type="expression" dxfId="45" priority="62">
       <formula>($Y$35="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="63">
+    <cfRule type="expression" dxfId="44" priority="63">
       <formula>($Y$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="64">
-      <formula>($Y$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39">
@@ -9934,14 +9811,14 @@
     <cfRule type="expression" dxfId="39" priority="101">
       <formula>($Z$12="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="102">
-      <formula>($Z$12="3")</formula>
+    <cfRule type="expression" dxfId="38" priority="104">
+      <formula>($Z$12="1")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="103">
       <formula>($Z$12="2")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="104">
-      <formula>($Z$12="1")</formula>
+    <cfRule type="expression" dxfId="36" priority="102">
+      <formula>($Z$12="3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35">
@@ -9987,45 +9864,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="23" priority="97">
+    <cfRule type="expression" dxfId="23" priority="98">
+      <formula>($AA$12="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="99">
+      <formula>($AA$12="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="100">
+      <formula>($AA$12="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="97">
       <formula>($AA$12="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="98">
-      <formula>($AA$12="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="99">
-      <formula>($AA$12="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="100">
-      <formula>($AA$12="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35">
     <cfRule type="expression" dxfId="19" priority="53">
       <formula>($AA$35="4")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="54">
+    <cfRule type="expression" dxfId="18" priority="56">
+      <formula>($AA$35="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="54">
       <formula>($AA$35="3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="55">
+    <cfRule type="expression" dxfId="16" priority="55">
       <formula>($AA$35="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="56">
-      <formula>($AA$35="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>($AA$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>($AA$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="10">
+      <formula>($AA$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>($AA$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>($AA$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>($AA$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>($AA$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12">
@@ -10057,17 +9934,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB39">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>($AB$39="1")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>($AB$39="2")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>($AB$39="3")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>($AB$39="4")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>($AB$39="3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>($AB$39="2")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>($AB$39="1")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10098,15 +9975,15 @@
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
       <c r="K1" s="74"/>
       <c r="L1" s="101"/>
       <c r="N1" s="73" t="s">
@@ -10116,15 +9993,15 @@
       <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205"/>
-      <c r="S1" s="205"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="233"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="242"/>
-      <c r="W1" s="242"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
       <c r="X1" s="74"/>
       <c r="Y1" s="101"/>
     </row>
@@ -10136,9 +10013,9 @@
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
         <v>75</v>
@@ -10154,9 +10031,9 @@
       <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="243"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="243"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9" t="s">
         <v>104</v>
@@ -10167,42 +10044,42 @@
       <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="270" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="271"/>
+      <c r="C3" s="274" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="247"/>
-      <c r="N3" s="244" t="s">
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="275"/>
+      <c r="N3" s="270" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="245"/>
-      <c r="P3" s="246" t="s">
+      <c r="O3" s="271"/>
+      <c r="P3" s="274" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="246"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="246"/>
-      <c r="U3" s="246"/>
-      <c r="V3" s="246"/>
-      <c r="W3" s="246"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="247"/>
+      <c r="Q3" s="274"/>
+      <c r="R3" s="274"/>
+      <c r="S3" s="274"/>
+      <c r="T3" s="274"/>
+      <c r="U3" s="274"/>
+      <c r="V3" s="274"/>
+      <c r="W3" s="274"/>
+      <c r="X3" s="274"/>
+      <c r="Y3" s="275"/>
     </row>
     <row r="4" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="244"/>
-      <c r="B4" s="245"/>
+      <c r="A4" s="270"/>
+      <c r="B4" s="271"/>
       <c r="C4" s="76"/>
       <c r="D4" s="77"/>
       <c r="E4" s="77"/>
@@ -10213,8 +10090,8 @@
       <c r="J4" s="77"/>
       <c r="K4" s="77"/>
       <c r="L4" s="103"/>
-      <c r="N4" s="268"/>
-      <c r="O4" s="269"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="273"/>
       <c r="P4" s="76"/>
       <c r="Q4" s="77"/>
       <c r="R4" s="77"/>
@@ -10227,10 +10104,10 @@
       <c r="Y4" s="103"/>
     </row>
     <row r="5" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="259" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="241"/>
+      <c r="B5" s="260"/>
       <c r="C5" s="79"/>
       <c r="D5" s="80"/>
       <c r="E5" s="81"/>
@@ -10241,10 +10118,10 @@
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="112"/>
-      <c r="N5" s="270" t="s">
+      <c r="N5" s="276" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="271"/>
+      <c r="O5" s="277"/>
       <c r="P5" s="104"/>
       <c r="Q5" s="104"/>
       <c r="R5" s="105"/>
@@ -10257,10 +10134,10 @@
       <c r="Y5" s="137"/>
     </row>
     <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="259" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="241"/>
+      <c r="B6" s="260"/>
       <c r="C6" s="82"/>
       <c r="D6" s="83"/>
       <c r="E6" s="84"/>
@@ -10271,10 +10148,10 @@
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
       <c r="L6" s="113"/>
-      <c r="N6" s="270" t="s">
+      <c r="N6" s="276" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="271"/>
+      <c r="O6" s="277"/>
       <c r="P6" s="86"/>
       <c r="Q6" s="86"/>
       <c r="R6" s="86"/>
@@ -10287,10 +10164,10 @@
       <c r="Y6" s="139"/>
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="240" t="s">
+      <c r="A7" s="259" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="241"/>
+      <c r="B7" s="260"/>
       <c r="C7" s="82"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
@@ -10301,10 +10178,10 @@
       <c r="J7" s="83"/>
       <c r="K7" s="83"/>
       <c r="L7" s="108"/>
-      <c r="N7" s="272" t="s">
+      <c r="N7" s="278" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="273"/>
+      <c r="O7" s="279"/>
       <c r="P7" s="86"/>
       <c r="Q7" s="106"/>
       <c r="R7" s="106"/>
@@ -10317,10 +10194,10 @@
       <c r="Y7" s="141"/>
     </row>
     <row r="8" spans="1:25" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="252" t="s">
+      <c r="A8" s="284" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="253"/>
+      <c r="B8" s="285"/>
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
       <c r="E8" s="86"/>
@@ -10331,10 +10208,10 @@
       <c r="J8" s="86"/>
       <c r="K8" s="86"/>
       <c r="L8" s="115"/>
-      <c r="N8" s="278" t="s">
+      <c r="N8" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="279"/>
+      <c r="O8" s="258"/>
       <c r="P8" s="85"/>
       <c r="Q8" s="86"/>
       <c r="R8" s="86"/>
@@ -10351,10 +10228,10 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="240" t="s">
+      <c r="A9" s="259" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="241"/>
+      <c r="B9" s="260"/>
       <c r="C9" s="87"/>
       <c r="D9" s="88"/>
       <c r="E9" s="88"/>
@@ -10365,10 +10242,10 @@
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
       <c r="L9" s="116"/>
-      <c r="N9" s="240" t="s">
+      <c r="N9" s="259" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="241"/>
+      <c r="O9" s="260"/>
       <c r="P9" s="87" t="s">
         <v>72</v>
       </c>
@@ -10401,37 +10278,37 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="254"/>
-      <c r="B10" s="255"/>
-      <c r="C10" s="256" t="s">
+      <c r="A10" s="286"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="261" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="256"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="257"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
+      <c r="G10" s="261"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="261"/>
+      <c r="K10" s="261"/>
+      <c r="L10" s="262"/>
       <c r="N10" s="117"/>
       <c r="O10" s="118"/>
-      <c r="P10" s="256" t="s">
+      <c r="P10" s="261" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="256"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="256"/>
-      <c r="U10" s="256"/>
-      <c r="V10" s="256"/>
-      <c r="W10" s="256"/>
-      <c r="X10" s="256"/>
-      <c r="Y10" s="257"/>
+      <c r="Q10" s="261"/>
+      <c r="R10" s="261"/>
+      <c r="S10" s="261"/>
+      <c r="T10" s="261"/>
+      <c r="U10" s="261"/>
+      <c r="V10" s="261"/>
+      <c r="W10" s="261"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="262"/>
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="260" t="s">
+      <c r="A11" s="263" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="78" t="s">
@@ -10447,7 +10324,7 @@
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
       <c r="L11" s="112"/>
-      <c r="N11" s="260" t="s">
+      <c r="N11" s="263" t="s">
         <v>84</v>
       </c>
       <c r="O11" s="78" t="s">
@@ -10469,7 +10346,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="261"/>
+      <c r="A12" s="264"/>
       <c r="B12" s="78" t="s">
         <v>86</v>
       </c>
@@ -10483,7 +10360,7 @@
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
       <c r="L12" s="113"/>
-      <c r="N12" s="261"/>
+      <c r="N12" s="264"/>
       <c r="O12" s="78" t="s">
         <v>86</v>
       </c>
@@ -10503,7 +10380,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="261"/>
+      <c r="A13" s="264"/>
       <c r="B13" s="78" t="s">
         <v>87</v>
       </c>
@@ -10517,7 +10394,7 @@
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
       <c r="L13" s="113"/>
-      <c r="N13" s="261"/>
+      <c r="N13" s="264"/>
       <c r="O13" s="78" t="s">
         <v>87</v>
       </c>
@@ -10537,7 +10414,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="261"/>
+      <c r="A14" s="264"/>
       <c r="B14" s="78" t="s">
         <v>88</v>
       </c>
@@ -10551,7 +10428,7 @@
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
       <c r="L14" s="113"/>
-      <c r="N14" s="261"/>
+      <c r="N14" s="264"/>
       <c r="O14" s="78" t="s">
         <v>88</v>
       </c>
@@ -10571,7 +10448,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="262"/>
+      <c r="A15" s="265"/>
       <c r="B15" s="78" t="s">
         <v>89</v>
       </c>
@@ -10585,7 +10462,7 @@
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
       <c r="L15" s="113"/>
-      <c r="N15" s="262"/>
+      <c r="N15" s="265"/>
       <c r="O15" s="78" t="s">
         <v>89</v>
       </c>
@@ -10605,10 +10482,10 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="240" t="s">
+      <c r="A16" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="241"/>
+      <c r="B16" s="260"/>
       <c r="C16" s="89"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
@@ -10619,10 +10496,10 @@
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
       <c r="L16" s="113"/>
-      <c r="N16" s="240" t="s">
+      <c r="N16" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="241"/>
+      <c r="O16" s="260"/>
       <c r="P16" s="89"/>
       <c r="Q16" s="84"/>
       <c r="R16" s="84"/>
@@ -10639,10 +10516,10 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="240" t="s">
+      <c r="A17" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="241"/>
+      <c r="B17" s="260"/>
       <c r="C17" s="90"/>
       <c r="D17" s="91"/>
       <c r="E17" s="91"/>
@@ -10653,10 +10530,10 @@
       <c r="J17" s="91"/>
       <c r="K17" s="91"/>
       <c r="L17" s="114"/>
-      <c r="N17" s="240" t="s">
+      <c r="N17" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="241"/>
+      <c r="O17" s="260"/>
       <c r="P17" s="90"/>
       <c r="Q17" s="91"/>
       <c r="R17" s="91"/>
@@ -10673,40 +10550,40 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="248" t="s">
+      <c r="A18" s="282"/>
+      <c r="B18" s="283"/>
+      <c r="C18" s="253" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="248"/>
-      <c r="E18" s="248"/>
-      <c r="F18" s="248"/>
-      <c r="G18" s="248"/>
-      <c r="H18" s="248"/>
-      <c r="I18" s="248"/>
-      <c r="J18" s="248"/>
-      <c r="K18" s="248"/>
-      <c r="L18" s="249"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="253"/>
+      <c r="G18" s="253"/>
+      <c r="H18" s="253"/>
+      <c r="I18" s="253"/>
+      <c r="J18" s="253"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="254"/>
       <c r="N18" s="54"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="248" t="s">
+      <c r="P18" s="253" t="s">
         <v>92</v>
       </c>
-      <c r="Q18" s="248"/>
-      <c r="R18" s="248"/>
-      <c r="S18" s="248"/>
-      <c r="T18" s="248"/>
-      <c r="U18" s="248"/>
-      <c r="V18" s="248"/>
-      <c r="W18" s="248"/>
-      <c r="X18" s="248"/>
-      <c r="Y18" s="249"/>
+      <c r="Q18" s="253"/>
+      <c r="R18" s="253"/>
+      <c r="S18" s="253"/>
+      <c r="T18" s="253"/>
+      <c r="U18" s="253"/>
+      <c r="V18" s="253"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="254"/>
     </row>
     <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="250" t="s">
+      <c r="A19" s="247" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="251"/>
+      <c r="B19" s="248"/>
       <c r="C19" s="79"/>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
@@ -10717,10 +10594,10 @@
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
       <c r="L19" s="107"/>
-      <c r="N19" s="250" t="s">
+      <c r="N19" s="247" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="251"/>
+      <c r="O19" s="248"/>
       <c r="P19" s="79"/>
       <c r="Q19" s="94"/>
       <c r="R19" s="94"/>
@@ -10737,10 +10614,10 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="250" t="s">
+      <c r="A20" s="247" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="251"/>
+      <c r="B20" s="248"/>
       <c r="C20" s="89"/>
       <c r="D20" s="83"/>
       <c r="E20" s="83"/>
@@ -10751,10 +10628,10 @@
       <c r="J20" s="83"/>
       <c r="K20" s="83"/>
       <c r="L20" s="108"/>
-      <c r="N20" s="250" t="s">
+      <c r="N20" s="247" t="s">
         <v>94</v>
       </c>
-      <c r="O20" s="251"/>
+      <c r="O20" s="248"/>
       <c r="P20" s="89"/>
       <c r="Q20" s="83"/>
       <c r="R20" s="83"/>
@@ -10771,10 +10648,10 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="250" t="s">
+      <c r="A21" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="251"/>
+      <c r="B21" s="248"/>
       <c r="C21" s="89"/>
       <c r="D21" s="83"/>
       <c r="E21" s="83"/>
@@ -10785,10 +10662,10 @@
       <c r="J21" s="83"/>
       <c r="K21" s="83"/>
       <c r="L21" s="108"/>
-      <c r="N21" s="250" t="s">
+      <c r="N21" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="251"/>
+      <c r="O21" s="248"/>
       <c r="P21" s="89"/>
       <c r="Q21" s="83"/>
       <c r="R21" s="83"/>
@@ -10805,10 +10682,10 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="250" t="s">
+      <c r="A22" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="251"/>
+      <c r="B22" s="248"/>
       <c r="C22" s="89"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83"/>
@@ -10819,10 +10696,10 @@
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
       <c r="L22" s="108"/>
-      <c r="N22" s="250" t="s">
+      <c r="N22" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="O22" s="251"/>
+      <c r="O22" s="248"/>
       <c r="P22" s="89"/>
       <c r="Q22" s="83"/>
       <c r="R22" s="83"/>
@@ -10873,10 +10750,10 @@
       <c r="Y23" s="155"/>
     </row>
     <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="274" t="s">
+      <c r="A24" s="255" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="275"/>
+      <c r="B24" s="256"/>
       <c r="C24" s="89"/>
       <c r="D24" s="83"/>
       <c r="E24" s="83"/>
@@ -10887,10 +10764,10 @@
       <c r="J24" s="83"/>
       <c r="K24" s="83"/>
       <c r="L24" s="108"/>
-      <c r="N24" s="274" t="s">
+      <c r="N24" s="255" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="275"/>
+      <c r="O24" s="256"/>
       <c r="P24" s="89"/>
       <c r="Q24" s="83"/>
       <c r="R24" s="83"/>
@@ -10907,10 +10784,10 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="276" t="s">
+      <c r="A25" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="277"/>
+      <c r="B25" s="250"/>
       <c r="C25" s="89"/>
       <c r="D25" s="83"/>
       <c r="E25" s="83"/>
@@ -10921,10 +10798,10 @@
       <c r="J25" s="83"/>
       <c r="K25" s="83"/>
       <c r="L25" s="108"/>
-      <c r="N25" s="250" t="s">
+      <c r="N25" s="247" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="251"/>
+      <c r="O25" s="248"/>
       <c r="P25" s="89"/>
       <c r="Q25" s="83"/>
       <c r="R25" s="83"/>
@@ -10941,10 +10818,10 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="258" t="s">
+      <c r="A26" s="280" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="259"/>
+      <c r="B26" s="281"/>
       <c r="C26" s="97"/>
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
@@ -10955,10 +10832,10 @@
       <c r="J26" s="98"/>
       <c r="K26" s="98"/>
       <c r="L26" s="110"/>
-      <c r="N26" s="276" t="s">
+      <c r="N26" s="249" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="277"/>
+      <c r="O26" s="250"/>
       <c r="P26" s="97"/>
       <c r="Q26" s="98"/>
       <c r="R26" s="98"/>
@@ -10975,7 +10852,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="83.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="265" t="s">
+      <c r="A27" s="251" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="266"/>
@@ -10989,10 +10866,10 @@
       <c r="J27" s="100"/>
       <c r="K27" s="100"/>
       <c r="L27" s="111"/>
-      <c r="N27" s="265" t="s">
+      <c r="N27" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="280"/>
+      <c r="O27" s="252"/>
       <c r="P27" s="100"/>
       <c r="Q27" s="100"/>
       <c r="R27" s="100"/>
@@ -11014,20 +10891,25 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P18:Y18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Y10"/>
-    <mergeCell ref="N11:N15"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
@@ -11044,25 +10926,20 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Y10"/>
+    <mergeCell ref="N11:N15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P18:Y18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N24:O24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11073,89 +10950,69 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="283"/>
-    <col min="2" max="3" width="36.33203125" style="286" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="281"/>
-    <col min="5" max="5" width="6" style="281" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="281"/>
+    <col min="1" max="1" width="10.83203125" style="188"/>
+    <col min="2" max="3" width="36.33203125" style="191" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="288" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="291"/>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
+      <c r="A3" s="288"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="284"/>
-      <c r="B4" s="287"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
+      <c r="A4" s="189"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="285" t="s">
+      <c r="A5" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="288" t="s">
+      <c r="C5" s="193" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="289">
-        <v>1</v>
-      </c>
-      <c r="B6" s="290" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" s="290" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
+      <c r="A6" s="289"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290"/>
     </row>
     <row r="7" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="289">
-        <v>2</v>
-      </c>
-      <c r="B7" s="290" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" s="290" t="s">
-        <v>143</v>
-      </c>
+      <c r="A7" s="289"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
     </row>
     <row r="8" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="289">
-        <v>3</v>
-      </c>
-      <c r="B8" s="290" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="290" t="s">
-        <v>143</v>
-      </c>
+      <c r="A8" s="289"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="290"/>
     </row>
     <row r="9" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11197,6 +11054,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006D53F4C8D732D844AE7D882D8C27E66C" ma:contentTypeVersion="18" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="70bbe916ee44c898308fc52b233fdc6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d274541-22b4-4212-af6c-71d9850896b1" xmlns:ns3="d699723c-6030-48dd-835b-9dac49e7a8e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e6162704bbcf8652c04252123e2ebc" ns2:_="" ns3:_="">
     <xsd:import namespace="2d274541-22b4-4212-af6c-71d9850896b1"/>
@@ -11451,27 +11328,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
+    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE067A7-9A28-427F-B4BA-DF647AB143B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11488,23 +11364,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
-    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
+++ b/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/RiderProjects/SeaEco/SeaEco.Server/wwwroot/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A20C9-8C92-1A40-8101-F49095AF0EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB2DC14-FE39-404B-BA47-4DAA40E21A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="25380" windowHeight="16620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="139">
   <si>
     <t>St.nr.</t>
   </si>
@@ -445,12 +445,6 @@
     <t>Dato:</t>
   </si>
   <si>
-    <t>EQS-ID:</t>
-  </si>
-  <si>
-    <t>Revisjonsnr.:</t>
-  </si>
-  <si>
     <t>Prøvetakningsplan for B-undersøkelser</t>
   </si>
   <si>
@@ -479,12 +473,6 @@
   </si>
   <si>
     <t>Analyser</t>
-  </si>
-  <si>
-    <t>1321(Skjema)</t>
-  </si>
-  <si>
-    <t>2.1</t>
   </si>
   <si>
     <t>St. nr.</t>
@@ -1974,7 +1962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2450,15 +2438,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2503,6 +2482,15 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2515,10 +2503,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2786,12 +2771,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5157,1799 +5136,1791 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC10A618-1030-D34F-BEFE-0B414A32C3CF}">
   <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H4"/>
+    <sheetView zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="179" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="179" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="179"/>
-    <col min="4" max="4" width="3.6640625" style="179" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="179" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="179" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="179" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="179" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="179"/>
+    <col min="1" max="1" width="10.6640625" style="176" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="176" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="176"/>
+    <col min="4" max="4" width="3.6640625" style="176" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="176" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="176" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="176" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="176" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="176"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="178" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:8" s="175" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="191"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="174"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="182"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="174" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="198" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="199"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="177"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="185"/>
-    </row>
-    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="200" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
     </row>
     <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="200"/>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
     </row>
     <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="201" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="201"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="178"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="177" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="202" t="s">
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="202"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="181"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="180" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="202" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="181"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="178"/>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="179" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="195" t="s">
         <v>133</v>
-      </c>
-      <c r="B9" s="183" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="195" t="s">
-        <v>135</v>
       </c>
       <c r="D9" s="196"/>
       <c r="E9" s="196"/>
       <c r="F9" s="197"/>
-      <c r="G9" s="183" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="184" t="s">
-        <v>137</v>
+      <c r="G9" s="180" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="181" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="186"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
+      <c r="A10" s="183"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="186"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="186"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
+      <c r="A12" s="183"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="186"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="186"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
+      <c r="A15" s="183"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="186"/>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="186"/>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="186"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
+      <c r="A18" s="183"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="186"/>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="186"/>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
+      <c r="A20" s="183"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="186"/>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="186"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
+      <c r="A22" s="183"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="186"/>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
+      <c r="A23" s="183"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="186"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
+      <c r="A24" s="183"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="186"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="186"/>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
+      <c r="A26" s="183"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="186"/>
-      <c r="B27" s="186"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="186"/>
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="186"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="186"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
+      <c r="A30" s="183"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="186"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
+      <c r="A32" s="183"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="186"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="186"/>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="186"/>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="186"/>
-      <c r="B36" s="186"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
+      <c r="A36" s="183"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="186"/>
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="186"/>
-      <c r="B38" s="186"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
+      <c r="A38" s="183"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="186"/>
-      <c r="B39" s="186"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="186"/>
-      <c r="B40" s="186"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="186"/>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="183"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="186"/>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
+      <c r="A42" s="183"/>
+      <c r="B42" s="183"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="186"/>
-      <c r="B43" s="186"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="186"/>
-      <c r="E43" s="186"/>
-      <c r="F43" s="186"/>
-      <c r="G43" s="186"/>
-      <c r="H43" s="186"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="186"/>
-      <c r="B44" s="186"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="186"/>
-      <c r="E44" s="186"/>
-      <c r="F44" s="186"/>
-      <c r="G44" s="186"/>
-      <c r="H44" s="186"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="183"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="183"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="186"/>
-      <c r="B45" s="186"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="186"/>
-      <c r="E45" s="186"/>
-      <c r="F45" s="186"/>
-      <c r="G45" s="186"/>
-      <c r="H45" s="186"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="183"/>
+      <c r="C45" s="183"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
+      <c r="G45" s="183"/>
+      <c r="H45" s="183"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="186"/>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="186"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="183"/>
+      <c r="H46" s="183"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="186"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="183"/>
+      <c r="C47" s="183"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
+      <c r="H47" s="183"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="186"/>
-      <c r="B48" s="186"/>
-      <c r="C48" s="186"/>
-      <c r="D48" s="186"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="186"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="183"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="183"/>
+      <c r="F48" s="183"/>
+      <c r="G48" s="183"/>
+      <c r="H48" s="183"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="186"/>
-      <c r="B49" s="186"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="183"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="183"/>
+      <c r="G49" s="183"/>
+      <c r="H49" s="183"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="186"/>
-      <c r="B50" s="186"/>
-      <c r="C50" s="186"/>
-      <c r="D50" s="186"/>
-      <c r="E50" s="186"/>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="186"/>
+      <c r="A50" s="183"/>
+      <c r="B50" s="183"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="183"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="183"/>
+      <c r="H50" s="183"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="186"/>
-      <c r="B51" s="186"/>
-      <c r="C51" s="186"/>
-      <c r="D51" s="186"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="183"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="183"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="183"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="186"/>
-      <c r="B52" s="186"/>
-      <c r="C52" s="186"/>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
-      <c r="H52" s="186"/>
+      <c r="A52" s="183"/>
+      <c r="B52" s="183"/>
+      <c r="C52" s="183"/>
+      <c r="D52" s="183"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="183"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="183"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="186"/>
-      <c r="B53" s="186"/>
-      <c r="C53" s="186"/>
-      <c r="D53" s="186"/>
-      <c r="E53" s="186"/>
-      <c r="F53" s="186"/>
-      <c r="G53" s="186"/>
-      <c r="H53" s="186"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="183"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="186"/>
-      <c r="B54" s="186"/>
-      <c r="C54" s="186"/>
-      <c r="D54" s="186"/>
-      <c r="E54" s="186"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="186"/>
-      <c r="H54" s="186"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="183"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="183"/>
+      <c r="F54" s="183"/>
+      <c r="G54" s="183"/>
+      <c r="H54" s="183"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="186"/>
-      <c r="B55" s="186"/>
-      <c r="C55" s="186"/>
-      <c r="D55" s="186"/>
-      <c r="E55" s="186"/>
-      <c r="F55" s="186"/>
-      <c r="G55" s="186"/>
-      <c r="H55" s="186"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="183"/>
+      <c r="F55" s="183"/>
+      <c r="G55" s="183"/>
+      <c r="H55" s="183"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="186"/>
-      <c r="B56" s="186"/>
-      <c r="C56" s="186"/>
-      <c r="D56" s="186"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="186"/>
-      <c r="G56" s="186"/>
-      <c r="H56" s="186"/>
+      <c r="A56" s="183"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="183"/>
+      <c r="D56" s="183"/>
+      <c r="E56" s="183"/>
+      <c r="F56" s="183"/>
+      <c r="G56" s="183"/>
+      <c r="H56" s="183"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="186"/>
-      <c r="B57" s="186"/>
-      <c r="C57" s="186"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="186"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="183"/>
+      <c r="C57" s="183"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="183"/>
+      <c r="F57" s="183"/>
+      <c r="G57" s="183"/>
+      <c r="H57" s="183"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="186"/>
-      <c r="B58" s="186"/>
-      <c r="C58" s="186"/>
-      <c r="D58" s="186"/>
-      <c r="E58" s="186"/>
-      <c r="F58" s="186"/>
-      <c r="G58" s="186"/>
-      <c r="H58" s="186"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="183"/>
+      <c r="C58" s="183"/>
+      <c r="D58" s="183"/>
+      <c r="E58" s="183"/>
+      <c r="F58" s="183"/>
+      <c r="G58" s="183"/>
+      <c r="H58" s="183"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="186"/>
-      <c r="B59" s="186"/>
-      <c r="C59" s="186"/>
-      <c r="D59" s="186"/>
-      <c r="E59" s="186"/>
-      <c r="F59" s="186"/>
-      <c r="G59" s="186"/>
-      <c r="H59" s="186"/>
+      <c r="A59" s="183"/>
+      <c r="B59" s="183"/>
+      <c r="C59" s="183"/>
+      <c r="D59" s="183"/>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="183"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="186"/>
-      <c r="B60" s="186"/>
-      <c r="C60" s="186"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="186"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="186"/>
-      <c r="H60" s="186"/>
+      <c r="A60" s="183"/>
+      <c r="B60" s="183"/>
+      <c r="C60" s="183"/>
+      <c r="D60" s="183"/>
+      <c r="E60" s="183"/>
+      <c r="F60" s="183"/>
+      <c r="G60" s="183"/>
+      <c r="H60" s="183"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="186"/>
-      <c r="B61" s="186"/>
-      <c r="C61" s="186"/>
-      <c r="D61" s="186"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="186"/>
-      <c r="H61" s="186"/>
+      <c r="A61" s="183"/>
+      <c r="B61" s="183"/>
+      <c r="C61" s="183"/>
+      <c r="D61" s="183"/>
+      <c r="E61" s="183"/>
+      <c r="F61" s="183"/>
+      <c r="G61" s="183"/>
+      <c r="H61" s="183"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="186"/>
-      <c r="B62" s="186"/>
-      <c r="C62" s="186"/>
-      <c r="D62" s="186"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
-      <c r="H62" s="186"/>
+      <c r="A62" s="183"/>
+      <c r="B62" s="183"/>
+      <c r="C62" s="183"/>
+      <c r="D62" s="183"/>
+      <c r="E62" s="183"/>
+      <c r="F62" s="183"/>
+      <c r="G62" s="183"/>
+      <c r="H62" s="183"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="186"/>
-      <c r="B63" s="186"/>
-      <c r="C63" s="186"/>
-      <c r="D63" s="186"/>
-      <c r="E63" s="186"/>
-      <c r="F63" s="186"/>
-      <c r="G63" s="186"/>
-      <c r="H63" s="186"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="183"/>
+      <c r="C63" s="183"/>
+      <c r="D63" s="183"/>
+      <c r="E63" s="183"/>
+      <c r="F63" s="183"/>
+      <c r="G63" s="183"/>
+      <c r="H63" s="183"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="186"/>
-      <c r="B64" s="186"/>
-      <c r="C64" s="186"/>
-      <c r="D64" s="186"/>
-      <c r="E64" s="186"/>
-      <c r="F64" s="186"/>
-      <c r="G64" s="186"/>
-      <c r="H64" s="186"/>
+      <c r="A64" s="183"/>
+      <c r="B64" s="183"/>
+      <c r="C64" s="183"/>
+      <c r="D64" s="183"/>
+      <c r="E64" s="183"/>
+      <c r="F64" s="183"/>
+      <c r="G64" s="183"/>
+      <c r="H64" s="183"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="186"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="186"/>
-      <c r="D65" s="186"/>
-      <c r="E65" s="186"/>
-      <c r="F65" s="186"/>
-      <c r="G65" s="186"/>
-      <c r="H65" s="186"/>
+      <c r="A65" s="183"/>
+      <c r="B65" s="183"/>
+      <c r="C65" s="183"/>
+      <c r="D65" s="183"/>
+      <c r="E65" s="183"/>
+      <c r="F65" s="183"/>
+      <c r="G65" s="183"/>
+      <c r="H65" s="183"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="186"/>
-      <c r="B66" s="186"/>
-      <c r="C66" s="186"/>
-      <c r="D66" s="186"/>
-      <c r="E66" s="186"/>
-      <c r="F66" s="186"/>
-      <c r="G66" s="186"/>
-      <c r="H66" s="186"/>
+      <c r="A66" s="183"/>
+      <c r="B66" s="183"/>
+      <c r="C66" s="183"/>
+      <c r="D66" s="183"/>
+      <c r="E66" s="183"/>
+      <c r="F66" s="183"/>
+      <c r="G66" s="183"/>
+      <c r="H66" s="183"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="186"/>
-      <c r="B67" s="186"/>
-      <c r="C67" s="186"/>
-      <c r="D67" s="186"/>
-      <c r="E67" s="186"/>
-      <c r="F67" s="186"/>
-      <c r="G67" s="186"/>
-      <c r="H67" s="186"/>
+      <c r="A67" s="183"/>
+      <c r="B67" s="183"/>
+      <c r="C67" s="183"/>
+      <c r="D67" s="183"/>
+      <c r="E67" s="183"/>
+      <c r="F67" s="183"/>
+      <c r="G67" s="183"/>
+      <c r="H67" s="183"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="186"/>
-      <c r="B68" s="186"/>
-      <c r="C68" s="186"/>
-      <c r="D68" s="186"/>
-      <c r="E68" s="186"/>
-      <c r="F68" s="186"/>
-      <c r="G68" s="186"/>
-      <c r="H68" s="186"/>
+      <c r="A68" s="183"/>
+      <c r="B68" s="183"/>
+      <c r="C68" s="183"/>
+      <c r="D68" s="183"/>
+      <c r="E68" s="183"/>
+      <c r="F68" s="183"/>
+      <c r="G68" s="183"/>
+      <c r="H68" s="183"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="186"/>
-      <c r="B69" s="186"/>
-      <c r="C69" s="186"/>
-      <c r="D69" s="186"/>
-      <c r="E69" s="186"/>
-      <c r="F69" s="186"/>
-      <c r="G69" s="186"/>
-      <c r="H69" s="186"/>
+      <c r="A69" s="183"/>
+      <c r="B69" s="183"/>
+      <c r="C69" s="183"/>
+      <c r="D69" s="183"/>
+      <c r="E69" s="183"/>
+      <c r="F69" s="183"/>
+      <c r="G69" s="183"/>
+      <c r="H69" s="183"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="186"/>
-      <c r="B70" s="186"/>
-      <c r="C70" s="186"/>
-      <c r="D70" s="186"/>
-      <c r="E70" s="186"/>
-      <c r="F70" s="186"/>
-      <c r="G70" s="186"/>
-      <c r="H70" s="186"/>
+      <c r="A70" s="183"/>
+      <c r="B70" s="183"/>
+      <c r="C70" s="183"/>
+      <c r="D70" s="183"/>
+      <c r="E70" s="183"/>
+      <c r="F70" s="183"/>
+      <c r="G70" s="183"/>
+      <c r="H70" s="183"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="186"/>
-      <c r="B71" s="186"/>
-      <c r="C71" s="186"/>
-      <c r="D71" s="186"/>
-      <c r="E71" s="186"/>
-      <c r="F71" s="186"/>
-      <c r="G71" s="186"/>
-      <c r="H71" s="186"/>
+      <c r="A71" s="183"/>
+      <c r="B71" s="183"/>
+      <c r="C71" s="183"/>
+      <c r="D71" s="183"/>
+      <c r="E71" s="183"/>
+      <c r="F71" s="183"/>
+      <c r="G71" s="183"/>
+      <c r="H71" s="183"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="186"/>
-      <c r="B72" s="186"/>
-      <c r="C72" s="186"/>
-      <c r="D72" s="186"/>
-      <c r="E72" s="186"/>
-      <c r="F72" s="186"/>
-      <c r="G72" s="186"/>
-      <c r="H72" s="186"/>
+      <c r="A72" s="183"/>
+      <c r="B72" s="183"/>
+      <c r="C72" s="183"/>
+      <c r="D72" s="183"/>
+      <c r="E72" s="183"/>
+      <c r="F72" s="183"/>
+      <c r="G72" s="183"/>
+      <c r="H72" s="183"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="186"/>
-      <c r="B73" s="186"/>
-      <c r="C73" s="186"/>
-      <c r="D73" s="186"/>
-      <c r="E73" s="186"/>
-      <c r="F73" s="186"/>
-      <c r="G73" s="186"/>
-      <c r="H73" s="186"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="183"/>
+      <c r="C73" s="183"/>
+      <c r="D73" s="183"/>
+      <c r="E73" s="183"/>
+      <c r="F73" s="183"/>
+      <c r="G73" s="183"/>
+      <c r="H73" s="183"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="186"/>
-      <c r="B74" s="186"/>
-      <c r="C74" s="186"/>
-      <c r="D74" s="186"/>
-      <c r="E74" s="186"/>
-      <c r="F74" s="186"/>
-      <c r="G74" s="186"/>
-      <c r="H74" s="186"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="183"/>
+      <c r="C74" s="183"/>
+      <c r="D74" s="183"/>
+      <c r="E74" s="183"/>
+      <c r="F74" s="183"/>
+      <c r="G74" s="183"/>
+      <c r="H74" s="183"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="186"/>
-      <c r="B75" s="186"/>
-      <c r="C75" s="186"/>
-      <c r="D75" s="186"/>
-      <c r="E75" s="186"/>
-      <c r="F75" s="186"/>
-      <c r="G75" s="186"/>
-      <c r="H75" s="186"/>
+      <c r="A75" s="183"/>
+      <c r="B75" s="183"/>
+      <c r="C75" s="183"/>
+      <c r="D75" s="183"/>
+      <c r="E75" s="183"/>
+      <c r="F75" s="183"/>
+      <c r="G75" s="183"/>
+      <c r="H75" s="183"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="186"/>
-      <c r="B76" s="186"/>
-      <c r="C76" s="186"/>
-      <c r="D76" s="186"/>
-      <c r="E76" s="186"/>
-      <c r="F76" s="186"/>
-      <c r="G76" s="186"/>
-      <c r="H76" s="186"/>
+      <c r="A76" s="183"/>
+      <c r="B76" s="183"/>
+      <c r="C76" s="183"/>
+      <c r="D76" s="183"/>
+      <c r="E76" s="183"/>
+      <c r="F76" s="183"/>
+      <c r="G76" s="183"/>
+      <c r="H76" s="183"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="186"/>
-      <c r="B77" s="186"/>
-      <c r="C77" s="186"/>
-      <c r="D77" s="186"/>
-      <c r="E77" s="186"/>
-      <c r="F77" s="186"/>
-      <c r="G77" s="186"/>
-      <c r="H77" s="186"/>
+      <c r="A77" s="183"/>
+      <c r="B77" s="183"/>
+      <c r="C77" s="183"/>
+      <c r="D77" s="183"/>
+      <c r="E77" s="183"/>
+      <c r="F77" s="183"/>
+      <c r="G77" s="183"/>
+      <c r="H77" s="183"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="186"/>
-      <c r="B78" s="186"/>
-      <c r="C78" s="186"/>
-      <c r="D78" s="186"/>
-      <c r="E78" s="186"/>
-      <c r="F78" s="186"/>
-      <c r="G78" s="186"/>
-      <c r="H78" s="186"/>
+      <c r="A78" s="183"/>
+      <c r="B78" s="183"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
+      <c r="E78" s="183"/>
+      <c r="F78" s="183"/>
+      <c r="G78" s="183"/>
+      <c r="H78" s="183"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="186"/>
-      <c r="B79" s="186"/>
-      <c r="C79" s="186"/>
-      <c r="D79" s="186"/>
-      <c r="E79" s="186"/>
-      <c r="F79" s="186"/>
-      <c r="G79" s="186"/>
-      <c r="H79" s="186"/>
+      <c r="A79" s="183"/>
+      <c r="B79" s="183"/>
+      <c r="C79" s="183"/>
+      <c r="D79" s="183"/>
+      <c r="E79" s="183"/>
+      <c r="F79" s="183"/>
+      <c r="G79" s="183"/>
+      <c r="H79" s="183"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="186"/>
-      <c r="B80" s="186"/>
-      <c r="C80" s="186"/>
-      <c r="D80" s="186"/>
-      <c r="E80" s="186"/>
-      <c r="F80" s="186"/>
-      <c r="G80" s="186"/>
-      <c r="H80" s="186"/>
+      <c r="A80" s="183"/>
+      <c r="B80" s="183"/>
+      <c r="C80" s="183"/>
+      <c r="D80" s="183"/>
+      <c r="E80" s="183"/>
+      <c r="F80" s="183"/>
+      <c r="G80" s="183"/>
+      <c r="H80" s="183"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="186"/>
-      <c r="B81" s="186"/>
-      <c r="C81" s="186"/>
-      <c r="D81" s="186"/>
-      <c r="E81" s="186"/>
-      <c r="F81" s="186"/>
-      <c r="G81" s="186"/>
-      <c r="H81" s="186"/>
+      <c r="A81" s="183"/>
+      <c r="B81" s="183"/>
+      <c r="C81" s="183"/>
+      <c r="D81" s="183"/>
+      <c r="E81" s="183"/>
+      <c r="F81" s="183"/>
+      <c r="G81" s="183"/>
+      <c r="H81" s="183"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="186"/>
-      <c r="B82" s="186"/>
-      <c r="C82" s="186"/>
-      <c r="D82" s="186"/>
-      <c r="E82" s="186"/>
-      <c r="F82" s="186"/>
-      <c r="G82" s="186"/>
-      <c r="H82" s="186"/>
+      <c r="A82" s="183"/>
+      <c r="B82" s="183"/>
+      <c r="C82" s="183"/>
+      <c r="D82" s="183"/>
+      <c r="E82" s="183"/>
+      <c r="F82" s="183"/>
+      <c r="G82" s="183"/>
+      <c r="H82" s="183"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="186"/>
-      <c r="B83" s="186"/>
-      <c r="C83" s="186"/>
-      <c r="D83" s="186"/>
-      <c r="E83" s="186"/>
-      <c r="F83" s="186"/>
-      <c r="G83" s="186"/>
-      <c r="H83" s="186"/>
+      <c r="A83" s="183"/>
+      <c r="B83" s="183"/>
+      <c r="C83" s="183"/>
+      <c r="D83" s="183"/>
+      <c r="E83" s="183"/>
+      <c r="F83" s="183"/>
+      <c r="G83" s="183"/>
+      <c r="H83" s="183"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="186"/>
-      <c r="B84" s="186"/>
-      <c r="C84" s="186"/>
-      <c r="D84" s="186"/>
-      <c r="E84" s="186"/>
-      <c r="F84" s="186"/>
-      <c r="G84" s="186"/>
-      <c r="H84" s="186"/>
+      <c r="A84" s="183"/>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
+      <c r="F84" s="183"/>
+      <c r="G84" s="183"/>
+      <c r="H84" s="183"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="186"/>
-      <c r="B85" s="186"/>
-      <c r="C85" s="186"/>
-      <c r="D85" s="186"/>
-      <c r="E85" s="186"/>
-      <c r="F85" s="186"/>
-      <c r="G85" s="186"/>
-      <c r="H85" s="186"/>
+      <c r="A85" s="183"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="183"/>
+      <c r="G85" s="183"/>
+      <c r="H85" s="183"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="186"/>
-      <c r="B86" s="186"/>
-      <c r="C86" s="186"/>
-      <c r="D86" s="186"/>
-      <c r="E86" s="186"/>
-      <c r="F86" s="186"/>
-      <c r="G86" s="186"/>
-      <c r="H86" s="186"/>
+      <c r="A86" s="183"/>
+      <c r="B86" s="183"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="183"/>
+      <c r="E86" s="183"/>
+      <c r="F86" s="183"/>
+      <c r="G86" s="183"/>
+      <c r="H86" s="183"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="186"/>
-      <c r="B87" s="186"/>
-      <c r="C87" s="186"/>
-      <c r="D87" s="186"/>
-      <c r="E87" s="186"/>
-      <c r="F87" s="186"/>
-      <c r="G87" s="186"/>
-      <c r="H87" s="186"/>
+      <c r="A87" s="183"/>
+      <c r="B87" s="183"/>
+      <c r="C87" s="183"/>
+      <c r="D87" s="183"/>
+      <c r="E87" s="183"/>
+      <c r="F87" s="183"/>
+      <c r="G87" s="183"/>
+      <c r="H87" s="183"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="186"/>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
-      <c r="G88" s="186"/>
-      <c r="H88" s="186"/>
+      <c r="A88" s="183"/>
+      <c r="B88" s="183"/>
+      <c r="C88" s="183"/>
+      <c r="D88" s="183"/>
+      <c r="E88" s="183"/>
+      <c r="F88" s="183"/>
+      <c r="G88" s="183"/>
+      <c r="H88" s="183"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="186"/>
-      <c r="B89" s="186"/>
-      <c r="C89" s="186"/>
-      <c r="D89" s="186"/>
-      <c r="E89" s="186"/>
-      <c r="F89" s="186"/>
-      <c r="G89" s="186"/>
-      <c r="H89" s="186"/>
+      <c r="A89" s="183"/>
+      <c r="B89" s="183"/>
+      <c r="C89" s="183"/>
+      <c r="D89" s="183"/>
+      <c r="E89" s="183"/>
+      <c r="F89" s="183"/>
+      <c r="G89" s="183"/>
+      <c r="H89" s="183"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="186"/>
-      <c r="B90" s="186"/>
-      <c r="C90" s="186"/>
-      <c r="D90" s="186"/>
-      <c r="E90" s="186"/>
-      <c r="F90" s="186"/>
-      <c r="G90" s="186"/>
-      <c r="H90" s="186"/>
+      <c r="A90" s="183"/>
+      <c r="B90" s="183"/>
+      <c r="C90" s="183"/>
+      <c r="D90" s="183"/>
+      <c r="E90" s="183"/>
+      <c r="F90" s="183"/>
+      <c r="G90" s="183"/>
+      <c r="H90" s="183"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="186"/>
-      <c r="B91" s="186"/>
-      <c r="C91" s="186"/>
-      <c r="D91" s="186"/>
-      <c r="E91" s="186"/>
-      <c r="F91" s="186"/>
-      <c r="G91" s="186"/>
-      <c r="H91" s="186"/>
+      <c r="A91" s="183"/>
+      <c r="B91" s="183"/>
+      <c r="C91" s="183"/>
+      <c r="D91" s="183"/>
+      <c r="E91" s="183"/>
+      <c r="F91" s="183"/>
+      <c r="G91" s="183"/>
+      <c r="H91" s="183"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="186"/>
-      <c r="B92" s="186"/>
-      <c r="C92" s="186"/>
-      <c r="D92" s="186"/>
-      <c r="E92" s="186"/>
-      <c r="F92" s="186"/>
-      <c r="G92" s="186"/>
-      <c r="H92" s="186"/>
+      <c r="A92" s="183"/>
+      <c r="B92" s="183"/>
+      <c r="C92" s="183"/>
+      <c r="D92" s="183"/>
+      <c r="E92" s="183"/>
+      <c r="F92" s="183"/>
+      <c r="G92" s="183"/>
+      <c r="H92" s="183"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="186"/>
-      <c r="B93" s="186"/>
-      <c r="C93" s="186"/>
-      <c r="D93" s="186"/>
-      <c r="E93" s="186"/>
-      <c r="F93" s="186"/>
-      <c r="G93" s="186"/>
-      <c r="H93" s="186"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="183"/>
+      <c r="C93" s="183"/>
+      <c r="D93" s="183"/>
+      <c r="E93" s="183"/>
+      <c r="F93" s="183"/>
+      <c r="G93" s="183"/>
+      <c r="H93" s="183"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="186"/>
-      <c r="B94" s="186"/>
-      <c r="C94" s="186"/>
-      <c r="D94" s="186"/>
-      <c r="E94" s="186"/>
-      <c r="F94" s="186"/>
-      <c r="G94" s="186"/>
-      <c r="H94" s="186"/>
+      <c r="A94" s="183"/>
+      <c r="B94" s="183"/>
+      <c r="C94" s="183"/>
+      <c r="D94" s="183"/>
+      <c r="E94" s="183"/>
+      <c r="F94" s="183"/>
+      <c r="G94" s="183"/>
+      <c r="H94" s="183"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="186"/>
-      <c r="B95" s="186"/>
-      <c r="C95" s="186"/>
-      <c r="D95" s="186"/>
-      <c r="E95" s="186"/>
-      <c r="F95" s="186"/>
-      <c r="G95" s="186"/>
-      <c r="H95" s="186"/>
+      <c r="A95" s="183"/>
+      <c r="B95" s="183"/>
+      <c r="C95" s="183"/>
+      <c r="D95" s="183"/>
+      <c r="E95" s="183"/>
+      <c r="F95" s="183"/>
+      <c r="G95" s="183"/>
+      <c r="H95" s="183"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="186"/>
-      <c r="B96" s="186"/>
-      <c r="C96" s="186"/>
-      <c r="D96" s="186"/>
-      <c r="E96" s="186"/>
-      <c r="F96" s="186"/>
-      <c r="G96" s="186"/>
-      <c r="H96" s="186"/>
+      <c r="A96" s="183"/>
+      <c r="B96" s="183"/>
+      <c r="C96" s="183"/>
+      <c r="D96" s="183"/>
+      <c r="E96" s="183"/>
+      <c r="F96" s="183"/>
+      <c r="G96" s="183"/>
+      <c r="H96" s="183"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="186"/>
-      <c r="B97" s="186"/>
-      <c r="C97" s="186"/>
-      <c r="D97" s="186"/>
-      <c r="E97" s="186"/>
-      <c r="F97" s="186"/>
-      <c r="G97" s="186"/>
-      <c r="H97" s="186"/>
+      <c r="A97" s="183"/>
+      <c r="B97" s="183"/>
+      <c r="C97" s="183"/>
+      <c r="D97" s="183"/>
+      <c r="E97" s="183"/>
+      <c r="F97" s="183"/>
+      <c r="G97" s="183"/>
+      <c r="H97" s="183"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="186"/>
-      <c r="B98" s="186"/>
-      <c r="C98" s="186"/>
-      <c r="D98" s="186"/>
-      <c r="E98" s="186"/>
-      <c r="F98" s="186"/>
-      <c r="G98" s="186"/>
-      <c r="H98" s="186"/>
+      <c r="A98" s="183"/>
+      <c r="B98" s="183"/>
+      <c r="C98" s="183"/>
+      <c r="D98" s="183"/>
+      <c r="E98" s="183"/>
+      <c r="F98" s="183"/>
+      <c r="G98" s="183"/>
+      <c r="H98" s="183"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="186"/>
-      <c r="B99" s="186"/>
-      <c r="C99" s="186"/>
-      <c r="D99" s="186"/>
-      <c r="E99" s="186"/>
-      <c r="F99" s="186"/>
-      <c r="G99" s="186"/>
-      <c r="H99" s="186"/>
+      <c r="A99" s="183"/>
+      <c r="B99" s="183"/>
+      <c r="C99" s="183"/>
+      <c r="D99" s="183"/>
+      <c r="E99" s="183"/>
+      <c r="F99" s="183"/>
+      <c r="G99" s="183"/>
+      <c r="H99" s="183"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="186"/>
-      <c r="B100" s="186"/>
-      <c r="C100" s="186"/>
-      <c r="D100" s="186"/>
-      <c r="E100" s="186"/>
-      <c r="F100" s="186"/>
-      <c r="G100" s="186"/>
-      <c r="H100" s="186"/>
+      <c r="A100" s="183"/>
+      <c r="B100" s="183"/>
+      <c r="C100" s="183"/>
+      <c r="D100" s="183"/>
+      <c r="E100" s="183"/>
+      <c r="F100" s="183"/>
+      <c r="G100" s="183"/>
+      <c r="H100" s="183"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
-      <c r="B101" s="186"/>
-      <c r="C101" s="186"/>
-      <c r="D101" s="186"/>
-      <c r="E101" s="186"/>
-      <c r="F101" s="186"/>
-      <c r="G101" s="186"/>
-      <c r="H101" s="186"/>
+      <c r="A101" s="183"/>
+      <c r="B101" s="183"/>
+      <c r="C101" s="183"/>
+      <c r="D101" s="183"/>
+      <c r="E101" s="183"/>
+      <c r="F101" s="183"/>
+      <c r="G101" s="183"/>
+      <c r="H101" s="183"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
-      <c r="B102" s="186"/>
-      <c r="C102" s="186"/>
-      <c r="D102" s="186"/>
-      <c r="E102" s="186"/>
-      <c r="F102" s="186"/>
-      <c r="G102" s="186"/>
-      <c r="H102" s="186"/>
+      <c r="A102" s="183"/>
+      <c r="B102" s="183"/>
+      <c r="C102" s="183"/>
+      <c r="D102" s="183"/>
+      <c r="E102" s="183"/>
+      <c r="F102" s="183"/>
+      <c r="G102" s="183"/>
+      <c r="H102" s="183"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="186"/>
-      <c r="B103" s="186"/>
-      <c r="C103" s="186"/>
-      <c r="D103" s="186"/>
-      <c r="E103" s="186"/>
-      <c r="F103" s="186"/>
-      <c r="G103" s="186"/>
-      <c r="H103" s="186"/>
+      <c r="A103" s="183"/>
+      <c r="B103" s="183"/>
+      <c r="C103" s="183"/>
+      <c r="D103" s="183"/>
+      <c r="E103" s="183"/>
+      <c r="F103" s="183"/>
+      <c r="G103" s="183"/>
+      <c r="H103" s="183"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="186"/>
-      <c r="B104" s="186"/>
-      <c r="C104" s="186"/>
-      <c r="D104" s="186"/>
-      <c r="E104" s="186"/>
-      <c r="F104" s="186"/>
-      <c r="G104" s="186"/>
-      <c r="H104" s="186"/>
+      <c r="A104" s="183"/>
+      <c r="B104" s="183"/>
+      <c r="C104" s="183"/>
+      <c r="D104" s="183"/>
+      <c r="E104" s="183"/>
+      <c r="F104" s="183"/>
+      <c r="G104" s="183"/>
+      <c r="H104" s="183"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="186"/>
-      <c r="B105" s="186"/>
-      <c r="C105" s="186"/>
-      <c r="D105" s="186"/>
-      <c r="E105" s="186"/>
-      <c r="F105" s="186"/>
-      <c r="G105" s="186"/>
-      <c r="H105" s="186"/>
+      <c r="A105" s="183"/>
+      <c r="B105" s="183"/>
+      <c r="C105" s="183"/>
+      <c r="D105" s="183"/>
+      <c r="E105" s="183"/>
+      <c r="F105" s="183"/>
+      <c r="G105" s="183"/>
+      <c r="H105" s="183"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="186"/>
-      <c r="B106" s="186"/>
-      <c r="C106" s="186"/>
-      <c r="D106" s="186"/>
-      <c r="E106" s="186"/>
-      <c r="F106" s="186"/>
-      <c r="G106" s="186"/>
-      <c r="H106" s="186"/>
+      <c r="A106" s="183"/>
+      <c r="B106" s="183"/>
+      <c r="C106" s="183"/>
+      <c r="D106" s="183"/>
+      <c r="E106" s="183"/>
+      <c r="F106" s="183"/>
+      <c r="G106" s="183"/>
+      <c r="H106" s="183"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="186"/>
-      <c r="B107" s="186"/>
-      <c r="C107" s="186"/>
-      <c r="D107" s="186"/>
-      <c r="E107" s="186"/>
-      <c r="F107" s="186"/>
-      <c r="G107" s="186"/>
-      <c r="H107" s="186"/>
+      <c r="A107" s="183"/>
+      <c r="B107" s="183"/>
+      <c r="C107" s="183"/>
+      <c r="D107" s="183"/>
+      <c r="E107" s="183"/>
+      <c r="F107" s="183"/>
+      <c r="G107" s="183"/>
+      <c r="H107" s="183"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="186"/>
-      <c r="B108" s="186"/>
-      <c r="C108" s="186"/>
-      <c r="D108" s="186"/>
-      <c r="E108" s="186"/>
-      <c r="F108" s="186"/>
-      <c r="G108" s="186"/>
-      <c r="H108" s="186"/>
+      <c r="A108" s="183"/>
+      <c r="B108" s="183"/>
+      <c r="C108" s="183"/>
+      <c r="D108" s="183"/>
+      <c r="E108" s="183"/>
+      <c r="F108" s="183"/>
+      <c r="G108" s="183"/>
+      <c r="H108" s="183"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="186"/>
-      <c r="B109" s="186"/>
-      <c r="C109" s="186"/>
-      <c r="D109" s="186"/>
-      <c r="E109" s="186"/>
-      <c r="F109" s="186"/>
-      <c r="G109" s="186"/>
-      <c r="H109" s="186"/>
+      <c r="A109" s="183"/>
+      <c r="B109" s="183"/>
+      <c r="C109" s="183"/>
+      <c r="D109" s="183"/>
+      <c r="E109" s="183"/>
+      <c r="F109" s="183"/>
+      <c r="G109" s="183"/>
+      <c r="H109" s="183"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="186"/>
-      <c r="B110" s="186"/>
-      <c r="C110" s="186"/>
-      <c r="D110" s="186"/>
-      <c r="E110" s="186"/>
-      <c r="F110" s="186"/>
-      <c r="G110" s="186"/>
-      <c r="H110" s="186"/>
+      <c r="A110" s="183"/>
+      <c r="B110" s="183"/>
+      <c r="C110" s="183"/>
+      <c r="D110" s="183"/>
+      <c r="E110" s="183"/>
+      <c r="F110" s="183"/>
+      <c r="G110" s="183"/>
+      <c r="H110" s="183"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="186"/>
-      <c r="B111" s="186"/>
-      <c r="C111" s="186"/>
-      <c r="D111" s="186"/>
-      <c r="E111" s="186"/>
-      <c r="F111" s="186"/>
-      <c r="G111" s="186"/>
-      <c r="H111" s="186"/>
+      <c r="A111" s="183"/>
+      <c r="B111" s="183"/>
+      <c r="C111" s="183"/>
+      <c r="D111" s="183"/>
+      <c r="E111" s="183"/>
+      <c r="F111" s="183"/>
+      <c r="G111" s="183"/>
+      <c r="H111" s="183"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="186"/>
-      <c r="B112" s="186"/>
-      <c r="C112" s="186"/>
-      <c r="D112" s="186"/>
-      <c r="E112" s="186"/>
-      <c r="F112" s="186"/>
-      <c r="G112" s="186"/>
-      <c r="H112" s="186"/>
+      <c r="A112" s="183"/>
+      <c r="B112" s="183"/>
+      <c r="C112" s="183"/>
+      <c r="D112" s="183"/>
+      <c r="E112" s="183"/>
+      <c r="F112" s="183"/>
+      <c r="G112" s="183"/>
+      <c r="H112" s="183"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="186"/>
-      <c r="B113" s="186"/>
-      <c r="C113" s="186"/>
-      <c r="D113" s="186"/>
-      <c r="E113" s="186"/>
-      <c r="F113" s="186"/>
-      <c r="G113" s="186"/>
-      <c r="H113" s="186"/>
+      <c r="A113" s="183"/>
+      <c r="B113" s="183"/>
+      <c r="C113" s="183"/>
+      <c r="D113" s="183"/>
+      <c r="E113" s="183"/>
+      <c r="F113" s="183"/>
+      <c r="G113" s="183"/>
+      <c r="H113" s="183"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="186"/>
-      <c r="B114" s="186"/>
-      <c r="C114" s="186"/>
-      <c r="D114" s="186"/>
-      <c r="E114" s="186"/>
-      <c r="F114" s="186"/>
-      <c r="G114" s="186"/>
-      <c r="H114" s="186"/>
+      <c r="A114" s="183"/>
+      <c r="B114" s="183"/>
+      <c r="C114" s="183"/>
+      <c r="D114" s="183"/>
+      <c r="E114" s="183"/>
+      <c r="F114" s="183"/>
+      <c r="G114" s="183"/>
+      <c r="H114" s="183"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="186"/>
-      <c r="B115" s="186"/>
-      <c r="C115" s="186"/>
-      <c r="D115" s="186"/>
-      <c r="E115" s="186"/>
-      <c r="F115" s="186"/>
-      <c r="G115" s="186"/>
-      <c r="H115" s="186"/>
+      <c r="A115" s="183"/>
+      <c r="B115" s="183"/>
+      <c r="C115" s="183"/>
+      <c r="D115" s="183"/>
+      <c r="E115" s="183"/>
+      <c r="F115" s="183"/>
+      <c r="G115" s="183"/>
+      <c r="H115" s="183"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="186"/>
-      <c r="B116" s="186"/>
-      <c r="C116" s="186"/>
-      <c r="D116" s="186"/>
-      <c r="E116" s="186"/>
-      <c r="F116" s="186"/>
-      <c r="G116" s="186"/>
-      <c r="H116" s="186"/>
+      <c r="A116" s="183"/>
+      <c r="B116" s="183"/>
+      <c r="C116" s="183"/>
+      <c r="D116" s="183"/>
+      <c r="E116" s="183"/>
+      <c r="F116" s="183"/>
+      <c r="G116" s="183"/>
+      <c r="H116" s="183"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="186"/>
-      <c r="B117" s="186"/>
-      <c r="C117" s="186"/>
-      <c r="D117" s="186"/>
-      <c r="E117" s="186"/>
-      <c r="F117" s="186"/>
-      <c r="G117" s="186"/>
-      <c r="H117" s="186"/>
+      <c r="A117" s="183"/>
+      <c r="B117" s="183"/>
+      <c r="C117" s="183"/>
+      <c r="D117" s="183"/>
+      <c r="E117" s="183"/>
+      <c r="F117" s="183"/>
+      <c r="G117" s="183"/>
+      <c r="H117" s="183"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="186"/>
-      <c r="B118" s="186"/>
-      <c r="C118" s="186"/>
-      <c r="D118" s="186"/>
-      <c r="E118" s="186"/>
-      <c r="F118" s="186"/>
-      <c r="G118" s="186"/>
-      <c r="H118" s="186"/>
+      <c r="A118" s="183"/>
+      <c r="B118" s="183"/>
+      <c r="C118" s="183"/>
+      <c r="D118" s="183"/>
+      <c r="E118" s="183"/>
+      <c r="F118" s="183"/>
+      <c r="G118" s="183"/>
+      <c r="H118" s="183"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="186"/>
-      <c r="B119" s="186"/>
-      <c r="C119" s="186"/>
-      <c r="D119" s="186"/>
-      <c r="E119" s="186"/>
-      <c r="F119" s="186"/>
-      <c r="G119" s="186"/>
-      <c r="H119" s="186"/>
+      <c r="A119" s="183"/>
+      <c r="B119" s="183"/>
+      <c r="C119" s="183"/>
+      <c r="D119" s="183"/>
+      <c r="E119" s="183"/>
+      <c r="F119" s="183"/>
+      <c r="G119" s="183"/>
+      <c r="H119" s="183"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="186"/>
-      <c r="B120" s="186"/>
-      <c r="C120" s="186"/>
-      <c r="D120" s="186"/>
-      <c r="E120" s="186"/>
-      <c r="F120" s="186"/>
-      <c r="G120" s="186"/>
-      <c r="H120" s="186"/>
+      <c r="A120" s="183"/>
+      <c r="B120" s="183"/>
+      <c r="C120" s="183"/>
+      <c r="D120" s="183"/>
+      <c r="E120" s="183"/>
+      <c r="F120" s="183"/>
+      <c r="G120" s="183"/>
+      <c r="H120" s="183"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="186"/>
-      <c r="B121" s="186"/>
-      <c r="C121" s="186"/>
-      <c r="D121" s="186"/>
-      <c r="E121" s="186"/>
-      <c r="F121" s="186"/>
-      <c r="G121" s="186"/>
-      <c r="H121" s="186"/>
+      <c r="A121" s="183"/>
+      <c r="B121" s="183"/>
+      <c r="C121" s="183"/>
+      <c r="D121" s="183"/>
+      <c r="E121" s="183"/>
+      <c r="F121" s="183"/>
+      <c r="G121" s="183"/>
+      <c r="H121" s="183"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="186"/>
-      <c r="B122" s="186"/>
-      <c r="C122" s="186"/>
-      <c r="D122" s="186"/>
-      <c r="E122" s="186"/>
-      <c r="F122" s="186"/>
-      <c r="G122" s="186"/>
-      <c r="H122" s="186"/>
+      <c r="A122" s="183"/>
+      <c r="B122" s="183"/>
+      <c r="C122" s="183"/>
+      <c r="D122" s="183"/>
+      <c r="E122" s="183"/>
+      <c r="F122" s="183"/>
+      <c r="G122" s="183"/>
+      <c r="H122" s="183"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="186"/>
-      <c r="B123" s="186"/>
-      <c r="C123" s="186"/>
-      <c r="D123" s="186"/>
-      <c r="E123" s="186"/>
-      <c r="F123" s="186"/>
-      <c r="G123" s="186"/>
-      <c r="H123" s="186"/>
+      <c r="A123" s="183"/>
+      <c r="B123" s="183"/>
+      <c r="C123" s="183"/>
+      <c r="D123" s="183"/>
+      <c r="E123" s="183"/>
+      <c r="F123" s="183"/>
+      <c r="G123" s="183"/>
+      <c r="H123" s="183"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="186"/>
-      <c r="B124" s="186"/>
-      <c r="C124" s="186"/>
-      <c r="D124" s="186"/>
-      <c r="E124" s="186"/>
-      <c r="F124" s="186"/>
-      <c r="G124" s="186"/>
-      <c r="H124" s="186"/>
+      <c r="A124" s="183"/>
+      <c r="B124" s="183"/>
+      <c r="C124" s="183"/>
+      <c r="D124" s="183"/>
+      <c r="E124" s="183"/>
+      <c r="F124" s="183"/>
+      <c r="G124" s="183"/>
+      <c r="H124" s="183"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="186"/>
-      <c r="B125" s="186"/>
-      <c r="C125" s="186"/>
-      <c r="D125" s="186"/>
-      <c r="E125" s="186"/>
-      <c r="F125" s="186"/>
-      <c r="G125" s="186"/>
-      <c r="H125" s="186"/>
+      <c r="A125" s="183"/>
+      <c r="B125" s="183"/>
+      <c r="C125" s="183"/>
+      <c r="D125" s="183"/>
+      <c r="E125" s="183"/>
+      <c r="F125" s="183"/>
+      <c r="G125" s="183"/>
+      <c r="H125" s="183"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="186"/>
-      <c r="B126" s="186"/>
-      <c r="C126" s="186"/>
-      <c r="D126" s="186"/>
-      <c r="E126" s="186"/>
-      <c r="F126" s="186"/>
-      <c r="G126" s="186"/>
-      <c r="H126" s="186"/>
+      <c r="A126" s="183"/>
+      <c r="B126" s="183"/>
+      <c r="C126" s="183"/>
+      <c r="D126" s="183"/>
+      <c r="E126" s="183"/>
+      <c r="F126" s="183"/>
+      <c r="G126" s="183"/>
+      <c r="H126" s="183"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="186"/>
-      <c r="B127" s="186"/>
-      <c r="C127" s="186"/>
-      <c r="D127" s="186"/>
-      <c r="E127" s="186"/>
-      <c r="F127" s="186"/>
-      <c r="G127" s="186"/>
-      <c r="H127" s="186"/>
+      <c r="A127" s="183"/>
+      <c r="B127" s="183"/>
+      <c r="C127" s="183"/>
+      <c r="D127" s="183"/>
+      <c r="E127" s="183"/>
+      <c r="F127" s="183"/>
+      <c r="G127" s="183"/>
+      <c r="H127" s="183"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="186"/>
-      <c r="B128" s="186"/>
-      <c r="C128" s="186"/>
-      <c r="D128" s="186"/>
-      <c r="E128" s="186"/>
-      <c r="F128" s="186"/>
-      <c r="G128" s="186"/>
-      <c r="H128" s="186"/>
+      <c r="A128" s="183"/>
+      <c r="B128" s="183"/>
+      <c r="C128" s="183"/>
+      <c r="D128" s="183"/>
+      <c r="E128" s="183"/>
+      <c r="F128" s="183"/>
+      <c r="G128" s="183"/>
+      <c r="H128" s="183"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="186"/>
-      <c r="B129" s="186"/>
-      <c r="C129" s="186"/>
-      <c r="D129" s="186"/>
-      <c r="E129" s="186"/>
-      <c r="F129" s="186"/>
-      <c r="G129" s="186"/>
-      <c r="H129" s="186"/>
+      <c r="A129" s="183"/>
+      <c r="B129" s="183"/>
+      <c r="C129" s="183"/>
+      <c r="D129" s="183"/>
+      <c r="E129" s="183"/>
+      <c r="F129" s="183"/>
+      <c r="G129" s="183"/>
+      <c r="H129" s="183"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="186"/>
-      <c r="B130" s="186"/>
-      <c r="C130" s="186"/>
-      <c r="D130" s="186"/>
-      <c r="E130" s="186"/>
-      <c r="F130" s="186"/>
-      <c r="G130" s="186"/>
-      <c r="H130" s="186"/>
+      <c r="A130" s="183"/>
+      <c r="B130" s="183"/>
+      <c r="C130" s="183"/>
+      <c r="D130" s="183"/>
+      <c r="E130" s="183"/>
+      <c r="F130" s="183"/>
+      <c r="G130" s="183"/>
+      <c r="H130" s="183"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="186"/>
-      <c r="B131" s="186"/>
-      <c r="C131" s="186"/>
-      <c r="D131" s="186"/>
-      <c r="E131" s="186"/>
-      <c r="F131" s="186"/>
-      <c r="G131" s="186"/>
-      <c r="H131" s="186"/>
+      <c r="A131" s="183"/>
+      <c r="B131" s="183"/>
+      <c r="C131" s="183"/>
+      <c r="D131" s="183"/>
+      <c r="E131" s="183"/>
+      <c r="F131" s="183"/>
+      <c r="G131" s="183"/>
+      <c r="H131" s="183"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="186"/>
-      <c r="B132" s="186"/>
-      <c r="C132" s="186"/>
-      <c r="D132" s="186"/>
-      <c r="E132" s="186"/>
-      <c r="F132" s="186"/>
-      <c r="G132" s="186"/>
-      <c r="H132" s="186"/>
+      <c r="A132" s="183"/>
+      <c r="B132" s="183"/>
+      <c r="C132" s="183"/>
+      <c r="D132" s="183"/>
+      <c r="E132" s="183"/>
+      <c r="F132" s="183"/>
+      <c r="G132" s="183"/>
+      <c r="H132" s="183"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="186"/>
-      <c r="B133" s="186"/>
-      <c r="C133" s="186"/>
-      <c r="D133" s="186"/>
-      <c r="E133" s="186"/>
-      <c r="F133" s="186"/>
-      <c r="G133" s="186"/>
-      <c r="H133" s="186"/>
+      <c r="A133" s="183"/>
+      <c r="B133" s="183"/>
+      <c r="C133" s="183"/>
+      <c r="D133" s="183"/>
+      <c r="E133" s="183"/>
+      <c r="F133" s="183"/>
+      <c r="G133" s="183"/>
+      <c r="H133" s="183"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="186"/>
-      <c r="B134" s="186"/>
-      <c r="C134" s="186"/>
-      <c r="D134" s="186"/>
-      <c r="E134" s="186"/>
-      <c r="F134" s="186"/>
-      <c r="G134" s="186"/>
-      <c r="H134" s="186"/>
+      <c r="A134" s="183"/>
+      <c r="B134" s="183"/>
+      <c r="C134" s="183"/>
+      <c r="D134" s="183"/>
+      <c r="E134" s="183"/>
+      <c r="F134" s="183"/>
+      <c r="G134" s="183"/>
+      <c r="H134" s="183"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="186"/>
-      <c r="B135" s="186"/>
-      <c r="C135" s="186"/>
-      <c r="D135" s="186"/>
-      <c r="E135" s="186"/>
-      <c r="F135" s="186"/>
-      <c r="G135" s="186"/>
-      <c r="H135" s="186"/>
+      <c r="A135" s="183"/>
+      <c r="B135" s="183"/>
+      <c r="C135" s="183"/>
+      <c r="D135" s="183"/>
+      <c r="E135" s="183"/>
+      <c r="F135" s="183"/>
+      <c r="G135" s="183"/>
+      <c r="H135" s="183"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="186"/>
-      <c r="B136" s="186"/>
-      <c r="C136" s="186"/>
-      <c r="D136" s="186"/>
-      <c r="E136" s="186"/>
-      <c r="F136" s="186"/>
-      <c r="G136" s="186"/>
-      <c r="H136" s="186"/>
+      <c r="A136" s="183"/>
+      <c r="B136" s="183"/>
+      <c r="C136" s="183"/>
+      <c r="D136" s="183"/>
+      <c r="E136" s="183"/>
+      <c r="F136" s="183"/>
+      <c r="G136" s="183"/>
+      <c r="H136" s="183"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="186"/>
-      <c r="B137" s="186"/>
-      <c r="C137" s="186"/>
-      <c r="D137" s="186"/>
-      <c r="E137" s="186"/>
-      <c r="F137" s="186"/>
-      <c r="G137" s="186"/>
-      <c r="H137" s="186"/>
+      <c r="A137" s="183"/>
+      <c r="B137" s="183"/>
+      <c r="C137" s="183"/>
+      <c r="D137" s="183"/>
+      <c r="E137" s="183"/>
+      <c r="F137" s="183"/>
+      <c r="G137" s="183"/>
+      <c r="H137" s="183"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="186"/>
-      <c r="B138" s="186"/>
-      <c r="C138" s="186"/>
-      <c r="D138" s="186"/>
-      <c r="E138" s="186"/>
-      <c r="F138" s="186"/>
-      <c r="G138" s="186"/>
-      <c r="H138" s="186"/>
+      <c r="A138" s="183"/>
+      <c r="B138" s="183"/>
+      <c r="C138" s="183"/>
+      <c r="D138" s="183"/>
+      <c r="E138" s="183"/>
+      <c r="F138" s="183"/>
+      <c r="G138" s="183"/>
+      <c r="H138" s="183"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="186"/>
-      <c r="B139" s="186"/>
-      <c r="C139" s="186"/>
-      <c r="D139" s="186"/>
-      <c r="E139" s="186"/>
-      <c r="F139" s="186"/>
-      <c r="G139" s="186"/>
-      <c r="H139" s="186"/>
+      <c r="A139" s="183"/>
+      <c r="B139" s="183"/>
+      <c r="C139" s="183"/>
+      <c r="D139" s="183"/>
+      <c r="E139" s="183"/>
+      <c r="F139" s="183"/>
+      <c r="G139" s="183"/>
+      <c r="H139" s="183"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="186"/>
-      <c r="B140" s="186"/>
-      <c r="C140" s="186"/>
-      <c r="D140" s="186"/>
-      <c r="E140" s="186"/>
-      <c r="F140" s="186"/>
-      <c r="G140" s="186"/>
-      <c r="H140" s="186"/>
+      <c r="A140" s="183"/>
+      <c r="B140" s="183"/>
+      <c r="C140" s="183"/>
+      <c r="D140" s="183"/>
+      <c r="E140" s="183"/>
+      <c r="F140" s="183"/>
+      <c r="G140" s="183"/>
+      <c r="H140" s="183"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="186"/>
-      <c r="B141" s="186"/>
-      <c r="C141" s="186"/>
-      <c r="D141" s="186"/>
-      <c r="E141" s="186"/>
-      <c r="F141" s="186"/>
-      <c r="G141" s="186"/>
-      <c r="H141" s="186"/>
+      <c r="A141" s="183"/>
+      <c r="B141" s="183"/>
+      <c r="C141" s="183"/>
+      <c r="D141" s="183"/>
+      <c r="E141" s="183"/>
+      <c r="F141" s="183"/>
+      <c r="G141" s="183"/>
+      <c r="H141" s="183"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="186"/>
-      <c r="B142" s="186"/>
-      <c r="C142" s="186"/>
-      <c r="D142" s="186"/>
-      <c r="E142" s="186"/>
-      <c r="F142" s="186"/>
-      <c r="G142" s="186"/>
-      <c r="H142" s="186"/>
+      <c r="A142" s="183"/>
+      <c r="B142" s="183"/>
+      <c r="C142" s="183"/>
+      <c r="D142" s="183"/>
+      <c r="E142" s="183"/>
+      <c r="F142" s="183"/>
+      <c r="G142" s="183"/>
+      <c r="H142" s="183"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="186"/>
-      <c r="B143" s="186"/>
-      <c r="C143" s="186"/>
-      <c r="D143" s="186"/>
-      <c r="E143" s="186"/>
-      <c r="F143" s="186"/>
-      <c r="G143" s="186"/>
-      <c r="H143" s="186"/>
+      <c r="A143" s="183"/>
+      <c r="B143" s="183"/>
+      <c r="C143" s="183"/>
+      <c r="D143" s="183"/>
+      <c r="E143" s="183"/>
+      <c r="F143" s="183"/>
+      <c r="G143" s="183"/>
+      <c r="H143" s="183"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="186"/>
-      <c r="B144" s="186"/>
-      <c r="C144" s="186"/>
-      <c r="D144" s="186"/>
-      <c r="E144" s="186"/>
-      <c r="F144" s="186"/>
-      <c r="G144" s="186"/>
-      <c r="H144" s="186"/>
+      <c r="A144" s="183"/>
+      <c r="B144" s="183"/>
+      <c r="C144" s="183"/>
+      <c r="D144" s="183"/>
+      <c r="E144" s="183"/>
+      <c r="F144" s="183"/>
+      <c r="G144" s="183"/>
+      <c r="H144" s="183"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="186"/>
-      <c r="B145" s="186"/>
-      <c r="C145" s="186"/>
-      <c r="D145" s="186"/>
-      <c r="E145" s="186"/>
-      <c r="F145" s="186"/>
-      <c r="G145" s="186"/>
-      <c r="H145" s="186"/>
+      <c r="A145" s="183"/>
+      <c r="B145" s="183"/>
+      <c r="C145" s="183"/>
+      <c r="D145" s="183"/>
+      <c r="E145" s="183"/>
+      <c r="F145" s="183"/>
+      <c r="G145" s="183"/>
+      <c r="H145" s="183"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="186"/>
-      <c r="B146" s="186"/>
-      <c r="C146" s="186"/>
-      <c r="D146" s="186"/>
-      <c r="E146" s="186"/>
-      <c r="F146" s="186"/>
-      <c r="G146" s="186"/>
-      <c r="H146" s="186"/>
+      <c r="A146" s="183"/>
+      <c r="B146" s="183"/>
+      <c r="C146" s="183"/>
+      <c r="D146" s="183"/>
+      <c r="E146" s="183"/>
+      <c r="F146" s="183"/>
+      <c r="G146" s="183"/>
+      <c r="H146" s="183"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="186"/>
-      <c r="B147" s="186"/>
-      <c r="C147" s="186"/>
-      <c r="D147" s="186"/>
-      <c r="E147" s="186"/>
-      <c r="F147" s="186"/>
-      <c r="G147" s="186"/>
-      <c r="H147" s="186"/>
+      <c r="A147" s="183"/>
+      <c r="B147" s="183"/>
+      <c r="C147" s="183"/>
+      <c r="D147" s="183"/>
+      <c r="E147" s="183"/>
+      <c r="F147" s="183"/>
+      <c r="G147" s="183"/>
+      <c r="H147" s="183"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="186"/>
-      <c r="B148" s="186"/>
-      <c r="C148" s="186"/>
-      <c r="D148" s="186"/>
-      <c r="E148" s="186"/>
-      <c r="F148" s="186"/>
-      <c r="G148" s="186"/>
-      <c r="H148" s="186"/>
+      <c r="A148" s="183"/>
+      <c r="B148" s="183"/>
+      <c r="C148" s="183"/>
+      <c r="D148" s="183"/>
+      <c r="E148" s="183"/>
+      <c r="F148" s="183"/>
+      <c r="G148" s="183"/>
+      <c r="H148" s="183"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="186"/>
-      <c r="B149" s="186"/>
-      <c r="C149" s="186"/>
-      <c r="D149" s="186"/>
-      <c r="E149" s="186"/>
-      <c r="F149" s="186"/>
-      <c r="G149" s="186"/>
-      <c r="H149" s="186"/>
+      <c r="A149" s="183"/>
+      <c r="B149" s="183"/>
+      <c r="C149" s="183"/>
+      <c r="D149" s="183"/>
+      <c r="E149" s="183"/>
+      <c r="F149" s="183"/>
+      <c r="G149" s="183"/>
+      <c r="H149" s="183"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="186"/>
-      <c r="B150" s="186"/>
-      <c r="C150" s="186"/>
-      <c r="D150" s="186"/>
-      <c r="E150" s="186"/>
-      <c r="F150" s="186"/>
-      <c r="G150" s="186"/>
-      <c r="H150" s="186"/>
+      <c r="A150" s="183"/>
+      <c r="B150" s="183"/>
+      <c r="C150" s="183"/>
+      <c r="D150" s="183"/>
+      <c r="E150" s="183"/>
+      <c r="F150" s="183"/>
+      <c r="G150" s="183"/>
+      <c r="H150" s="183"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="186"/>
-      <c r="B151" s="186"/>
-      <c r="C151" s="186"/>
-      <c r="D151" s="186"/>
-      <c r="E151" s="186"/>
-      <c r="F151" s="186"/>
-      <c r="G151" s="186"/>
-      <c r="H151" s="186"/>
+      <c r="A151" s="183"/>
+      <c r="B151" s="183"/>
+      <c r="C151" s="183"/>
+      <c r="D151" s="183"/>
+      <c r="E151" s="183"/>
+      <c r="F151" s="183"/>
+      <c r="G151" s="183"/>
+      <c r="H151" s="183"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="186"/>
-      <c r="B152" s="186"/>
-      <c r="C152" s="186"/>
-      <c r="D152" s="186"/>
-      <c r="E152" s="186"/>
-      <c r="F152" s="186"/>
-      <c r="G152" s="186"/>
-      <c r="H152" s="186"/>
+      <c r="A152" s="183"/>
+      <c r="B152" s="183"/>
+      <c r="C152" s="183"/>
+      <c r="D152" s="183"/>
+      <c r="E152" s="183"/>
+      <c r="F152" s="183"/>
+      <c r="G152" s="183"/>
+      <c r="H152" s="183"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="186"/>
-      <c r="B153" s="186"/>
-      <c r="C153" s="186"/>
-      <c r="D153" s="186"/>
-      <c r="E153" s="186"/>
-      <c r="F153" s="186"/>
-      <c r="G153" s="186"/>
-      <c r="H153" s="186"/>
+      <c r="A153" s="183"/>
+      <c r="B153" s="183"/>
+      <c r="C153" s="183"/>
+      <c r="D153" s="183"/>
+      <c r="E153" s="183"/>
+      <c r="F153" s="183"/>
+      <c r="G153" s="183"/>
+      <c r="H153" s="183"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="186"/>
-      <c r="B154" s="186"/>
-      <c r="C154" s="186"/>
-      <c r="D154" s="186"/>
-      <c r="E154" s="186"/>
-      <c r="F154" s="186"/>
-      <c r="G154" s="186"/>
-      <c r="H154" s="186"/>
+      <c r="A154" s="183"/>
+      <c r="B154" s="183"/>
+      <c r="C154" s="183"/>
+      <c r="D154" s="183"/>
+      <c r="E154" s="183"/>
+      <c r="F154" s="183"/>
+      <c r="G154" s="183"/>
+      <c r="H154" s="183"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="186"/>
-      <c r="B155" s="186"/>
-      <c r="C155" s="186"/>
-      <c r="D155" s="186"/>
-      <c r="E155" s="186"/>
-      <c r="F155" s="186"/>
-      <c r="G155" s="186"/>
-      <c r="H155" s="186"/>
+      <c r="A155" s="183"/>
+      <c r="B155" s="183"/>
+      <c r="C155" s="183"/>
+      <c r="D155" s="183"/>
+      <c r="E155" s="183"/>
+      <c r="F155" s="183"/>
+      <c r="G155" s="183"/>
+      <c r="H155" s="183"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="186"/>
-      <c r="B156" s="186"/>
-      <c r="C156" s="186"/>
-      <c r="D156" s="186"/>
-      <c r="E156" s="186"/>
-      <c r="F156" s="186"/>
-      <c r="G156" s="186"/>
-      <c r="H156" s="186"/>
+      <c r="A156" s="183"/>
+      <c r="B156" s="183"/>
+      <c r="C156" s="183"/>
+      <c r="D156" s="183"/>
+      <c r="E156" s="183"/>
+      <c r="F156" s="183"/>
+      <c r="G156" s="183"/>
+      <c r="H156" s="183"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="186"/>
-      <c r="B157" s="186"/>
-      <c r="C157" s="186"/>
-      <c r="D157" s="186"/>
-      <c r="E157" s="186"/>
-      <c r="F157" s="186"/>
-      <c r="G157" s="186"/>
-      <c r="H157" s="186"/>
+      <c r="A157" s="183"/>
+      <c r="B157" s="183"/>
+      <c r="C157" s="183"/>
+      <c r="D157" s="183"/>
+      <c r="E157" s="183"/>
+      <c r="F157" s="183"/>
+      <c r="G157" s="183"/>
+      <c r="H157" s="183"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="186"/>
-      <c r="B158" s="186"/>
-      <c r="C158" s="186"/>
-      <c r="D158" s="186"/>
-      <c r="E158" s="186"/>
-      <c r="F158" s="186"/>
-      <c r="G158" s="186"/>
-      <c r="H158" s="186"/>
+      <c r="A158" s="183"/>
+      <c r="B158" s="183"/>
+      <c r="C158" s="183"/>
+      <c r="D158" s="183"/>
+      <c r="E158" s="183"/>
+      <c r="F158" s="183"/>
+      <c r="G158" s="183"/>
+      <c r="H158" s="183"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="186"/>
-      <c r="B159" s="186"/>
-      <c r="C159" s="186"/>
-      <c r="D159" s="186"/>
-      <c r="E159" s="186"/>
-      <c r="F159" s="186"/>
-      <c r="G159" s="186"/>
-      <c r="H159" s="186"/>
+      <c r="A159" s="183"/>
+      <c r="B159" s="183"/>
+      <c r="C159" s="183"/>
+      <c r="D159" s="183"/>
+      <c r="E159" s="183"/>
+      <c r="F159" s="183"/>
+      <c r="G159" s="183"/>
+      <c r="H159" s="183"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="186"/>
-      <c r="B160" s="186"/>
-      <c r="C160" s="186"/>
-      <c r="D160" s="186"/>
-      <c r="E160" s="186"/>
-      <c r="F160" s="186"/>
-      <c r="G160" s="186"/>
-      <c r="H160" s="186"/>
+      <c r="A160" s="183"/>
+      <c r="B160" s="183"/>
+      <c r="C160" s="183"/>
+      <c r="D160" s="183"/>
+      <c r="E160" s="183"/>
+      <c r="F160" s="183"/>
+      <c r="G160" s="183"/>
+      <c r="H160" s="183"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="186"/>
-      <c r="B161" s="186"/>
-      <c r="C161" s="186"/>
-      <c r="D161" s="186"/>
-      <c r="E161" s="186"/>
-      <c r="F161" s="186"/>
-      <c r="G161" s="186"/>
-      <c r="H161" s="186"/>
+      <c r="A161" s="183"/>
+      <c r="B161" s="183"/>
+      <c r="C161" s="183"/>
+      <c r="D161" s="183"/>
+      <c r="E161" s="183"/>
+      <c r="F161" s="183"/>
+      <c r="G161" s="183"/>
+      <c r="H161" s="183"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="186"/>
-      <c r="B162" s="186"/>
-      <c r="C162" s="186"/>
-      <c r="D162" s="186"/>
-      <c r="E162" s="186"/>
-      <c r="F162" s="186"/>
-      <c r="G162" s="186"/>
-      <c r="H162" s="186"/>
+      <c r="A162" s="183"/>
+      <c r="B162" s="183"/>
+      <c r="C162" s="183"/>
+      <c r="D162" s="183"/>
+      <c r="E162" s="183"/>
+      <c r="F162" s="183"/>
+      <c r="G162" s="183"/>
+      <c r="H162" s="183"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="186"/>
-      <c r="B163" s="186"/>
-      <c r="C163" s="186"/>
-      <c r="D163" s="186"/>
-      <c r="E163" s="186"/>
-      <c r="F163" s="186"/>
-      <c r="G163" s="186"/>
-      <c r="H163" s="186"/>
+      <c r="A163" s="183"/>
+      <c r="B163" s="183"/>
+      <c r="C163" s="183"/>
+      <c r="D163" s="183"/>
+      <c r="E163" s="183"/>
+      <c r="F163" s="183"/>
+      <c r="G163" s="183"/>
+      <c r="H163" s="183"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="186"/>
-      <c r="B164" s="186"/>
-      <c r="C164" s="186"/>
-      <c r="D164" s="186"/>
-      <c r="E164" s="186"/>
-      <c r="F164" s="186"/>
-      <c r="G164" s="186"/>
-      <c r="H164" s="186"/>
+      <c r="A164" s="183"/>
+      <c r="B164" s="183"/>
+      <c r="C164" s="183"/>
+      <c r="D164" s="183"/>
+      <c r="E164" s="183"/>
+      <c r="F164" s="183"/>
+      <c r="G164" s="183"/>
+      <c r="H164" s="183"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="186"/>
-      <c r="B165" s="186"/>
-      <c r="C165" s="186"/>
-      <c r="D165" s="186"/>
-      <c r="E165" s="186"/>
-      <c r="F165" s="186"/>
-      <c r="G165" s="186"/>
-      <c r="H165" s="186"/>
+      <c r="A165" s="183"/>
+      <c r="B165" s="183"/>
+      <c r="C165" s="183"/>
+      <c r="D165" s="183"/>
+      <c r="E165" s="183"/>
+      <c r="F165" s="183"/>
+      <c r="G165" s="183"/>
+      <c r="H165" s="183"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="186"/>
-      <c r="B166" s="186"/>
-      <c r="C166" s="186"/>
-      <c r="D166" s="186"/>
-      <c r="E166" s="186"/>
-      <c r="F166" s="186"/>
-      <c r="G166" s="186"/>
-      <c r="H166" s="186"/>
+      <c r="A166" s="183"/>
+      <c r="B166" s="183"/>
+      <c r="C166" s="183"/>
+      <c r="D166" s="183"/>
+      <c r="E166" s="183"/>
+      <c r="F166" s="183"/>
+      <c r="G166" s="183"/>
+      <c r="H166" s="183"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="186"/>
-      <c r="B167" s="186"/>
-      <c r="C167" s="186"/>
-      <c r="D167" s="186"/>
-      <c r="E167" s="186"/>
-      <c r="F167" s="186"/>
-      <c r="G167" s="186"/>
-      <c r="H167" s="186"/>
+      <c r="A167" s="183"/>
+      <c r="B167" s="183"/>
+      <c r="C167" s="183"/>
+      <c r="D167" s="183"/>
+      <c r="E167" s="183"/>
+      <c r="F167" s="183"/>
+      <c r="G167" s="183"/>
+      <c r="H167" s="183"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="186"/>
-      <c r="B168" s="186"/>
-      <c r="C168" s="186"/>
-      <c r="D168" s="186"/>
-      <c r="E168" s="186"/>
-      <c r="F168" s="186"/>
-      <c r="G168" s="186"/>
-      <c r="H168" s="186"/>
+      <c r="A168" s="183"/>
+      <c r="B168" s="183"/>
+      <c r="C168" s="183"/>
+      <c r="D168" s="183"/>
+      <c r="E168" s="183"/>
+      <c r="F168" s="183"/>
+      <c r="G168" s="183"/>
+      <c r="H168" s="183"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="186"/>
-      <c r="B169" s="186"/>
-      <c r="C169" s="186"/>
-      <c r="D169" s="186"/>
-      <c r="E169" s="186"/>
-      <c r="F169" s="186"/>
-      <c r="G169" s="186"/>
-      <c r="H169" s="186"/>
+      <c r="A169" s="183"/>
+      <c r="B169" s="183"/>
+      <c r="C169" s="183"/>
+      <c r="D169" s="183"/>
+      <c r="E169" s="183"/>
+      <c r="F169" s="183"/>
+      <c r="G169" s="183"/>
+      <c r="H169" s="183"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="186"/>
-      <c r="B170" s="186"/>
-      <c r="C170" s="186"/>
-      <c r="D170" s="186"/>
-      <c r="E170" s="186"/>
-      <c r="F170" s="186"/>
-      <c r="G170" s="186"/>
-      <c r="H170" s="186"/>
+      <c r="A170" s="183"/>
+      <c r="B170" s="183"/>
+      <c r="C170" s="183"/>
+      <c r="D170" s="183"/>
+      <c r="E170" s="183"/>
+      <c r="F170" s="183"/>
+      <c r="G170" s="183"/>
+      <c r="H170" s="183"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="186"/>
-      <c r="B171" s="186"/>
-      <c r="C171" s="186"/>
-      <c r="D171" s="186"/>
-      <c r="E171" s="186"/>
-      <c r="F171" s="186"/>
-      <c r="G171" s="186"/>
-      <c r="H171" s="186"/>
+      <c r="A171" s="183"/>
+      <c r="B171" s="183"/>
+      <c r="C171" s="183"/>
+      <c r="D171" s="183"/>
+      <c r="E171" s="183"/>
+      <c r="F171" s="183"/>
+      <c r="G171" s="183"/>
+      <c r="H171" s="183"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="186"/>
-      <c r="B172" s="186"/>
-      <c r="C172" s="186"/>
-      <c r="D172" s="186"/>
-      <c r="E172" s="186"/>
-      <c r="F172" s="186"/>
-      <c r="G172" s="186"/>
-      <c r="H172" s="186"/>
+      <c r="A172" s="183"/>
+      <c r="B172" s="183"/>
+      <c r="C172" s="183"/>
+      <c r="D172" s="183"/>
+      <c r="E172" s="183"/>
+      <c r="F172" s="183"/>
+      <c r="G172" s="183"/>
+      <c r="H172" s="183"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B173" s="186"/>
-      <c r="C173" s="186"/>
-      <c r="D173" s="186"/>
-      <c r="E173" s="186"/>
-      <c r="F173" s="186"/>
-      <c r="G173" s="186"/>
-      <c r="H173" s="186"/>
+      <c r="B173" s="183"/>
+      <c r="C173" s="183"/>
+      <c r="D173" s="183"/>
+      <c r="E173" s="183"/>
+      <c r="F173" s="183"/>
+      <c r="G173" s="183"/>
+      <c r="H173" s="183"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B174" s="186"/>
-      <c r="C174" s="186"/>
-      <c r="D174" s="186"/>
-      <c r="E174" s="186"/>
-      <c r="F174" s="186"/>
-      <c r="G174" s="186"/>
-      <c r="H174" s="186"/>
+      <c r="B174" s="183"/>
+      <c r="C174" s="183"/>
+      <c r="D174" s="183"/>
+      <c r="E174" s="183"/>
+      <c r="F174" s="183"/>
+      <c r="G174" s="183"/>
+      <c r="H174" s="183"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B175" s="186"/>
-      <c r="C175" s="186"/>
-      <c r="D175" s="186"/>
-      <c r="E175" s="186"/>
-      <c r="F175" s="186"/>
-      <c r="G175" s="186"/>
-      <c r="H175" s="186"/>
+      <c r="B175" s="183"/>
+      <c r="C175" s="183"/>
+      <c r="D175" s="183"/>
+      <c r="E175" s="183"/>
+      <c r="F175" s="183"/>
+      <c r="G175" s="183"/>
+      <c r="H175" s="183"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B176" s="186"/>
-      <c r="C176" s="186"/>
-      <c r="D176" s="186"/>
-      <c r="E176" s="186"/>
-      <c r="F176" s="186"/>
-      <c r="G176" s="186"/>
-      <c r="H176" s="186"/>
+      <c r="B176" s="183"/>
+      <c r="C176" s="183"/>
+      <c r="D176" s="183"/>
+      <c r="E176" s="183"/>
+      <c r="F176" s="183"/>
+      <c r="G176" s="183"/>
+      <c r="H176" s="183"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B177" s="186"/>
-      <c r="C177" s="186"/>
-      <c r="D177" s="186"/>
-      <c r="E177" s="186"/>
-      <c r="F177" s="186"/>
-      <c r="G177" s="186"/>
-      <c r="H177" s="186"/>
+      <c r="B177" s="183"/>
+      <c r="C177" s="183"/>
+      <c r="D177" s="183"/>
+      <c r="E177" s="183"/>
+      <c r="F177" s="183"/>
+      <c r="G177" s="183"/>
+      <c r="H177" s="183"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B178" s="186"/>
-      <c r="C178" s="186"/>
-      <c r="D178" s="186"/>
-      <c r="E178" s="186"/>
-      <c r="F178" s="186"/>
-      <c r="G178" s="186"/>
-      <c r="H178" s="186"/>
+      <c r="B178" s="183"/>
+      <c r="C178" s="183"/>
+      <c r="D178" s="183"/>
+      <c r="E178" s="183"/>
+      <c r="F178" s="183"/>
+      <c r="G178" s="183"/>
+      <c r="H178" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7172,7 +7143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EE1091-9F45-40A9-90F5-6AF0F1D8D5C5}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView topLeftCell="P18" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
@@ -7189,60 +7160,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="230" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
       <c r="I1" s="5"/>
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
       <c r="M1" s="6"/>
       <c r="N1" s="7"/>
-      <c r="P1" s="231" t="s">
+      <c r="P1" s="230" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
       <c r="S1" s="3"/>
       <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="234"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="233"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
         <v>11</v>
@@ -7251,18 +7222,18 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
-      <c r="P2" s="235" t="s">
+      <c r="P2" s="234" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
+      <c r="Q2" s="235"/>
+      <c r="R2" s="235"/>
       <c r="S2" s="8"/>
       <c r="T2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9" t="s">
         <v>11</v>
@@ -7273,59 +7244,59 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="240" t="s">
+      <c r="C3" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="218" t="s">
+      <c r="D3" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
       <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="238" t="s">
+      <c r="P3" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="240" t="s">
+      <c r="Q3" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="240" t="s">
+      <c r="R3" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="218" t="s">
+      <c r="S3" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="218"/>
-      <c r="AB3" s="218"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="217"/>
       <c r="AC3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="239"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
+      <c r="A4" s="238"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -7337,9 +7308,9 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="13"/>
-      <c r="P4" s="239"/>
-      <c r="Q4" s="241"/>
-      <c r="R4" s="241"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -7353,11 +7324,11 @@
       <c r="AC4" s="13"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="242" t="s">
+      <c r="A5" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="244"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="243"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -7369,11 +7340,11 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="13"/>
-      <c r="P5" s="219" t="s">
+      <c r="P5" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="221"/>
+      <c r="Q5" s="219"/>
+      <c r="R5" s="220"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -7614,10 +7585,10 @@
     </row>
     <row r="12" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="221"/>
       <c r="D12" s="29"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7630,10 +7601,10 @@
       <c r="M12" s="1"/>
       <c r="N12" s="13"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="222" t="s">
+      <c r="Q12" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="222"/>
+      <c r="R12" s="221"/>
       <c r="S12" s="29"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -7648,10 +7619,10 @@
     </row>
     <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="208" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="209"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="31" t="s">
         <v>27</v>
       </c>
@@ -7666,10 +7637,10 @@
       <c r="M13" s="17"/>
       <c r="N13" s="13"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="209" t="s">
+      <c r="Q13" s="208" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="209"/>
+      <c r="R13" s="208"/>
       <c r="S13" s="120"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
@@ -7697,10 +7668,10 @@
         <v>30</v>
       </c>
       <c r="J14" s="69"/>
-      <c r="K14" s="223" t="s">
+      <c r="K14" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="224"/>
+      <c r="L14" s="223"/>
       <c r="M14" s="71"/>
       <c r="N14" s="13"/>
       <c r="P14" s="15"/>
@@ -7717,10 +7688,10 @@
         <v>30</v>
       </c>
       <c r="Y14" s="34"/>
-      <c r="Z14" s="223" t="s">
+      <c r="Z14" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" s="224"/>
+      <c r="AA14" s="223"/>
       <c r="AB14" s="122"/>
       <c r="AC14" s="13"/>
     </row>
@@ -7739,10 +7710,10 @@
         <v>33</v>
       </c>
       <c r="J15" s="69"/>
-      <c r="K15" s="223" t="s">
+      <c r="K15" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="224"/>
+      <c r="L15" s="223"/>
       <c r="M15" s="72"/>
       <c r="N15" s="13"/>
       <c r="P15" s="15"/>
@@ -7759,10 +7730,10 @@
         <v>33</v>
       </c>
       <c r="Y15" s="34"/>
-      <c r="Z15" s="223" t="s">
+      <c r="Z15" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="AA15" s="224"/>
+      <c r="AA15" s="223"/>
       <c r="AB15" s="121" t="s">
         <v>72</v>
       </c>
@@ -7802,7 +7773,7 @@
       <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="224" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="37" t="s">
@@ -7824,7 +7795,7 @@
       <c r="P17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="225" t="s">
+      <c r="Q17" s="224" t="s">
         <v>36</v>
       </c>
       <c r="R17" s="37" t="s">
@@ -7848,7 +7819,7 @@
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="226"/>
+      <c r="B18" s="225"/>
       <c r="C18" s="42" t="s">
         <v>38</v>
       </c>
@@ -7866,7 +7837,7 @@
       </c>
       <c r="N18" s="13"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="226"/>
+      <c r="Q18" s="225"/>
       <c r="R18" s="42" t="s">
         <v>38</v>
       </c>
@@ -7888,7 +7859,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="224" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -7908,7 +7879,7 @@
       </c>
       <c r="N19" s="13"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="225" t="s">
+      <c r="Q19" s="224" t="s">
         <v>39</v>
       </c>
       <c r="R19" s="37" t="s">
@@ -7932,7 +7903,7 @@
     </row>
     <row r="20" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="226"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="42" t="s">
         <v>41</v>
       </c>
@@ -7950,7 +7921,7 @@
       </c>
       <c r="N20" s="13"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="226"/>
+      <c r="Q20" s="225"/>
       <c r="R20" s="42" t="s">
         <v>41</v>
       </c>
@@ -7972,7 +7943,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="37" t="s">
@@ -7992,7 +7963,7 @@
       </c>
       <c r="N21" s="13"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="225" t="s">
+      <c r="Q21" s="224" t="s">
         <v>42</v>
       </c>
       <c r="R21" s="37" t="s">
@@ -8016,7 +7987,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
-      <c r="B22" s="227"/>
+      <c r="B22" s="226"/>
       <c r="C22" s="26" t="s">
         <v>44</v>
       </c>
@@ -8034,7 +8005,7 @@
       </c>
       <c r="N22" s="13"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="227"/>
+      <c r="Q22" s="226"/>
       <c r="R22" s="26" t="s">
         <v>44</v>
       </c>
@@ -8056,7 +8027,7 @@
     </row>
     <row r="23" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="226"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="42" t="s">
         <v>45</v>
       </c>
@@ -8074,7 +8045,7 @@
       </c>
       <c r="N23" s="13"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="226"/>
+      <c r="Q23" s="225"/>
       <c r="R23" s="42" t="s">
         <v>45</v>
       </c>
@@ -8096,7 +8067,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
-      <c r="B24" s="225" t="s">
+      <c r="B24" s="224" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="37" t="s">
@@ -8116,7 +8087,7 @@
       </c>
       <c r="N24" s="13"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="225" t="s">
+      <c r="Q24" s="224" t="s">
         <v>46</v>
       </c>
       <c r="R24" s="37" t="s">
@@ -8140,7 +8111,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
-      <c r="B25" s="227"/>
+      <c r="B25" s="226"/>
       <c r="C25" s="26" t="s">
         <v>48</v>
       </c>
@@ -8158,7 +8129,7 @@
       </c>
       <c r="N25" s="13"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="227"/>
+      <c r="Q25" s="226"/>
       <c r="R25" s="26" t="s">
         <v>48</v>
       </c>
@@ -8180,7 +8151,7 @@
     </row>
     <row r="26" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="226"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="42" t="s">
         <v>49</v>
       </c>
@@ -8198,7 +8169,7 @@
       </c>
       <c r="N26" s="13"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="226"/>
+      <c r="Q26" s="225"/>
       <c r="R26" s="42" t="s">
         <v>49</v>
       </c>
@@ -8238,7 +8209,7 @@
       </c>
       <c r="N27" s="13"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="228" t="s">
+      <c r="Q27" s="227" t="s">
         <v>51</v>
       </c>
       <c r="R27" s="37" t="s">
@@ -8282,7 +8253,7 @@
       </c>
       <c r="N28" s="13"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="229"/>
+      <c r="Q28" s="228"/>
       <c r="R28" s="26" t="s">
         <v>52</v>
       </c>
@@ -8322,7 +8293,7 @@
       </c>
       <c r="N29" s="13"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="230"/>
+      <c r="Q29" s="229"/>
       <c r="R29" s="42" t="s">
         <v>53</v>
       </c>
@@ -8344,7 +8315,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
-      <c r="B30" s="215" t="s">
+      <c r="B30" s="214" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="37" t="s">
@@ -8364,7 +8335,7 @@
       </c>
       <c r="N30" s="13"/>
       <c r="P30" s="15"/>
-      <c r="Q30" s="215" t="s">
+      <c r="Q30" s="214" t="s">
         <v>54</v>
       </c>
       <c r="R30" s="37" t="s">
@@ -8388,7 +8359,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="216"/>
+      <c r="B31" s="215"/>
       <c r="C31" s="26" t="s">
         <v>56</v>
       </c>
@@ -8406,7 +8377,7 @@
       </c>
       <c r="N31" s="48"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="216"/>
+      <c r="Q31" s="215"/>
       <c r="R31" s="26" t="s">
         <v>56</v>
       </c>
@@ -8428,7 +8399,7 @@
     </row>
     <row r="32" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="217"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="42" t="s">
         <v>57</v>
       </c>
@@ -8446,7 +8417,7 @@
       </c>
       <c r="N32" s="13"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="217"/>
+      <c r="Q32" s="216"/>
       <c r="R32" s="42" t="s">
         <v>57</v>
       </c>
@@ -8468,10 +8439,10 @@
     </row>
     <row r="33" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="209" t="s">
+      <c r="B33" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="210"/>
+      <c r="C33" s="209"/>
       <c r="D33" s="49"/>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
@@ -8484,10 +8455,10 @@
       <c r="M33" s="49"/>
       <c r="N33" s="13"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="209" t="s">
+      <c r="Q33" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="210"/>
+      <c r="R33" s="209"/>
       <c r="S33" s="49"/>
       <c r="T33" s="49"/>
       <c r="U33" s="49"/>
@@ -8502,10 +8473,10 @@
     </row>
     <row r="34" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="209" t="s">
+      <c r="B34" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="209"/>
+      <c r="C34" s="208"/>
       <c r="D34" s="50"/>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
@@ -8520,10 +8491,10 @@
         <v>27</v>
       </c>
       <c r="P34" s="15"/>
-      <c r="Q34" s="209" t="s">
+      <c r="Q34" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="209"/>
+      <c r="R34" s="208"/>
       <c r="S34" s="50"/>
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
@@ -8538,10 +8509,10 @@
     </row>
     <row r="35" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="208" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="210"/>
+      <c r="C35" s="209"/>
       <c r="D35" s="29"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -8554,10 +8525,10 @@
       <c r="M35" s="1"/>
       <c r="N35" s="13"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="209" t="s">
+      <c r="Q35" s="208" t="s">
         <v>60</v>
       </c>
-      <c r="R35" s="210"/>
+      <c r="R35" s="209"/>
       <c r="S35" s="29"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -8572,10 +8543,10 @@
     </row>
     <row r="36" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="209" t="s">
+      <c r="B36" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="209"/>
+      <c r="C36" s="208"/>
       <c r="D36" s="31" t="s">
         <v>27</v>
       </c>
@@ -8590,10 +8561,10 @@
       <c r="M36" s="17"/>
       <c r="N36" s="13"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="209" t="s">
+      <c r="Q36" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="R36" s="209"/>
+      <c r="R36" s="208"/>
       <c r="S36" s="123"/>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
@@ -8738,10 +8709,10 @@
     </row>
     <row r="41" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
-      <c r="B41" s="211" t="s">
+      <c r="B41" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="212"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="56" t="s">
         <v>64</v>
       </c>
@@ -8760,10 +8731,10 @@
       <c r="M41" s="9"/>
       <c r="N41" s="10"/>
       <c r="P41" s="54"/>
-      <c r="Q41" s="211" t="s">
+      <c r="Q41" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="R41" s="212"/>
+      <c r="R41" s="211"/>
       <c r="S41" s="56" t="s">
         <v>64</v>
       </c>
@@ -8782,10 +8753,10 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="54"/>
-      <c r="B42" s="213" t="s">
+      <c r="B42" s="212" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="214"/>
+      <c r="C42" s="213"/>
       <c r="D42" s="57"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -8798,10 +8769,10 @@
       <c r="M42" s="8"/>
       <c r="N42" s="10"/>
       <c r="P42" s="54"/>
-      <c r="Q42" s="213" t="s">
+      <c r="Q42" s="212" t="s">
         <v>67</v>
       </c>
-      <c r="R42" s="214"/>
+      <c r="R42" s="213"/>
       <c r="S42" s="57"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -8816,10 +8787,10 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="54"/>
-      <c r="B43" s="205" t="s">
+      <c r="B43" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="206"/>
+      <c r="C43" s="205"/>
       <c r="D43" s="58">
         <v>1</v>
       </c>
@@ -8834,10 +8805,10 @@
       <c r="M43" s="8"/>
       <c r="N43" s="10"/>
       <c r="P43" s="54"/>
-      <c r="Q43" s="205" t="s">
+      <c r="Q43" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="R43" s="206"/>
+      <c r="R43" s="205"/>
       <c r="S43" s="58">
         <v>1</v>
       </c>
@@ -8854,10 +8825,10 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="206"/>
+      <c r="C44" s="205"/>
       <c r="D44" s="59">
         <v>2</v>
       </c>
@@ -8872,10 +8843,10 @@
       <c r="M44" s="8"/>
       <c r="N44" s="10"/>
       <c r="P44" s="54"/>
-      <c r="Q44" s="205" t="s">
+      <c r="Q44" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="R44" s="206"/>
+      <c r="R44" s="205"/>
       <c r="S44" s="59">
         <v>2</v>
       </c>
@@ -8892,10 +8863,10 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="54"/>
-      <c r="B45" s="205" t="s">
+      <c r="B45" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="206"/>
+      <c r="C45" s="205"/>
       <c r="D45" s="60">
         <v>3</v>
       </c>
@@ -8910,10 +8881,10 @@
       <c r="M45" s="8"/>
       <c r="N45" s="61"/>
       <c r="P45" s="54"/>
-      <c r="Q45" s="205" t="s">
+      <c r="Q45" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="R45" s="206"/>
+      <c r="R45" s="205"/>
       <c r="S45" s="60">
         <v>3</v>
       </c>
@@ -8930,10 +8901,10 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="54"/>
-      <c r="B46" s="207" t="s">
+      <c r="B46" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="208"/>
+      <c r="C46" s="207"/>
       <c r="D46" s="62">
         <v>4</v>
       </c>
@@ -8948,10 +8919,10 @@
       <c r="M46" s="8"/>
       <c r="N46" s="61"/>
       <c r="P46" s="54"/>
-      <c r="Q46" s="207" t="s">
+      <c r="Q46" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="R46" s="208"/>
+      <c r="R46" s="207"/>
       <c r="S46" s="62">
         <v>4</v>
       </c>
@@ -9975,15 +9946,15 @@
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
       <c r="K1" s="74"/>
       <c r="L1" s="101"/>
       <c r="N1" s="73" t="s">
@@ -9993,15 +9964,15 @@
       <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="233"/>
-      <c r="S1" s="233"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="232"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="268"/>
-      <c r="W1" s="268"/>
+      <c r="V1" s="267"/>
+      <c r="W1" s="267"/>
       <c r="X1" s="74"/>
       <c r="Y1" s="101"/>
     </row>
@@ -10013,9 +9984,9 @@
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
         <v>75</v>
@@ -10031,9 +10002,9 @@
       <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9" t="s">
         <v>104</v>
@@ -10044,42 +10015,42 @@
       <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="269" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="274" t="s">
+      <c r="B3" s="270"/>
+      <c r="C3" s="273" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="275"/>
-      <c r="N3" s="270" t="s">
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="274"/>
+      <c r="N3" s="269" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="271"/>
-      <c r="P3" s="274" t="s">
+      <c r="O3" s="270"/>
+      <c r="P3" s="273" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="274"/>
-      <c r="R3" s="274"/>
-      <c r="S3" s="274"/>
-      <c r="T3" s="274"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="274"/>
-      <c r="W3" s="274"/>
-      <c r="X3" s="274"/>
-      <c r="Y3" s="275"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="273"/>
+      <c r="T3" s="273"/>
+      <c r="U3" s="273"/>
+      <c r="V3" s="273"/>
+      <c r="W3" s="273"/>
+      <c r="X3" s="273"/>
+      <c r="Y3" s="274"/>
     </row>
     <row r="4" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="270"/>
-      <c r="B4" s="271"/>
+      <c r="A4" s="269"/>
+      <c r="B4" s="270"/>
       <c r="C4" s="76"/>
       <c r="D4" s="77"/>
       <c r="E4" s="77"/>
@@ -10090,8 +10061,8 @@
       <c r="J4" s="77"/>
       <c r="K4" s="77"/>
       <c r="L4" s="103"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="273"/>
+      <c r="N4" s="271"/>
+      <c r="O4" s="272"/>
       <c r="P4" s="76"/>
       <c r="Q4" s="77"/>
       <c r="R4" s="77"/>
@@ -10104,10 +10075,10 @@
       <c r="Y4" s="103"/>
     </row>
     <row r="5" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="259" t="s">
+      <c r="A5" s="258" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="260"/>
+      <c r="B5" s="259"/>
       <c r="C5" s="79"/>
       <c r="D5" s="80"/>
       <c r="E5" s="81"/>
@@ -10118,10 +10089,10 @@
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="112"/>
-      <c r="N5" s="276" t="s">
+      <c r="N5" s="275" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="277"/>
+      <c r="O5" s="276"/>
       <c r="P5" s="104"/>
       <c r="Q5" s="104"/>
       <c r="R5" s="105"/>
@@ -10134,10 +10105,10 @@
       <c r="Y5" s="137"/>
     </row>
     <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="258" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="260"/>
+      <c r="B6" s="259"/>
       <c r="C6" s="82"/>
       <c r="D6" s="83"/>
       <c r="E6" s="84"/>
@@ -10148,10 +10119,10 @@
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
       <c r="L6" s="113"/>
-      <c r="N6" s="276" t="s">
+      <c r="N6" s="275" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="277"/>
+      <c r="O6" s="276"/>
       <c r="P6" s="86"/>
       <c r="Q6" s="86"/>
       <c r="R6" s="86"/>
@@ -10164,10 +10135,10 @@
       <c r="Y6" s="139"/>
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="259" t="s">
+      <c r="A7" s="258" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="260"/>
+      <c r="B7" s="259"/>
       <c r="C7" s="82"/>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
@@ -10178,10 +10149,10 @@
       <c r="J7" s="83"/>
       <c r="K7" s="83"/>
       <c r="L7" s="108"/>
-      <c r="N7" s="278" t="s">
+      <c r="N7" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="279"/>
+      <c r="O7" s="278"/>
       <c r="P7" s="86"/>
       <c r="Q7" s="106"/>
       <c r="R7" s="106"/>
@@ -10194,10 +10165,10 @@
       <c r="Y7" s="141"/>
     </row>
     <row r="8" spans="1:25" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="284" t="s">
+      <c r="A8" s="283" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="285"/>
+      <c r="B8" s="284"/>
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
       <c r="E8" s="86"/>
@@ -10208,10 +10179,10 @@
       <c r="J8" s="86"/>
       <c r="K8" s="86"/>
       <c r="L8" s="115"/>
-      <c r="N8" s="257" t="s">
+      <c r="N8" s="256" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="258"/>
+      <c r="O8" s="257"/>
       <c r="P8" s="85"/>
       <c r="Q8" s="86"/>
       <c r="R8" s="86"/>
@@ -10228,10 +10199,10 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="259" t="s">
+      <c r="A9" s="258" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="260"/>
+      <c r="B9" s="259"/>
       <c r="C9" s="87"/>
       <c r="D9" s="88"/>
       <c r="E9" s="88"/>
@@ -10242,10 +10213,10 @@
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
       <c r="L9" s="116"/>
-      <c r="N9" s="259" t="s">
+      <c r="N9" s="258" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="260"/>
+      <c r="O9" s="259"/>
       <c r="P9" s="87" t="s">
         <v>72</v>
       </c>
@@ -10278,37 +10249,37 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="286"/>
-      <c r="B10" s="287"/>
-      <c r="C10" s="261" t="s">
+      <c r="A10" s="285"/>
+      <c r="B10" s="286"/>
+      <c r="C10" s="260" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="261"/>
-      <c r="I10" s="261"/>
-      <c r="J10" s="261"/>
-      <c r="K10" s="261"/>
-      <c r="L10" s="262"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="260"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="260"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="261"/>
       <c r="N10" s="117"/>
       <c r="O10" s="118"/>
-      <c r="P10" s="261" t="s">
+      <c r="P10" s="260" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="261"/>
-      <c r="R10" s="261"/>
-      <c r="S10" s="261"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="261"/>
-      <c r="V10" s="261"/>
-      <c r="W10" s="261"/>
-      <c r="X10" s="261"/>
-      <c r="Y10" s="262"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="260"/>
+      <c r="T10" s="260"/>
+      <c r="U10" s="260"/>
+      <c r="V10" s="260"/>
+      <c r="W10" s="260"/>
+      <c r="X10" s="260"/>
+      <c r="Y10" s="261"/>
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="263" t="s">
+      <c r="A11" s="262" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="78" t="s">
@@ -10324,7 +10295,7 @@
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
       <c r="L11" s="112"/>
-      <c r="N11" s="263" t="s">
+      <c r="N11" s="262" t="s">
         <v>84</v>
       </c>
       <c r="O11" s="78" t="s">
@@ -10346,7 +10317,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="264"/>
+      <c r="A12" s="263"/>
       <c r="B12" s="78" t="s">
         <v>86</v>
       </c>
@@ -10360,7 +10331,7 @@
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
       <c r="L12" s="113"/>
-      <c r="N12" s="264"/>
+      <c r="N12" s="263"/>
       <c r="O12" s="78" t="s">
         <v>86</v>
       </c>
@@ -10380,7 +10351,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="264"/>
+      <c r="A13" s="263"/>
       <c r="B13" s="78" t="s">
         <v>87</v>
       </c>
@@ -10394,7 +10365,7 @@
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
       <c r="L13" s="113"/>
-      <c r="N13" s="264"/>
+      <c r="N13" s="263"/>
       <c r="O13" s="78" t="s">
         <v>87</v>
       </c>
@@ -10414,7 +10385,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="264"/>
+      <c r="A14" s="263"/>
       <c r="B14" s="78" t="s">
         <v>88</v>
       </c>
@@ -10428,7 +10399,7 @@
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
       <c r="L14" s="113"/>
-      <c r="N14" s="264"/>
+      <c r="N14" s="263"/>
       <c r="O14" s="78" t="s">
         <v>88</v>
       </c>
@@ -10448,7 +10419,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="265"/>
+      <c r="A15" s="264"/>
       <c r="B15" s="78" t="s">
         <v>89</v>
       </c>
@@ -10462,7 +10433,7 @@
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
       <c r="L15" s="113"/>
-      <c r="N15" s="265"/>
+      <c r="N15" s="264"/>
       <c r="O15" s="78" t="s">
         <v>89</v>
       </c>
@@ -10482,10 +10453,10 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="259" t="s">
+      <c r="A16" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="260"/>
+      <c r="B16" s="259"/>
       <c r="C16" s="89"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
@@ -10496,10 +10467,10 @@
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
       <c r="L16" s="113"/>
-      <c r="N16" s="259" t="s">
+      <c r="N16" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="260"/>
+      <c r="O16" s="259"/>
       <c r="P16" s="89"/>
       <c r="Q16" s="84"/>
       <c r="R16" s="84"/>
@@ -10516,10 +10487,10 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="259" t="s">
+      <c r="A17" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="260"/>
+      <c r="B17" s="259"/>
       <c r="C17" s="90"/>
       <c r="D17" s="91"/>
       <c r="E17" s="91"/>
@@ -10530,10 +10501,10 @@
       <c r="J17" s="91"/>
       <c r="K17" s="91"/>
       <c r="L17" s="114"/>
-      <c r="N17" s="259" t="s">
+      <c r="N17" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="260"/>
+      <c r="O17" s="259"/>
       <c r="P17" s="90"/>
       <c r="Q17" s="91"/>
       <c r="R17" s="91"/>
@@ -10550,40 +10521,40 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="282"/>
-      <c r="B18" s="283"/>
-      <c r="C18" s="253" t="s">
+      <c r="A18" s="281"/>
+      <c r="B18" s="282"/>
+      <c r="C18" s="252" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="253"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="253"/>
-      <c r="G18" s="253"/>
-      <c r="H18" s="253"/>
-      <c r="I18" s="253"/>
-      <c r="J18" s="253"/>
-      <c r="K18" s="253"/>
-      <c r="L18" s="254"/>
+      <c r="D18" s="252"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="252"/>
+      <c r="G18" s="252"/>
+      <c r="H18" s="252"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="252"/>
+      <c r="K18" s="252"/>
+      <c r="L18" s="253"/>
       <c r="N18" s="54"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="253" t="s">
+      <c r="P18" s="252" t="s">
         <v>92</v>
       </c>
-      <c r="Q18" s="253"/>
-      <c r="R18" s="253"/>
-      <c r="S18" s="253"/>
-      <c r="T18" s="253"/>
-      <c r="U18" s="253"/>
-      <c r="V18" s="253"/>
-      <c r="W18" s="253"/>
-      <c r="X18" s="253"/>
-      <c r="Y18" s="254"/>
+      <c r="Q18" s="252"/>
+      <c r="R18" s="252"/>
+      <c r="S18" s="252"/>
+      <c r="T18" s="252"/>
+      <c r="U18" s="252"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="252"/>
+      <c r="X18" s="252"/>
+      <c r="Y18" s="253"/>
     </row>
     <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="247" t="s">
+      <c r="A19" s="246" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="248"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="79"/>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
@@ -10594,10 +10565,10 @@
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
       <c r="L19" s="107"/>
-      <c r="N19" s="247" t="s">
+      <c r="N19" s="246" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="248"/>
+      <c r="O19" s="247"/>
       <c r="P19" s="79"/>
       <c r="Q19" s="94"/>
       <c r="R19" s="94"/>
@@ -10614,10 +10585,10 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="247" t="s">
+      <c r="A20" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="248"/>
+      <c r="B20" s="247"/>
       <c r="C20" s="89"/>
       <c r="D20" s="83"/>
       <c r="E20" s="83"/>
@@ -10628,10 +10599,10 @@
       <c r="J20" s="83"/>
       <c r="K20" s="83"/>
       <c r="L20" s="108"/>
-      <c r="N20" s="247" t="s">
+      <c r="N20" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="O20" s="248"/>
+      <c r="O20" s="247"/>
       <c r="P20" s="89"/>
       <c r="Q20" s="83"/>
       <c r="R20" s="83"/>
@@ -10648,10 +10619,10 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="247" t="s">
+      <c r="A21" s="246" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="248"/>
+      <c r="B21" s="247"/>
       <c r="C21" s="89"/>
       <c r="D21" s="83"/>
       <c r="E21" s="83"/>
@@ -10662,10 +10633,10 @@
       <c r="J21" s="83"/>
       <c r="K21" s="83"/>
       <c r="L21" s="108"/>
-      <c r="N21" s="247" t="s">
+      <c r="N21" s="246" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="248"/>
+      <c r="O21" s="247"/>
       <c r="P21" s="89"/>
       <c r="Q21" s="83"/>
       <c r="R21" s="83"/>
@@ -10682,10 +10653,10 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="247" t="s">
+      <c r="A22" s="246" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="248"/>
+      <c r="B22" s="247"/>
       <c r="C22" s="89"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83"/>
@@ -10696,10 +10667,10 @@
       <c r="J22" s="83"/>
       <c r="K22" s="83"/>
       <c r="L22" s="108"/>
-      <c r="N22" s="247" t="s">
+      <c r="N22" s="246" t="s">
         <v>96</v>
       </c>
-      <c r="O22" s="248"/>
+      <c r="O22" s="247"/>
       <c r="P22" s="89"/>
       <c r="Q22" s="83"/>
       <c r="R22" s="83"/>
@@ -10750,10 +10721,10 @@
       <c r="Y23" s="155"/>
     </row>
     <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="255" t="s">
+      <c r="A24" s="254" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="256"/>
+      <c r="B24" s="255"/>
       <c r="C24" s="89"/>
       <c r="D24" s="83"/>
       <c r="E24" s="83"/>
@@ -10764,10 +10735,10 @@
       <c r="J24" s="83"/>
       <c r="K24" s="83"/>
       <c r="L24" s="108"/>
-      <c r="N24" s="255" t="s">
+      <c r="N24" s="254" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="256"/>
+      <c r="O24" s="255"/>
       <c r="P24" s="89"/>
       <c r="Q24" s="83"/>
       <c r="R24" s="83"/>
@@ -10784,10 +10755,10 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="249" t="s">
+      <c r="A25" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="250"/>
+      <c r="B25" s="249"/>
       <c r="C25" s="89"/>
       <c r="D25" s="83"/>
       <c r="E25" s="83"/>
@@ -10798,10 +10769,10 @@
       <c r="J25" s="83"/>
       <c r="K25" s="83"/>
       <c r="L25" s="108"/>
-      <c r="N25" s="247" t="s">
+      <c r="N25" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="248"/>
+      <c r="O25" s="247"/>
       <c r="P25" s="89"/>
       <c r="Q25" s="83"/>
       <c r="R25" s="83"/>
@@ -10818,10 +10789,10 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="280" t="s">
+      <c r="A26" s="279" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="281"/>
+      <c r="B26" s="280"/>
       <c r="C26" s="97"/>
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
@@ -10832,10 +10803,10 @@
       <c r="J26" s="98"/>
       <c r="K26" s="98"/>
       <c r="L26" s="110"/>
-      <c r="N26" s="249" t="s">
+      <c r="N26" s="248" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="250"/>
+      <c r="O26" s="249"/>
       <c r="P26" s="97"/>
       <c r="Q26" s="98"/>
       <c r="R26" s="98"/>
@@ -10852,10 +10823,10 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="83.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="251" t="s">
+      <c r="A27" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="266"/>
+      <c r="B27" s="265"/>
       <c r="C27" s="99"/>
       <c r="D27" s="100"/>
       <c r="E27" s="100"/>
@@ -10866,10 +10837,10 @@
       <c r="J27" s="100"/>
       <c r="K27" s="100"/>
       <c r="L27" s="111"/>
-      <c r="N27" s="251" t="s">
+      <c r="N27" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="252"/>
+      <c r="O27" s="251"/>
       <c r="P27" s="100"/>
       <c r="Q27" s="100"/>
       <c r="R27" s="100"/>
@@ -10886,8 +10857,8 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="267"/>
-      <c r="B28" s="267"/>
+      <c r="A28" s="266"/>
+      <c r="B28" s="266"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -10949,71 +10920,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DF11EB-F892-114F-858D-3D7453B0DE1A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="188"/>
-    <col min="2" max="3" width="36.33203125" style="191" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="185"/>
+    <col min="2" max="3" width="36.33203125" style="188" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="288" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
+      <c r="A2" s="287" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="288"/>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
+      <c r="A3" s="287"/>
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="189"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="190" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="193" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="193" t="s">
+      <c r="A5" s="187" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="190" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="289"/>
-      <c r="B6" s="290"/>
-      <c r="C6" s="290"/>
-    </row>
-    <row r="7" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="289"/>
-      <c r="B7" s="290"/>
-      <c r="C7" s="290"/>
-    </row>
-    <row r="8" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="289"/>
-      <c r="B8" s="290"/>
-      <c r="C8" s="290"/>
-    </row>
+    <row r="6" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11054,26 +11013,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006D53F4C8D732D844AE7D882D8C27E66C" ma:contentTypeVersion="18" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="70bbe916ee44c898308fc52b233fdc6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d274541-22b4-4212-af6c-71d9850896b1" xmlns:ns3="d699723c-6030-48dd-835b-9dac49e7a8e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e6162704bbcf8652c04252123e2ebc" ns2:_="" ns3:_="">
     <xsd:import namespace="2d274541-22b4-4212-af6c-71d9850896b1"/>
@@ -11328,26 +11267,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
-    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE067A7-9A28-427F-B4BA-DF647AB143B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11364,4 +11304,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
+    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
+++ b/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/RiderProjects/SeaEco/SeaEco.Server/wwwroot/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB2DC14-FE39-404B-BA47-4DAA40E21A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542D429-208D-3747-B16C-F9A2F53D29BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="25380" windowHeight="16620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="B2 Skjema" sheetId="4" r:id="rId5"/>
     <sheet name="Bilder" sheetId="7" r:id="rId6"/>
     <sheet name="pHEh" sheetId="2" r:id="rId7"/>
+    <sheet name="PhEh-Plot" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="139">
   <si>
     <t>St.nr.</t>
   </si>
@@ -836,7 +837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1957,12 +1958,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2030,17 +2042,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2490,6 +2496,16 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4942,186 +4958,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="125" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="129"/>
+      <c r="B5" s="127"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="127"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="129"/>
+      <c r="B7" s="127"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="129"/>
+      <c r="B8" s="127"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="129"/>
+      <c r="B9" s="127"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="125" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="127"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="127"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="127"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="129"/>
+      <c r="B15" s="127"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="127"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="127"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="127"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="125" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="130" t="s">
+      <c r="A22" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="130" t="s">
+      <c r="A23" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="125" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5142,1785 +5158,1785 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="176" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="176" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="176"/>
-    <col min="4" max="4" width="3.6640625" style="176" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="176" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="176" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="176" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="176" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="176"/>
+    <col min="1" max="1" width="10.6640625" style="174" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="174" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="174"/>
+    <col min="4" max="4" width="3.6640625" style="174" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="174" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="174" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="174" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="174" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="174"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="175" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191"/>
-      <c r="B1" s="192"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="174"/>
+    <row r="1" spans="1:8" s="173" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="189"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="182"/>
+      <c r="B2" s="180"/>
     </row>
     <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="200" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
     </row>
     <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="199"/>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
     </row>
     <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201" t="s">
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="202" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="201"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="178"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="176"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="201" t="s">
+      <c r="B7" s="201"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="178"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="176"/>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="177" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="178" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="195" t="s">
+      <c r="C9" s="196" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="180" t="s">
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="181" t="s">
+      <c r="H9" s="179" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
+      <c r="A10" s="181"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="183"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
+      <c r="A11" s="181"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="183"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
+      <c r="A12" s="181"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="183"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
+      <c r="A15" s="181"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="183"/>
-      <c r="B16" s="183"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
+      <c r="A16" s="181"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="183"/>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
+      <c r="A19" s="181"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="183"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
+      <c r="A20" s="181"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
+      <c r="A21" s="181"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="183"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="183"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
+      <c r="A25" s="181"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
+      <c r="A26" s="181"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="183"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
+      <c r="A27" s="181"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="183"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
+      <c r="A29" s="181"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
+      <c r="A30" s="181"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="183"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
+      <c r="A31" s="181"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="183"/>
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
-      <c r="B34" s="183"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
+      <c r="A34" s="181"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="183"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
+      <c r="A35" s="181"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="183"/>
-      <c r="B36" s="183"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
+      <c r="A36" s="181"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
+      <c r="A37" s="181"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
-      <c r="B38" s="183"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
+      <c r="A38" s="181"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="183"/>
-      <c r="B39" s="183"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="183"/>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
-      <c r="B41" s="183"/>
-      <c r="C41" s="183"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="183"/>
-      <c r="H41" s="183"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
+      <c r="E41" s="181"/>
+      <c r="F41" s="181"/>
+      <c r="G41" s="181"/>
+      <c r="H41" s="181"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="183"/>
+      <c r="A42" s="181"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="183"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="183"/>
-      <c r="D43" s="183"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="183"/>
-      <c r="G43" s="183"/>
-      <c r="H43" s="183"/>
+      <c r="A43" s="181"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="183"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="183"/>
-      <c r="D44" s="183"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
+      <c r="A44" s="181"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="181"/>
+      <c r="H44" s="181"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
-      <c r="H45" s="183"/>
+      <c r="A45" s="181"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="181"/>
+      <c r="H45" s="181"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
-      <c r="B46" s="183"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="183"/>
-      <c r="B47" s="183"/>
-      <c r="C47" s="183"/>
-      <c r="D47" s="183"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="183"/>
+      <c r="A47" s="181"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="183"/>
-      <c r="B48" s="183"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="181"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="181"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
-      <c r="B49" s="183"/>
-      <c r="C49" s="183"/>
-      <c r="D49" s="183"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="183"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="183"/>
+      <c r="A49" s="181"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
+      <c r="E49" s="181"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="181"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
-      <c r="B50" s="183"/>
-      <c r="C50" s="183"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
+      <c r="A50" s="181"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="181"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="183"/>
-      <c r="B51" s="183"/>
-      <c r="C51" s="183"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="183"/>
-      <c r="F51" s="183"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
+      <c r="A51" s="181"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="181"/>
+      <c r="G51" s="181"/>
+      <c r="H51" s="181"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="183"/>
-      <c r="B52" s="183"/>
-      <c r="C52" s="183"/>
-      <c r="D52" s="183"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="183"/>
-      <c r="G52" s="183"/>
-      <c r="H52" s="183"/>
+      <c r="A52" s="181"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="181"/>
+      <c r="G52" s="181"/>
+      <c r="H52" s="181"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="183"/>
-      <c r="B53" s="183"/>
-      <c r="C53" s="183"/>
-      <c r="D53" s="183"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="183"/>
-      <c r="H53" s="183"/>
+      <c r="A53" s="181"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
+      <c r="E53" s="181"/>
+      <c r="F53" s="181"/>
+      <c r="G53" s="181"/>
+      <c r="H53" s="181"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="183"/>
-      <c r="B54" s="183"/>
-      <c r="C54" s="183"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
+      <c r="A54" s="181"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="181"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="183"/>
-      <c r="B55" s="183"/>
-      <c r="C55" s="183"/>
-      <c r="D55" s="183"/>
-      <c r="E55" s="183"/>
-      <c r="F55" s="183"/>
-      <c r="G55" s="183"/>
-      <c r="H55" s="183"/>
+      <c r="A55" s="181"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
+      <c r="E55" s="181"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="181"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="183"/>
-      <c r="B56" s="183"/>
-      <c r="C56" s="183"/>
-      <c r="D56" s="183"/>
-      <c r="E56" s="183"/>
-      <c r="F56" s="183"/>
-      <c r="G56" s="183"/>
-      <c r="H56" s="183"/>
+      <c r="A56" s="181"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
+      <c r="E56" s="181"/>
+      <c r="F56" s="181"/>
+      <c r="G56" s="181"/>
+      <c r="H56" s="181"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="183"/>
-      <c r="B57" s="183"/>
-      <c r="C57" s="183"/>
-      <c r="D57" s="183"/>
-      <c r="E57" s="183"/>
-      <c r="F57" s="183"/>
-      <c r="G57" s="183"/>
-      <c r="H57" s="183"/>
+      <c r="A57" s="181"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
+      <c r="E57" s="181"/>
+      <c r="F57" s="181"/>
+      <c r="G57" s="181"/>
+      <c r="H57" s="181"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="183"/>
-      <c r="B58" s="183"/>
-      <c r="C58" s="183"/>
-      <c r="D58" s="183"/>
-      <c r="E58" s="183"/>
-      <c r="F58" s="183"/>
-      <c r="G58" s="183"/>
-      <c r="H58" s="183"/>
+      <c r="A58" s="181"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
+      <c r="E58" s="181"/>
+      <c r="F58" s="181"/>
+      <c r="G58" s="181"/>
+      <c r="H58" s="181"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="183"/>
-      <c r="B59" s="183"/>
-      <c r="C59" s="183"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="183"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
+      <c r="A59" s="181"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
+      <c r="E59" s="181"/>
+      <c r="F59" s="181"/>
+      <c r="G59" s="181"/>
+      <c r="H59" s="181"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="183"/>
-      <c r="B60" s="183"/>
-      <c r="C60" s="183"/>
-      <c r="D60" s="183"/>
-      <c r="E60" s="183"/>
-      <c r="F60" s="183"/>
-      <c r="G60" s="183"/>
-      <c r="H60" s="183"/>
+      <c r="A60" s="181"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
+      <c r="E60" s="181"/>
+      <c r="F60" s="181"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="181"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="183"/>
-      <c r="B61" s="183"/>
-      <c r="C61" s="183"/>
-      <c r="D61" s="183"/>
-      <c r="E61" s="183"/>
-      <c r="F61" s="183"/>
-      <c r="G61" s="183"/>
-      <c r="H61" s="183"/>
+      <c r="A61" s="181"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
+      <c r="E61" s="181"/>
+      <c r="F61" s="181"/>
+      <c r="G61" s="181"/>
+      <c r="H61" s="181"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="183"/>
-      <c r="B62" s="183"/>
-      <c r="C62" s="183"/>
-      <c r="D62" s="183"/>
-      <c r="E62" s="183"/>
-      <c r="F62" s="183"/>
-      <c r="G62" s="183"/>
-      <c r="H62" s="183"/>
+      <c r="A62" s="181"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
+      <c r="E62" s="181"/>
+      <c r="F62" s="181"/>
+      <c r="G62" s="181"/>
+      <c r="H62" s="181"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="183"/>
-      <c r="B63" s="183"/>
-      <c r="C63" s="183"/>
-      <c r="D63" s="183"/>
-      <c r="E63" s="183"/>
-      <c r="F63" s="183"/>
-      <c r="G63" s="183"/>
-      <c r="H63" s="183"/>
+      <c r="A63" s="181"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="181"/>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="181"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="183"/>
-      <c r="B64" s="183"/>
-      <c r="C64" s="183"/>
-      <c r="D64" s="183"/>
-      <c r="E64" s="183"/>
-      <c r="F64" s="183"/>
-      <c r="G64" s="183"/>
-      <c r="H64" s="183"/>
+      <c r="A64" s="181"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="181"/>
+      <c r="G64" s="181"/>
+      <c r="H64" s="181"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="183"/>
-      <c r="B65" s="183"/>
-      <c r="C65" s="183"/>
-      <c r="D65" s="183"/>
-      <c r="E65" s="183"/>
-      <c r="F65" s="183"/>
-      <c r="G65" s="183"/>
-      <c r="H65" s="183"/>
+      <c r="A65" s="181"/>
+      <c r="B65" s="181"/>
+      <c r="C65" s="181"/>
+      <c r="D65" s="181"/>
+      <c r="E65" s="181"/>
+      <c r="F65" s="181"/>
+      <c r="G65" s="181"/>
+      <c r="H65" s="181"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="183"/>
-      <c r="B66" s="183"/>
-      <c r="C66" s="183"/>
-      <c r="D66" s="183"/>
-      <c r="E66" s="183"/>
-      <c r="F66" s="183"/>
-      <c r="G66" s="183"/>
-      <c r="H66" s="183"/>
+      <c r="A66" s="181"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="181"/>
+      <c r="D66" s="181"/>
+      <c r="E66" s="181"/>
+      <c r="F66" s="181"/>
+      <c r="G66" s="181"/>
+      <c r="H66" s="181"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="183"/>
-      <c r="B67" s="183"/>
-      <c r="C67" s="183"/>
-      <c r="D67" s="183"/>
-      <c r="E67" s="183"/>
-      <c r="F67" s="183"/>
-      <c r="G67" s="183"/>
-      <c r="H67" s="183"/>
+      <c r="A67" s="181"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
+      <c r="E67" s="181"/>
+      <c r="F67" s="181"/>
+      <c r="G67" s="181"/>
+      <c r="H67" s="181"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="183"/>
-      <c r="B68" s="183"/>
-      <c r="C68" s="183"/>
-      <c r="D68" s="183"/>
-      <c r="E68" s="183"/>
-      <c r="F68" s="183"/>
-      <c r="G68" s="183"/>
-      <c r="H68" s="183"/>
+      <c r="A68" s="181"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
+      <c r="E68" s="181"/>
+      <c r="F68" s="181"/>
+      <c r="G68" s="181"/>
+      <c r="H68" s="181"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="183"/>
-      <c r="B69" s="183"/>
-      <c r="C69" s="183"/>
-      <c r="D69" s="183"/>
-      <c r="E69" s="183"/>
-      <c r="F69" s="183"/>
-      <c r="G69" s="183"/>
-      <c r="H69" s="183"/>
+      <c r="A69" s="181"/>
+      <c r="B69" s="181"/>
+      <c r="C69" s="181"/>
+      <c r="D69" s="181"/>
+      <c r="E69" s="181"/>
+      <c r="F69" s="181"/>
+      <c r="G69" s="181"/>
+      <c r="H69" s="181"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="183"/>
-      <c r="B70" s="183"/>
-      <c r="C70" s="183"/>
-      <c r="D70" s="183"/>
-      <c r="E70" s="183"/>
-      <c r="F70" s="183"/>
-      <c r="G70" s="183"/>
-      <c r="H70" s="183"/>
+      <c r="A70" s="181"/>
+      <c r="B70" s="181"/>
+      <c r="C70" s="181"/>
+      <c r="D70" s="181"/>
+      <c r="E70" s="181"/>
+      <c r="F70" s="181"/>
+      <c r="G70" s="181"/>
+      <c r="H70" s="181"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="183"/>
-      <c r="B71" s="183"/>
-      <c r="C71" s="183"/>
-      <c r="D71" s="183"/>
-      <c r="E71" s="183"/>
-      <c r="F71" s="183"/>
-      <c r="G71" s="183"/>
-      <c r="H71" s="183"/>
+      <c r="A71" s="181"/>
+      <c r="B71" s="181"/>
+      <c r="C71" s="181"/>
+      <c r="D71" s="181"/>
+      <c r="E71" s="181"/>
+      <c r="F71" s="181"/>
+      <c r="G71" s="181"/>
+      <c r="H71" s="181"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="183"/>
-      <c r="B72" s="183"/>
-      <c r="C72" s="183"/>
-      <c r="D72" s="183"/>
-      <c r="E72" s="183"/>
-      <c r="F72" s="183"/>
-      <c r="G72" s="183"/>
-      <c r="H72" s="183"/>
+      <c r="A72" s="181"/>
+      <c r="B72" s="181"/>
+      <c r="C72" s="181"/>
+      <c r="D72" s="181"/>
+      <c r="E72" s="181"/>
+      <c r="F72" s="181"/>
+      <c r="G72" s="181"/>
+      <c r="H72" s="181"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="183"/>
-      <c r="B73" s="183"/>
-      <c r="C73" s="183"/>
-      <c r="D73" s="183"/>
-      <c r="E73" s="183"/>
-      <c r="F73" s="183"/>
-      <c r="G73" s="183"/>
-      <c r="H73" s="183"/>
+      <c r="A73" s="181"/>
+      <c r="B73" s="181"/>
+      <c r="C73" s="181"/>
+      <c r="D73" s="181"/>
+      <c r="E73" s="181"/>
+      <c r="F73" s="181"/>
+      <c r="G73" s="181"/>
+      <c r="H73" s="181"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="183"/>
-      <c r="B74" s="183"/>
-      <c r="C74" s="183"/>
-      <c r="D74" s="183"/>
-      <c r="E74" s="183"/>
-      <c r="F74" s="183"/>
-      <c r="G74" s="183"/>
-      <c r="H74" s="183"/>
+      <c r="A74" s="181"/>
+      <c r="B74" s="181"/>
+      <c r="C74" s="181"/>
+      <c r="D74" s="181"/>
+      <c r="E74" s="181"/>
+      <c r="F74" s="181"/>
+      <c r="G74" s="181"/>
+      <c r="H74" s="181"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="183"/>
-      <c r="B75" s="183"/>
-      <c r="C75" s="183"/>
-      <c r="D75" s="183"/>
-      <c r="E75" s="183"/>
-      <c r="F75" s="183"/>
-      <c r="G75" s="183"/>
-      <c r="H75" s="183"/>
+      <c r="A75" s="181"/>
+      <c r="B75" s="181"/>
+      <c r="C75" s="181"/>
+      <c r="D75" s="181"/>
+      <c r="E75" s="181"/>
+      <c r="F75" s="181"/>
+      <c r="G75" s="181"/>
+      <c r="H75" s="181"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="183"/>
-      <c r="B76" s="183"/>
-      <c r="C76" s="183"/>
-      <c r="D76" s="183"/>
-      <c r="E76" s="183"/>
-      <c r="F76" s="183"/>
-      <c r="G76" s="183"/>
-      <c r="H76" s="183"/>
+      <c r="A76" s="181"/>
+      <c r="B76" s="181"/>
+      <c r="C76" s="181"/>
+      <c r="D76" s="181"/>
+      <c r="E76" s="181"/>
+      <c r="F76" s="181"/>
+      <c r="G76" s="181"/>
+      <c r="H76" s="181"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="183"/>
-      <c r="B77" s="183"/>
-      <c r="C77" s="183"/>
-      <c r="D77" s="183"/>
-      <c r="E77" s="183"/>
-      <c r="F77" s="183"/>
-      <c r="G77" s="183"/>
-      <c r="H77" s="183"/>
+      <c r="A77" s="181"/>
+      <c r="B77" s="181"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
+      <c r="E77" s="181"/>
+      <c r="F77" s="181"/>
+      <c r="G77" s="181"/>
+      <c r="H77" s="181"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="183"/>
-      <c r="B78" s="183"/>
-      <c r="C78" s="183"/>
-      <c r="D78" s="183"/>
-      <c r="E78" s="183"/>
-      <c r="F78" s="183"/>
-      <c r="G78" s="183"/>
-      <c r="H78" s="183"/>
+      <c r="A78" s="181"/>
+      <c r="B78" s="181"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="181"/>
+      <c r="E78" s="181"/>
+      <c r="F78" s="181"/>
+      <c r="G78" s="181"/>
+      <c r="H78" s="181"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="183"/>
-      <c r="B79" s="183"/>
-      <c r="C79" s="183"/>
-      <c r="D79" s="183"/>
-      <c r="E79" s="183"/>
-      <c r="F79" s="183"/>
-      <c r="G79" s="183"/>
-      <c r="H79" s="183"/>
+      <c r="A79" s="181"/>
+      <c r="B79" s="181"/>
+      <c r="C79" s="181"/>
+      <c r="D79" s="181"/>
+      <c r="E79" s="181"/>
+      <c r="F79" s="181"/>
+      <c r="G79" s="181"/>
+      <c r="H79" s="181"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="183"/>
-      <c r="B80" s="183"/>
-      <c r="C80" s="183"/>
-      <c r="D80" s="183"/>
-      <c r="E80" s="183"/>
-      <c r="F80" s="183"/>
-      <c r="G80" s="183"/>
-      <c r="H80" s="183"/>
+      <c r="A80" s="181"/>
+      <c r="B80" s="181"/>
+      <c r="C80" s="181"/>
+      <c r="D80" s="181"/>
+      <c r="E80" s="181"/>
+      <c r="F80" s="181"/>
+      <c r="G80" s="181"/>
+      <c r="H80" s="181"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="183"/>
-      <c r="B81" s="183"/>
-      <c r="C81" s="183"/>
-      <c r="D81" s="183"/>
-      <c r="E81" s="183"/>
-      <c r="F81" s="183"/>
-      <c r="G81" s="183"/>
-      <c r="H81" s="183"/>
+      <c r="A81" s="181"/>
+      <c r="B81" s="181"/>
+      <c r="C81" s="181"/>
+      <c r="D81" s="181"/>
+      <c r="E81" s="181"/>
+      <c r="F81" s="181"/>
+      <c r="G81" s="181"/>
+      <c r="H81" s="181"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="183"/>
-      <c r="B82" s="183"/>
-      <c r="C82" s="183"/>
-      <c r="D82" s="183"/>
-      <c r="E82" s="183"/>
-      <c r="F82" s="183"/>
-      <c r="G82" s="183"/>
-      <c r="H82" s="183"/>
+      <c r="A82" s="181"/>
+      <c r="B82" s="181"/>
+      <c r="C82" s="181"/>
+      <c r="D82" s="181"/>
+      <c r="E82" s="181"/>
+      <c r="F82" s="181"/>
+      <c r="G82" s="181"/>
+      <c r="H82" s="181"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="183"/>
-      <c r="B83" s="183"/>
-      <c r="C83" s="183"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="183"/>
-      <c r="F83" s="183"/>
-      <c r="G83" s="183"/>
-      <c r="H83" s="183"/>
+      <c r="A83" s="181"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
+      <c r="F83" s="181"/>
+      <c r="G83" s="181"/>
+      <c r="H83" s="181"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="183"/>
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="183"/>
-      <c r="F84" s="183"/>
-      <c r="G84" s="183"/>
-      <c r="H84" s="183"/>
+      <c r="A84" s="181"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
+      <c r="F84" s="181"/>
+      <c r="G84" s="181"/>
+      <c r="H84" s="181"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="183"/>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
-      <c r="F85" s="183"/>
-      <c r="G85" s="183"/>
-      <c r="H85" s="183"/>
+      <c r="A85" s="181"/>
+      <c r="B85" s="181"/>
+      <c r="C85" s="181"/>
+      <c r="D85" s="181"/>
+      <c r="E85" s="181"/>
+      <c r="F85" s="181"/>
+      <c r="G85" s="181"/>
+      <c r="H85" s="181"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="183"/>
-      <c r="B86" s="183"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="183"/>
-      <c r="E86" s="183"/>
-      <c r="F86" s="183"/>
-      <c r="G86" s="183"/>
-      <c r="H86" s="183"/>
+      <c r="A86" s="181"/>
+      <c r="B86" s="181"/>
+      <c r="C86" s="181"/>
+      <c r="D86" s="181"/>
+      <c r="E86" s="181"/>
+      <c r="F86" s="181"/>
+      <c r="G86" s="181"/>
+      <c r="H86" s="181"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="183"/>
-      <c r="B87" s="183"/>
-      <c r="C87" s="183"/>
-      <c r="D87" s="183"/>
-      <c r="E87" s="183"/>
-      <c r="F87" s="183"/>
-      <c r="G87" s="183"/>
-      <c r="H87" s="183"/>
+      <c r="A87" s="181"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
+      <c r="F87" s="181"/>
+      <c r="G87" s="181"/>
+      <c r="H87" s="181"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="183"/>
-      <c r="B88" s="183"/>
-      <c r="C88" s="183"/>
-      <c r="D88" s="183"/>
-      <c r="E88" s="183"/>
-      <c r="F88" s="183"/>
-      <c r="G88" s="183"/>
-      <c r="H88" s="183"/>
+      <c r="A88" s="181"/>
+      <c r="B88" s="181"/>
+      <c r="C88" s="181"/>
+      <c r="D88" s="181"/>
+      <c r="E88" s="181"/>
+      <c r="F88" s="181"/>
+      <c r="G88" s="181"/>
+      <c r="H88" s="181"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="183"/>
-      <c r="B89" s="183"/>
-      <c r="C89" s="183"/>
-      <c r="D89" s="183"/>
-      <c r="E89" s="183"/>
-      <c r="F89" s="183"/>
-      <c r="G89" s="183"/>
-      <c r="H89" s="183"/>
+      <c r="A89" s="181"/>
+      <c r="B89" s="181"/>
+      <c r="C89" s="181"/>
+      <c r="D89" s="181"/>
+      <c r="E89" s="181"/>
+      <c r="F89" s="181"/>
+      <c r="G89" s="181"/>
+      <c r="H89" s="181"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="183"/>
-      <c r="B90" s="183"/>
-      <c r="C90" s="183"/>
-      <c r="D90" s="183"/>
-      <c r="E90" s="183"/>
-      <c r="F90" s="183"/>
-      <c r="G90" s="183"/>
-      <c r="H90" s="183"/>
+      <c r="A90" s="181"/>
+      <c r="B90" s="181"/>
+      <c r="C90" s="181"/>
+      <c r="D90" s="181"/>
+      <c r="E90" s="181"/>
+      <c r="F90" s="181"/>
+      <c r="G90" s="181"/>
+      <c r="H90" s="181"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="183"/>
-      <c r="B91" s="183"/>
-      <c r="C91" s="183"/>
-      <c r="D91" s="183"/>
-      <c r="E91" s="183"/>
-      <c r="F91" s="183"/>
-      <c r="G91" s="183"/>
-      <c r="H91" s="183"/>
+      <c r="A91" s="181"/>
+      <c r="B91" s="181"/>
+      <c r="C91" s="181"/>
+      <c r="D91" s="181"/>
+      <c r="E91" s="181"/>
+      <c r="F91" s="181"/>
+      <c r="G91" s="181"/>
+      <c r="H91" s="181"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="183"/>
-      <c r="B92" s="183"/>
-      <c r="C92" s="183"/>
-      <c r="D92" s="183"/>
-      <c r="E92" s="183"/>
-      <c r="F92" s="183"/>
-      <c r="G92" s="183"/>
-      <c r="H92" s="183"/>
+      <c r="A92" s="181"/>
+      <c r="B92" s="181"/>
+      <c r="C92" s="181"/>
+      <c r="D92" s="181"/>
+      <c r="E92" s="181"/>
+      <c r="F92" s="181"/>
+      <c r="G92" s="181"/>
+      <c r="H92" s="181"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="183"/>
-      <c r="B93" s="183"/>
-      <c r="C93" s="183"/>
-      <c r="D93" s="183"/>
-      <c r="E93" s="183"/>
-      <c r="F93" s="183"/>
-      <c r="G93" s="183"/>
-      <c r="H93" s="183"/>
+      <c r="A93" s="181"/>
+      <c r="B93" s="181"/>
+      <c r="C93" s="181"/>
+      <c r="D93" s="181"/>
+      <c r="E93" s="181"/>
+      <c r="F93" s="181"/>
+      <c r="G93" s="181"/>
+      <c r="H93" s="181"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="183"/>
-      <c r="B94" s="183"/>
-      <c r="C94" s="183"/>
-      <c r="D94" s="183"/>
-      <c r="E94" s="183"/>
-      <c r="F94" s="183"/>
-      <c r="G94" s="183"/>
-      <c r="H94" s="183"/>
+      <c r="A94" s="181"/>
+      <c r="B94" s="181"/>
+      <c r="C94" s="181"/>
+      <c r="D94" s="181"/>
+      <c r="E94" s="181"/>
+      <c r="F94" s="181"/>
+      <c r="G94" s="181"/>
+      <c r="H94" s="181"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="183"/>
-      <c r="B95" s="183"/>
-      <c r="C95" s="183"/>
-      <c r="D95" s="183"/>
-      <c r="E95" s="183"/>
-      <c r="F95" s="183"/>
-      <c r="G95" s="183"/>
-      <c r="H95" s="183"/>
+      <c r="A95" s="181"/>
+      <c r="B95" s="181"/>
+      <c r="C95" s="181"/>
+      <c r="D95" s="181"/>
+      <c r="E95" s="181"/>
+      <c r="F95" s="181"/>
+      <c r="G95" s="181"/>
+      <c r="H95" s="181"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="183"/>
-      <c r="B96" s="183"/>
-      <c r="C96" s="183"/>
-      <c r="D96" s="183"/>
-      <c r="E96" s="183"/>
-      <c r="F96" s="183"/>
-      <c r="G96" s="183"/>
-      <c r="H96" s="183"/>
+      <c r="A96" s="181"/>
+      <c r="B96" s="181"/>
+      <c r="C96" s="181"/>
+      <c r="D96" s="181"/>
+      <c r="E96" s="181"/>
+      <c r="F96" s="181"/>
+      <c r="G96" s="181"/>
+      <c r="H96" s="181"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="183"/>
-      <c r="B97" s="183"/>
-      <c r="C97" s="183"/>
-      <c r="D97" s="183"/>
-      <c r="E97" s="183"/>
-      <c r="F97" s="183"/>
-      <c r="G97" s="183"/>
-      <c r="H97" s="183"/>
+      <c r="A97" s="181"/>
+      <c r="B97" s="181"/>
+      <c r="C97" s="181"/>
+      <c r="D97" s="181"/>
+      <c r="E97" s="181"/>
+      <c r="F97" s="181"/>
+      <c r="G97" s="181"/>
+      <c r="H97" s="181"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="183"/>
-      <c r="B98" s="183"/>
-      <c r="C98" s="183"/>
-      <c r="D98" s="183"/>
-      <c r="E98" s="183"/>
-      <c r="F98" s="183"/>
-      <c r="G98" s="183"/>
-      <c r="H98" s="183"/>
+      <c r="A98" s="181"/>
+      <c r="B98" s="181"/>
+      <c r="C98" s="181"/>
+      <c r="D98" s="181"/>
+      <c r="E98" s="181"/>
+      <c r="F98" s="181"/>
+      <c r="G98" s="181"/>
+      <c r="H98" s="181"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="183"/>
-      <c r="B99" s="183"/>
-      <c r="C99" s="183"/>
-      <c r="D99" s="183"/>
-      <c r="E99" s="183"/>
-      <c r="F99" s="183"/>
-      <c r="G99" s="183"/>
-      <c r="H99" s="183"/>
+      <c r="A99" s="181"/>
+      <c r="B99" s="181"/>
+      <c r="C99" s="181"/>
+      <c r="D99" s="181"/>
+      <c r="E99" s="181"/>
+      <c r="F99" s="181"/>
+      <c r="G99" s="181"/>
+      <c r="H99" s="181"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="183"/>
-      <c r="B100" s="183"/>
-      <c r="C100" s="183"/>
-      <c r="D100" s="183"/>
-      <c r="E100" s="183"/>
-      <c r="F100" s="183"/>
-      <c r="G100" s="183"/>
-      <c r="H100" s="183"/>
+      <c r="A100" s="181"/>
+      <c r="B100" s="181"/>
+      <c r="C100" s="181"/>
+      <c r="D100" s="181"/>
+      <c r="E100" s="181"/>
+      <c r="F100" s="181"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="181"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="183"/>
-      <c r="B101" s="183"/>
-      <c r="C101" s="183"/>
-      <c r="D101" s="183"/>
-      <c r="E101" s="183"/>
-      <c r="F101" s="183"/>
-      <c r="G101" s="183"/>
-      <c r="H101" s="183"/>
+      <c r="A101" s="181"/>
+      <c r="B101" s="181"/>
+      <c r="C101" s="181"/>
+      <c r="D101" s="181"/>
+      <c r="E101" s="181"/>
+      <c r="F101" s="181"/>
+      <c r="G101" s="181"/>
+      <c r="H101" s="181"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="183"/>
-      <c r="B102" s="183"/>
-      <c r="C102" s="183"/>
-      <c r="D102" s="183"/>
-      <c r="E102" s="183"/>
-      <c r="F102" s="183"/>
-      <c r="G102" s="183"/>
-      <c r="H102" s="183"/>
+      <c r="A102" s="181"/>
+      <c r="B102" s="181"/>
+      <c r="C102" s="181"/>
+      <c r="D102" s="181"/>
+      <c r="E102" s="181"/>
+      <c r="F102" s="181"/>
+      <c r="G102" s="181"/>
+      <c r="H102" s="181"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="183"/>
-      <c r="B103" s="183"/>
-      <c r="C103" s="183"/>
-      <c r="D103" s="183"/>
-      <c r="E103" s="183"/>
-      <c r="F103" s="183"/>
-      <c r="G103" s="183"/>
-      <c r="H103" s="183"/>
+      <c r="A103" s="181"/>
+      <c r="B103" s="181"/>
+      <c r="C103" s="181"/>
+      <c r="D103" s="181"/>
+      <c r="E103" s="181"/>
+      <c r="F103" s="181"/>
+      <c r="G103" s="181"/>
+      <c r="H103" s="181"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="183"/>
-      <c r="B104" s="183"/>
-      <c r="C104" s="183"/>
-      <c r="D104" s="183"/>
-      <c r="E104" s="183"/>
-      <c r="F104" s="183"/>
-      <c r="G104" s="183"/>
-      <c r="H104" s="183"/>
+      <c r="A104" s="181"/>
+      <c r="B104" s="181"/>
+      <c r="C104" s="181"/>
+      <c r="D104" s="181"/>
+      <c r="E104" s="181"/>
+      <c r="F104" s="181"/>
+      <c r="G104" s="181"/>
+      <c r="H104" s="181"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="183"/>
-      <c r="B105" s="183"/>
-      <c r="C105" s="183"/>
-      <c r="D105" s="183"/>
-      <c r="E105" s="183"/>
-      <c r="F105" s="183"/>
-      <c r="G105" s="183"/>
-      <c r="H105" s="183"/>
+      <c r="A105" s="181"/>
+      <c r="B105" s="181"/>
+      <c r="C105" s="181"/>
+      <c r="D105" s="181"/>
+      <c r="E105" s="181"/>
+      <c r="F105" s="181"/>
+      <c r="G105" s="181"/>
+      <c r="H105" s="181"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="183"/>
-      <c r="B106" s="183"/>
-      <c r="C106" s="183"/>
-      <c r="D106" s="183"/>
-      <c r="E106" s="183"/>
-      <c r="F106" s="183"/>
-      <c r="G106" s="183"/>
-      <c r="H106" s="183"/>
+      <c r="A106" s="181"/>
+      <c r="B106" s="181"/>
+      <c r="C106" s="181"/>
+      <c r="D106" s="181"/>
+      <c r="E106" s="181"/>
+      <c r="F106" s="181"/>
+      <c r="G106" s="181"/>
+      <c r="H106" s="181"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="183"/>
-      <c r="B107" s="183"/>
-      <c r="C107" s="183"/>
-      <c r="D107" s="183"/>
-      <c r="E107" s="183"/>
-      <c r="F107" s="183"/>
-      <c r="G107" s="183"/>
-      <c r="H107" s="183"/>
+      <c r="A107" s="181"/>
+      <c r="B107" s="181"/>
+      <c r="C107" s="181"/>
+      <c r="D107" s="181"/>
+      <c r="E107" s="181"/>
+      <c r="F107" s="181"/>
+      <c r="G107" s="181"/>
+      <c r="H107" s="181"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="183"/>
-      <c r="B108" s="183"/>
-      <c r="C108" s="183"/>
-      <c r="D108" s="183"/>
-      <c r="E108" s="183"/>
-      <c r="F108" s="183"/>
-      <c r="G108" s="183"/>
-      <c r="H108" s="183"/>
+      <c r="A108" s="181"/>
+      <c r="B108" s="181"/>
+      <c r="C108" s="181"/>
+      <c r="D108" s="181"/>
+      <c r="E108" s="181"/>
+      <c r="F108" s="181"/>
+      <c r="G108" s="181"/>
+      <c r="H108" s="181"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="183"/>
-      <c r="B109" s="183"/>
-      <c r="C109" s="183"/>
-      <c r="D109" s="183"/>
-      <c r="E109" s="183"/>
-      <c r="F109" s="183"/>
-      <c r="G109" s="183"/>
-      <c r="H109" s="183"/>
+      <c r="A109" s="181"/>
+      <c r="B109" s="181"/>
+      <c r="C109" s="181"/>
+      <c r="D109" s="181"/>
+      <c r="E109" s="181"/>
+      <c r="F109" s="181"/>
+      <c r="G109" s="181"/>
+      <c r="H109" s="181"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="183"/>
-      <c r="B110" s="183"/>
-      <c r="C110" s="183"/>
-      <c r="D110" s="183"/>
-      <c r="E110" s="183"/>
-      <c r="F110" s="183"/>
-      <c r="G110" s="183"/>
-      <c r="H110" s="183"/>
+      <c r="A110" s="181"/>
+      <c r="B110" s="181"/>
+      <c r="C110" s="181"/>
+      <c r="D110" s="181"/>
+      <c r="E110" s="181"/>
+      <c r="F110" s="181"/>
+      <c r="G110" s="181"/>
+      <c r="H110" s="181"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="183"/>
-      <c r="B111" s="183"/>
-      <c r="C111" s="183"/>
-      <c r="D111" s="183"/>
-      <c r="E111" s="183"/>
-      <c r="F111" s="183"/>
-      <c r="G111" s="183"/>
-      <c r="H111" s="183"/>
+      <c r="A111" s="181"/>
+      <c r="B111" s="181"/>
+      <c r="C111" s="181"/>
+      <c r="D111" s="181"/>
+      <c r="E111" s="181"/>
+      <c r="F111" s="181"/>
+      <c r="G111" s="181"/>
+      <c r="H111" s="181"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="183"/>
-      <c r="B112" s="183"/>
-      <c r="C112" s="183"/>
-      <c r="D112" s="183"/>
-      <c r="E112" s="183"/>
-      <c r="F112" s="183"/>
-      <c r="G112" s="183"/>
-      <c r="H112" s="183"/>
+      <c r="A112" s="181"/>
+      <c r="B112" s="181"/>
+      <c r="C112" s="181"/>
+      <c r="D112" s="181"/>
+      <c r="E112" s="181"/>
+      <c r="F112" s="181"/>
+      <c r="G112" s="181"/>
+      <c r="H112" s="181"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="183"/>
-      <c r="B113" s="183"/>
-      <c r="C113" s="183"/>
-      <c r="D113" s="183"/>
-      <c r="E113" s="183"/>
-      <c r="F113" s="183"/>
-      <c r="G113" s="183"/>
-      <c r="H113" s="183"/>
+      <c r="A113" s="181"/>
+      <c r="B113" s="181"/>
+      <c r="C113" s="181"/>
+      <c r="D113" s="181"/>
+      <c r="E113" s="181"/>
+      <c r="F113" s="181"/>
+      <c r="G113" s="181"/>
+      <c r="H113" s="181"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="183"/>
-      <c r="B114" s="183"/>
-      <c r="C114" s="183"/>
-      <c r="D114" s="183"/>
-      <c r="E114" s="183"/>
-      <c r="F114" s="183"/>
-      <c r="G114" s="183"/>
-      <c r="H114" s="183"/>
+      <c r="A114" s="181"/>
+      <c r="B114" s="181"/>
+      <c r="C114" s="181"/>
+      <c r="D114" s="181"/>
+      <c r="E114" s="181"/>
+      <c r="F114" s="181"/>
+      <c r="G114" s="181"/>
+      <c r="H114" s="181"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="183"/>
-      <c r="B115" s="183"/>
-      <c r="C115" s="183"/>
-      <c r="D115" s="183"/>
-      <c r="E115" s="183"/>
-      <c r="F115" s="183"/>
-      <c r="G115" s="183"/>
-      <c r="H115" s="183"/>
+      <c r="A115" s="181"/>
+      <c r="B115" s="181"/>
+      <c r="C115" s="181"/>
+      <c r="D115" s="181"/>
+      <c r="E115" s="181"/>
+      <c r="F115" s="181"/>
+      <c r="G115" s="181"/>
+      <c r="H115" s="181"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="183"/>
-      <c r="B116" s="183"/>
-      <c r="C116" s="183"/>
-      <c r="D116" s="183"/>
-      <c r="E116" s="183"/>
-      <c r="F116" s="183"/>
-      <c r="G116" s="183"/>
-      <c r="H116" s="183"/>
+      <c r="A116" s="181"/>
+      <c r="B116" s="181"/>
+      <c r="C116" s="181"/>
+      <c r="D116" s="181"/>
+      <c r="E116" s="181"/>
+      <c r="F116" s="181"/>
+      <c r="G116" s="181"/>
+      <c r="H116" s="181"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="183"/>
-      <c r="B117" s="183"/>
-      <c r="C117" s="183"/>
-      <c r="D117" s="183"/>
-      <c r="E117" s="183"/>
-      <c r="F117" s="183"/>
-      <c r="G117" s="183"/>
-      <c r="H117" s="183"/>
+      <c r="A117" s="181"/>
+      <c r="B117" s="181"/>
+      <c r="C117" s="181"/>
+      <c r="D117" s="181"/>
+      <c r="E117" s="181"/>
+      <c r="F117" s="181"/>
+      <c r="G117" s="181"/>
+      <c r="H117" s="181"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="183"/>
-      <c r="B118" s="183"/>
-      <c r="C118" s="183"/>
-      <c r="D118" s="183"/>
-      <c r="E118" s="183"/>
-      <c r="F118" s="183"/>
-      <c r="G118" s="183"/>
-      <c r="H118" s="183"/>
+      <c r="A118" s="181"/>
+      <c r="B118" s="181"/>
+      <c r="C118" s="181"/>
+      <c r="D118" s="181"/>
+      <c r="E118" s="181"/>
+      <c r="F118" s="181"/>
+      <c r="G118" s="181"/>
+      <c r="H118" s="181"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="183"/>
-      <c r="B119" s="183"/>
-      <c r="C119" s="183"/>
-      <c r="D119" s="183"/>
-      <c r="E119" s="183"/>
-      <c r="F119" s="183"/>
-      <c r="G119" s="183"/>
-      <c r="H119" s="183"/>
+      <c r="A119" s="181"/>
+      <c r="B119" s="181"/>
+      <c r="C119" s="181"/>
+      <c r="D119" s="181"/>
+      <c r="E119" s="181"/>
+      <c r="F119" s="181"/>
+      <c r="G119" s="181"/>
+      <c r="H119" s="181"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="183"/>
-      <c r="B120" s="183"/>
-      <c r="C120" s="183"/>
-      <c r="D120" s="183"/>
-      <c r="E120" s="183"/>
-      <c r="F120" s="183"/>
-      <c r="G120" s="183"/>
-      <c r="H120" s="183"/>
+      <c r="A120" s="181"/>
+      <c r="B120" s="181"/>
+      <c r="C120" s="181"/>
+      <c r="D120" s="181"/>
+      <c r="E120" s="181"/>
+      <c r="F120" s="181"/>
+      <c r="G120" s="181"/>
+      <c r="H120" s="181"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="183"/>
-      <c r="B121" s="183"/>
-      <c r="C121" s="183"/>
-      <c r="D121" s="183"/>
-      <c r="E121" s="183"/>
-      <c r="F121" s="183"/>
-      <c r="G121" s="183"/>
-      <c r="H121" s="183"/>
+      <c r="A121" s="181"/>
+      <c r="B121" s="181"/>
+      <c r="C121" s="181"/>
+      <c r="D121" s="181"/>
+      <c r="E121" s="181"/>
+      <c r="F121" s="181"/>
+      <c r="G121" s="181"/>
+      <c r="H121" s="181"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="183"/>
-      <c r="B122" s="183"/>
-      <c r="C122" s="183"/>
-      <c r="D122" s="183"/>
-      <c r="E122" s="183"/>
-      <c r="F122" s="183"/>
-      <c r="G122" s="183"/>
-      <c r="H122" s="183"/>
+      <c r="A122" s="181"/>
+      <c r="B122" s="181"/>
+      <c r="C122" s="181"/>
+      <c r="D122" s="181"/>
+      <c r="E122" s="181"/>
+      <c r="F122" s="181"/>
+      <c r="G122" s="181"/>
+      <c r="H122" s="181"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="183"/>
-      <c r="B123" s="183"/>
-      <c r="C123" s="183"/>
-      <c r="D123" s="183"/>
-      <c r="E123" s="183"/>
-      <c r="F123" s="183"/>
-      <c r="G123" s="183"/>
-      <c r="H123" s="183"/>
+      <c r="A123" s="181"/>
+      <c r="B123" s="181"/>
+      <c r="C123" s="181"/>
+      <c r="D123" s="181"/>
+      <c r="E123" s="181"/>
+      <c r="F123" s="181"/>
+      <c r="G123" s="181"/>
+      <c r="H123" s="181"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="183"/>
-      <c r="B124" s="183"/>
-      <c r="C124" s="183"/>
-      <c r="D124" s="183"/>
-      <c r="E124" s="183"/>
-      <c r="F124" s="183"/>
-      <c r="G124" s="183"/>
-      <c r="H124" s="183"/>
+      <c r="A124" s="181"/>
+      <c r="B124" s="181"/>
+      <c r="C124" s="181"/>
+      <c r="D124" s="181"/>
+      <c r="E124" s="181"/>
+      <c r="F124" s="181"/>
+      <c r="G124" s="181"/>
+      <c r="H124" s="181"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="183"/>
-      <c r="B125" s="183"/>
-      <c r="C125" s="183"/>
-      <c r="D125" s="183"/>
-      <c r="E125" s="183"/>
-      <c r="F125" s="183"/>
-      <c r="G125" s="183"/>
-      <c r="H125" s="183"/>
+      <c r="A125" s="181"/>
+      <c r="B125" s="181"/>
+      <c r="C125" s="181"/>
+      <c r="D125" s="181"/>
+      <c r="E125" s="181"/>
+      <c r="F125" s="181"/>
+      <c r="G125" s="181"/>
+      <c r="H125" s="181"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="183"/>
-      <c r="B126" s="183"/>
-      <c r="C126" s="183"/>
-      <c r="D126" s="183"/>
-      <c r="E126" s="183"/>
-      <c r="F126" s="183"/>
-      <c r="G126" s="183"/>
-      <c r="H126" s="183"/>
+      <c r="A126" s="181"/>
+      <c r="B126" s="181"/>
+      <c r="C126" s="181"/>
+      <c r="D126" s="181"/>
+      <c r="E126" s="181"/>
+      <c r="F126" s="181"/>
+      <c r="G126" s="181"/>
+      <c r="H126" s="181"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="183"/>
-      <c r="B127" s="183"/>
-      <c r="C127" s="183"/>
-      <c r="D127" s="183"/>
-      <c r="E127" s="183"/>
-      <c r="F127" s="183"/>
-      <c r="G127" s="183"/>
-      <c r="H127" s="183"/>
+      <c r="A127" s="181"/>
+      <c r="B127" s="181"/>
+      <c r="C127" s="181"/>
+      <c r="D127" s="181"/>
+      <c r="E127" s="181"/>
+      <c r="F127" s="181"/>
+      <c r="G127" s="181"/>
+      <c r="H127" s="181"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="183"/>
-      <c r="B128" s="183"/>
-      <c r="C128" s="183"/>
-      <c r="D128" s="183"/>
-      <c r="E128" s="183"/>
-      <c r="F128" s="183"/>
-      <c r="G128" s="183"/>
-      <c r="H128" s="183"/>
+      <c r="A128" s="181"/>
+      <c r="B128" s="181"/>
+      <c r="C128" s="181"/>
+      <c r="D128" s="181"/>
+      <c r="E128" s="181"/>
+      <c r="F128" s="181"/>
+      <c r="G128" s="181"/>
+      <c r="H128" s="181"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="183"/>
-      <c r="B129" s="183"/>
-      <c r="C129" s="183"/>
-      <c r="D129" s="183"/>
-      <c r="E129" s="183"/>
-      <c r="F129" s="183"/>
-      <c r="G129" s="183"/>
-      <c r="H129" s="183"/>
+      <c r="A129" s="181"/>
+      <c r="B129" s="181"/>
+      <c r="C129" s="181"/>
+      <c r="D129" s="181"/>
+      <c r="E129" s="181"/>
+      <c r="F129" s="181"/>
+      <c r="G129" s="181"/>
+      <c r="H129" s="181"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="183"/>
-      <c r="B130" s="183"/>
-      <c r="C130" s="183"/>
-      <c r="D130" s="183"/>
-      <c r="E130" s="183"/>
-      <c r="F130" s="183"/>
-      <c r="G130" s="183"/>
-      <c r="H130" s="183"/>
+      <c r="A130" s="181"/>
+      <c r="B130" s="181"/>
+      <c r="C130" s="181"/>
+      <c r="D130" s="181"/>
+      <c r="E130" s="181"/>
+      <c r="F130" s="181"/>
+      <c r="G130" s="181"/>
+      <c r="H130" s="181"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="183"/>
-      <c r="B131" s="183"/>
-      <c r="C131" s="183"/>
-      <c r="D131" s="183"/>
-      <c r="E131" s="183"/>
-      <c r="F131" s="183"/>
-      <c r="G131" s="183"/>
-      <c r="H131" s="183"/>
+      <c r="A131" s="181"/>
+      <c r="B131" s="181"/>
+      <c r="C131" s="181"/>
+      <c r="D131" s="181"/>
+      <c r="E131" s="181"/>
+      <c r="F131" s="181"/>
+      <c r="G131" s="181"/>
+      <c r="H131" s="181"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="183"/>
-      <c r="B132" s="183"/>
-      <c r="C132" s="183"/>
-      <c r="D132" s="183"/>
-      <c r="E132" s="183"/>
-      <c r="F132" s="183"/>
-      <c r="G132" s="183"/>
-      <c r="H132" s="183"/>
+      <c r="A132" s="181"/>
+      <c r="B132" s="181"/>
+      <c r="C132" s="181"/>
+      <c r="D132" s="181"/>
+      <c r="E132" s="181"/>
+      <c r="F132" s="181"/>
+      <c r="G132" s="181"/>
+      <c r="H132" s="181"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="183"/>
-      <c r="B133" s="183"/>
-      <c r="C133" s="183"/>
-      <c r="D133" s="183"/>
-      <c r="E133" s="183"/>
-      <c r="F133" s="183"/>
-      <c r="G133" s="183"/>
-      <c r="H133" s="183"/>
+      <c r="A133" s="181"/>
+      <c r="B133" s="181"/>
+      <c r="C133" s="181"/>
+      <c r="D133" s="181"/>
+      <c r="E133" s="181"/>
+      <c r="F133" s="181"/>
+      <c r="G133" s="181"/>
+      <c r="H133" s="181"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="183"/>
-      <c r="B134" s="183"/>
-      <c r="C134" s="183"/>
-      <c r="D134" s="183"/>
-      <c r="E134" s="183"/>
-      <c r="F134" s="183"/>
-      <c r="G134" s="183"/>
-      <c r="H134" s="183"/>
+      <c r="A134" s="181"/>
+      <c r="B134" s="181"/>
+      <c r="C134" s="181"/>
+      <c r="D134" s="181"/>
+      <c r="E134" s="181"/>
+      <c r="F134" s="181"/>
+      <c r="G134" s="181"/>
+      <c r="H134" s="181"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="183"/>
-      <c r="B135" s="183"/>
-      <c r="C135" s="183"/>
-      <c r="D135" s="183"/>
-      <c r="E135" s="183"/>
-      <c r="F135" s="183"/>
-      <c r="G135" s="183"/>
-      <c r="H135" s="183"/>
+      <c r="A135" s="181"/>
+      <c r="B135" s="181"/>
+      <c r="C135" s="181"/>
+      <c r="D135" s="181"/>
+      <c r="E135" s="181"/>
+      <c r="F135" s="181"/>
+      <c r="G135" s="181"/>
+      <c r="H135" s="181"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="183"/>
-      <c r="B136" s="183"/>
-      <c r="C136" s="183"/>
-      <c r="D136" s="183"/>
-      <c r="E136" s="183"/>
-      <c r="F136" s="183"/>
-      <c r="G136" s="183"/>
-      <c r="H136" s="183"/>
+      <c r="A136" s="181"/>
+      <c r="B136" s="181"/>
+      <c r="C136" s="181"/>
+      <c r="D136" s="181"/>
+      <c r="E136" s="181"/>
+      <c r="F136" s="181"/>
+      <c r="G136" s="181"/>
+      <c r="H136" s="181"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="183"/>
-      <c r="B137" s="183"/>
-      <c r="C137" s="183"/>
-      <c r="D137" s="183"/>
-      <c r="E137" s="183"/>
-      <c r="F137" s="183"/>
-      <c r="G137" s="183"/>
-      <c r="H137" s="183"/>
+      <c r="A137" s="181"/>
+      <c r="B137" s="181"/>
+      <c r="C137" s="181"/>
+      <c r="D137" s="181"/>
+      <c r="E137" s="181"/>
+      <c r="F137" s="181"/>
+      <c r="G137" s="181"/>
+      <c r="H137" s="181"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="183"/>
-      <c r="B138" s="183"/>
-      <c r="C138" s="183"/>
-      <c r="D138" s="183"/>
-      <c r="E138" s="183"/>
-      <c r="F138" s="183"/>
-      <c r="G138" s="183"/>
-      <c r="H138" s="183"/>
+      <c r="A138" s="181"/>
+      <c r="B138" s="181"/>
+      <c r="C138" s="181"/>
+      <c r="D138" s="181"/>
+      <c r="E138" s="181"/>
+      <c r="F138" s="181"/>
+      <c r="G138" s="181"/>
+      <c r="H138" s="181"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="183"/>
-      <c r="B139" s="183"/>
-      <c r="C139" s="183"/>
-      <c r="D139" s="183"/>
-      <c r="E139" s="183"/>
-      <c r="F139" s="183"/>
-      <c r="G139" s="183"/>
-      <c r="H139" s="183"/>
+      <c r="A139" s="181"/>
+      <c r="B139" s="181"/>
+      <c r="C139" s="181"/>
+      <c r="D139" s="181"/>
+      <c r="E139" s="181"/>
+      <c r="F139" s="181"/>
+      <c r="G139" s="181"/>
+      <c r="H139" s="181"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="183"/>
-      <c r="B140" s="183"/>
-      <c r="C140" s="183"/>
-      <c r="D140" s="183"/>
-      <c r="E140" s="183"/>
-      <c r="F140" s="183"/>
-      <c r="G140" s="183"/>
-      <c r="H140" s="183"/>
+      <c r="A140" s="181"/>
+      <c r="B140" s="181"/>
+      <c r="C140" s="181"/>
+      <c r="D140" s="181"/>
+      <c r="E140" s="181"/>
+      <c r="F140" s="181"/>
+      <c r="G140" s="181"/>
+      <c r="H140" s="181"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="183"/>
-      <c r="B141" s="183"/>
-      <c r="C141" s="183"/>
-      <c r="D141" s="183"/>
-      <c r="E141" s="183"/>
-      <c r="F141" s="183"/>
-      <c r="G141" s="183"/>
-      <c r="H141" s="183"/>
+      <c r="A141" s="181"/>
+      <c r="B141" s="181"/>
+      <c r="C141" s="181"/>
+      <c r="D141" s="181"/>
+      <c r="E141" s="181"/>
+      <c r="F141" s="181"/>
+      <c r="G141" s="181"/>
+      <c r="H141" s="181"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="183"/>
-      <c r="B142" s="183"/>
-      <c r="C142" s="183"/>
-      <c r="D142" s="183"/>
-      <c r="E142" s="183"/>
-      <c r="F142" s="183"/>
-      <c r="G142" s="183"/>
-      <c r="H142" s="183"/>
+      <c r="A142" s="181"/>
+      <c r="B142" s="181"/>
+      <c r="C142" s="181"/>
+      <c r="D142" s="181"/>
+      <c r="E142" s="181"/>
+      <c r="F142" s="181"/>
+      <c r="G142" s="181"/>
+      <c r="H142" s="181"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="183"/>
-      <c r="B143" s="183"/>
-      <c r="C143" s="183"/>
-      <c r="D143" s="183"/>
-      <c r="E143" s="183"/>
-      <c r="F143" s="183"/>
-      <c r="G143" s="183"/>
-      <c r="H143" s="183"/>
+      <c r="A143" s="181"/>
+      <c r="B143" s="181"/>
+      <c r="C143" s="181"/>
+      <c r="D143" s="181"/>
+      <c r="E143" s="181"/>
+      <c r="F143" s="181"/>
+      <c r="G143" s="181"/>
+      <c r="H143" s="181"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="183"/>
-      <c r="B144" s="183"/>
-      <c r="C144" s="183"/>
-      <c r="D144" s="183"/>
-      <c r="E144" s="183"/>
-      <c r="F144" s="183"/>
-      <c r="G144" s="183"/>
-      <c r="H144" s="183"/>
+      <c r="A144" s="181"/>
+      <c r="B144" s="181"/>
+      <c r="C144" s="181"/>
+      <c r="D144" s="181"/>
+      <c r="E144" s="181"/>
+      <c r="F144" s="181"/>
+      <c r="G144" s="181"/>
+      <c r="H144" s="181"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="183"/>
-      <c r="B145" s="183"/>
-      <c r="C145" s="183"/>
-      <c r="D145" s="183"/>
-      <c r="E145" s="183"/>
-      <c r="F145" s="183"/>
-      <c r="G145" s="183"/>
-      <c r="H145" s="183"/>
+      <c r="A145" s="181"/>
+      <c r="B145" s="181"/>
+      <c r="C145" s="181"/>
+      <c r="D145" s="181"/>
+      <c r="E145" s="181"/>
+      <c r="F145" s="181"/>
+      <c r="G145" s="181"/>
+      <c r="H145" s="181"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="183"/>
-      <c r="B146" s="183"/>
-      <c r="C146" s="183"/>
-      <c r="D146" s="183"/>
-      <c r="E146" s="183"/>
-      <c r="F146" s="183"/>
-      <c r="G146" s="183"/>
-      <c r="H146" s="183"/>
+      <c r="A146" s="181"/>
+      <c r="B146" s="181"/>
+      <c r="C146" s="181"/>
+      <c r="D146" s="181"/>
+      <c r="E146" s="181"/>
+      <c r="F146" s="181"/>
+      <c r="G146" s="181"/>
+      <c r="H146" s="181"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="183"/>
-      <c r="B147" s="183"/>
-      <c r="C147" s="183"/>
-      <c r="D147" s="183"/>
-      <c r="E147" s="183"/>
-      <c r="F147" s="183"/>
-      <c r="G147" s="183"/>
-      <c r="H147" s="183"/>
+      <c r="A147" s="181"/>
+      <c r="B147" s="181"/>
+      <c r="C147" s="181"/>
+      <c r="D147" s="181"/>
+      <c r="E147" s="181"/>
+      <c r="F147" s="181"/>
+      <c r="G147" s="181"/>
+      <c r="H147" s="181"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="183"/>
-      <c r="B148" s="183"/>
-      <c r="C148" s="183"/>
-      <c r="D148" s="183"/>
-      <c r="E148" s="183"/>
-      <c r="F148" s="183"/>
-      <c r="G148" s="183"/>
-      <c r="H148" s="183"/>
+      <c r="A148" s="181"/>
+      <c r="B148" s="181"/>
+      <c r="C148" s="181"/>
+      <c r="D148" s="181"/>
+      <c r="E148" s="181"/>
+      <c r="F148" s="181"/>
+      <c r="G148" s="181"/>
+      <c r="H148" s="181"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="183"/>
-      <c r="B149" s="183"/>
-      <c r="C149" s="183"/>
-      <c r="D149" s="183"/>
-      <c r="E149" s="183"/>
-      <c r="F149" s="183"/>
-      <c r="G149" s="183"/>
-      <c r="H149" s="183"/>
+      <c r="A149" s="181"/>
+      <c r="B149" s="181"/>
+      <c r="C149" s="181"/>
+      <c r="D149" s="181"/>
+      <c r="E149" s="181"/>
+      <c r="F149" s="181"/>
+      <c r="G149" s="181"/>
+      <c r="H149" s="181"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="183"/>
-      <c r="B150" s="183"/>
-      <c r="C150" s="183"/>
-      <c r="D150" s="183"/>
-      <c r="E150" s="183"/>
-      <c r="F150" s="183"/>
-      <c r="G150" s="183"/>
-      <c r="H150" s="183"/>
+      <c r="A150" s="181"/>
+      <c r="B150" s="181"/>
+      <c r="C150" s="181"/>
+      <c r="D150" s="181"/>
+      <c r="E150" s="181"/>
+      <c r="F150" s="181"/>
+      <c r="G150" s="181"/>
+      <c r="H150" s="181"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="183"/>
-      <c r="B151" s="183"/>
-      <c r="C151" s="183"/>
-      <c r="D151" s="183"/>
-      <c r="E151" s="183"/>
-      <c r="F151" s="183"/>
-      <c r="G151" s="183"/>
-      <c r="H151" s="183"/>
+      <c r="A151" s="181"/>
+      <c r="B151" s="181"/>
+      <c r="C151" s="181"/>
+      <c r="D151" s="181"/>
+      <c r="E151" s="181"/>
+      <c r="F151" s="181"/>
+      <c r="G151" s="181"/>
+      <c r="H151" s="181"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="183"/>
-      <c r="B152" s="183"/>
-      <c r="C152" s="183"/>
-      <c r="D152" s="183"/>
-      <c r="E152" s="183"/>
-      <c r="F152" s="183"/>
-      <c r="G152" s="183"/>
-      <c r="H152" s="183"/>
+      <c r="A152" s="181"/>
+      <c r="B152" s="181"/>
+      <c r="C152" s="181"/>
+      <c r="D152" s="181"/>
+      <c r="E152" s="181"/>
+      <c r="F152" s="181"/>
+      <c r="G152" s="181"/>
+      <c r="H152" s="181"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="183"/>
-      <c r="B153" s="183"/>
-      <c r="C153" s="183"/>
-      <c r="D153" s="183"/>
-      <c r="E153" s="183"/>
-      <c r="F153" s="183"/>
-      <c r="G153" s="183"/>
-      <c r="H153" s="183"/>
+      <c r="A153" s="181"/>
+      <c r="B153" s="181"/>
+      <c r="C153" s="181"/>
+      <c r="D153" s="181"/>
+      <c r="E153" s="181"/>
+      <c r="F153" s="181"/>
+      <c r="G153" s="181"/>
+      <c r="H153" s="181"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="183"/>
-      <c r="B154" s="183"/>
-      <c r="C154" s="183"/>
-      <c r="D154" s="183"/>
-      <c r="E154" s="183"/>
-      <c r="F154" s="183"/>
-      <c r="G154" s="183"/>
-      <c r="H154" s="183"/>
+      <c r="A154" s="181"/>
+      <c r="B154" s="181"/>
+      <c r="C154" s="181"/>
+      <c r="D154" s="181"/>
+      <c r="E154" s="181"/>
+      <c r="F154" s="181"/>
+      <c r="G154" s="181"/>
+      <c r="H154" s="181"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="183"/>
-      <c r="B155" s="183"/>
-      <c r="C155" s="183"/>
-      <c r="D155" s="183"/>
-      <c r="E155" s="183"/>
-      <c r="F155" s="183"/>
-      <c r="G155" s="183"/>
-      <c r="H155" s="183"/>
+      <c r="A155" s="181"/>
+      <c r="B155" s="181"/>
+      <c r="C155" s="181"/>
+      <c r="D155" s="181"/>
+      <c r="E155" s="181"/>
+      <c r="F155" s="181"/>
+      <c r="G155" s="181"/>
+      <c r="H155" s="181"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="183"/>
-      <c r="B156" s="183"/>
-      <c r="C156" s="183"/>
-      <c r="D156" s="183"/>
-      <c r="E156" s="183"/>
-      <c r="F156" s="183"/>
-      <c r="G156" s="183"/>
-      <c r="H156" s="183"/>
+      <c r="A156" s="181"/>
+      <c r="B156" s="181"/>
+      <c r="C156" s="181"/>
+      <c r="D156" s="181"/>
+      <c r="E156" s="181"/>
+      <c r="F156" s="181"/>
+      <c r="G156" s="181"/>
+      <c r="H156" s="181"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="183"/>
-      <c r="B157" s="183"/>
-      <c r="C157" s="183"/>
-      <c r="D157" s="183"/>
-      <c r="E157" s="183"/>
-      <c r="F157" s="183"/>
-      <c r="G157" s="183"/>
-      <c r="H157" s="183"/>
+      <c r="A157" s="181"/>
+      <c r="B157" s="181"/>
+      <c r="C157" s="181"/>
+      <c r="D157" s="181"/>
+      <c r="E157" s="181"/>
+      <c r="F157" s="181"/>
+      <c r="G157" s="181"/>
+      <c r="H157" s="181"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="183"/>
-      <c r="B158" s="183"/>
-      <c r="C158" s="183"/>
-      <c r="D158" s="183"/>
-      <c r="E158" s="183"/>
-      <c r="F158" s="183"/>
-      <c r="G158" s="183"/>
-      <c r="H158" s="183"/>
+      <c r="A158" s="181"/>
+      <c r="B158" s="181"/>
+      <c r="C158" s="181"/>
+      <c r="D158" s="181"/>
+      <c r="E158" s="181"/>
+      <c r="F158" s="181"/>
+      <c r="G158" s="181"/>
+      <c r="H158" s="181"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="183"/>
-      <c r="B159" s="183"/>
-      <c r="C159" s="183"/>
-      <c r="D159" s="183"/>
-      <c r="E159" s="183"/>
-      <c r="F159" s="183"/>
-      <c r="G159" s="183"/>
-      <c r="H159" s="183"/>
+      <c r="A159" s="181"/>
+      <c r="B159" s="181"/>
+      <c r="C159" s="181"/>
+      <c r="D159" s="181"/>
+      <c r="E159" s="181"/>
+      <c r="F159" s="181"/>
+      <c r="G159" s="181"/>
+      <c r="H159" s="181"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="183"/>
-      <c r="B160" s="183"/>
-      <c r="C160" s="183"/>
-      <c r="D160" s="183"/>
-      <c r="E160" s="183"/>
-      <c r="F160" s="183"/>
-      <c r="G160" s="183"/>
-      <c r="H160" s="183"/>
+      <c r="A160" s="181"/>
+      <c r="B160" s="181"/>
+      <c r="C160" s="181"/>
+      <c r="D160" s="181"/>
+      <c r="E160" s="181"/>
+      <c r="F160" s="181"/>
+      <c r="G160" s="181"/>
+      <c r="H160" s="181"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="183"/>
-      <c r="B161" s="183"/>
-      <c r="C161" s="183"/>
-      <c r="D161" s="183"/>
-      <c r="E161" s="183"/>
-      <c r="F161" s="183"/>
-      <c r="G161" s="183"/>
-      <c r="H161" s="183"/>
+      <c r="A161" s="181"/>
+      <c r="B161" s="181"/>
+      <c r="C161" s="181"/>
+      <c r="D161" s="181"/>
+      <c r="E161" s="181"/>
+      <c r="F161" s="181"/>
+      <c r="G161" s="181"/>
+      <c r="H161" s="181"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="183"/>
-      <c r="B162" s="183"/>
-      <c r="C162" s="183"/>
-      <c r="D162" s="183"/>
-      <c r="E162" s="183"/>
-      <c r="F162" s="183"/>
-      <c r="G162" s="183"/>
-      <c r="H162" s="183"/>
+      <c r="A162" s="181"/>
+      <c r="B162" s="181"/>
+      <c r="C162" s="181"/>
+      <c r="D162" s="181"/>
+      <c r="E162" s="181"/>
+      <c r="F162" s="181"/>
+      <c r="G162" s="181"/>
+      <c r="H162" s="181"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="183"/>
-      <c r="B163" s="183"/>
-      <c r="C163" s="183"/>
-      <c r="D163" s="183"/>
-      <c r="E163" s="183"/>
-      <c r="F163" s="183"/>
-      <c r="G163" s="183"/>
-      <c r="H163" s="183"/>
+      <c r="A163" s="181"/>
+      <c r="B163" s="181"/>
+      <c r="C163" s="181"/>
+      <c r="D163" s="181"/>
+      <c r="E163" s="181"/>
+      <c r="F163" s="181"/>
+      <c r="G163" s="181"/>
+      <c r="H163" s="181"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="183"/>
-      <c r="B164" s="183"/>
-      <c r="C164" s="183"/>
-      <c r="D164" s="183"/>
-      <c r="E164" s="183"/>
-      <c r="F164" s="183"/>
-      <c r="G164" s="183"/>
-      <c r="H164" s="183"/>
+      <c r="A164" s="181"/>
+      <c r="B164" s="181"/>
+      <c r="C164" s="181"/>
+      <c r="D164" s="181"/>
+      <c r="E164" s="181"/>
+      <c r="F164" s="181"/>
+      <c r="G164" s="181"/>
+      <c r="H164" s="181"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="183"/>
-      <c r="B165" s="183"/>
-      <c r="C165" s="183"/>
-      <c r="D165" s="183"/>
-      <c r="E165" s="183"/>
-      <c r="F165" s="183"/>
-      <c r="G165" s="183"/>
-      <c r="H165" s="183"/>
+      <c r="A165" s="181"/>
+      <c r="B165" s="181"/>
+      <c r="C165" s="181"/>
+      <c r="D165" s="181"/>
+      <c r="E165" s="181"/>
+      <c r="F165" s="181"/>
+      <c r="G165" s="181"/>
+      <c r="H165" s="181"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="183"/>
-      <c r="B166" s="183"/>
-      <c r="C166" s="183"/>
-      <c r="D166" s="183"/>
-      <c r="E166" s="183"/>
-      <c r="F166" s="183"/>
-      <c r="G166" s="183"/>
-      <c r="H166" s="183"/>
+      <c r="A166" s="181"/>
+      <c r="B166" s="181"/>
+      <c r="C166" s="181"/>
+      <c r="D166" s="181"/>
+      <c r="E166" s="181"/>
+      <c r="F166" s="181"/>
+      <c r="G166" s="181"/>
+      <c r="H166" s="181"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="183"/>
-      <c r="B167" s="183"/>
-      <c r="C167" s="183"/>
-      <c r="D167" s="183"/>
-      <c r="E167" s="183"/>
-      <c r="F167" s="183"/>
-      <c r="G167" s="183"/>
-      <c r="H167" s="183"/>
+      <c r="A167" s="181"/>
+      <c r="B167" s="181"/>
+      <c r="C167" s="181"/>
+      <c r="D167" s="181"/>
+      <c r="E167" s="181"/>
+      <c r="F167" s="181"/>
+      <c r="G167" s="181"/>
+      <c r="H167" s="181"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="183"/>
-      <c r="B168" s="183"/>
-      <c r="C168" s="183"/>
-      <c r="D168" s="183"/>
-      <c r="E168" s="183"/>
-      <c r="F168" s="183"/>
-      <c r="G168" s="183"/>
-      <c r="H168" s="183"/>
+      <c r="A168" s="181"/>
+      <c r="B168" s="181"/>
+      <c r="C168" s="181"/>
+      <c r="D168" s="181"/>
+      <c r="E168" s="181"/>
+      <c r="F168" s="181"/>
+      <c r="G168" s="181"/>
+      <c r="H168" s="181"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="183"/>
-      <c r="B169" s="183"/>
-      <c r="C169" s="183"/>
-      <c r="D169" s="183"/>
-      <c r="E169" s="183"/>
-      <c r="F169" s="183"/>
-      <c r="G169" s="183"/>
-      <c r="H169" s="183"/>
+      <c r="A169" s="181"/>
+      <c r="B169" s="181"/>
+      <c r="C169" s="181"/>
+      <c r="D169" s="181"/>
+      <c r="E169" s="181"/>
+      <c r="F169" s="181"/>
+      <c r="G169" s="181"/>
+      <c r="H169" s="181"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="183"/>
-      <c r="B170" s="183"/>
-      <c r="C170" s="183"/>
-      <c r="D170" s="183"/>
-      <c r="E170" s="183"/>
-      <c r="F170" s="183"/>
-      <c r="G170" s="183"/>
-      <c r="H170" s="183"/>
+      <c r="A170" s="181"/>
+      <c r="B170" s="181"/>
+      <c r="C170" s="181"/>
+      <c r="D170" s="181"/>
+      <c r="E170" s="181"/>
+      <c r="F170" s="181"/>
+      <c r="G170" s="181"/>
+      <c r="H170" s="181"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="183"/>
-      <c r="B171" s="183"/>
-      <c r="C171" s="183"/>
-      <c r="D171" s="183"/>
-      <c r="E171" s="183"/>
-      <c r="F171" s="183"/>
-      <c r="G171" s="183"/>
-      <c r="H171" s="183"/>
+      <c r="A171" s="181"/>
+      <c r="B171" s="181"/>
+      <c r="C171" s="181"/>
+      <c r="D171" s="181"/>
+      <c r="E171" s="181"/>
+      <c r="F171" s="181"/>
+      <c r="G171" s="181"/>
+      <c r="H171" s="181"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="183"/>
-      <c r="B172" s="183"/>
-      <c r="C172" s="183"/>
-      <c r="D172" s="183"/>
-      <c r="E172" s="183"/>
-      <c r="F172" s="183"/>
-      <c r="G172" s="183"/>
-      <c r="H172" s="183"/>
+      <c r="A172" s="181"/>
+      <c r="B172" s="181"/>
+      <c r="C172" s="181"/>
+      <c r="D172" s="181"/>
+      <c r="E172" s="181"/>
+      <c r="F172" s="181"/>
+      <c r="G172" s="181"/>
+      <c r="H172" s="181"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B173" s="183"/>
-      <c r="C173" s="183"/>
-      <c r="D173" s="183"/>
-      <c r="E173" s="183"/>
-      <c r="F173" s="183"/>
-      <c r="G173" s="183"/>
-      <c r="H173" s="183"/>
+      <c r="B173" s="181"/>
+      <c r="C173" s="181"/>
+      <c r="D173" s="181"/>
+      <c r="E173" s="181"/>
+      <c r="F173" s="181"/>
+      <c r="G173" s="181"/>
+      <c r="H173" s="181"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B174" s="183"/>
-      <c r="C174" s="183"/>
-      <c r="D174" s="183"/>
-      <c r="E174" s="183"/>
-      <c r="F174" s="183"/>
-      <c r="G174" s="183"/>
-      <c r="H174" s="183"/>
+      <c r="B174" s="181"/>
+      <c r="C174" s="181"/>
+      <c r="D174" s="181"/>
+      <c r="E174" s="181"/>
+      <c r="F174" s="181"/>
+      <c r="G174" s="181"/>
+      <c r="H174" s="181"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B175" s="183"/>
-      <c r="C175" s="183"/>
-      <c r="D175" s="183"/>
-      <c r="E175" s="183"/>
-      <c r="F175" s="183"/>
-      <c r="G175" s="183"/>
-      <c r="H175" s="183"/>
+      <c r="B175" s="181"/>
+      <c r="C175" s="181"/>
+      <c r="D175" s="181"/>
+      <c r="E175" s="181"/>
+      <c r="F175" s="181"/>
+      <c r="G175" s="181"/>
+      <c r="H175" s="181"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B176" s="183"/>
-      <c r="C176" s="183"/>
-      <c r="D176" s="183"/>
-      <c r="E176" s="183"/>
-      <c r="F176" s="183"/>
-      <c r="G176" s="183"/>
-      <c r="H176" s="183"/>
+      <c r="B176" s="181"/>
+      <c r="C176" s="181"/>
+      <c r="D176" s="181"/>
+      <c r="E176" s="181"/>
+      <c r="F176" s="181"/>
+      <c r="G176" s="181"/>
+      <c r="H176" s="181"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B177" s="183"/>
-      <c r="C177" s="183"/>
-      <c r="D177" s="183"/>
-      <c r="E177" s="183"/>
-      <c r="F177" s="183"/>
-      <c r="G177" s="183"/>
-      <c r="H177" s="183"/>
+      <c r="B177" s="181"/>
+      <c r="C177" s="181"/>
+      <c r="D177" s="181"/>
+      <c r="E177" s="181"/>
+      <c r="F177" s="181"/>
+      <c r="G177" s="181"/>
+      <c r="H177" s="181"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B178" s="183"/>
-      <c r="C178" s="183"/>
-      <c r="D178" s="183"/>
-      <c r="E178" s="183"/>
-      <c r="F178" s="183"/>
-      <c r="G178" s="183"/>
-      <c r="H178" s="183"/>
+      <c r="B178" s="181"/>
+      <c r="C178" s="181"/>
+      <c r="D178" s="181"/>
+      <c r="E178" s="181"/>
+      <c r="F178" s="181"/>
+      <c r="G178" s="181"/>
+      <c r="H178" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6975,164 +6991,164 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="161"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="161"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="161"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="161"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="161"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="161"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="161"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="161"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
+      <c r="A15" s="159"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
-      <c r="B16" s="160"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="161"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7143,160 +7159,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EE1091-9F45-40A9-90F5-6AF0F1D8D5C5}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView topLeftCell="A19" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="11" style="66" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="66" customWidth="1"/>
-    <col min="4" max="10" width="11.6640625" style="66"/>
-    <col min="11" max="11" width="12" style="66" customWidth="1"/>
-    <col min="12" max="14" width="11.6640625" style="66"/>
-    <col min="16" max="16" width="4.6640625" style="66" customWidth="1"/>
-    <col min="17" max="29" width="11.6640625" style="66"/>
+    <col min="1" max="1" width="2.6640625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="11" style="64" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="64" customWidth="1"/>
+    <col min="4" max="10" width="11.6640625" style="64"/>
+    <col min="11" max="11" width="12" style="64" customWidth="1"/>
+    <col min="12" max="14" width="11.6640625" style="64"/>
+    <col min="16" max="16" width="4.6640625" style="64" customWidth="1"/>
+    <col min="17" max="29" width="11.6640625" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
       <c r="I1" s="5"/>
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
       <c r="M1" s="6"/>
       <c r="N1" s="7"/>
-      <c r="P1" s="230" t="s">
+      <c r="P1" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
       <c r="S1" s="3"/>
       <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="233"/>
-      <c r="AA1" s="233"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="234"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="163"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
-      <c r="P2" s="234" t="s">
+      <c r="P2" s="235" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
       <c r="S2" s="8"/>
       <c r="T2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="163"/>
+      <c r="Z2" s="161"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="239" t="s">
+      <c r="B3" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="239" t="s">
+      <c r="C3" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="217" t="s">
+      <c r="D3" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
       <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="237" t="s">
+      <c r="P3" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="239" t="s">
+      <c r="Q3" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="239" t="s">
+      <c r="R3" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="217" t="s">
+      <c r="S3" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="217"/>
+      <c r="T3" s="218"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="218"/>
+      <c r="X3" s="218"/>
+      <c r="Y3" s="218"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="218"/>
+      <c r="AB3" s="218"/>
       <c r="AC3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="238"/>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -7308,9 +7324,9 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="13"/>
-      <c r="P4" s="238"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="241"/>
+      <c r="R4" s="241"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -7324,11 +7340,11 @@
       <c r="AC4" s="13"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="241" t="s">
+      <c r="A5" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="242"/>
-      <c r="C5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="244"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -7340,11 +7356,11 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="13"/>
-      <c r="P5" s="218" t="s">
+      <c r="P5" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="221"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -7425,10 +7441,10 @@
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
-      <c r="AA7" s="165" t="s">
+      <c r="AA7" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="AB7" s="165" t="s">
+      <c r="AB7" s="163" t="s">
         <v>72</v>
       </c>
       <c r="AC7" s="21"/>
@@ -7501,8 +7517,8 @@
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="166"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
       <c r="AC9" s="13"/>
     </row>
     <row r="10" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7539,8 +7555,8 @@
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="166"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
       <c r="AC10" s="13"/>
     </row>
     <row r="11" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7560,8 +7576,8 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28" t="s">
+      <c r="M11" s="192"/>
+      <c r="N11" s="117" t="s">
         <v>27</v>
       </c>
       <c r="P11" s="15"/>
@@ -7579,17 +7595,17 @@
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
       <c r="Z11" s="27"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="167"/>
-      <c r="AC11" s="119"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="117"/>
     </row>
     <row r="12" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="221" t="s">
+      <c r="B12" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="221"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -7601,11 +7617,11 @@
       <c r="M12" s="1"/>
       <c r="N12" s="13"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="221" t="s">
+      <c r="Q12" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="221"/>
-      <c r="S12" s="29"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="28"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -7619,11 +7635,11 @@
     </row>
     <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="208" t="s">
+      <c r="B13" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="209"/>
+      <c r="D13" s="193" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="17"/>
@@ -7637,11 +7653,11 @@
       <c r="M13" s="17"/>
       <c r="N13" s="13"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="208" t="s">
+      <c r="Q13" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="208"/>
-      <c r="S13" s="120"/>
+      <c r="R13" s="209"/>
+      <c r="S13" s="118"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
@@ -7655,86 +7671,86 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="33" t="s">
+      <c r="H14" s="67"/>
+      <c r="I14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="69"/>
-      <c r="K14" s="222" t="s">
+      <c r="J14" s="67"/>
+      <c r="K14" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="223"/>
-      <c r="M14" s="71"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="69"/>
       <c r="N14" s="13"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="33" t="s">
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="W14" s="121"/>
-      <c r="X14" s="33" t="s">
+      <c r="W14" s="119"/>
+      <c r="X14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="222" t="s">
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" s="223"/>
-      <c r="AB14" s="122"/>
+      <c r="AA14" s="224"/>
+      <c r="AB14" s="120"/>
       <c r="AC14" s="13"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="33" t="s">
+      <c r="H15" s="68"/>
+      <c r="I15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="222" t="s">
+      <c r="J15" s="67"/>
+      <c r="K15" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="223"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="13"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="33" t="s">
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="W15" s="121"/>
-      <c r="X15" s="33" t="s">
+      <c r="W15" s="119"/>
+      <c r="X15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="222" t="s">
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="AA15" s="223"/>
-      <c r="AB15" s="121" t="s">
+      <c r="AA15" s="224"/>
+      <c r="AB15" s="119" t="s">
         <v>72</v>
       </c>
       <c r="AC15" s="13"/>
@@ -7743,7 +7759,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="35"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -7773,221 +7789,221 @@
       <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="224" t="s">
+      <c r="B17" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38" t="s">
         <v>72</v>
       </c>
       <c r="N17" s="13"/>
       <c r="P17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="224" t="s">
+      <c r="Q17" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="168" t="s">
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AB17" s="169" t="s">
+      <c r="AB17" s="167" t="s">
         <v>72</v>
       </c>
       <c r="AC17" s="13"/>
     </row>
     <row r="18" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="225"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="226"/>
+      <c r="C18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43" t="s">
         <v>72</v>
       </c>
       <c r="N18" s="13"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="225"/>
-      <c r="R18" s="42" t="s">
+      <c r="Q18" s="226"/>
+      <c r="R18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="170" t="s">
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB18" s="171" t="s">
+      <c r="AB18" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38" t="s">
         <v>72</v>
       </c>
       <c r="N19" s="13"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="224" t="s">
+      <c r="Q19" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="37" t="s">
+      <c r="R19" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="168" t="s">
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AB19" s="169" t="s">
+      <c r="AB19" s="167" t="s">
         <v>72</v>
       </c>
       <c r="AC19" s="13"/>
     </row>
     <row r="20" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="225"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="226"/>
+      <c r="C20" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43" t="s">
         <v>72</v>
       </c>
       <c r="N20" s="13"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="225"/>
-      <c r="R20" s="42" t="s">
+      <c r="Q20" s="226"/>
+      <c r="R20" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="170" t="s">
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB20" s="171" t="s">
+      <c r="AB20" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC20" s="13"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
-      <c r="B21" s="224" t="s">
+      <c r="B21" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38" t="s">
         <v>72</v>
       </c>
       <c r="N21" s="13"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="224" t="s">
+      <c r="Q21" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="37" t="s">
+      <c r="R21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="168" t="s">
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AB21" s="169" t="s">
+      <c r="AB21" s="167" t="s">
         <v>72</v>
       </c>
       <c r="AC21" s="13"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
-      <c r="B22" s="226"/>
+      <c r="B22" s="227"/>
       <c r="C22" s="26" t="s">
         <v>44</v>
       </c>
@@ -8000,12 +8016,12 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="45" t="s">
         <v>72</v>
       </c>
       <c r="N22" s="13"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="226"/>
+      <c r="Q22" s="227"/>
       <c r="R22" s="26" t="s">
         <v>44</v>
       </c>
@@ -8020,98 +8036,98 @@
       <c r="AA22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB22" s="172" t="s">
+      <c r="AB22" s="170" t="s">
         <v>72</v>
       </c>
       <c r="AC22" s="13"/>
     </row>
     <row r="23" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="225"/>
-      <c r="C23" s="42" t="s">
+      <c r="B23" s="226"/>
+      <c r="C23" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45" t="s">
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43" t="s">
         <v>72</v>
       </c>
       <c r="N23" s="13"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="225"/>
-      <c r="R23" s="42" t="s">
+      <c r="Q23" s="226"/>
+      <c r="R23" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="170" t="s">
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB23" s="171" t="s">
+      <c r="AB23" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC23" s="13"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
-      <c r="B24" s="224" t="s">
+      <c r="B24" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38" t="s">
         <v>72</v>
       </c>
       <c r="N24" s="13"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="224" t="s">
+      <c r="Q24" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="R24" s="37" t="s">
+      <c r="R24" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="168" t="s">
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AB24" s="169" t="s">
+      <c r="AB24" s="167" t="s">
         <v>72</v>
       </c>
       <c r="AC24" s="13"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
-      <c r="B25" s="226"/>
+      <c r="B25" s="227"/>
       <c r="C25" s="26" t="s">
         <v>48</v>
       </c>
@@ -8124,12 +8140,12 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="47" t="s">
+      <c r="M25" s="45" t="s">
         <v>72</v>
       </c>
       <c r="N25" s="13"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="226"/>
+      <c r="Q25" s="227"/>
       <c r="R25" s="26" t="s">
         <v>48</v>
       </c>
@@ -8144,96 +8160,96 @@
       <c r="AA25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB25" s="172" t="s">
+      <c r="AB25" s="170" t="s">
         <v>72</v>
       </c>
       <c r="AC25" s="13"/>
     </row>
     <row r="26" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="225"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="226"/>
+      <c r="C26" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="45" t="s">
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43" t="s">
         <v>72</v>
       </c>
       <c r="N26" s="13"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="225"/>
-      <c r="R26" s="42" t="s">
+      <c r="Q26" s="226"/>
+      <c r="R26" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="170" t="s">
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB26" s="171" t="s">
+      <c r="AB26" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC26" s="13"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38" t="s">
         <v>72</v>
       </c>
       <c r="N27" s="13"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="227" t="s">
+      <c r="Q27" s="228" t="s">
         <v>51</v>
       </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="168" t="s">
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AB27" s="169" t="s">
+      <c r="AB27" s="167" t="s">
         <v>72</v>
       </c>
       <c r="AC27" s="13"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -8248,12 +8264,12 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="47" t="s">
+      <c r="M28" s="45" t="s">
         <v>72</v>
       </c>
       <c r="N28" s="13"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="228"/>
+      <c r="Q28" s="229"/>
       <c r="R28" s="26" t="s">
         <v>52</v>
       </c>
@@ -8268,98 +8284,98 @@
       <c r="AA28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB28" s="172" t="s">
+      <c r="AB28" s="170" t="s">
         <v>72</v>
       </c>
       <c r="AC28" s="13"/>
     </row>
     <row r="29" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45" t="s">
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="43" t="s">
         <v>72</v>
       </c>
       <c r="N29" s="13"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="229"/>
-      <c r="R29" s="42" t="s">
+      <c r="Q29" s="230"/>
+      <c r="R29" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="170" t="s">
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB29" s="171" t="s">
+      <c r="AB29" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC29" s="13"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
-      <c r="B30" s="214" t="s">
+      <c r="B30" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="40" t="s">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="38" t="s">
         <v>72</v>
       </c>
       <c r="N30" s="13"/>
       <c r="P30" s="15"/>
-      <c r="Q30" s="214" t="s">
+      <c r="Q30" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="R30" s="37" t="s">
+      <c r="R30" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="168" t="s">
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="169" t="s">
+      <c r="AB30" s="167" t="s">
         <v>72</v>
       </c>
       <c r="AC30" s="13"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="215"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="26" t="s">
         <v>56</v>
       </c>
@@ -8372,12 +8388,12 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="47" t="s">
+      <c r="M31" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="N31" s="48"/>
+      <c r="N31" s="46"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="215"/>
+      <c r="Q31" s="216"/>
       <c r="R31" s="26" t="s">
         <v>56</v>
       </c>
@@ -8392,128 +8408,128 @@
       <c r="AA31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB31" s="172" t="s">
+      <c r="AB31" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="AC31" s="48"/>
+      <c r="AC31" s="46"/>
     </row>
     <row r="32" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="42" t="s">
+      <c r="B32" s="217"/>
+      <c r="C32" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45" t="s">
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43" t="s">
         <v>72</v>
       </c>
       <c r="N32" s="13"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="216"/>
-      <c r="R32" s="42" t="s">
+      <c r="Q32" s="217"/>
+      <c r="R32" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="170" t="s">
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AB32" s="171" t="s">
+      <c r="AB32" s="169" t="s">
         <v>72</v>
       </c>
       <c r="AC32" s="13"/>
     </row>
     <row r="33" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="209"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
       <c r="N33" s="13"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="208" t="s">
+      <c r="Q33" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="209"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
+      <c r="R33" s="210"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
       <c r="AC33" s="13"/>
     </row>
     <row r="34" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="208" t="s">
+      <c r="B34" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="208"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="28" t="s">
+      <c r="C34" s="209"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="117" t="s">
         <v>27</v>
       </c>
       <c r="P34" s="15"/>
-      <c r="Q34" s="208" t="s">
+      <c r="Q34" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="208"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="119"/>
+      <c r="R34" s="209"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="117"/>
     </row>
     <row r="35" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="208" t="s">
+      <c r="B35" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="209"/>
-      <c r="D35" s="29"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -8525,11 +8541,11 @@
       <c r="M35" s="1"/>
       <c r="N35" s="13"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="208" t="s">
+      <c r="Q35" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="R35" s="209"/>
-      <c r="S35" s="29"/>
+      <c r="R35" s="210"/>
+      <c r="S35" s="28"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -8543,11 +8559,11 @@
     </row>
     <row r="36" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="208" t="s">
+      <c r="B36" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="208"/>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="209"/>
+      <c r="D36" s="193" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="17"/>
@@ -8561,11 +8577,11 @@
       <c r="M36" s="17"/>
       <c r="N36" s="13"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="208" t="s">
+      <c r="Q36" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="R36" s="208"/>
-      <c r="S36" s="123"/>
+      <c r="R36" s="209"/>
+      <c r="S36" s="121"/>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
       <c r="V36" s="17"/>
@@ -8608,47 +8624,47 @@
       <c r="AC37" s="13"/>
     </row>
     <row r="38" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="28" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="52"/>
+      <c r="P38" s="50"/>
       <c r="Q38" s="16" t="s">
         <v>62</v>
       </c>
       <c r="R38" s="16"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="119"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="117"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="53"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -8660,27 +8676,27 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="13"/>
-      <c r="P39" s="52"/>
+      <c r="P39" s="50"/>
       <c r="Q39" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R39" s="53"/>
-      <c r="S39" s="124"/>
-      <c r="T39" s="124"/>
-      <c r="U39" s="124"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="124"/>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="124"/>
-      <c r="AA39" s="124"/>
-      <c r="AB39" s="124"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="122"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="122"/>
+      <c r="X39" s="122"/>
+      <c r="Y39" s="122"/>
+      <c r="Z39" s="122"/>
+      <c r="AA39" s="122"/>
+      <c r="AB39" s="122"/>
       <c r="AC39" s="13"/>
     </row>
     <row r="40" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -8692,9 +8708,9 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="10"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
@@ -8708,12 +8724,12 @@
       <c r="AC40" s="10"/>
     </row>
     <row r="41" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="210" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="211"/>
-      <c r="D41" s="56" t="s">
+      <c r="C41" s="212"/>
+      <c r="D41" s="54" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="9"/>
@@ -8724,18 +8740,18 @@
         <v>65</v>
       </c>
       <c r="J41" s="9"/>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="194" t="s">
         <v>66</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="10"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="210" t="s">
+      <c r="P41" s="52"/>
+      <c r="Q41" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="R41" s="211"/>
-      <c r="S41" s="56" t="s">
+      <c r="R41" s="212"/>
+      <c r="S41" s="54" t="s">
         <v>64</v>
       </c>
       <c r="T41" s="9"/>
@@ -8746,18 +8762,18 @@
         <v>65</v>
       </c>
       <c r="Y41" s="9"/>
-      <c r="Z41" s="125"/>
+      <c r="Z41" s="123"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="10"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="212" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="213"/>
-      <c r="D42" s="57"/>
+      <c r="C42" s="214"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -8768,12 +8784,12 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="10"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="212" t="s">
+      <c r="P42" s="52"/>
+      <c r="Q42" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="R42" s="213"/>
-      <c r="S42" s="57"/>
+      <c r="R42" s="214"/>
+      <c r="S42" s="55"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
@@ -8786,12 +8802,12 @@
       <c r="AC42" s="10"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="204" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="205"/>
-      <c r="D43" s="58">
+      <c r="C43" s="206"/>
+      <c r="D43" s="56">
         <v>1</v>
       </c>
       <c r="E43" s="9"/>
@@ -8804,12 +8820,12 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="10"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="204" t="s">
+      <c r="P43" s="52"/>
+      <c r="Q43" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="R43" s="205"/>
-      <c r="S43" s="58">
+      <c r="R43" s="206"/>
+      <c r="S43" s="56">
         <v>1</v>
       </c>
       <c r="T43" s="9"/>
@@ -8824,12 +8840,12 @@
       <c r="AC43" s="10"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="204" t="s">
+      <c r="A44" s="52"/>
+      <c r="B44" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="205"/>
-      <c r="D44" s="59">
+      <c r="C44" s="206"/>
+      <c r="D44" s="57">
         <v>2</v>
       </c>
       <c r="E44" s="9"/>
@@ -8842,12 +8858,12 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="10"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="204" t="s">
+      <c r="P44" s="52"/>
+      <c r="Q44" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="R44" s="205"/>
-      <c r="S44" s="59">
+      <c r="R44" s="206"/>
+      <c r="S44" s="57">
         <v>2</v>
       </c>
       <c r="T44" s="9"/>
@@ -8862,12 +8878,12 @@
       <c r="AC44" s="10"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="204" t="s">
+      <c r="A45" s="52"/>
+      <c r="B45" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="205"/>
-      <c r="D45" s="60">
+      <c r="C45" s="206"/>
+      <c r="D45" s="58">
         <v>3</v>
       </c>
       <c r="E45" s="9"/>
@@ -8879,13 +8895,13 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="61"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="204" t="s">
+      <c r="N45" s="59"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="R45" s="205"/>
-      <c r="S45" s="60">
+      <c r="R45" s="206"/>
+      <c r="S45" s="58">
         <v>3</v>
       </c>
       <c r="T45" s="9"/>
@@ -8897,15 +8913,15 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
-      <c r="AC45" s="61"/>
+      <c r="AC45" s="59"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="206" t="s">
+      <c r="A46" s="52"/>
+      <c r="B46" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="207"/>
-      <c r="D46" s="62">
+      <c r="C46" s="208"/>
+      <c r="D46" s="60">
         <v>4</v>
       </c>
       <c r="E46" s="9"/>
@@ -8917,13 +8933,13 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="61"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="206" t="s">
+      <c r="N46" s="59"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="R46" s="207"/>
-      <c r="S46" s="62">
+      <c r="R46" s="208"/>
+      <c r="S46" s="60">
         <v>4</v>
       </c>
       <c r="T46" s="9"/>
@@ -8935,44 +8951,44 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
-      <c r="AC46" s="61"/>
+      <c r="AC46" s="59"/>
     </row>
     <row r="47" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="65"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
-      <c r="S47" s="64"/>
-      <c r="T47" s="64"/>
-      <c r="U47" s="64"/>
-      <c r="V47" s="64"/>
-      <c r="W47" s="64"/>
-      <c r="X47" s="64"/>
-      <c r="Y47" s="64"/>
-      <c r="Z47" s="64"/>
-      <c r="AA47" s="64"/>
-      <c r="AB47" s="64"/>
-      <c r="AC47" s="65"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="63"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="63"/>
     </row>
     <row r="50" spans="6:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="F50" s="66" t="s">
+      <c r="F50" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="I50" s="67"/>
-      <c r="N50" s="68"/>
+      <c r="I50" s="65"/>
+      <c r="N50" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -9932,933 +9948,933 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11" style="66"/>
-    <col min="4" max="4" width="12" style="66" customWidth="1"/>
-    <col min="5" max="12" width="11.6640625" style="66"/>
-    <col min="14" max="25" width="11.6640625" style="66"/>
+    <col min="1" max="3" width="11" style="64"/>
+    <col min="4" max="4" width="12" style="64" customWidth="1"/>
+    <col min="5" max="12" width="11.6640625" style="64"/>
+    <col min="14" max="25" width="11.6640625" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="101"/>
-      <c r="N1" s="73" t="s">
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="99"/>
+      <c r="N1" s="71" t="s">
         <v>73</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="232"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="233"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="267"/>
-      <c r="W1" s="267"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="101"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="99"/>
     </row>
     <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="52" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="102"/>
-      <c r="N2" s="54" t="s">
+      <c r="I2" s="162"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="100"/>
+      <c r="N2" s="52" t="s">
         <v>103</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="V2" s="164"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="102"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="100"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="270" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="273" t="s">
+      <c r="B3" s="271"/>
+      <c r="C3" s="274" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="274"/>
-      <c r="N3" s="269" t="s">
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="275"/>
+      <c r="N3" s="270" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="270"/>
-      <c r="P3" s="273" t="s">
+      <c r="O3" s="271"/>
+      <c r="P3" s="274" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="274"/>
+      <c r="Q3" s="274"/>
+      <c r="R3" s="274"/>
+      <c r="S3" s="274"/>
+      <c r="T3" s="274"/>
+      <c r="U3" s="274"/>
+      <c r="V3" s="274"/>
+      <c r="W3" s="274"/>
+      <c r="X3" s="274"/>
+      <c r="Y3" s="275"/>
     </row>
     <row r="4" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="269"/>
-      <c r="B4" s="270"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="103"/>
-      <c r="N4" s="271"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="103"/>
+      <c r="A4" s="270"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="101"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="273"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="101"/>
     </row>
     <row r="5" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="259" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="259"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="112"/>
-      <c r="N5" s="275" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="110"/>
+      <c r="N5" s="276" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="276"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="137"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="135"/>
     </row>
     <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="258" t="s">
+      <c r="A6" s="259" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="259"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="113"/>
-      <c r="N6" s="275" t="s">
+      <c r="B6" s="260"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="111"/>
+      <c r="N6" s="276" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="276"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="139"/>
+      <c r="O6" s="277"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="137"/>
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="258" t="s">
+      <c r="A7" s="259" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="259"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="108"/>
-      <c r="N7" s="277" t="s">
+      <c r="B7" s="260"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="106"/>
+      <c r="N7" s="278" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="278"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="141"/>
+      <c r="O7" s="279"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="139"/>
     </row>
     <row r="8" spans="1:25" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="283" t="s">
+      <c r="A8" s="284" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="284"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="115"/>
-      <c r="N8" s="256" t="s">
+      <c r="B8" s="285"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="113"/>
+      <c r="N8" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="257"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="140" t="s">
+      <c r="O8" s="258"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="Y8" s="141" t="s">
+      <c r="Y8" s="139" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="258" t="s">
+      <c r="A9" s="259" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="259"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="116"/>
-      <c r="N9" s="258" t="s">
+      <c r="B9" s="260"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="114"/>
+      <c r="N9" s="259" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="259"/>
-      <c r="P9" s="87" t="s">
+      <c r="O9" s="260"/>
+      <c r="P9" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="88" t="s">
+      <c r="Q9" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="88" t="s">
+      <c r="R9" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="88" t="s">
+      <c r="S9" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="T9" s="88" t="s">
+      <c r="T9" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="88" t="s">
+      <c r="U9" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="V9" s="88" t="s">
+      <c r="V9" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="W9" s="88" t="s">
+      <c r="W9" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="X9" s="142" t="s">
+      <c r="X9" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="143" t="s">
+      <c r="Y9" s="141" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="285"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="260" t="s">
+      <c r="A10" s="286"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="261" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="260"/>
-      <c r="I10" s="260"/>
-      <c r="J10" s="260"/>
-      <c r="K10" s="260"/>
-      <c r="L10" s="261"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="260" t="s">
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
+      <c r="G10" s="261"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="261"/>
+      <c r="K10" s="261"/>
+      <c r="L10" s="262"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="261" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="260"/>
-      <c r="S10" s="260"/>
-      <c r="T10" s="260"/>
-      <c r="U10" s="260"/>
-      <c r="V10" s="260"/>
-      <c r="W10" s="260"/>
-      <c r="X10" s="260"/>
-      <c r="Y10" s="261"/>
+      <c r="Q10" s="261"/>
+      <c r="R10" s="261"/>
+      <c r="S10" s="261"/>
+      <c r="T10" s="261"/>
+      <c r="U10" s="261"/>
+      <c r="V10" s="261"/>
+      <c r="W10" s="261"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="262"/>
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="262" t="s">
+      <c r="A11" s="263" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="112"/>
-      <c r="N11" s="262" t="s">
+      <c r="C11" s="77"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="110"/>
+      <c r="N11" s="263" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="78" t="s">
+      <c r="O11" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="144" t="s">
+      <c r="P11" s="77"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="145" t="s">
+      <c r="Y11" s="143" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="263"/>
-      <c r="B12" s="78" t="s">
+      <c r="A12" s="264"/>
+      <c r="B12" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="113"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="78" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="111"/>
+      <c r="N12" s="264"/>
+      <c r="O12" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="146" t="s">
+      <c r="P12" s="87"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="Y12" s="147" t="s">
+      <c r="Y12" s="145" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="263"/>
-      <c r="B13" s="78" t="s">
+      <c r="A13" s="264"/>
+      <c r="B13" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="113"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="78" t="s">
+      <c r="C13" s="87"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="111"/>
+      <c r="N13" s="264"/>
+      <c r="O13" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="146" t="s">
+      <c r="P13" s="87"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="Y13" s="147" t="s">
+      <c r="Y13" s="145" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="263"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="264"/>
+      <c r="B14" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="113"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="78" t="s">
+      <c r="C14" s="87"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="111"/>
+      <c r="N14" s="264"/>
+      <c r="O14" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="146" t="s">
+      <c r="P14" s="87"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="Y14" s="147" t="s">
+      <c r="Y14" s="145" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="264"/>
-      <c r="B15" s="78" t="s">
+      <c r="A15" s="265"/>
+      <c r="B15" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="113"/>
-      <c r="N15" s="264"/>
-      <c r="O15" s="78" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="111"/>
+      <c r="N15" s="265"/>
+      <c r="O15" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="146" t="s">
+      <c r="P15" s="87"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="Y15" s="147" t="s">
+      <c r="Y15" s="145" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="258" t="s">
+      <c r="A16" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="259"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="113"/>
-      <c r="N16" s="258" t="s">
+      <c r="B16" s="260"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="111"/>
+      <c r="N16" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="259"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="146" t="s">
+      <c r="O16" s="260"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="Y16" s="147" t="s">
+      <c r="Y16" s="145" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="258" t="s">
+      <c r="A17" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="259"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="114"/>
-      <c r="N17" s="258" t="s">
+      <c r="B17" s="260"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="112"/>
+      <c r="N17" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="259"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="148" t="s">
+      <c r="O17" s="260"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="Y17" s="149" t="s">
+      <c r="Y17" s="147" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="281"/>
-      <c r="B18" s="282"/>
-      <c r="C18" s="252" t="s">
+      <c r="A18" s="282"/>
+      <c r="B18" s="283"/>
+      <c r="C18" s="253" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="252"/>
-      <c r="E18" s="252"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="252"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="252"/>
-      <c r="L18" s="253"/>
-      <c r="N18" s="54"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="253"/>
+      <c r="G18" s="253"/>
+      <c r="H18" s="253"/>
+      <c r="I18" s="253"/>
+      <c r="J18" s="253"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="254"/>
+      <c r="N18" s="52"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="252" t="s">
+      <c r="P18" s="253" t="s">
         <v>92</v>
       </c>
-      <c r="Q18" s="252"/>
-      <c r="R18" s="252"/>
-      <c r="S18" s="252"/>
-      <c r="T18" s="252"/>
-      <c r="U18" s="252"/>
-      <c r="V18" s="252"/>
-      <c r="W18" s="252"/>
-      <c r="X18" s="252"/>
-      <c r="Y18" s="253"/>
+      <c r="Q18" s="253"/>
+      <c r="R18" s="253"/>
+      <c r="S18" s="253"/>
+      <c r="T18" s="253"/>
+      <c r="U18" s="253"/>
+      <c r="V18" s="253"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="254"/>
     </row>
     <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="247" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="247"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="107"/>
-      <c r="N19" s="246" t="s">
+      <c r="B19" s="248"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="105"/>
+      <c r="N19" s="247" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="247"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="150" t="s">
+      <c r="O19" s="248"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="Y19" s="151" t="s">
+      <c r="Y19" s="149" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="246" t="s">
+      <c r="A20" s="247" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="247"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="108"/>
-      <c r="N20" s="246" t="s">
+      <c r="B20" s="248"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="106"/>
+      <c r="N20" s="247" t="s">
         <v>94</v>
       </c>
-      <c r="O20" s="247"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="152" t="s">
+      <c r="O20" s="248"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="Y20" s="153" t="s">
+      <c r="Y20" s="151" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="246" t="s">
+      <c r="A21" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="247"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="108"/>
-      <c r="N21" s="246" t="s">
+      <c r="B21" s="248"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="106"/>
+      <c r="N21" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="247"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="83"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="152" t="s">
+      <c r="O21" s="248"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="Y21" s="153" t="s">
+      <c r="Y21" s="151" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="246" t="s">
+      <c r="A22" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="247"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="108"/>
-      <c r="N22" s="246" t="s">
+      <c r="B22" s="248"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="106"/>
+      <c r="N22" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="O22" s="247"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="152" t="s">
+      <c r="O22" s="248"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="Y22" s="153" t="s">
+      <c r="Y22" s="151" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="109"/>
-      <c r="N23" s="92" t="s">
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="107"/>
+      <c r="N23" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="O23" s="93" t="s">
+      <c r="O23" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="155"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="152"/>
+      <c r="Y23" s="153"/>
     </row>
     <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="254" t="s">
+      <c r="A24" s="255" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="255"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="108"/>
-      <c r="N24" s="254" t="s">
+      <c r="B24" s="256"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="106"/>
+      <c r="N24" s="255" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="255"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="152" t="s">
+      <c r="O24" s="256"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="Y24" s="153" t="s">
+      <c r="Y24" s="151" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="248" t="s">
+      <c r="A25" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="249"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="108"/>
-      <c r="N25" s="246" t="s">
+      <c r="B25" s="250"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="106"/>
+      <c r="N25" s="247" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="247"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="152" t="s">
+      <c r="O25" s="248"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="Y25" s="153" t="s">
+      <c r="Y25" s="151" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="279" t="s">
+      <c r="A26" s="280" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="280"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="110"/>
-      <c r="N26" s="248" t="s">
+      <c r="B26" s="281"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="108"/>
+      <c r="N26" s="249" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="249"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="156" t="s">
+      <c r="O26" s="250"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="Y26" s="157" t="s">
+      <c r="Y26" s="155" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="83.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="250" t="s">
+      <c r="A27" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="265"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="111"/>
-      <c r="N27" s="250" t="s">
+      <c r="B27" s="266"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="109"/>
+      <c r="N27" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="251"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="158" t="s">
+      <c r="O27" s="252"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="Y27" s="159" t="s">
+      <c r="Y27" s="157" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="266"/>
-      <c r="B28" s="266"/>
+      <c r="A28" s="267"/>
+      <c r="B28" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -10926,47 +10942,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="185"/>
-    <col min="2" max="3" width="36.33203125" style="188" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="183"/>
+    <col min="2" max="3" width="36.33203125" style="186" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="288" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="287"/>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
+      <c r="A3" s="288"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="186"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
+      <c r="A4" s="184"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="185" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="188" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="188" t="s">
         <v>86</v>
       </c>
     </row>
@@ -11012,7 +11028,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADD94E2-FB59-6042-8742-8260D104F858}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006D53F4C8D732D844AE7D882D8C27E66C" ma:contentTypeVersion="18" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="70bbe916ee44c898308fc52b233fdc6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d274541-22b4-4212-af6c-71d9850896b1" xmlns:ns3="d699723c-6030-48dd-835b-9dac49e7a8e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e6162704bbcf8652c04252123e2ebc" ns2:_="" ns3:_="">
     <xsd:import namespace="2d274541-22b4-4212-af6c-71d9850896b1"/>
@@ -11267,27 +11334,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d699723c-6030-48dd-835b-9dac49e7a8e6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d274541-22b4-4212-af6c-71d9850896b1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
+    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE067A7-9A28-427F-B4BA-DF647AB143B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11304,23 +11370,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41795C53-3181-4C52-8680-4752CA0088F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DBE990-EB98-4F68-B739-71C82D62973A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d699723c-6030-48dd-835b-9dac49e7a8e6"/>
-    <ds:schemaRef ds:uri="2d274541-22b4-4212-af6c-71d9850896b1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
+++ b/SeaEco.Server/wwwroot/reports/Rapporter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tetianaverkhalantseva/RiderProjects/SeaEco/SeaEco.Server/wwwroot/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542D429-208D-3747-B16C-F9A2F53D29BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3868E3A-7B76-C042-8CEC-40227818CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21860" windowHeight="16620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="B1 Skjema" sheetId="3" r:id="rId4"/>
     <sheet name="B2 Skjema" sheetId="4" r:id="rId5"/>
     <sheet name="Bilder" sheetId="7" r:id="rId6"/>
-    <sheet name="pHEh" sheetId="2" r:id="rId7"/>
-    <sheet name="PhEh-Plot" sheetId="8" r:id="rId8"/>
+    <sheet name="PhEh-Plot" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="139">
-  <si>
-    <t>St.nr.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="135">
   <si>
     <t>Nordlig</t>
   </si>
@@ -55,9 +51,6 @@
   </si>
   <si>
     <t>Dybde (m)</t>
-  </si>
-  <si>
-    <t>Ant. forsøk på prøvetaking</t>
   </si>
   <si>
     <t>Hard (H)/ 
@@ -91,9 +84,6 @@
     <t>Poeng</t>
   </si>
   <si>
-    <t xml:space="preserve">Prøvenr. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Indeks: </t>
   </si>
   <si>
@@ -104,9 +94,6 @@
   </si>
   <si>
     <t>Dyr</t>
-  </si>
-  <si>
-    <t>Ja=0, Nei=1</t>
   </si>
   <si>
     <t>II</t>
@@ -145,9 +132,6 @@
     </r>
   </si>
   <si>
-    <t>fra fig. D1</t>
-  </si>
-  <si>
     <t>se neste side</t>
   </si>
   <si>
@@ -163,12 +147,6 @@
     <t>Sediment ºC:</t>
   </si>
   <si>
-    <t xml:space="preserve">pH-sjø: </t>
-  </si>
-  <si>
-    <t>Eh sjø:</t>
-  </si>
-  <si>
     <t>Ref.elektrode:</t>
   </si>
   <si>
@@ -178,69 +156,21 @@
     <t>Gassbobler</t>
   </si>
   <si>
-    <t>Ja=4</t>
-  </si>
-  <si>
-    <t>Nei=0</t>
-  </si>
-  <si>
     <t>Farge</t>
   </si>
   <si>
-    <t>Lys grå=0</t>
-  </si>
-  <si>
-    <t>Brun/svart=2</t>
-  </si>
-  <si>
     <t>Lukt</t>
   </si>
   <si>
-    <t>Ingen=0</t>
-  </si>
-  <si>
-    <t>Noe=2</t>
-  </si>
-  <si>
-    <t>Sterk=4</t>
-  </si>
-  <si>
     <t>Konsistens</t>
   </si>
   <si>
-    <t>Fast=0</t>
-  </si>
-  <si>
-    <t>Myk=2</t>
-  </si>
-  <si>
-    <t>Løs=4</t>
-  </si>
-  <si>
-    <t>&lt;1/4 =0</t>
-  </si>
-  <si>
     <t>Grabbvolum</t>
   </si>
   <si>
-    <t>1/4-3/4=1</t>
-  </si>
-  <si>
-    <t>&gt;3/4=2</t>
-  </si>
-  <si>
     <t>Tykkelse på slamlag</t>
   </si>
   <si>
-    <t>0-2 cm=0</t>
-  </si>
-  <si>
-    <t>2-8 cm =1</t>
-  </si>
-  <si>
-    <t>&gt;8 cm=2</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
@@ -292,15 +222,9 @@
     <t>del 1 av 2</t>
   </si>
   <si>
-    <t>ID.:</t>
-  </si>
-  <si>
     <t>Informasjon fra prøvepunkt</t>
   </si>
   <si>
-    <t>Prøvepunkter</t>
-  </si>
-  <si>
     <t>Posisjon                   N</t>
   </si>
   <si>
@@ -346,27 +270,9 @@
     <t>Bunndyrsanalyse</t>
   </si>
   <si>
-    <t>Pigghuder (ant)</t>
-  </si>
-  <si>
-    <t>Krepsdyr (ant)</t>
-  </si>
-  <si>
-    <t>Skjell (ant)</t>
-  </si>
-  <si>
-    <t>Børstemark (ant)</t>
-  </si>
-  <si>
     <t>Andre dyr</t>
   </si>
   <si>
-    <t>tot. ant.</t>
-  </si>
-  <si>
-    <t>Beggiota</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fôr </t>
   </si>
   <si>
@@ -379,25 +285,7 @@
     <t>del 2 av 2</t>
   </si>
   <si>
-    <t>Lokalitetsnr.:</t>
-  </si>
-  <si>
     <t>Beskrivelse</t>
-  </si>
-  <si>
-    <t>Antall stasjoner</t>
-  </si>
-  <si>
-    <t>Total stasjoner</t>
-  </si>
-  <si>
-    <t>St. med dyr</t>
-  </si>
-  <si>
-    <t>St. med pH/Eh</t>
-  </si>
-  <si>
-    <t>Total grabbhugg</t>
   </si>
   <si>
     <t xml:space="preserve">Andel </t>
@@ -434,9 +322,6 @@
     <t>Antall hardbunn</t>
   </si>
   <si>
-    <t>Totalt antall stajsoner</t>
-  </si>
-  <si>
     <t>Hardbunnsstasjoner</t>
   </si>
   <si>
@@ -476,13 +361,125 @@
     <t>Analyser</t>
   </si>
   <si>
-    <t>St. nr.</t>
-  </si>
-  <si>
     <t>Usilt</t>
   </si>
   <si>
     <t>BILDER AV PRØVENE</t>
+  </si>
+  <si>
+    <t>Stasjoner totalt</t>
+  </si>
+  <si>
+    <t>Antall grabbhugg</t>
+  </si>
+  <si>
+    <t>Stasjoner med dyr</t>
+  </si>
+  <si>
+    <t>Stasjoner med pH/Eh</t>
+  </si>
+  <si>
+    <t>Antall</t>
+  </si>
+  <si>
+    <t>Antall stajsoner</t>
+  </si>
+  <si>
+    <t>Ja = 0, Nei = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH sjø: </t>
+  </si>
+  <si>
+    <t>Eh sjø (mV):</t>
+  </si>
+  <si>
+    <t>Ja = 4</t>
+  </si>
+  <si>
+    <t>Nei = 0</t>
+  </si>
+  <si>
+    <t>Lys grå = 0</t>
+  </si>
+  <si>
+    <t>Brun/svart = 2</t>
+  </si>
+  <si>
+    <t>Ingen = 0</t>
+  </si>
+  <si>
+    <t>Noe = 2</t>
+  </si>
+  <si>
+    <t>Sterk = 4</t>
+  </si>
+  <si>
+    <t>Fast = 0</t>
+  </si>
+  <si>
+    <t>Myk = 2</t>
+  </si>
+  <si>
+    <t>Løs = 4</t>
+  </si>
+  <si>
+    <t>&lt;1/4 = 0</t>
+  </si>
+  <si>
+    <t>1/4-3/4 = 1</t>
+  </si>
+  <si>
+    <t>&gt;3/4 = 2</t>
+  </si>
+  <si>
+    <t>0-2 cm = 0</t>
+  </si>
+  <si>
+    <t>2-8 cm = 1</t>
+  </si>
+  <si>
+    <t>&gt;8 cm = 2</t>
+  </si>
+  <si>
+    <t>Tilstand gruppe III</t>
+  </si>
+  <si>
+    <t>Prøvenummer</t>
+  </si>
+  <si>
+    <t>fra fiigur D1</t>
+  </si>
+  <si>
+    <t>fra figur D1</t>
+  </si>
+  <si>
+    <t>Pigghuder (antall)</t>
+  </si>
+  <si>
+    <t>Krepsdyr (antall)</t>
+  </si>
+  <si>
+    <t>Skjell (antall)</t>
+  </si>
+  <si>
+    <t>Børstemark (antall)</t>
+  </si>
+  <si>
+    <t>totalt antall</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beggiatoa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Nova Cond"/>
+        <family val="2"/>
+      </rPr>
+      <t>sp.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -492,7 +489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,11 +664,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Nova Cond"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -755,6 +747,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Nova Cond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial Nova Cond"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2444,14 +2446,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="84" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2467,34 +2469,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2519,10 +2521,10 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2693,10 +2695,10 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2774,10 +2776,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2786,7 +2788,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4621,55 +4623,6 @@
         <a:xfrm>
           <a:off x="4913993" y="0"/>
           <a:ext cx="972910" cy="284842"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>473746</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Bilde 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD18BB9-A2EB-4F3F-8A63-09A44C481224}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8285847" cy="6565537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4947,10 +4900,10 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
@@ -4959,7 +4912,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B1" s="160"/>
       <c r="C1" s="130"/>
@@ -4971,7 +4924,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B2" s="195"/>
       <c r="C2" s="195"/>
@@ -4982,159 +4935,159 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="124" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B4" s="125" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="126" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B5" s="127"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="126" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B6" s="127"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="126" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B7" s="127"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="126" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B8" s="127"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="126" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B9" s="127"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="124" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="128" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B12" s="127"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="128" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B13" s="127"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="128" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B14" s="127"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="128" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B15" s="127"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="128" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B16" s="127"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="128" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B17" s="127"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="128" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B18" s="127"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="125" t="s">
-        <v>122</v>
-      </c>
       <c r="C20" s="125" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="128" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B21" s="127"/>
       <c r="C21" s="127"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="128" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B22" s="127"/>
       <c r="C22" s="127"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="128" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B23" s="127"/>
       <c r="C23" s="127"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="128" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B24" s="127"/>
       <c r="C24" s="127"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="124" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B26" s="125" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="128" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B27" s="127"/>
       <c r="C27" s="127"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="128" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B28" s="127"/>
       <c r="C28" s="127"/>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B29" s="127"/>
       <c r="C29" s="127"/>
@@ -5184,7 +5137,7 @@
     </row>
     <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="200" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B3" s="200"/>
       <c r="C3" s="200"/>
@@ -5207,12 +5160,12 @@
     <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="175" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B6" s="201"/>
       <c r="C6" s="201"/>
       <c r="D6" s="202" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E6" s="202"/>
       <c r="F6" s="203"/>
@@ -5221,12 +5174,12 @@
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="175" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B7" s="201"/>
       <c r="C7" s="201"/>
       <c r="D7" s="202" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="E7" s="202"/>
       <c r="F7" s="204"/>
@@ -5236,22 +5189,22 @@
     <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="177" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B9" s="178" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C9" s="196" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="D9" s="197"/>
       <c r="E9" s="197"/>
       <c r="F9" s="198"/>
       <c r="G9" s="178" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="H9" s="179" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6961,7 +6914,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6972,22 +6925,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7159,11 +7112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EE1091-9F45-40A9-90F5-6AF0F1D8D5C5}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="64" customWidth="1"/>
     <col min="2" max="2" width="11" style="64" customWidth="1"/>
@@ -7177,40 +7130,40 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="231" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="232"/>
       <c r="C1" s="232"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="233"/>
       <c r="G1" s="233"/>
       <c r="H1" s="233"/>
       <c r="I1" s="5"/>
       <c r="J1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K1" s="234"/>
       <c r="L1" s="234"/>
       <c r="M1" s="6"/>
       <c r="N1" s="7"/>
       <c r="P1" s="231" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="232"/>
       <c r="R1" s="232"/>
       <c r="S1" s="3"/>
       <c r="T1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U1" s="233"/>
       <c r="V1" s="233"/>
       <c r="W1" s="233"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z1" s="234"/>
       <c r="AA1" s="234"/>
@@ -7219,40 +7172,40 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="245" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="246"/>
       <c r="C2" s="246"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="237"/>
       <c r="G2" s="237"/>
       <c r="H2" s="237"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="161"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="P2" s="235" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="236"/>
       <c r="R2" s="236"/>
       <c r="S2" s="8"/>
       <c r="T2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U2" s="237"/>
       <c r="V2" s="237"/>
       <c r="W2" s="237"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z2" s="161"/>
       <c r="AA2" s="9"/>
@@ -7261,16 +7214,16 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="240" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="240" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="218" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="E3" s="218"/>
       <c r="F3" s="218"/>
@@ -7282,19 +7235,19 @@
       <c r="L3" s="218"/>
       <c r="M3" s="218"/>
       <c r="N3" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P3" s="238" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="240" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="240" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="240" t="s">
-        <v>14</v>
-      </c>
       <c r="S3" s="218" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="T3" s="218"/>
       <c r="U3" s="218"/>
@@ -7306,7 +7259,7 @@
       <c r="AA3" s="218"/>
       <c r="AB3" s="218"/>
       <c r="AC3" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -7341,7 +7294,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="242" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="243"/>
       <c r="C5" s="244"/>
@@ -7357,7 +7310,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="13"/>
       <c r="P5" s="219" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="220"/>
       <c r="R5" s="221"/>
@@ -7405,13 +7358,13 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -7425,13 +7378,13 @@
       <c r="M7" s="20"/>
       <c r="N7" s="21"/>
       <c r="P7" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
@@ -7442,10 +7395,10 @@
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="163" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB7" s="163" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC7" s="21"/>
     </row>
@@ -7481,13 +7434,13 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -7501,13 +7454,13 @@
       <c r="M9" s="24"/>
       <c r="N9" s="13"/>
       <c r="P9" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
@@ -7524,10 +7477,10 @@
     <row r="10" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -7542,10 +7495,10 @@
       <c r="N10" s="13"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
@@ -7562,10 +7515,10 @@
     <row r="11" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -7578,14 +7531,14 @@
       <c r="L11" s="27"/>
       <c r="M11" s="192"/>
       <c r="N11" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R11" s="26" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
@@ -7602,7 +7555,7 @@
     <row r="12" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="222" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" s="222"/>
       <c r="D12" s="28"/>
@@ -7618,7 +7571,7 @@
       <c r="N12" s="13"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="222" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R12" s="222"/>
       <c r="S12" s="28"/>
@@ -7636,11 +7589,11 @@
     <row r="13" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="209" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C13" s="209"/>
       <c r="D13" s="193" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -7654,7 +7607,7 @@
       <c r="N13" s="13"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="209" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="R13" s="209"/>
       <c r="S13" s="118"/>
@@ -7677,15 +7630,15 @@
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H14" s="67"/>
       <c r="I14" s="31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J14" s="67"/>
       <c r="K14" s="223" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L14" s="224"/>
       <c r="M14" s="69"/>
@@ -7697,15 +7650,15 @@
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
       <c r="V14" s="31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="W14" s="119"/>
       <c r="X14" s="31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y14" s="32"/>
       <c r="Z14" s="223" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AA14" s="224"/>
       <c r="AB14" s="120"/>
@@ -7719,15 +7672,15 @@
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="31" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="J15" s="67"/>
       <c r="K15" s="223" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L15" s="224"/>
       <c r="M15" s="70"/>
@@ -7739,19 +7692,19 @@
       <c r="T15" s="30"/>
       <c r="U15" s="30"/>
       <c r="V15" s="31" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="W15" s="119"/>
       <c r="X15" s="31" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="Y15" s="32"/>
       <c r="Z15" s="223" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA15" s="224"/>
       <c r="AB15" s="119" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC15" s="13"/>
     </row>
@@ -7787,13 +7740,13 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" s="225" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="37"/>
@@ -7805,17 +7758,17 @@
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="38" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N17" s="13"/>
       <c r="P17" s="15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="225" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
@@ -7826,10 +7779,10 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
       <c r="AA17" s="166" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB17" s="167" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC17" s="13"/>
     </row>
@@ -7837,7 +7790,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="226"/>
       <c r="C18" s="40" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="42"/>
@@ -7849,13 +7802,13 @@
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
       <c r="M18" s="43" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N18" s="13"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="226"/>
       <c r="R18" s="40" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
@@ -7866,20 +7819,20 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="168" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB18" s="169" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="225" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -7891,15 +7844,15 @@
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
       <c r="M19" s="38" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N19" s="13"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="225" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R19" s="35" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
@@ -7910,10 +7863,10 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="37"/>
       <c r="AA19" s="166" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB19" s="167" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC19" s="13"/>
     </row>
@@ -7921,7 +7874,7 @@
       <c r="A20" s="15"/>
       <c r="B20" s="226"/>
       <c r="C20" s="40" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -7933,13 +7886,13 @@
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
       <c r="M20" s="43" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N20" s="13"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="226"/>
       <c r="R20" s="40" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
@@ -7950,20 +7903,20 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
       <c r="AA20" s="168" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB20" s="169" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC20" s="13"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="225" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -7975,15 +7928,15 @@
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
       <c r="M21" s="38" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N21" s="13"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="225" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
@@ -7994,10 +7947,10 @@
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
       <c r="AA21" s="166" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB21" s="167" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC21" s="13"/>
     </row>
@@ -8005,7 +7958,7 @@
       <c r="A22" s="15"/>
       <c r="B22" s="227"/>
       <c r="C22" s="26" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -8017,13 +7970,13 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="45" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N22" s="13"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="227"/>
       <c r="R22" s="26" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
@@ -8034,10 +7987,10 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB22" s="170" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC22" s="13"/>
     </row>
@@ -8045,7 +7998,7 @@
       <c r="A23" s="15"/>
       <c r="B23" s="226"/>
       <c r="C23" s="40" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="42"/>
@@ -8057,13 +8010,13 @@
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
       <c r="M23" s="43" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N23" s="13"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="226"/>
       <c r="R23" s="40" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="S23" s="42"/>
       <c r="T23" s="42"/>
@@ -8074,20 +8027,20 @@
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="168" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB23" s="169" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC23" s="13"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="225" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
@@ -8099,15 +8052,15 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="38" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N24" s="13"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="225" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="R24" s="35" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
@@ -8118,10 +8071,10 @@
       <c r="Y24" s="37"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="166" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB24" s="167" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC24" s="13"/>
     </row>
@@ -8129,7 +8082,7 @@
       <c r="A25" s="15"/>
       <c r="B25" s="227"/>
       <c r="C25" s="26" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -8141,13 +8094,13 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="45" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N25" s="13"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="227"/>
       <c r="R25" s="26" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -8158,10 +8111,10 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB25" s="170" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC25" s="13"/>
     </row>
@@ -8169,7 +8122,7 @@
       <c r="A26" s="15"/>
       <c r="B26" s="226"/>
       <c r="C26" s="40" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
@@ -8181,13 +8134,13 @@
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
       <c r="M26" s="43" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N26" s="13"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="226"/>
       <c r="R26" s="40" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="S26" s="42"/>
       <c r="T26" s="42"/>
@@ -8198,10 +8151,10 @@
       <c r="Y26" s="42"/>
       <c r="Z26" s="42"/>
       <c r="AA26" s="168" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB26" s="169" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC26" s="13"/>
     </row>
@@ -8209,7 +8162,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="34"/>
       <c r="C27" s="35" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
@@ -8221,15 +8174,15 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
       <c r="M27" s="38" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N27" s="13"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="228" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
@@ -8240,20 +8193,20 @@
       <c r="Y27" s="37"/>
       <c r="Z27" s="37"/>
       <c r="AA27" s="166" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB27" s="167" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC27" s="13"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="44" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -8265,13 +8218,13 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="45" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N28" s="13"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="229"/>
       <c r="R28" s="26" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
@@ -8282,10 +8235,10 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB28" s="170" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC28" s="13"/>
     </row>
@@ -8293,7 +8246,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
@@ -8305,13 +8258,13 @@
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
       <c r="M29" s="43" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N29" s="13"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="230"/>
       <c r="R29" s="40" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="S29" s="42"/>
       <c r="T29" s="42"/>
@@ -8322,20 +8275,20 @@
       <c r="Y29" s="42"/>
       <c r="Z29" s="42"/>
       <c r="AA29" s="168" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB29" s="169" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC29" s="13"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="215" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
@@ -8347,15 +8300,15 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="38" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N30" s="13"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="215" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="R30" s="35" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
@@ -8366,10 +8319,10 @@
       <c r="Y30" s="37"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="166" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB30" s="167" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC30" s="13"/>
     </row>
@@ -8377,7 +8330,7 @@
       <c r="A31" s="15"/>
       <c r="B31" s="216"/>
       <c r="C31" s="26" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -8389,13 +8342,13 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="45" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N31" s="46"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="216"/>
       <c r="R31" s="26" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
@@ -8406,10 +8359,10 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB31" s="170" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC31" s="46"/>
     </row>
@@ -8417,7 +8370,7 @@
       <c r="A32" s="15"/>
       <c r="B32" s="217"/>
       <c r="C32" s="40" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -8429,13 +8382,13 @@
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
       <c r="M32" s="43" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N32" s="13"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="217"/>
       <c r="R32" s="40" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -8446,17 +8399,17 @@
       <c r="Y32" s="42"/>
       <c r="Z32" s="42"/>
       <c r="AA32" s="168" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AB32" s="169" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AC32" s="13"/>
     </row>
     <row r="33" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="209" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C33" s="210"/>
       <c r="D33" s="47"/>
@@ -8472,7 +8425,7 @@
       <c r="N33" s="13"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="209" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="R33" s="210"/>
       <c r="S33" s="47"/>
@@ -8490,7 +8443,7 @@
     <row r="34" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="209" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C34" s="209"/>
       <c r="D34" s="48"/>
@@ -8504,11 +8457,11 @@
       <c r="L34" s="48"/>
       <c r="M34" s="49"/>
       <c r="N34" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P34" s="15"/>
       <c r="Q34" s="209" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="R34" s="209"/>
       <c r="S34" s="48"/>
@@ -8526,7 +8479,7 @@
     <row r="35" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="209" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C35" s="210"/>
       <c r="D35" s="28"/>
@@ -8542,7 +8495,7 @@
       <c r="N35" s="13"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="209" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="R35" s="210"/>
       <c r="S35" s="28"/>
@@ -8560,11 +8513,11 @@
     <row r="36" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="209" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C36" s="209"/>
       <c r="D36" s="193" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -8578,7 +8531,7 @@
       <c r="N36" s="13"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="209" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="R36" s="209"/>
       <c r="S36" s="121"/>
@@ -8626,7 +8579,7 @@
     <row r="38" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
       <c r="B38" s="16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="48"/>
@@ -8640,11 +8593,11 @@
       <c r="L38" s="48"/>
       <c r="M38" s="49"/>
       <c r="N38" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P38" s="50"/>
       <c r="Q38" s="16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="R38" s="16"/>
       <c r="S38" s="48"/>
@@ -8662,7 +8615,7 @@
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
       <c r="B39" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C39" s="51"/>
       <c r="D39" s="1"/>
@@ -8678,7 +8631,7 @@
       <c r="N39" s="13"/>
       <c r="P39" s="50"/>
       <c r="Q39" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="R39" s="51"/>
       <c r="S39" s="122"/>
@@ -8726,40 +8679,40 @@
     <row r="41" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="52"/>
       <c r="B41" s="211" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C41" s="212"/>
       <c r="D41" s="54" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="194" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="10"/>
       <c r="P41" s="52"/>
       <c r="Q41" s="211" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="R41" s="212"/>
       <c r="S41" s="54" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="123"/>
@@ -8770,7 +8723,7 @@
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="52"/>
       <c r="B42" s="213" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C42" s="214"/>
       <c r="D42" s="55"/>
@@ -8786,7 +8739,7 @@
       <c r="N42" s="10"/>
       <c r="P42" s="52"/>
       <c r="Q42" s="213" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="R42" s="214"/>
       <c r="S42" s="55"/>
@@ -8804,7 +8757,7 @@
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="52"/>
       <c r="B43" s="205" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C43" s="206"/>
       <c r="D43" s="56">
@@ -8822,7 +8775,7 @@
       <c r="N43" s="10"/>
       <c r="P43" s="52"/>
       <c r="Q43" s="205" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="R43" s="206"/>
       <c r="S43" s="56">
@@ -8842,7 +8795,7 @@
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="52"/>
       <c r="B44" s="205" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C44" s="206"/>
       <c r="D44" s="57">
@@ -8860,7 +8813,7 @@
       <c r="N44" s="10"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="205" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="R44" s="206"/>
       <c r="S44" s="57">
@@ -8880,7 +8833,7 @@
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="52"/>
       <c r="B45" s="205" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C45" s="206"/>
       <c r="D45" s="58">
@@ -8898,7 +8851,7 @@
       <c r="N45" s="59"/>
       <c r="P45" s="52"/>
       <c r="Q45" s="205" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="R45" s="206"/>
       <c r="S45" s="58">
@@ -8918,7 +8871,7 @@
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="52"/>
       <c r="B46" s="207" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C46" s="208"/>
       <c r="D46" s="60">
@@ -8936,7 +8889,7 @@
       <c r="N46" s="59"/>
       <c r="P46" s="52"/>
       <c r="Q46" s="207" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="R46" s="208"/>
       <c r="S46" s="60">
@@ -8985,7 +8938,7 @@
     </row>
     <row r="50" spans="6:14" ht="20" x14ac:dyDescent="0.25">
       <c r="F50" s="64" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I50" s="65"/>
       <c r="N50" s="66"/>
@@ -9942,11 +9895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C7B2D4-D38D-4D01-9B83-C70548CD7D94}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="S1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26:O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11" style="64"/>
     <col min="4" max="4" width="12" style="64" customWidth="1"/>
@@ -9956,36 +9909,36 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="233"/>
       <c r="E1" s="233"/>
       <c r="F1" s="233"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1" s="268"/>
       <c r="J1" s="268"/>
       <c r="K1" s="72"/>
       <c r="L1" s="99"/>
       <c r="N1" s="71" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q1" s="233"/>
       <c r="R1" s="233"/>
       <c r="S1" s="233"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V1" s="268"/>
       <c r="W1" s="268"/>
@@ -9994,36 +9947,36 @@
     </row>
     <row r="2" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="269"/>
       <c r="E2" s="269"/>
       <c r="F2" s="269"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I2" s="162"/>
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="100"/>
       <c r="N2" s="52" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="269"/>
       <c r="R2" s="269"/>
       <c r="S2" s="269"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="V2" s="162"/>
       <c r="W2" s="73"/>
@@ -10032,11 +9985,11 @@
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="270" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B3" s="271"/>
       <c r="C3" s="274" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D3" s="274"/>
       <c r="E3" s="274"/>
@@ -10048,11 +10001,11 @@
       <c r="K3" s="274"/>
       <c r="L3" s="275"/>
       <c r="N3" s="270" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="O3" s="271"/>
       <c r="P3" s="274" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Q3" s="274"/>
       <c r="R3" s="274"/>
@@ -10092,7 +10045,7 @@
     </row>
     <row r="5" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B5" s="260"/>
       <c r="C5" s="77"/>
@@ -10106,7 +10059,7 @@
       <c r="K5" s="79"/>
       <c r="L5" s="110"/>
       <c r="N5" s="276" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="O5" s="277"/>
       <c r="P5" s="102"/>
@@ -10122,7 +10075,7 @@
     </row>
     <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B6" s="260"/>
       <c r="C6" s="80"/>
@@ -10136,7 +10089,7 @@
       <c r="K6" s="82"/>
       <c r="L6" s="111"/>
       <c r="N6" s="276" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="O6" s="277"/>
       <c r="P6" s="84"/>
@@ -10152,7 +10105,7 @@
     </row>
     <row r="7" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B7" s="260"/>
       <c r="C7" s="80"/>
@@ -10166,7 +10119,7 @@
       <c r="K7" s="81"/>
       <c r="L7" s="106"/>
       <c r="N7" s="278" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="O7" s="279"/>
       <c r="P7" s="84"/>
@@ -10182,7 +10135,7 @@
     </row>
     <row r="8" spans="1:25" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="284" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B8" s="285"/>
       <c r="C8" s="83"/>
@@ -10196,7 +10149,7 @@
       <c r="K8" s="84"/>
       <c r="L8" s="113"/>
       <c r="N8" s="257" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="O8" s="258"/>
       <c r="P8" s="83"/>
@@ -10208,15 +10161,15 @@
       <c r="V8" s="84"/>
       <c r="W8" s="84"/>
       <c r="X8" s="138" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y8" s="139" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="259" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B9" s="260"/>
       <c r="C9" s="85"/>
@@ -10230,45 +10183,45 @@
       <c r="K9" s="86"/>
       <c r="L9" s="114"/>
       <c r="N9" s="259" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="O9" s="260"/>
       <c r="P9" s="85" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="86" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="R9" s="86" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="S9" s="86" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="T9" s="86" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="U9" s="86" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="V9" s="86" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="W9" s="86" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="X9" s="140" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y9" s="141" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="286"/>
       <c r="B10" s="287"/>
       <c r="C10" s="261" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D10" s="261"/>
       <c r="E10" s="261"/>
@@ -10282,7 +10235,7 @@
       <c r="N10" s="115"/>
       <c r="O10" s="116"/>
       <c r="P10" s="261" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="261"/>
       <c r="R10" s="261"/>
@@ -10296,10 +10249,10 @@
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="263" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="79"/>
@@ -10312,10 +10265,10 @@
       <c r="K11" s="79"/>
       <c r="L11" s="110"/>
       <c r="N11" s="263" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="O11" s="76" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="P11" s="77"/>
       <c r="Q11" s="79"/>
@@ -10326,16 +10279,16 @@
       <c r="V11" s="79"/>
       <c r="W11" s="79"/>
       <c r="X11" s="142" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y11" s="143" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="264"/>
       <c r="B12" s="76" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C12" s="87"/>
       <c r="D12" s="82"/>
@@ -10349,7 +10302,7 @@
       <c r="L12" s="111"/>
       <c r="N12" s="264"/>
       <c r="O12" s="76" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="P12" s="87"/>
       <c r="Q12" s="82"/>
@@ -10360,16 +10313,16 @@
       <c r="V12" s="82"/>
       <c r="W12" s="82"/>
       <c r="X12" s="144" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y12" s="145" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="264"/>
       <c r="B13" s="76" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C13" s="87"/>
       <c r="D13" s="82"/>
@@ -10383,7 +10336,7 @@
       <c r="L13" s="111"/>
       <c r="N13" s="264"/>
       <c r="O13" s="76" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="P13" s="87"/>
       <c r="Q13" s="82"/>
@@ -10394,16 +10347,16 @@
       <c r="V13" s="82"/>
       <c r="W13" s="82"/>
       <c r="X13" s="144" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y13" s="145" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="264"/>
       <c r="B14" s="76" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C14" s="87"/>
       <c r="D14" s="82"/>
@@ -10417,7 +10370,7 @@
       <c r="L14" s="111"/>
       <c r="N14" s="264"/>
       <c r="O14" s="76" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="P14" s="87"/>
       <c r="Q14" s="82"/>
@@ -10428,16 +10381,16 @@
       <c r="V14" s="82"/>
       <c r="W14" s="82"/>
       <c r="X14" s="144" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y14" s="145" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="265"/>
       <c r="B15" s="76" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C15" s="87"/>
       <c r="D15" s="82"/>
@@ -10451,7 +10404,7 @@
       <c r="L15" s="111"/>
       <c r="N15" s="265"/>
       <c r="O15" s="76" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="P15" s="87"/>
       <c r="Q15" s="82"/>
@@ -10462,15 +10415,15 @@
       <c r="V15" s="82"/>
       <c r="W15" s="82"/>
       <c r="X15" s="144" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y15" s="145" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="259" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B16" s="260"/>
       <c r="C16" s="87"/>
@@ -10484,7 +10437,7 @@
       <c r="K16" s="82"/>
       <c r="L16" s="111"/>
       <c r="N16" s="259" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="O16" s="260"/>
       <c r="P16" s="87"/>
@@ -10496,15 +10449,15 @@
       <c r="V16" s="82"/>
       <c r="W16" s="82"/>
       <c r="X16" s="144" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y16" s="145" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="259" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B17" s="260"/>
       <c r="C17" s="88"/>
@@ -10518,7 +10471,7 @@
       <c r="K17" s="89"/>
       <c r="L17" s="112"/>
       <c r="N17" s="259" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="O17" s="260"/>
       <c r="P17" s="88"/>
@@ -10530,17 +10483,17 @@
       <c r="V17" s="89"/>
       <c r="W17" s="89"/>
       <c r="X17" s="146" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y17" s="147" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="282"/>
       <c r="B18" s="283"/>
       <c r="C18" s="253" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D18" s="253"/>
       <c r="E18" s="253"/>
@@ -10554,7 +10507,7 @@
       <c r="N18" s="52"/>
       <c r="O18" s="9"/>
       <c r="P18" s="253" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="253"/>
       <c r="R18" s="253"/>
@@ -10568,7 +10521,7 @@
     </row>
     <row r="19" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="247" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B19" s="248"/>
       <c r="C19" s="77"/>
@@ -10582,7 +10535,7 @@
       <c r="K19" s="92"/>
       <c r="L19" s="105"/>
       <c r="N19" s="247" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="O19" s="248"/>
       <c r="P19" s="77"/>
@@ -10594,15 +10547,15 @@
       <c r="V19" s="92"/>
       <c r="W19" s="92"/>
       <c r="X19" s="148" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y19" s="149" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="247" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B20" s="248"/>
       <c r="C20" s="87"/>
@@ -10616,7 +10569,7 @@
       <c r="K20" s="81"/>
       <c r="L20" s="106"/>
       <c r="N20" s="247" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="O20" s="248"/>
       <c r="P20" s="87"/>
@@ -10628,15 +10581,15 @@
       <c r="V20" s="81"/>
       <c r="W20" s="81"/>
       <c r="X20" s="150" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y20" s="151" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="247" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B21" s="248"/>
       <c r="C21" s="87"/>
@@ -10650,7 +10603,7 @@
       <c r="K21" s="81"/>
       <c r="L21" s="106"/>
       <c r="N21" s="247" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="O21" s="248"/>
       <c r="P21" s="87"/>
@@ -10662,15 +10615,15 @@
       <c r="V21" s="81"/>
       <c r="W21" s="81"/>
       <c r="X21" s="150" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y21" s="151" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="247" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B22" s="248"/>
       <c r="C22" s="87"/>
@@ -10684,7 +10637,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="106"/>
       <c r="N22" s="247" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="O22" s="248"/>
       <c r="P22" s="87"/>
@@ -10696,18 +10649,18 @@
       <c r="V22" s="81"/>
       <c r="W22" s="81"/>
       <c r="X22" s="150" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y22" s="151" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C23" s="93"/>
       <c r="D23" s="94"/>
@@ -10720,10 +10673,10 @@
       <c r="K23" s="94"/>
       <c r="L23" s="107"/>
       <c r="N23" s="90" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="O23" s="91" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="P23" s="93"/>
       <c r="Q23" s="94"/>
@@ -10738,7 +10691,7 @@
     </row>
     <row r="24" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="255" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B24" s="256"/>
       <c r="C24" s="87"/>
@@ -10752,7 +10705,7 @@
       <c r="K24" s="81"/>
       <c r="L24" s="106"/>
       <c r="N24" s="255" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="O24" s="256"/>
       <c r="P24" s="87"/>
@@ -10764,15 +10717,15 @@
       <c r="V24" s="81"/>
       <c r="W24" s="81"/>
       <c r="X24" s="150" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y24" s="151" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="249" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B25" s="250"/>
       <c r="C25" s="87"/>
@@ -10786,7 +10739,7 @@
       <c r="K25" s="81"/>
       <c r="L25" s="106"/>
       <c r="N25" s="247" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="O25" s="248"/>
       <c r="P25" s="87"/>
@@ -10798,15 +10751,15 @@
       <c r="V25" s="81"/>
       <c r="W25" s="81"/>
       <c r="X25" s="150" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y25" s="151" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="280" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B26" s="281"/>
       <c r="C26" s="95"/>
@@ -10820,7 +10773,7 @@
       <c r="K26" s="96"/>
       <c r="L26" s="108"/>
       <c r="N26" s="249" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="O26" s="250"/>
       <c r="P26" s="95"/>
@@ -10832,15 +10785,15 @@
       <c r="V26" s="96"/>
       <c r="W26" s="96"/>
       <c r="X26" s="154" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y26" s="155" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="83.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="251" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B27" s="266"/>
       <c r="C27" s="97"/>
@@ -10854,7 +10807,7 @@
       <c r="K27" s="98"/>
       <c r="L27" s="109"/>
       <c r="N27" s="251" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="O27" s="252"/>
       <c r="P27" s="98"/>
@@ -10866,10 +10819,10 @@
       <c r="V27" s="98"/>
       <c r="W27" s="98"/>
       <c r="X27" s="156" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y27" s="157" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
@@ -10937,10 +10890,10 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="24" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="183"/>
     <col min="2" max="3" width="36.33203125" style="186" customWidth="1"/>
@@ -10950,7 +10903,7 @@
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="288" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="B2" s="288"/>
       <c r="C2" s="288"/>
@@ -10977,13 +10930,13 @@
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="185" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B5" s="188" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="281" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11014,44 +10967,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0128B0-B87E-4E33-8001-348F9AE9F653}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADD94E2-FB59-6042-8742-8260D104F858}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
